--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docker開発環境\onLineDatingWithSportsApp\src\core\_sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFB971-D016-4AC8-A369-38DDC8F0E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E9CFB971-D016-4AC8-A369-38DDC8F0E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B19215-9159-48C0-A56E-4F5949005703}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="3" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="games" sheetId="20" r:id="rId18"/>
     <sheet name="game_scores" sheetId="23" r:id="rId19"/>
     <sheet name="game_batting_results" sheetId="24" r:id="rId20"/>
-    <sheet name="game_throwing_results" sheetId="25" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId21"/>
+    <sheet name="game_throwing_results" sheetId="25" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="285">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -1393,6 +1394,295 @@
   </si>
   <si>
     <t>■game_throwing_results</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案1</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1球ずつ</t>
+    <rPh sb="1" eb="2">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1打席ずつ</t>
+    <rPh sb="1" eb="3">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大体1試合に150球/人として、約300レコード/試合</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最小27アウト x 2 =54/試合レコード</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人当たり何球投げるか、最大20球としたときにレコードのカラム数が多い</t>
+    <rPh sb="1" eb="3">
+      <t>ニンア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナンキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム例</t>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合id</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合に登録された選手</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_players_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball2</t>
+  </si>
+  <si>
+    <t>ball3</t>
+  </si>
+  <si>
+    <t>ball4</t>
+  </si>
+  <si>
+    <t>ball5</t>
+  </si>
+  <si>
+    <t>ball6</t>
+  </si>
+  <si>
+    <t>ball7</t>
+  </si>
+  <si>
+    <t>ball8</t>
+  </si>
+  <si>
+    <t>ball9</t>
+  </si>
+  <si>
+    <t>ball10</t>
+  </si>
+  <si>
+    <t>ball11</t>
+  </si>
+  <si>
+    <t>ball12</t>
+  </si>
+  <si>
+    <t>ball13</t>
+  </si>
+  <si>
+    <t>ball14</t>
+  </si>
+  <si>
+    <t>ball15</t>
+  </si>
+  <si>
+    <t>ball16</t>
+  </si>
+  <si>
+    <t>ball17</t>
+  </si>
+  <si>
+    <t>ball18</t>
+  </si>
+  <si>
+    <t>ball19</t>
+  </si>
+  <si>
+    <t>ball20</t>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者N</t>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回id</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者id</t>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル2</t>
+  </si>
+  <si>
+    <t>テーブル3</t>
+  </si>
+  <si>
+    <t>テーブル4</t>
+  </si>
+  <si>
+    <t>勝敗</t>
+    <rPh sb="0" eb="2">
+      <t>ショウハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2184,8 +2474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14409420" y="9478643"/>
-          <a:ext cx="1922145" cy="309373"/>
+          <a:off x="14411325" y="9947273"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2310,8 +2600,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10467655"/>
-          <a:ext cx="1920240" cy="309373"/>
+          <a:off x="13382625" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2436,8 +2726,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14428470" y="11466195"/>
-          <a:ext cx="1922145" cy="309373"/>
+          <a:off x="14430375" y="12030075"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2575,8 +2865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8237220"/>
-          <a:ext cx="4006215" cy="618934"/>
+          <a:off x="13363575" y="8639175"/>
+          <a:ext cx="4010025" cy="657034"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -2928,8 +3218,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7113270"/>
-          <a:ext cx="4006215" cy="795148"/>
+          <a:off x="13315950" y="7467600"/>
+          <a:ext cx="4010025" cy="833248"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -3330,8 +3620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15436215" y="10467655"/>
-          <a:ext cx="1924050" cy="309373"/>
+          <a:off x="15440025" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -3647,8 +3937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="12352020"/>
-          <a:ext cx="2811780" cy="864122"/>
+          <a:off x="1562100" y="12963525"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -3873,8 +4163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1531620" y="13514070"/>
-          <a:ext cx="2811780" cy="864122"/>
+          <a:off x="1533525" y="14182725"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4099,8 +4389,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1531620" y="14542770"/>
-          <a:ext cx="2811780" cy="873647"/>
+          <a:off x="1533525" y="15268575"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4330,8 +4620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1550670" y="15647670"/>
-          <a:ext cx="3538985" cy="864122"/>
+          <a:off x="1552575" y="16421100"/>
+          <a:ext cx="3537080" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -4613,8 +4903,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="16657320"/>
-          <a:ext cx="2811780" cy="873647"/>
+          <a:off x="1562100" y="17487900"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4909,8 +5199,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="17676495"/>
-          <a:ext cx="2949813" cy="864122"/>
+          <a:off x="1562100" y="18554700"/>
+          <a:ext cx="2947908" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -7706,7 +7996,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7725,15 +8015,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -8141,15 +8431,15 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -8603,15 +8893,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -8921,15 +9211,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9245,15 +9535,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9519,15 +9809,15 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9814,15 +10104,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10131,15 +10421,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10448,15 +10738,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10862,15 +11152,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11287,24 +11577,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.09765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.09765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.09765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="18.600000000000001">
+    <row r="2" spans="2:21" ht="19.5">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11966,19 +12256,19 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12366,25 +12656,357 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6843762A-F974-4D51-923E-CAE778A49C26}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="C6:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="E10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" t="s">
+        <v>279</v>
+      </c>
+      <c r="J16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H17" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" t="s">
+        <v>282</v>
+      </c>
+      <c r="I20" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="E21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="E23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="E24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="E25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="E26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="E28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="E29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="E30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="E31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="E32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C99A5-61F1-4A04-84F0-5CA73117523A}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12771,7 +13393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A97445A-BE4A-470A-B4EC-9C0CB4827191}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12779,7 +13401,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -12798,14 +13420,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.69921875" style="15"/>
-    <col min="3" max="3" width="24.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="15"/>
+    <col min="1" max="2" width="8.75" style="15"/>
+    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -12979,15 +13601,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13330,15 +13952,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13644,15 +14266,15 @@
       <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14268,15 +14890,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14696,15 +15318,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14960,15 +15582,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{E9CFB971-D016-4AC8-A369-38DDC8F0E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B19215-9159-48C0-A56E-4F5949005703}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2E177-8D7E-434E-9268-0A67946499FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35400" yWindow="500" windowWidth="34180" windowHeight="17760" tabRatio="839" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="423">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -1292,14 +1292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>start_inning_out_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end_inning_out_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■game_players</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1606,28 +1598,6 @@
     <t>ball20</t>
   </si>
   <si>
-    <t>スコア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>打者N</t>
-    <rPh sb="0" eb="2">
-      <t>ダシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回数</t>
-    <rPh sb="0" eb="2">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ピッチャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回id</t>
     <rPh sb="0" eb="1">
       <t>カイ</t>
@@ -1682,6 +1652,1238 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="1">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピッチャーid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦相手チームid</t>
+    <rPh sb="0" eb="2">
+      <t>タイセn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自チームid</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開/非公開</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球場</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打席終了</t>
+    <rPh sb="0" eb="1">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者</t>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定id</t>
+    <rPh sb="0" eb="2">
+      <t>ボールハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル5</t>
+  </si>
+  <si>
+    <t>テーブル6</t>
+  </si>
+  <si>
+    <t>ヒット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備位置</t>
+    <rPh sb="0" eb="4">
+      <t>シュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進塁打数</t>
+    <rPh sb="0" eb="3">
+      <t>シンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル7</t>
+  </si>
+  <si>
+    <t>進塁</t>
+    <rPh sb="0" eb="2">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進塁数</t>
+    <rPh sb="0" eb="2">
+      <t>シンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代走か</t>
+    <rPh sb="0" eb="2">
+      <t>ダイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁か</t>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル8</t>
+  </si>
+  <si>
+    <t>得点</t>
+    <rPh sb="0" eb="2">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点id</t>
+    <rPh sb="0" eb="2">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーid</t>
+    <rPh sb="0" eb="2">
+      <t>エラー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進塁id</t>
+    <rPh sb="0" eb="1">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル9</t>
+  </si>
+  <si>
+    <t>ボーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル10</t>
+  </si>
+  <si>
+    <t>妨害id</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボークid</t>
+    <rPh sb="0" eb="1">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進塁前ベース</t>
+    <rPh sb="0" eb="3">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進塁後ベース</t>
+    <rPh sb="0" eb="2">
+      <t>シンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>g</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル11</t>
+  </si>
+  <si>
+    <t>四死球</t>
+    <rPh sb="0" eb="3">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四死球id</t>
+    <rPh sb="0" eb="3">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走塁者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合履歴</t>
+    <rPh sb="0" eb="1">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回の履歴</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者履歴</t>
+    <rPh sb="0" eb="4">
+      <t>ダシャリル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ボール</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点履歴</t>
+    <rPh sb="0" eb="4">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー履歴</t>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット履歴</t>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対多</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errors</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_judges</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>innings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>four_dead_balls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interferences</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>balks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>advances</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投手の記録</t>
+    <rPh sb="0" eb="2">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備側</t>
+    <rPh sb="0" eb="3">
+      <t>シュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四死球履歴</t>
+    <rPh sb="0" eb="1">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル12</t>
+  </si>
+  <si>
+    <t>盗塁</t>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_stealings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁記録</t>
+    <rPh sb="0" eb="4">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁id</t>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル13</t>
+  </si>
+  <si>
+    <t>プレイごとの履歴</t>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点数</t>
+    <rPh sb="0" eb="1">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プレイ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボール判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トクテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>エラー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>エラー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ヒット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>進塁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盗塁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四死球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボーク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妨害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウト判定</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウトカウント</t>
+    <rPh sb="0" eb="2">
+      <t>アウトカウント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代打</t>
+    <rPh sb="0" eb="2">
+      <t>ダイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投手</t>
+    <rPh sb="0" eb="2">
+      <t>トウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pitchers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル14</t>
+  </si>
+  <si>
+    <t>投手id</t>
+    <rPh sb="0" eb="2">
+      <t>トウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投手履歴</t>
+    <rPh sb="0" eb="1">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合メンバー</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>試合メンバー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合メンバーid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(対戦相手チームid)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル15</t>
+  </si>
+  <si>
+    <t>選手守備位置</t>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">１ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defensive position_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手守備位置id</t>
+  </si>
+  <si>
+    <t>選手守備位置id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打順</t>
+    <rPh sb="0" eb="2">
+      <t>ダジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備位置履歴</t>
+    <rPh sb="0" eb="4">
+      <t>シュビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル16</t>
+  </si>
+  <si>
+    <t>交代したプレイid</t>
+    <rPh sb="0" eb="1">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_id</t>
+  </si>
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>team_member_id</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>自チームid</t>
+    <rPh sb="0" eb="2">
+      <t>タイセn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>試合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>対多</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">タ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_inning_out_count</t>
+  </si>
+  <si>
+    <t>end_inning_out_count</t>
+  </si>
+  <si>
+    <t>交代になった回</t>
+    <rPh sb="0" eb="2">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出場した回</t>
+    <rPh sb="0" eb="2">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>batter_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合参加メンバ</t>
+    <rPh sb="0" eb="1">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>play_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対多</t>
+    <rPh sb="1" eb="3">
+      <t>タタイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先行/後攻</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1対多</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">タイタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何がしたいか</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・１〜９回までの記録を抽出したい</t>
+    <rPh sb="4" eb="5">
+      <t>カイマデ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・投手の投球履歴を追いたい</t>
+    <rPh sb="1" eb="3">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・盗塁履歴を追いたい</t>
+    <rPh sb="1" eb="5">
+      <t>トウルイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・塁上での選手の履歴を追いたい</t>
+    <rPh sb="1" eb="3">
+      <t>ルイジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リレキヲオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選手の打席の履歴を追いたい</t>
+    <rPh sb="1" eb="3">
+      <t>カクセンシュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダセキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・試合結果を確認したい</t>
+    <rPh sb="1" eb="5">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数、得失点、エラー数、ヒット数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">トクシッテン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア、出場選手一覧</t>
+    <rPh sb="4" eb="10">
+      <t>シュツジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打席での結果：ヒット/ 凡打/ 出塁(四死球、エラー)</t>
+    <rPh sb="0" eb="2">
+      <t>ダセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ボンダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投球数、ボール/ストライク、被打数、暴投、失点数、四死球数</t>
+    <rPh sb="0" eb="3">
+      <t>トウキュウスウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヒダス</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウトウ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シッテ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>シシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁数</t>
+    <rPh sb="0" eb="3">
+      <t>トウルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功/失敗</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四球/死球</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボーク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備/攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>シュビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自責/他責</t>
+    <rPh sb="0" eb="2">
+      <t>ジセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1690,7 +2892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1725,6 +2927,49 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1806,7 +3051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,6 +3110,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2474,8 +3746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14411325" y="9947273"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14414500" y="10106023"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2600,8 +3872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="13382625" y="11158535"/>
+          <a:ext cx="1930400" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2726,8 +3998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14430375" y="12030075"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14433550" y="12220575"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -2865,8 +4137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8639175"/>
-          <a:ext cx="4010025" cy="657034"/>
+          <a:off x="13363575" y="8775700"/>
+          <a:ext cx="4016375" cy="669734"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -3218,8 +4490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7467600"/>
-          <a:ext cx="4010025" cy="833248"/>
+          <a:off x="13315950" y="7588250"/>
+          <a:ext cx="4016375" cy="845948"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -3620,8 +4892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15440025" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="15446375" y="11158535"/>
+          <a:ext cx="1924050" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -3937,8 +5209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="12963525"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="13169900"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4163,8 +5435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="14182725"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="14408150"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4389,8 +5661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="15268575"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="15513050"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -4620,8 +5892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1552575" y="16421100"/>
-          <a:ext cx="3537080" cy="911747"/>
+          <a:off x="1555750" y="16681450"/>
+          <a:ext cx="3533905" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -4903,8 +6175,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="17487900"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="17767300"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -5199,8 +6471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="18554700"/>
-          <a:ext cx="2947908" cy="911747"/>
+          <a:off x="1565275" y="18849975"/>
+          <a:ext cx="2944733" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -7996,7 +9268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8015,15 +9287,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -8427,26 +9699,26 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8535,7 +9807,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>140</v>
@@ -8572,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -8647,7 +9919,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -8695,10 +9967,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -8717,7 +9989,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>209</v>
@@ -8739,7 +10011,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>210</v>
@@ -8761,10 +10033,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -8783,10 +10055,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>212</v>
+        <v>396</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -8805,7 +10077,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>115</v>
@@ -8832,7 +10104,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -8856,7 +10128,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -8893,15 +10165,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9211,15 +10483,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9535,15 +10807,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -9806,25 +11078,25 @@
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -9913,7 +11185,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -10104,15 +11376,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10421,15 +11693,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10734,26 +12006,26 @@
   </sheetPr>
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -10842,7 +12114,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -10927,7 +12199,7 @@
         <v>194</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -10941,7 +12213,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -10952,7 +12224,7 @@
         <v>194</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -10966,7 +12238,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -11149,25 +12421,25 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -11256,7 +12528,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -11290,7 +12562,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -11338,10 +12610,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -11360,7 +12632,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>197</v>
@@ -11382,10 +12654,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -11404,7 +12676,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>198</v>
@@ -11426,10 +12698,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -11448,7 +12720,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>199</v>
@@ -11470,10 +12742,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>74</v>
@@ -11492,7 +12764,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>115</v>
@@ -11519,7 +12791,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
@@ -11543,7 +12815,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>46</v>
@@ -11577,24 +12849,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="19.5">
+    <row r="2" spans="2:21" ht="20">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12260,22 +13532,22 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -12382,7 +13654,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -12416,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
@@ -12464,10 +13736,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -12486,10 +13758,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -12508,7 +13780,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -12522,7 +13794,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
@@ -12536,7 +13808,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -12550,7 +13822,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
@@ -12564,7 +13836,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -12578,7 +13850,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>115</v>
@@ -12605,7 +13877,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>45</v>
@@ -12629,7 +13901,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>46</v>
@@ -12660,34 +13932,82 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C6:K42"/>
+  <dimension ref="C2:X53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11">
+    <row r="2" spans="3:24">
+      <c r="I2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="3:24">
+      <c r="I3" t="s">
+        <v>412</v>
+      </c>
+      <c r="K3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24">
+      <c r="I4" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24">
+      <c r="I5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24">
       <c r="C6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+        <v>239</v>
+      </c>
+      <c r="I6" t="s">
+        <v>408</v>
+      </c>
+      <c r="K6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24">
       <c r="C7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
         <v>236</v>
-      </c>
-      <c r="D7" t="s">
-        <v>238</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -12695,40 +14015,49 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="3:11">
+      <c r="I7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24">
       <c r="E8" t="s">
         <v>208</v>
       </c>
       <c r="F8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24">
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24">
+      <c r="E10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24">
+      <c r="E11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="3:11">
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
-      <c r="E10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>246</v>
       </c>
-      <c r="F11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11">
+    </row>
+    <row r="12" spans="3:24">
       <c r="E12" t="s">
         <v>115</v>
       </c>
@@ -12736,28 +14065,132 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:24">
       <c r="E13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24">
       <c r="E14" t="s">
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11">
+        <v>248</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="W14" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24">
+      <c r="H15" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24">
       <c r="C16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" t="s">
         <v>237</v>
-      </c>
-      <c r="D16" t="s">
-        <v>239</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -12765,220 +14198,737 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" t="s">
-        <v>279</v>
-      </c>
-      <c r="J16" t="s">
-        <v>280</v>
-      </c>
-      <c r="K16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11">
+      <c r="H16" s="31"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+    </row>
+    <row r="17" spans="4:24">
       <c r="D17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
         <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="I17" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J17" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="T17" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24">
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="R18" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="S18" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="T18" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="V18" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24">
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24">
+      <c r="E20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+    </row>
+    <row r="21" spans="4:24">
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24">
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="V22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="W22" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="X22" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24">
+      <c r="E23" t="s">
+        <v>252</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="O23" s="27" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="18" spans="4:11">
-      <c r="E18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" t="s">
-        <v>273</v>
-      </c>
-      <c r="J18" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="P23" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="R23" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="S23" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24">
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="R24" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="S24" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="T24" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="4:24">
+      <c r="E25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="27" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="19" spans="4:11">
-      <c r="E19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J19" t="s">
-        <v>275</v>
-      </c>
-      <c r="K19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11">
-      <c r="E20" t="s">
-        <v>251</v>
-      </c>
-      <c r="H20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" t="s">
-        <v>276</v>
-      </c>
-      <c r="J20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="E21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J25" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="K25" s="27" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="22" spans="4:11">
-      <c r="E22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="L25" s="27"/>
+      <c r="M25" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="4:24">
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+    </row>
+    <row r="27" spans="4:24">
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="E23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11">
-      <c r="E24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11">
-      <c r="E25" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11">
-      <c r="E26" t="s">
+      <c r="J27" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+    </row>
+    <row r="28" spans="4:24">
+      <c r="E28" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="27" spans="4:11">
-      <c r="E27" t="s">
+      <c r="H28" s="31"/>
+      <c r="I28" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="O28" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+    </row>
+    <row r="29" spans="4:24">
+      <c r="E29" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="28" spans="4:11">
-      <c r="E28" t="s">
+      <c r="H29" s="31"/>
+      <c r="J29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="O29" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="T29" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+    </row>
+    <row r="30" spans="4:24">
+      <c r="E30" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="4:11">
-      <c r="E29" t="s">
+      <c r="H30" s="31"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="26"/>
+      <c r="O30" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+    </row>
+    <row r="31" spans="4:24">
+      <c r="E31" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="30" spans="4:11">
-      <c r="E30" t="s">
+      <c r="H31" s="31"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="O31" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+    </row>
+    <row r="32" spans="4:24">
+      <c r="E32" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="31" spans="4:11">
-      <c r="E31" t="s">
+      <c r="H32" s="31"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="26"/>
+      <c r="O32" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13">
+      <c r="E33" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="32" spans="4:11">
-      <c r="E32" t="s">
+      <c r="H33" s="31"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="26"/>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" t="s">
+      <c r="H34" s="31"/>
+      <c r="J34" s="26"/>
+      <c r="M34" s="26"/>
+    </row>
+    <row r="35" spans="5:13">
+      <c r="E35" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" t="s">
+      <c r="H35" s="31"/>
+      <c r="J35" s="26"/>
+      <c r="M35" s="26"/>
+    </row>
+    <row r="36" spans="5:13">
+      <c r="E36" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" t="s">
+      <c r="H36" s="31"/>
+      <c r="J36" s="26"/>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="5:13">
+      <c r="E37" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" t="s">
+      <c r="H37" s="31"/>
+      <c r="J37" s="26"/>
+      <c r="M37" s="26"/>
+    </row>
+    <row r="38" spans="5:13">
+      <c r="E38" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" t="s">
+      <c r="H38" s="31"/>
+      <c r="J38" s="26"/>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="5:13">
+      <c r="E39" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6">
+      <c r="H39" s="31"/>
+      <c r="J39" s="26"/>
+      <c r="M39" s="26"/>
+    </row>
+    <row r="40" spans="5:13">
       <c r="E40" t="s">
         <v>115</v>
       </c>
       <c r="F40" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="5:6">
+      <c r="J40" s="26"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="5:13">
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6">
+        <v>247</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="M41" s="26"/>
+    </row>
+    <row r="42" spans="5:13">
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>250</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" spans="5:13">
+      <c r="J43" s="26"/>
+      <c r="M43" s="26"/>
+    </row>
+    <row r="44" spans="5:13">
+      <c r="J44" s="26"/>
+      <c r="M44" s="26"/>
+    </row>
+    <row r="45" spans="5:13">
+      <c r="J45" s="26"/>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="5:13">
+      <c r="J46" s="26"/>
+      <c r="M46" s="26"/>
+    </row>
+    <row r="47" spans="5:13">
+      <c r="J47" s="26"/>
+      <c r="M47" s="26"/>
+    </row>
+    <row r="48" spans="5:13">
+      <c r="J48" s="26"/>
+      <c r="M48" s="26"/>
+    </row>
+    <row r="49" spans="10:13">
+      <c r="J49" s="26"/>
+      <c r="M49" s="26"/>
+    </row>
+    <row r="50" spans="10:13">
+      <c r="J50" s="26"/>
+      <c r="M50" s="26"/>
+    </row>
+    <row r="51" spans="10:13">
+      <c r="J51" s="26"/>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="10:13">
+      <c r="J52" s="26"/>
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="10:13">
+      <c r="J53" s="26"/>
+      <c r="M53" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12998,22 +14948,22 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -13120,7 +15070,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -13154,7 +15104,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
@@ -13202,10 +15152,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -13224,10 +15174,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -13246,7 +15196,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -13260,7 +15210,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
@@ -13274,7 +15224,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -13288,7 +15238,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
@@ -13302,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -13316,7 +15266,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>115</v>
@@ -13343,7 +15293,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>45</v>
@@ -13367,7 +15317,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>46</v>
@@ -13401,7 +15351,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -13420,14 +15370,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="15"/>
-    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="15"/>
+    <col min="1" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -13601,15 +15551,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13952,15 +15902,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14266,15 +16216,15 @@
       <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14890,15 +16840,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -15318,15 +17268,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -15582,15 +17532,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2E177-8D7E-434E-9268-0A67946499FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE1FBC-D55B-514C-A3A8-AA699A7D4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35400" yWindow="500" windowWidth="34180" windowHeight="17760" tabRatio="839" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="475">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -1712,13 +1712,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>打席終了</t>
-    <rPh sb="0" eb="1">
-      <t>ダセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>打者</t>
     <rPh sb="0" eb="2">
       <t>ダシャ</t>
@@ -1761,16 +1754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進塁打数</t>
-    <rPh sb="0" eb="3">
-      <t>シンルイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル7</t>
   </si>
   <si>
@@ -1781,31 +1764,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進塁数</t>
-    <rPh sb="0" eb="2">
-      <t>シンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
+    <t>エラーid</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ヒットid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>代走か</t>
-    <rPh sb="0" eb="2">
-      <t>ダイソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盗塁か</t>
-    <rPh sb="0" eb="2">
-      <t>トウルイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2086,6 +2049,10 @@
   </si>
   <si>
     <t>プレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2418,13 +2385,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アウトカウント</t>
-    <rPh sb="0" eb="2">
-      <t>アウトカウント</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>代打</t>
     <rPh sb="0" eb="2">
       <t>ダイダ</t>
@@ -2501,30 +2461,6 @@
     <t>テーブル15</t>
   </si>
   <si>
-    <t>選手守備位置</t>
-    <rPh sb="0" eb="2">
-      <t>センシュ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">１ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>defensive position_history</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選手守備位置id</t>
-  </si>
-  <si>
-    <t>選手守備位置id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>打順</t>
     <rPh sb="0" eb="2">
       <t>ダジュn</t>
@@ -2532,17 +2468,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>守備位置履歴</t>
-    <rPh sb="0" eb="4">
-      <t>シュビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル16</t>
+  </si>
+  <si>
+    <t>テーブル17</t>
   </si>
   <si>
     <t>交代したプレイid</t>
@@ -2559,6 +2488,18 @@
   </si>
   <si>
     <t>team_member_id</t>
+  </si>
+  <si>
+    <t>position_mst_id</t>
+  </si>
+  <si>
+    <t>batting_order</t>
+  </si>
+  <si>
+    <t>start_inning</t>
+  </si>
+  <si>
+    <t>end_inning</t>
   </si>
   <si>
     <t>is_deleted</t>
@@ -2625,23 +2566,6 @@
     <t>end_inning_out_count</t>
   </si>
   <si>
-    <t>交代になった回</t>
-    <rPh sb="0" eb="2">
-      <t>コウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出場した回</t>
-    <rPh sb="0" eb="2">
-      <t>シュツジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>batter_history</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2663,16 +2587,6 @@
     <t>1対多</t>
     <rPh sb="1" eb="3">
       <t>タタイタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>先行/後攻</t>
-    <rPh sb="0" eb="2">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2887,12 +2801,390 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>進塁、アウト状態</t>
+    <rPh sb="0" eb="2">
+      <t>シンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番多くなる履歴</t>
+    <rPh sb="0" eb="2">
+      <t>イチバn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２番目に多くなる履歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒッティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストライク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三振</t>
+    <rPh sb="0" eb="2">
+      <t>サンシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strike_outs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三振id</t>
+    <rPh sb="0" eb="2">
+      <t>サンシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三振記録</t>
+    <rPh sb="0" eb="4">
+      <t>サンシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーズンid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_change_history</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手交代</t>
+    <rPh sb="0" eb="2">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手交代履歴</t>
+    <rPh sb="0" eb="4">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手交代id</t>
+    <rPh sb="0" eb="4">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手交代id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交代時のイニング</t>
+    <rPh sb="0" eb="2">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンチに下がったイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守備位置</t>
+    <rPh sb="0" eb="2">
+      <t>シュビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塁打数</t>
+    <rPh sb="0" eb="2">
+      <t>シンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(妨害)試合メンバーid</t>
+    <rPh sb="1" eb="3">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ボウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先行チームid</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登板タイミングから</t>
+    <rPh sb="0" eb="2">
+      <t>トウバn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打席があるごと</t>
+    <rPh sb="0" eb="1">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <rPh sb="0" eb="2">
+      <t>ニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>開始回がnullでない</t>
+    <rPh sb="0" eb="3">
+      <t>カイシカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了回がnullである</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッターid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイゲーム・・・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コールド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_judge_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合終了フラグ</t>
+    <rPh sb="0" eb="4">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合終了フラグid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール判定マスタid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合終了ステータス</t>
+    <rPh sb="0" eb="4">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>finish_game_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雨天コールド</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ウテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了理由</t>
+    <rPh sb="0" eb="1">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了理由</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファウル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打順</t>
+    <rPh sb="0" eb="1">
+      <t>ダジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_counter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンタid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンタid.アウト</t>
+    <rPh sb="0" eb="2">
+      <t>アウトカウント</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定名</t>
+    <rPh sb="0" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合時のカウンタ</t>
+    <rPh sb="0" eb="3">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アウト判定：out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンタid.アウト+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニングチェンジフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2927,6 +3219,13 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2971,8 +3270,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2994,6 +3301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,7 +3364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3118,27 +3431,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9700,7 +10039,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D14" sqref="D14:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -9952,7 +10291,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>44</v>
@@ -10023,7 +10362,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
@@ -10036,7 +10375,7 @@
         <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -10058,7 +10397,7 @@
         <v>215</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -10067,7 +10406,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="9"/>
@@ -13932,10 +14271,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C2:X53"/>
+  <dimension ref="C2:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13946,49 +14285,54 @@
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24">
+    <row r="2" spans="3:28">
       <c r="I2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="3:28">
+      <c r="I3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="3:24">
-      <c r="I3" t="s">
-        <v>412</v>
-      </c>
-      <c r="K3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="3:24">
+    <row r="4" spans="3:28">
       <c r="I4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
         <v>407</v>
       </c>
-      <c r="K4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="3:24">
+    </row>
+    <row r="5" spans="3:28">
       <c r="I5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="3:24">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28">
       <c r="C6" t="s">
         <v>233</v>
       </c>
@@ -13996,13 +14340,13 @@
         <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="3:24">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28">
       <c r="C7" t="s">
         <v>234</v>
       </c>
@@ -14016,13 +14360,13 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="3:24">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28">
       <c r="E8" t="s">
         <v>208</v>
       </c>
@@ -14030,10 +14374,13 @@
         <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="9" spans="3:24">
+        <v>403</v>
+      </c>
+      <c r="K8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28">
       <c r="E9" t="s">
         <v>243</v>
       </c>
@@ -14041,7 +14388,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="3:24">
+    <row r="10" spans="3:28">
       <c r="E10" t="s">
         <v>226</v>
       </c>
@@ -14049,7 +14396,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="3:24">
+    <row r="11" spans="3:28">
       <c r="E11" t="s">
         <v>244</v>
       </c>
@@ -14057,23 +14404,36 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="3:24">
+    <row r="12" spans="3:28">
       <c r="E12" t="s">
         <v>115</v>
       </c>
       <c r="F12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="3:24">
+      <c r="O12" t="s">
+        <v>417</v>
+      </c>
+      <c r="P12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28">
       <c r="E13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="14" spans="3:24">
+      <c r="L13" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28">
       <c r="E14" t="s">
         <v>46</v>
       </c>
@@ -14081,81 +14441,93 @@
         <v>248</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I14" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q14" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="R14" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="N14" s="28" t="s">
+      <c r="S14" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="P14" s="28" t="s">
+      <c r="T14" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="U14" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z14" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB14" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28">
+      <c r="H15" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="Q14" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="T14" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="U14" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="W14" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="3:24">
-      <c r="H15" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>328</v>
-      </c>
       <c r="J15" s="29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>324</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>165</v>
@@ -14173,7 +14545,7 @@
         <v>165</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="V15" s="28" t="s">
         <v>165</v>
@@ -14184,8 +14556,20 @@
       <c r="X15" s="28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="16" spans="3:24">
+      <c r="Y15" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB15" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28">
       <c r="C16" t="s">
         <v>235</v>
       </c>
@@ -14202,9 +14586,9 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
@@ -14215,8 +14599,12 @@
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
-    </row>
-    <row r="17" spans="4:24">
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="4:28">
       <c r="D17" t="s">
         <v>238</v>
       </c>
@@ -14227,7 +14615,7 @@
         <v>242</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>272</v>
@@ -14238,47 +14626,59 @@
       <c r="K17" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>293</v>
-      </c>
       <c r="O17" s="27" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="4:24">
+        <v>345</v>
+      </c>
+      <c r="Y17" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z17" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA17" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="4:28">
       <c r="E18" t="s">
         <v>243</v>
       </c>
@@ -14292,52 +14692,64 @@
         <v>242</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K18" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>288</v>
+      <c r="L18" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>287</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>286</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="4:24">
+        <v>305</v>
+      </c>
+      <c r="Y18" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z18" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA18" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="4:28">
       <c r="E19" t="s">
         <v>226</v>
       </c>
@@ -14345,7 +14757,7 @@
         <v>245</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>194</v>
@@ -14354,59 +14766,73 @@
         <v>216</v>
       </c>
       <c r="K19" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="X19" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="P19" s="27" t="s">
+      <c r="Y19" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="Q19" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="V19" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="4:24">
+      <c r="Z19" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA19" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB19" s="27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="4:28">
       <c r="E20" t="s">
         <v>249</v>
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="36"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="4:24">
+    <row r="21" spans="4:28">
       <c r="E21" t="s">
         <v>250</v>
       </c>
@@ -14414,109 +14840,133 @@
         <v>281</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K21" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="P21" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="Q21" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="R21" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="S21" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="T21" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="U21" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="V21" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="W21" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="U21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="V21" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="4:24">
+      <c r="Z21" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="4:28">
       <c r="E22" t="s">
         <v>251</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="K22" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="M22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="N22" s="27" t="s">
+      <c r="M22" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="N22" s="39" t="s">
         <v>269</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>286</v>
+        <v>434</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>453</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="R22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="S22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="T22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="U22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="V22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="W22" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="X22" s="26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="4:24">
+        <v>349</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="X22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z22" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA22" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="4:28">
       <c r="E23" t="s">
         <v>252</v>
       </c>
@@ -14525,338 +14975,490 @@
         <v>282</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K23" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>375</v>
+      <c r="L23" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>374</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>287</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P23" s="27"/>
       <c r="Q23" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="R23" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>371</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>418</v>
+        <v>280</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="W23" s="27"/>
+        <v>280</v>
+      </c>
+      <c r="W23" s="27" t="s">
+        <v>280</v>
+      </c>
       <c r="X23" s="27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="24" spans="4:24">
+        <v>280</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="4:28">
       <c r="E24" t="s">
         <v>253</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27" t="s">
-        <v>276</v>
+        <v>438</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>382</v>
+        <v>283</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>371</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>300</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="4:24">
+        <v>297</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="W24" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="25" spans="4:28">
       <c r="E25" t="s">
         <v>254</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>367</v>
+        <v>372</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>422</v>
+        <v>415</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
+        <v>298</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>412</v>
+      </c>
       <c r="W25" s="27"/>
       <c r="X25" s="27"/>
-    </row>
-    <row r="26" spans="4:24">
+      <c r="Y25" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+    </row>
+    <row r="26" spans="4:28">
       <c r="E26" t="s">
         <v>255</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="N26" s="27"/>
+        <v>439</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>363</v>
+      </c>
       <c r="O26" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
       <c r="X26" s="27"/>
-    </row>
-    <row r="27" spans="4:24">
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+    </row>
+    <row r="27" spans="4:28">
       <c r="E27" t="s">
         <v>256</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="27" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="K27" s="27"/>
+        <v>382</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>459</v>
+      </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
       <c r="O27" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>312</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
       <c r="W27" s="27"/>
       <c r="X27" s="27"/>
-    </row>
-    <row r="28" spans="4:24">
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+    </row>
+    <row r="28" spans="4:28">
       <c r="E28" t="s">
         <v>257</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>284</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="M28" s="26"/>
-      <c r="O28" s="34" t="s">
-        <v>420</v>
-      </c>
+      <c r="O28" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
-    </row>
-    <row r="29" spans="4:24">
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+    </row>
+    <row r="29" spans="4:28">
       <c r="E29" t="s">
         <v>258</v>
       </c>
       <c r="H29" s="31"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="M29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-    </row>
-    <row r="30" spans="4:24">
+      <c r="W29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+    </row>
+    <row r="30" spans="4:28">
       <c r="E30" t="s">
         <v>259</v>
       </c>
       <c r="H30" s="31"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>391</v>
+      </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="T30" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
-    </row>
-    <row r="31" spans="4:24">
+      <c r="W30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+    </row>
+    <row r="31" spans="4:28">
       <c r="E31" t="s">
         <v>260</v>
       </c>
       <c r="H31" s="31"/>
+      <c r="J31" s="26" t="s">
+        <v>392</v>
+      </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="T31" s="27"/>
+        <v>424</v>
+      </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
-    </row>
-    <row r="32" spans="4:24">
+      <c r="W31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+    </row>
+    <row r="32" spans="4:28">
       <c r="E32" t="s">
         <v>261</v>
       </c>
       <c r="H32" s="31"/>
+      <c r="J32" s="26" t="s">
+        <v>385</v>
+      </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="26"/>
       <c r="O32" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="5:13">
+        <v>303</v>
+      </c>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+    </row>
+    <row r="33" spans="5:28">
       <c r="E33" t="s">
         <v>262</v>
       </c>
       <c r="H33" s="31"/>
+      <c r="J33" s="26" t="s">
+        <v>386</v>
+      </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="5:13">
+      <c r="O33" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+    </row>
+    <row r="34" spans="5:28">
       <c r="E34" t="s">
         <v>263</v>
       </c>
       <c r="H34" s="31"/>
-      <c r="J34" s="26"/>
+      <c r="J34" s="26" t="s">
+        <v>387</v>
+      </c>
       <c r="M34" s="26"/>
-    </row>
-    <row r="35" spans="5:13">
+      <c r="O34" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+    </row>
+    <row r="35" spans="5:28">
       <c r="E35" t="s">
         <v>264</v>
       </c>
       <c r="H35" s="31"/>
       <c r="J35" s="26"/>
       <c r="M35" s="26"/>
-    </row>
-    <row r="36" spans="5:13">
+      <c r="O35" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+    </row>
+    <row r="36" spans="5:28">
       <c r="E36" t="s">
         <v>265</v>
       </c>
       <c r="H36" s="31"/>
       <c r="J36" s="26"/>
       <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="5:13">
+      <c r="O36" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+    </row>
+    <row r="37" spans="5:28">
       <c r="E37" t="s">
         <v>266</v>
       </c>
       <c r="H37" s="31"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="K37" t="s">
+        <v>460</v>
+      </c>
       <c r="M37" s="26"/>
-    </row>
-    <row r="38" spans="5:13">
+      <c r="O37" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA37" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB37" s="27"/>
+    </row>
+    <row r="38" spans="5:28">
       <c r="E38" t="s">
         <v>267</v>
       </c>
       <c r="H38" s="31"/>
-      <c r="J38" s="26"/>
+      <c r="J38" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>448</v>
+      </c>
       <c r="M38" s="26"/>
-    </row>
-    <row r="39" spans="5:13">
+      <c r="O38" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z38" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA38" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="5:28">
       <c r="E39" t="s">
         <v>268</v>
       </c>
       <c r="H39" s="31"/>
       <c r="J39" s="26"/>
+      <c r="K39" s="44" t="s">
+        <v>447</v>
+      </c>
       <c r="M39" s="26"/>
-    </row>
-    <row r="40" spans="5:13">
+      <c r="O39" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z39" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA39" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28">
       <c r="E40" t="s">
         <v>115</v>
       </c>
@@ -14865,8 +15467,14 @@
       </c>
       <c r="J40" s="26"/>
       <c r="M40" s="26"/>
-    </row>
-    <row r="41" spans="5:13">
+      <c r="Z40" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA40" s="27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="5:28">
       <c r="E41" t="s">
         <v>45</v>
       </c>
@@ -14875,8 +15483,14 @@
       </c>
       <c r="J41" s="26"/>
       <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="5:13">
+      <c r="O41" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA41" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="5:28">
       <c r="E42" t="s">
         <v>46</v>
       </c>
@@ -14885,28 +15499,34 @@
       </c>
       <c r="J42" s="26"/>
       <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="5:13">
+      <c r="O42" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA42" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="5:28">
       <c r="J43" s="26"/>
       <c r="M43" s="26"/>
     </row>
-    <row r="44" spans="5:13">
+    <row r="44" spans="5:28">
       <c r="J44" s="26"/>
       <c r="M44" s="26"/>
     </row>
-    <row r="45" spans="5:13">
+    <row r="45" spans="5:28">
       <c r="J45" s="26"/>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="5:13">
+    <row r="46" spans="5:28">
       <c r="J46" s="26"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="5:13">
+    <row r="47" spans="5:28">
       <c r="J47" s="26"/>
       <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="5:13">
+    <row r="48" spans="5:28">
       <c r="J48" s="26"/>
       <c r="M48" s="26"/>
     </row>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE1FBC-D55B-514C-A3A8-AA699A7D4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{2CFE1FBC-D55B-514C-A3A8-AA699A7D4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27CF16E-5A95-4296-A33E-8E0502C363E4}"/>
   <bookViews>
-    <workbookView xWindow="-35400" yWindow="500" windowWidth="34180" windowHeight="17760" tabRatio="839" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="541">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -3093,13 +3093,6 @@
   </si>
   <si>
     <t>終了理由</t>
-    <rPh sb="0" eb="1">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了理由</t>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
@@ -3177,6 +3170,321 @@
   </si>
   <si>
     <t>イニングチェンジフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポジションが変更になった場合</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endに入力し、新たに別ポジションの選手として登録</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my_team_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opponent_team_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first_attach_team</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>season_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stadium_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_inning_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_reason</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inning終了フラグ</t>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inning終了理由</t>
+    <rPh sb="6" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_judge_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>four_dead_ball_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strike_out_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>advance_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_stealing_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>balk_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>out_judge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_counter_out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inning_change_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball_judge_mst_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>earned_run</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_batter_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_pitcher_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error_mst_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル18</t>
+  </si>
+  <si>
+    <t>テーブル19</t>
+  </si>
+  <si>
+    <t>ヒット種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットマスタid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーマスタid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シングル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ベースヒット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3ベースヒット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル20</t>
+  </si>
+  <si>
+    <t>ヒットエリアマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit_area_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットエリアマスタid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒット名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit_mst_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit_area_mst_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>interference_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_position_before</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base_position_after</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_bb_or_hbp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_defence_or_attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル21</t>
+  </si>
+  <si>
+    <t>妨害種類</t>
+    <rPh sb="0" eb="2">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interference_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interference_mst_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ball</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妨害名</t>
+    <rPh sb="0" eb="3">
+      <t>ボウガイメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3184,7 +3492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3219,13 +3527,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3364,7 +3665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3431,17 +3732,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3449,17 +3756,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3471,13 +3772,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4085,8 +4401,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14414500" y="10106023"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14411325" y="9947273"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4211,8 +4527,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="11158535"/>
-          <a:ext cx="1930400" cy="334773"/>
+          <a:off x="13382625" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4337,8 +4653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14433550" y="12220575"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14430375" y="12030075"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4476,8 +4792,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8775700"/>
-          <a:ext cx="4016375" cy="669734"/>
+          <a:off x="13363575" y="8639175"/>
+          <a:ext cx="4010025" cy="657034"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -4829,8 +5145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7588250"/>
-          <a:ext cx="4016375" cy="845948"/>
+          <a:off x="13315950" y="7467600"/>
+          <a:ext cx="4010025" cy="833248"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -5231,8 +5547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15446375" y="11158535"/>
-          <a:ext cx="1924050" cy="334773"/>
+          <a:off x="15440025" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -5548,8 +5864,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="13169900"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1562100" y="12963525"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -5774,8 +6090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="14408150"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1533525" y="14182725"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6000,8 +6316,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="15513050"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1533525" y="15268575"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6231,8 +6547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1555750" y="16681450"/>
-          <a:ext cx="3533905" cy="927622"/>
+          <a:off x="1552575" y="16421100"/>
+          <a:ext cx="3537080" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -6514,8 +6830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="17767300"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1562100" y="17487900"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6810,8 +7126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="18849975"/>
-          <a:ext cx="2944733" cy="927622"/>
+          <a:off x="1562100" y="18554700"/>
+          <a:ext cx="2947908" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -9607,7 +9923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9626,15 +9942,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10042,15 +10358,15 @@
       <selection activeCell="D14" sqref="D14:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10504,15 +10820,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10822,15 +11138,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11146,15 +11462,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11420,15 +11736,15 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11715,15 +12031,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12032,15 +12348,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12349,15 +12665,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12763,15 +13079,15 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13188,24 +13504,24 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="20">
+    <row r="2" spans="2:21" ht="19.5">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13871,15 +14187,15 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14271,44 +14587,47 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="C2:AB53"/>
+  <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.375" customWidth="1"/>
+    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:28">
+    <row r="2" spans="3:32">
       <c r="I2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="3:28">
+    <row r="3" spans="3:32">
       <c r="I3" t="s">
         <v>405</v>
       </c>
@@ -14316,7 +14635,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="3:28">
+    <row r="4" spans="3:32">
       <c r="I4" t="s">
         <v>400</v>
       </c>
@@ -14324,7 +14643,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="3:28">
+    <row r="5" spans="3:32">
       <c r="I5" t="s">
         <v>404</v>
       </c>
@@ -14332,7 +14651,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="3:28">
+    <row r="6" spans="3:32">
       <c r="C6" t="s">
         <v>233</v>
       </c>
@@ -14346,7 +14665,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="3:28">
+    <row r="7" spans="3:32">
       <c r="C7" t="s">
         <v>234</v>
       </c>
@@ -14366,7 +14685,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="8" spans="3:28">
+    <row r="8" spans="3:32">
       <c r="E8" t="s">
         <v>208</v>
       </c>
@@ -14380,7 +14699,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="3:28">
+    <row r="9" spans="3:32">
       <c r="E9" t="s">
         <v>243</v>
       </c>
@@ -14388,7 +14707,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="3:28">
+    <row r="10" spans="3:32">
       <c r="E10" t="s">
         <v>226</v>
       </c>
@@ -14396,7 +14715,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="3:28">
+    <row r="11" spans="3:32">
       <c r="E11" t="s">
         <v>244</v>
       </c>
@@ -14404,7 +14723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="3:28">
+    <row r="12" spans="3:32">
       <c r="E12" t="s">
         <v>115</v>
       </c>
@@ -14418,7 +14737,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="13" spans="3:28">
+    <row r="13" spans="3:32">
       <c r="E13" t="s">
         <v>45</v>
       </c>
@@ -14433,7 +14752,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="3:28">
+    <row r="14" spans="3:32">
       <c r="E14" t="s">
         <v>46</v>
       </c>
@@ -14501,10 +14820,22 @@
         <v>421</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="3:28">
+        <v>511</v>
+      </c>
+      <c r="AC14" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE14" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF14" s="28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="3:32">
       <c r="H15" s="31" t="s">
         <v>325</v>
       </c>
@@ -14568,8 +14899,20 @@
       <c r="AB15" s="28" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="16" spans="3:28">
+      <c r="AC15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF15" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="3:32">
       <c r="C16" t="s">
         <v>235</v>
       </c>
@@ -14603,8 +14946,11 @@
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
       <c r="AB16" s="28"/>
-    </row>
-    <row r="17" spans="4:28">
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+    </row>
+    <row r="17" spans="4:32">
       <c r="D17" t="s">
         <v>238</v>
       </c>
@@ -14677,8 +15023,20 @@
       <c r="AB17" s="27" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="18" spans="4:28">
+      <c r="AC17" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="AD17" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="AE17" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF17" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="18" spans="4:32">
       <c r="E18" t="s">
         <v>243</v>
       </c>
@@ -14746,10 +15104,22 @@
         <v>449</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" spans="4:28">
+        <v>507</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD18" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE18" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF18" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="4:32">
       <c r="E19" t="s">
         <v>226</v>
       </c>
@@ -14817,10 +15187,22 @@
         <v>450</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="4:28">
+        <v>506</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD19" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE19" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF19" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="4:32">
       <c r="E20" t="s">
         <v>249</v>
       </c>
@@ -14832,7 +15214,7 @@
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="4:28">
+    <row r="21" spans="4:32">
       <c r="E21" t="s">
         <v>250</v>
       </c>
@@ -14897,10 +15279,22 @@
         <v>453</v>
       </c>
       <c r="AB21" s="30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="4:28">
+        <v>512</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE21" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" s="30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="4:32">
       <c r="E22" t="s">
         <v>251</v>
       </c>
@@ -14950,23 +15344,35 @@
       <c r="W22" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="X22" s="35" t="s">
+      <c r="X22" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="Y22" s="35" t="s">
+      <c r="Y22" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="Z22" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA22" s="27" t="s">
+      <c r="Z22" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="AB22" s="27" t="s">
+      <c r="AA22" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB22" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC22" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD22" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE22" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="AF22" s="45" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="4:28">
+    <row r="23" spans="4:32">
       <c r="E23" t="s">
         <v>252</v>
       </c>
@@ -15014,19 +15420,22 @@
       <c r="W23" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="X23" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="Y23" s="26" t="s">
+      <c r="Y23" s="31" t="s">
         <v>437</v>
       </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="4:28">
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AF23" s="45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32">
       <c r="E24" t="s">
         <v>253</v>
       </c>
@@ -15050,7 +15459,7 @@
         <v>371</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
@@ -15074,17 +15483,19 @@
       <c r="W24" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27" t="s">
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="25" spans="4:28">
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AF24" s="45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="4:32">
       <c r="E25" t="s">
         <v>254</v>
       </c>
@@ -15127,15 +15538,17 @@
         <v>412</v>
       </c>
       <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27" t="s">
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-    </row>
-    <row r="26" spans="4:28">
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+    </row>
+    <row r="26" spans="4:32">
       <c r="E26" t="s">
         <v>255</v>
       </c>
@@ -15147,7 +15560,7 @@
         <v>381</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="L26" s="39"/>
       <c r="M26" s="40" t="s">
@@ -15171,8 +15584,10 @@
       <c r="Z26" s="27"/>
       <c r="AA26" s="27"/>
       <c r="AB26" s="27"/>
-    </row>
-    <row r="27" spans="4:28">
+      <c r="AC26" s="27"/>
+      <c r="AE26" s="45"/>
+    </row>
+    <row r="27" spans="4:32">
       <c r="E27" t="s">
         <v>256</v>
       </c>
@@ -15184,7 +15599,7 @@
         <v>382</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
@@ -15206,8 +15621,9 @@
       <c r="Z27" s="27"/>
       <c r="AA27" s="27"/>
       <c r="AB27" s="27"/>
-    </row>
-    <row r="28" spans="4:28">
+      <c r="AC27" s="27"/>
+    </row>
+    <row r="28" spans="4:32">
       <c r="E28" t="s">
         <v>257</v>
       </c>
@@ -15235,8 +15651,9 @@
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
       <c r="AB28" s="27"/>
-    </row>
-    <row r="29" spans="4:28">
+      <c r="AC28" s="27"/>
+    </row>
+    <row r="29" spans="4:32">
       <c r="E29" t="s">
         <v>258</v>
       </c>
@@ -15257,11 +15674,11 @@
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
       <c r="W29" s="27"/>
-      <c r="Z29" s="27"/>
       <c r="AA29" s="27"/>
       <c r="AB29" s="27"/>
-    </row>
-    <row r="30" spans="4:28">
+      <c r="AC29" s="27"/>
+    </row>
+    <row r="30" spans="4:32">
       <c r="E30" t="s">
         <v>259</v>
       </c>
@@ -15284,11 +15701,11 @@
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
-      <c r="Z30" s="27"/>
       <c r="AA30" s="27"/>
       <c r="AB30" s="27"/>
-    </row>
-    <row r="31" spans="4:28">
+      <c r="AC30" s="27"/>
+    </row>
+    <row r="31" spans="4:32">
       <c r="E31" t="s">
         <v>260</v>
       </c>
@@ -15305,11 +15722,11 @@
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
       <c r="W31" s="27"/>
-      <c r="Z31" s="27"/>
       <c r="AA31" s="27"/>
       <c r="AB31" s="27"/>
-    </row>
-    <row r="32" spans="4:28">
+      <c r="AC31" s="27"/>
+    </row>
+    <row r="32" spans="4:32">
       <c r="E32" t="s">
         <v>261</v>
       </c>
@@ -15327,11 +15744,11 @@
       <c r="U32" s="27"/>
       <c r="V32" s="27"/>
       <c r="W32" s="27"/>
-      <c r="Z32" s="27"/>
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
-    </row>
-    <row r="33" spans="5:28">
+      <c r="AC32" s="27"/>
+    </row>
+    <row r="33" spans="5:29">
       <c r="E33" t="s">
         <v>262</v>
       </c>
@@ -15345,11 +15762,11 @@
       <c r="O33" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="Z33" s="34"/>
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
-    </row>
-    <row r="34" spans="5:28">
+      <c r="AC33" s="34"/>
+    </row>
+    <row r="34" spans="5:29">
       <c r="E34" t="s">
         <v>263</v>
       </c>
@@ -15361,11 +15778,11 @@
       <c r="O34" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="Z34" s="27"/>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
-    </row>
-    <row r="35" spans="5:28">
+      <c r="AC34" s="27"/>
+    </row>
+    <row r="35" spans="5:29">
       <c r="E35" t="s">
         <v>264</v>
       </c>
@@ -15375,11 +15792,11 @@
       <c r="O35" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="Z35" s="27"/>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
-    </row>
-    <row r="36" spans="5:28">
+      <c r="AC35" s="27"/>
+    </row>
+    <row r="36" spans="5:29">
       <c r="E36" t="s">
         <v>265</v>
       </c>
@@ -15389,11 +15806,11 @@
       <c r="O36" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="Z36" s="27"/>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
-    </row>
-    <row r="37" spans="5:28">
+      <c r="AC36" s="27"/>
+    </row>
+    <row r="37" spans="5:29">
       <c r="E37" t="s">
         <v>266</v>
       </c>
@@ -15402,7 +15819,7 @@
         <v>444</v>
       </c>
       <c r="K37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M37" s="26"/>
       <c r="O37" s="27" t="s">
@@ -15414,9 +15831,12 @@
       <c r="AA37" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="AB37" s="27"/>
-    </row>
-    <row r="38" spans="5:28">
+      <c r="AB37" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC37" s="27"/>
+    </row>
+    <row r="38" spans="5:29">
       <c r="E38" t="s">
         <v>267</v>
       </c>
@@ -15429,16 +15849,19 @@
       </c>
       <c r="M38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z38" s="44" t="s">
         <v>457</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="39" spans="5:28">
+        <v>460</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="5:29">
       <c r="E39" t="s">
         <v>268</v>
       </c>
@@ -15449,16 +15872,19 @@
       </c>
       <c r="M39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Z39" s="44" t="s">
         <v>456</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="5:28">
+        <v>461</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="5:29">
       <c r="E40" t="s">
         <v>115</v>
       </c>
@@ -15473,82 +15899,1064 @@
       <c r="AA40" s="27" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="41" spans="5:28">
+      <c r="AB40" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="5:29">
       <c r="E41" t="s">
         <v>45</v>
       </c>
       <c r="F41" t="s">
         <v>247</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="26" t="s">
+        <v>474</v>
+      </c>
       <c r="M41" s="26"/>
       <c r="O41" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AA41" s="27" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="5:28">
+    <row r="42" spans="5:29">
       <c r="E42" t="s">
         <v>46</v>
       </c>
       <c r="F42" t="s">
         <v>248</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="26" t="s">
+        <v>475</v>
+      </c>
       <c r="M42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AA42" s="27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="5:28">
+    <row r="43" spans="5:29">
       <c r="J43" s="26"/>
       <c r="M43" s="26"/>
     </row>
-    <row r="44" spans="5:28">
+    <row r="44" spans="5:29">
       <c r="J44" s="26"/>
       <c r="M44" s="26"/>
     </row>
-    <row r="45" spans="5:28">
+    <row r="45" spans="5:29">
       <c r="J45" s="26"/>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="5:28">
+    <row r="46" spans="5:29">
       <c r="J46" s="26"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="5:28">
+    <row r="47" spans="5:29">
       <c r="J47" s="26"/>
       <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="5:28">
+    <row r="48" spans="5:29">
       <c r="J48" s="26"/>
       <c r="M48" s="26"/>
     </row>
-    <row r="49" spans="10:13">
+    <row r="49" spans="8:29">
       <c r="J49" s="26"/>
       <c r="M49" s="26"/>
     </row>
-    <row r="50" spans="10:13">
+    <row r="50" spans="8:29">
       <c r="J50" s="26"/>
       <c r="M50" s="26"/>
     </row>
-    <row r="51" spans="10:13">
+    <row r="51" spans="8:29">
       <c r="J51" s="26"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="10:13">
+    <row r="52" spans="8:29">
       <c r="J52" s="26"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="10:13">
+    <row r="53" spans="8:29">
       <c r="J53" s="26"/>
       <c r="M53" s="26"/>
+    </row>
+    <row r="55" spans="8:29">
+      <c r="H55" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="N55" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="O55" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="P55" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q55" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="R55" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="S55" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="T55" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="U55" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="V55" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="W55" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="X55" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z55" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA55" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB55" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC55" s="28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="8:29">
+      <c r="H56" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="J56" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="O56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="P56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="R56" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="S56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="T56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="U56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="V56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="W56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="X56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB56" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC56" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="8:29">
+      <c r="H57" s="31"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+    </row>
+    <row r="58" spans="8:29">
+      <c r="H58" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="I58" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="R58" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="S58" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="T58" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="U58" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="V58" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="W58" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="X58" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y58" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z58" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA58" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB58" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC58" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="59" spans="8:29">
+      <c r="H59" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="R59" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="S59" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="T59" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="U59" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="V59" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="W59" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="X59" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y59" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z59" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA59" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB59" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC59" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="8:29">
+      <c r="H60" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="S60" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="T60" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="U60" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="V60" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="W60" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y60" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z60" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA60" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB60" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC60" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="8:29">
+      <c r="H61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+    </row>
+    <row r="62" spans="8:29">
+      <c r="H62" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="U62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="W62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC62" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="8:29">
+      <c r="H63" s="31"/>
+      <c r="I63" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="K63" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="N63" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="P63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="R63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="S63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="T63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="U63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="V63" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="W63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="X63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB63" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC63" s="45" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="64" spans="8:29">
+      <c r="H64" s="31"/>
+      <c r="I64" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="L64" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="O64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="P64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="R64" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="S64" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="T64" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="U64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="V64" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="W64" s="45"/>
+      <c r="X64" s="45"/>
+      <c r="Y64" s="45"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="45"/>
+      <c r="AC64" s="45" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="65" spans="8:29">
+      <c r="H65" s="31"/>
+      <c r="I65" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="K65" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="P65" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q65" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="R65" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="S65" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="T65" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AC65" s="45" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" spans="8:29">
+      <c r="H66" s="31"/>
+      <c r="I66" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="L66" s="45" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" s="31"/>
+      <c r="N66" s="45" t="s">
+        <v>500</v>
+      </c>
+      <c r="P66" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q66" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="R66" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="S66" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+    </row>
+    <row r="67" spans="8:29">
+      <c r="H67" s="31"/>
+      <c r="I67" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="K67" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="L67" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="M67" s="31"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+    </row>
+    <row r="68" spans="8:29">
+      <c r="H68" s="31"/>
+      <c r="I68" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="J68" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="L68" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="45"/>
+    </row>
+    <row r="69" spans="8:29">
+      <c r="H69" s="31"/>
+      <c r="I69" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="K69" s="31"/>
+      <c r="L69" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="45"/>
+    </row>
+    <row r="70" spans="8:29">
+      <c r="H70" s="31"/>
+      <c r="I70" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="K70" s="31"/>
+      <c r="L70" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="31"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="45"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="45"/>
+    </row>
+    <row r="71" spans="8:29">
+      <c r="H71" s="31"/>
+      <c r="I71" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="31"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
+    </row>
+    <row r="72" spans="8:29">
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="45"/>
+    </row>
+    <row r="73" spans="8:29">
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="31"/>
+      <c r="V73" s="31"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="45"/>
+    </row>
+    <row r="74" spans="8:29">
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45" t="s">
+        <v>492</v>
+      </c>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="47"/>
+      <c r="Z74" s="47"/>
+    </row>
+    <row r="75" spans="8:29">
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="K75" s="31"/>
+      <c r="L75" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
+      <c r="T75" s="31"/>
+      <c r="U75" s="31"/>
+      <c r="V75" s="31"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="45"/>
+    </row>
+    <row r="76" spans="8:29">
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="31"/>
+      <c r="W76" s="45"/>
+      <c r="X76" s="45"/>
+      <c r="Y76" s="45"/>
+      <c r="Z76" s="45"/>
+    </row>
+    <row r="77" spans="8:29">
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+    </row>
+    <row r="78" spans="8:29">
+      <c r="H78" s="31"/>
+      <c r="J78" s="26"/>
+      <c r="L78" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+    </row>
+    <row r="79" spans="8:29">
+      <c r="H79" s="31"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="W79" s="44"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="26"/>
+    </row>
+    <row r="80" spans="8:29">
+      <c r="H80" s="31"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="W80" s="44"/>
+      <c r="X80" s="26"/>
+      <c r="Y80" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -15568,15 +16976,15 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -15971,7 +17379,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -15990,14 +17398,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="15"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="2" width="8.625" style="15"/>
+    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -16171,15 +17579,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -16522,15 +17930,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -16836,15 +18244,15 @@
       <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -17460,15 +18868,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -17888,15 +19296,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -18152,15 +19560,15 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{2CFE1FBC-D55B-514C-A3A8-AA699A7D4A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A27CF16E-5A95-4296-A33E-8E0502C363E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789D55D-C514-594E-BDEC-D96F29D2A499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="839" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="3" r:id="rId1"/>
@@ -33,9 +33,11 @@
     <sheet name="games" sheetId="20" r:id="rId18"/>
     <sheet name="game_scores" sheetId="23" r:id="rId19"/>
     <sheet name="game_batting_results" sheetId="24" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId21"/>
-    <sheet name="game_throwing_results" sheetId="25" r:id="rId22"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId23"/>
+    <sheet name="整理" sheetId="27" r:id="rId21"/>
+    <sheet name="CRUD図" sheetId="28" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId23"/>
+    <sheet name="game_throwing_results" sheetId="25" r:id="rId24"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="592">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -3487,12 +3489,416 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>やりたいこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1フェーズ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な画面</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録画面</t>
+    <rPh sb="0" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本登録画面</t>
+    <rPh sb="0" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム検索画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール編集</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本登録画面</t>
+    <rPh sb="0" eb="1">
+      <t>ホントウロクガム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待コード入力画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール編集(チーム脱退)</t>
+    <rPh sb="12" eb="14">
+      <t>ダッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待メール送信画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム検索画面(一覧)</t>
+    <rPh sb="8" eb="10">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム一覧</t>
+    <rPh sb="0" eb="3">
+      <t>チームイチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム詳細画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録(仮登録、本登録)</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">トウロク </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ホントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのスポーツに属するかを決める</t>
+    <rPh sb="12" eb="13">
+      <t>キメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのスポーツ内でチームに所属する</t>
+    <rPh sb="12" eb="14">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームは、移動出来る(ただし、複数のチームに所属不可)</t>
+    <rPh sb="5" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームへの招待</t>
+    <rPh sb="5" eb="7">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待チームの検索</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他チームへの試合の招待</t>
+    <rPh sb="0" eb="1">
+      <t>タティ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選手の打席の履歴を追いたい</t>
+    <rPh sb="0" eb="2">
+      <t>カクセンシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダセキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投手の投球履歴を追いたい</t>
+    <rPh sb="0" eb="2">
+      <t>トウシュ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁履歴を追いたい</t>
+    <rPh sb="0" eb="4">
+      <t>トウルイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塁上での選手の履歴を追いたい</t>
+    <rPh sb="0" eb="2">
+      <t>ルイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リレキヲオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合結果を確認</t>
+    <rPh sb="0" eb="4">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１〜９回までの記録を表示(掲示板のような形で)</t>
+    <rPh sb="3" eb="4">
+      <t>カイマデ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ケイジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2フェーズ
+(野球)</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. やりたいこと(要件の整理9</t>
+    <rPh sb="10" eb="12">
+      <t>ヨウケn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.  その画面に必要なデータ(表示するもの)は何か</t>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 上記より適正なデータベースを設計</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.  必要な画面は何か</t>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメンヘ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>m</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRUD図</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１フェーズ</t>
+  </si>
+  <si>
+    <t>本登録</t>
+    <rPh sb="0" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録</t>
+    <rPh sb="0" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3579,6 +3985,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3612,7 +4040,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3661,11 +4089,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3794,11 +4289,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4401,8 +4972,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14411325" y="9947273"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14414500" y="10106023"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4527,8 +5098,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="13382625" y="11158535"/>
+          <a:ext cx="1930400" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4653,8 +5224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14430375" y="12030075"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14433550" y="12220575"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -4792,8 +5363,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8639175"/>
-          <a:ext cx="4010025" cy="657034"/>
+          <a:off x="13363575" y="8775700"/>
+          <a:ext cx="4016375" cy="669734"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -5145,8 +5716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7467600"/>
-          <a:ext cx="4010025" cy="833248"/>
+          <a:off x="13315950" y="7588250"/>
+          <a:ext cx="4016375" cy="845948"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -5547,8 +6118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15440025" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="15446375" y="11158535"/>
+          <a:ext cx="1924050" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -5864,8 +6435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="12963525"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="13169900"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6090,8 +6661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="14182725"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="14408150"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6316,8 +6887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="15268575"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="15513050"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -6547,8 +7118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1552575" y="16421100"/>
-          <a:ext cx="3537080" cy="911747"/>
+          <a:off x="1555750" y="16681450"/>
+          <a:ext cx="3533905" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -6830,8 +7401,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="17487900"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="17767300"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -7126,8 +7697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="18554700"/>
-          <a:ext cx="2947908" cy="911747"/>
+          <a:off x="1565275" y="18849975"/>
+          <a:ext cx="2944733" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -9923,7 +10494,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9942,15 +10513,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10355,18 +10926,18 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -10820,15 +11391,15 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11138,15 +11709,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11462,15 +12033,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -11736,15 +12307,15 @@
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12031,15 +12602,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12344,19 +12915,19 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -12665,15 +13236,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13079,15 +13650,15 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -13500,28 +14071,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="19.5">
+    <row r="2" spans="2:21" ht="20">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14187,15 +14758,15 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -14583,43 +15154,932 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC01743-6AD5-884E-A55A-302B5AFF9A8C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:D26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="21" customHeight="1">
+      <c r="B9" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="21" customHeight="1">
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="21" customHeight="1">
+      <c r="B11" s="58"/>
+      <c r="C11" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="21" customHeight="1">
+      <c r="B12" s="58"/>
+      <c r="C12" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="21" customHeight="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="54" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" customHeight="1">
+      <c r="B14" s="58"/>
+      <c r="C14" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="21" customHeight="1">
+      <c r="B15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="54" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="21" customHeight="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="21" customHeight="1">
+      <c r="B17" s="58"/>
+      <c r="C17" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="21" customHeight="1">
+      <c r="B18" s="58"/>
+      <c r="C18" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="21" customHeight="1">
+      <c r="B19" s="58"/>
+      <c r="C19" s="53" t="s">
+        <v>563</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="21" customHeight="1">
+      <c r="B20" s="58"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="21" customHeight="1">
+      <c r="B21" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="2:4" ht="21" customHeight="1">
+      <c r="B22" s="58"/>
+      <c r="C22" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="2:4" ht="21" customHeight="1">
+      <c r="B23" s="58"/>
+      <c r="C23" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="2:4" ht="21" customHeight="1">
+      <c r="B24" s="58"/>
+      <c r="C24" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="2:4" ht="21" customHeight="1">
+      <c r="B25" s="58"/>
+      <c r="C25" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="2:4" ht="21" customHeight="1">
+      <c r="B26" s="58"/>
+      <c r="C26" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="D26" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="B21:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9227CA87-3907-DE44-AA38-C80F4DFFFFD1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A2:AG19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33">
+      <c r="C2" s="44" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="C3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="D4" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+    </row>
+    <row r="5" spans="1:33" ht="26" customHeight="1">
+      <c r="C5" s="62"/>
+      <c r="D5" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+    </row>
+    <row r="6" spans="1:33" ht="26" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="S6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="W6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB6" s="51" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC6" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD6" s="51" t="s">
+        <v>582</v>
+      </c>
+      <c r="AE6" s="51" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG6" s="60" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="26" customHeight="1">
+      <c r="A7" s="27">
+        <v>1</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="66"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="67"/>
+      <c r="AG7" s="60" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="26" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="R8" s="66"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="67"/>
+      <c r="AG8" s="60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="26" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="67"/>
+      <c r="AG9" s="60" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="26" customHeight="1">
+      <c r="A10" s="27">
+        <v>2</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="67"/>
+    </row>
+    <row r="11" spans="1:33" ht="26" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
+    </row>
+    <row r="12" spans="1:33" ht="26" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
+    </row>
+    <row r="13" spans="1:33" ht="26" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
+    </row>
+    <row r="14" spans="1:33" ht="26" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
+    </row>
+    <row r="15" spans="1:33" ht="26" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="66"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="67"/>
+    </row>
+    <row r="16" spans="1:33" ht="26" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="66"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="67"/>
+    </row>
+    <row r="17" spans="1:31" ht="26" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="67"/>
+    </row>
+    <row r="18" spans="1:31" ht="26" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="67"/>
+    </row>
+    <row r="19" spans="1:31" ht="26" customHeight="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="D4:AE4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D7:AE19">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>D7="○"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6843762A-F974-4D51-923E-CAE778A49C26}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.375" customWidth="1"/>
-    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
@@ -16965,7 +18425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C99A5-61F1-4A04-84F0-5CA73117523A}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -16976,15 +18436,15 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -17371,7 +18831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A97445A-BE4A-470A-B4EC-9C0CB4827191}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17379,7 +18839,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -17395,17 +18855,17 @@
   <dimension ref="C3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C4" sqref="C4:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="15"/>
-    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="15"/>
+    <col min="1" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -17579,15 +19039,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -17930,15 +19390,15 @@
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -18244,15 +19704,15 @@
       <selection activeCell="B18" sqref="B18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -18868,15 +20328,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -19296,15 +20756,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -19556,19 +21016,19 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E789D55D-C514-594E-BDEC-D96F29D2A499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2781F15-9CD0-7B49-82B9-F70AF2E52422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="839" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="839" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者" sheetId="3" r:id="rId1"/>
@@ -19,21 +19,21 @@
     <sheet name="administrators" sheetId="12" r:id="rId4"/>
     <sheet name="temp_users" sheetId="8" r:id="rId5"/>
     <sheet name="users" sheetId="5" r:id="rId6"/>
-    <sheet name="team_addresses" sheetId="10" r:id="rId7"/>
-    <sheet name="sport_affiliation_mst" sheetId="11" r:id="rId8"/>
-    <sheet name="teams" sheetId="6" r:id="rId9"/>
-    <sheet name="team_members" sheetId="7" r:id="rId10"/>
-    <sheet name="game_players" sheetId="14" r:id="rId11"/>
-    <sheet name="position_mst" sheetId="15" r:id="rId12"/>
-    <sheet name="consent_games" sheetId="16" r:id="rId13"/>
-    <sheet name="consent_status_mst" sheetId="17" r:id="rId14"/>
-    <sheet name="opponent_teams" sheetId="19" r:id="rId15"/>
-    <sheet name="tournaments" sheetId="18" r:id="rId16"/>
-    <sheet name="seasons" sheetId="21" r:id="rId17"/>
-    <sheet name="games" sheetId="20" r:id="rId18"/>
-    <sheet name="game_scores" sheetId="23" r:id="rId19"/>
-    <sheet name="game_batting_results" sheetId="24" r:id="rId20"/>
-    <sheet name="整理" sheetId="27" r:id="rId21"/>
+    <sheet name="整理" sheetId="27" r:id="rId7"/>
+    <sheet name="team_addresses" sheetId="10" r:id="rId8"/>
+    <sheet name="sport_affiliation_mst" sheetId="11" r:id="rId9"/>
+    <sheet name="teams" sheetId="6" r:id="rId10"/>
+    <sheet name="team_members" sheetId="7" r:id="rId11"/>
+    <sheet name="game_players" sheetId="14" r:id="rId12"/>
+    <sheet name="position_mst" sheetId="15" r:id="rId13"/>
+    <sheet name="consent_games" sheetId="16" r:id="rId14"/>
+    <sheet name="consent_status_mst" sheetId="17" r:id="rId15"/>
+    <sheet name="opponent_teams" sheetId="19" r:id="rId16"/>
+    <sheet name="tournaments" sheetId="18" r:id="rId17"/>
+    <sheet name="seasons" sheetId="21" r:id="rId18"/>
+    <sheet name="games" sheetId="20" r:id="rId19"/>
+    <sheet name="game_scores" sheetId="23" r:id="rId20"/>
+    <sheet name="game_batting_results" sheetId="24" r:id="rId21"/>
     <sheet name="CRUD図" sheetId="28" r:id="rId22"/>
     <sheet name="Sheet1" sheetId="26" r:id="rId23"/>
     <sheet name="game_throwing_results" sheetId="25" r:id="rId24"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="600">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -3536,10 +3536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール編集</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本登録画面</t>
     <rPh sb="0" eb="1">
       <t>ホントウロクガム</t>
@@ -3893,12 +3889,87 @@
     <t>ユーザ関連</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>名前：姓、名</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな：姓、名</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="1">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示に必要なデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツの種類</t>
+    <rPh sb="5" eb="7">
+      <t>sh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属チーム</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール編集(任意)</t>
+    <rPh sb="9" eb="11">
+      <t>ニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3986,13 +4057,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -4040,7 +4104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4156,11 +4220,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4313,27 +4423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4344,21 +4442,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -10503,6 +10624,505 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0BD75-7F2D-4154-A5F0-5DD0809059B8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5">
+        <v>255</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>255</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="5">
+        <v>255</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79D2118-31DC-4FB1-B744-9010D03F3D58}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -10918,7 +11538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA835C-1D5E-41B1-BB3D-84DCE0E73D35}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -11380,7 +12000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8067B63-4F18-4029-A2B3-8BD11C38FAB1}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -11698,7 +12318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AEB2E5-E9AC-4340-86D5-D4E6E5BE8956}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -12022,7 +12642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA3F23D-DD2F-411F-B083-347EF3105787}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -12296,7 +12916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37DB3ED-6E6A-496E-98B5-90CBCDDBE850}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -12591,7 +13211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E217A-F430-4C40-8F13-BD22CB04262C}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -12908,7 +13528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15828A4-FEC3-411E-B8E4-95C979C0BA82}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -13225,7 +13845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B05DE5-90C0-4D52-925A-72C8B161F423}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -13629,434 +14249,6 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0B97B5-6E41-4254-A49A-C53D3D7670EC}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="5">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="5">
-        <v>14</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="5">
-        <v>15</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="5">
-        <v>16</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -14748,6 +14940,434 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0B97B5-6E41-4254-A49A-C53D3D7670EC}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5">
+        <v>15</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB63D86-1F34-454E-88B5-29BB497E3623}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -15153,211 +15773,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC01743-6AD5-884E-A55A-302B5AFF9A8C}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:D26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>541</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="21" customHeight="1">
-      <c r="B9" s="58" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="21" customHeight="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="54" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="21" customHeight="1">
-      <c r="B11" s="58"/>
-      <c r="C11" s="56" t="s">
-        <v>557</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="21" customHeight="1">
-      <c r="B12" s="58"/>
-      <c r="C12" s="53" t="s">
-        <v>558</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="21" customHeight="1">
-      <c r="B13" s="58"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="54" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="21" customHeight="1">
-      <c r="B14" s="58"/>
-      <c r="C14" s="53" t="s">
-        <v>559</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="21" customHeight="1">
-      <c r="B15" s="58"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="54" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="21" customHeight="1">
-      <c r="B16" s="58"/>
-      <c r="C16" s="53" t="s">
-        <v>560</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="21" customHeight="1">
-      <c r="B17" s="58"/>
-      <c r="C17" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="21" customHeight="1">
-      <c r="B18" s="58"/>
-      <c r="C18" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="21" customHeight="1">
-      <c r="B19" s="58"/>
-      <c r="C19" s="53" t="s">
-        <v>563</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="21" customHeight="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="21" customHeight="1">
-      <c r="B21" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>568</v>
-      </c>
-      <c r="D21" s="54"/>
-    </row>
-    <row r="22" spans="2:4" ht="21" customHeight="1">
-      <c r="B22" s="58"/>
-      <c r="C22" s="57" t="s">
-        <v>569</v>
-      </c>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" spans="2:4" ht="21" customHeight="1">
-      <c r="B23" s="58"/>
-      <c r="C23" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="D23" s="54"/>
-    </row>
-    <row r="24" spans="2:4" ht="21" customHeight="1">
-      <c r="B24" s="58"/>
-      <c r="C24" s="57" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="54"/>
-    </row>
-    <row r="25" spans="2:4" ht="21" customHeight="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="57" t="s">
-        <v>566</v>
-      </c>
-      <c r="D25" s="54"/>
-    </row>
-    <row r="26" spans="2:4" ht="21" customHeight="1">
-      <c r="B26" s="58"/>
-      <c r="C26" s="57" t="s">
-        <v>567</v>
-      </c>
-      <c r="D26" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="B21:B26"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9227CA87-3907-DE44-AA38-C80F4DFFFFD1}">
   <sheetPr>
@@ -15365,7 +15780,7 @@
   </sheetPr>
   <dimension ref="A2:AG19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -15379,648 +15794,648 @@
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="61" t="s">
-        <v>590</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
+      <c r="D4" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
     </row>
     <row r="5" spans="1:33" ht="26" customHeight="1">
-      <c r="C5" s="62"/>
-      <c r="D5" s="65" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65" t="s">
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65" t="s">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
     </row>
     <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="63" t="s">
-        <v>584</v>
+      <c r="C6" s="60" t="s">
+        <v>583</v>
       </c>
       <c r="D6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="G6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="H6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="J6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="K6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="K6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="L6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="M6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="N6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="O6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="O6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="P6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="R6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="R6" s="51" t="s">
+      <c r="S6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="S6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="T6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="U6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="U6" s="51" t="s">
+      <c r="V6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="V6" s="51" t="s">
+      <c r="W6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="W6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="X6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="Y6" s="51" t="s">
+      <c r="Z6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="Z6" s="51" t="s">
+      <c r="AA6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="AA6" s="51" t="s">
-        <v>583</v>
-      </c>
       <c r="AB6" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC6" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="AC6" s="51" t="s">
+      <c r="AD6" s="51" t="s">
         <v>581</v>
       </c>
-      <c r="AD6" s="51" t="s">
+      <c r="AE6" s="51" t="s">
         <v>582</v>
       </c>
-      <c r="AE6" s="51" t="s">
-        <v>583</v>
-      </c>
-      <c r="AG6" s="60" t="s">
-        <v>572</v>
+      <c r="AG6" s="58" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="26" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>588</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="68"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="67"/>
-      <c r="AG7" s="60" t="s">
-        <v>573</v>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="63"/>
+      <c r="AG7" s="58" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="26" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="R8" s="66"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="67"/>
-      <c r="AG8" s="60" t="s">
-        <v>574</v>
+      <c r="B8" s="59"/>
+      <c r="C8" s="61" t="s">
+        <v>586</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="R8" s="62"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="63"/>
+      <c r="AG8" s="58" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="26" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>589</v>
-      </c>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="68"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="67"/>
-      <c r="AG9" s="60" t="s">
-        <v>575</v>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="64"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="63"/>
+      <c r="AG9" s="58" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="26" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="68"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="67"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="63"/>
     </row>
     <row r="11" spans="1:33" ht="26" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="62"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="63"/>
     </row>
     <row r="12" spans="1:33" ht="26" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="67"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="63"/>
     </row>
     <row r="13" spans="1:33" ht="26" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="67"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="63"/>
     </row>
     <row r="14" spans="1:33" ht="26" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="67"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="63"/>
     </row>
     <row r="15" spans="1:33" ht="26" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="67"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="63"/>
     </row>
     <row r="16" spans="1:33" ht="26" customHeight="1">
       <c r="A16" s="27"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="67"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="63"/>
     </row>
     <row r="17" spans="1:31" ht="26" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="67"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="63"/>
     </row>
     <row r="18" spans="1:31" ht="26" customHeight="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="67"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="63"/>
     </row>
     <row r="19" spans="1:31" ht="26" customHeight="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="67"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -16050,7 +16465,7 @@
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I9"/>
     </sheetView>
   </sheetViews>
@@ -19701,7 +20116,7 @@
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I18"/>
+      <selection activeCell="C27" sqref="C27:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -20318,6 +20733,343 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC01743-6AD5-884E-A55A-302B5AFF9A8C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:F39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="E8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="21" customHeight="1">
+      <c r="B9" s="65" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" customHeight="1">
+      <c r="B10" s="65"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" t="s">
+        <v>591</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21" customHeight="1">
+      <c r="B11" s="65"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="74"/>
+      <c r="E11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" customHeight="1">
+      <c r="B12" s="65"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="74"/>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" customHeight="1">
+      <c r="B13" s="65"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="74"/>
+      <c r="E13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="21" customHeight="1">
+      <c r="B14" s="65"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="74"/>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="21" customHeight="1">
+      <c r="B15" s="65"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="73"/>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="21" customHeight="1">
+      <c r="B16" s="65"/>
+      <c r="C16" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21" customHeight="1">
+      <c r="B17" s="65"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21" customHeight="1">
+      <c r="B18" s="65"/>
+      <c r="C18" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="E18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21" customHeight="1">
+      <c r="B19" s="65"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="72" t="s">
+        <v>599</v>
+      </c>
+      <c r="E19" t="s">
+        <v>597</v>
+      </c>
+      <c r="F19" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21" customHeight="1">
+      <c r="B20" s="65"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="74"/>
+      <c r="F20" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="21" customHeight="1">
+      <c r="B21" s="65"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="74"/>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="21" customHeight="1">
+      <c r="B22" s="65"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="74"/>
+      <c r="F22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="21" customHeight="1">
+      <c r="B23" s="65"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="74"/>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="21" customHeight="1">
+      <c r="B24" s="65"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="74"/>
+      <c r="F24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="21" customHeight="1">
+      <c r="B25" s="65"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="74"/>
+    </row>
+    <row r="26" spans="2:6" ht="21" customHeight="1">
+      <c r="B26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="73"/>
+    </row>
+    <row r="27" spans="2:6" ht="21" customHeight="1">
+      <c r="B27" s="65"/>
+      <c r="C27" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="21" customHeight="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="54" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="21" customHeight="1">
+      <c r="B29" s="65"/>
+      <c r="C29" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="21" customHeight="1">
+      <c r="B30" s="65"/>
+      <c r="C30" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="21" customHeight="1">
+      <c r="B31" s="65"/>
+      <c r="C31" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="21" customHeight="1">
+      <c r="B32" s="65"/>
+      <c r="C32" s="53" t="s">
+        <v>562</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="21" customHeight="1">
+      <c r="B33" s="65"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="21" customHeight="1">
+      <c r="B34" s="66" t="s">
+        <v>569</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>567</v>
+      </c>
+      <c r="D34" s="54"/>
+    </row>
+    <row r="35" spans="2:4" ht="21" customHeight="1">
+      <c r="B35" s="65"/>
+      <c r="C35" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="D35" s="54"/>
+    </row>
+    <row r="36" spans="2:4" ht="21" customHeight="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="57" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" s="54"/>
+    </row>
+    <row r="37" spans="2:4" ht="21" customHeight="1">
+      <c r="B37" s="65"/>
+      <c r="C37" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="2:4" ht="21" customHeight="1">
+      <c r="B38" s="65"/>
+      <c r="C38" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" s="54"/>
+    </row>
+    <row r="39" spans="2:4" ht="21" customHeight="1">
+      <c r="B39" s="65"/>
+      <c r="C39" s="57" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B33"/>
+    <mergeCell ref="B34:B39"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06635EA-C344-49A2-8955-788279F1CDDC}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -20745,7 +21497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D83226-F915-4937-975A-963D2117D2E0}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -21007,503 +21759,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0BD75-7F2D-4154-A5F0-5DD0809059B8}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:J30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="5">
-        <v>255</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="5">
-        <v>255</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="5">
-        <v>255</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="5">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="5">
-        <v>7</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="5">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="C29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="C30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0117FD41-A954-D44F-8EF4-E60CF6635D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30840" yWindow="-1120" windowWidth="28800" windowHeight="15720" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="管理者" sheetId="3" r:id="rId1"/>
-    <sheet name="画面一覧" sheetId="29" r:id="rId2"/>
-    <sheet name="整理" sheetId="27" r:id="rId3"/>
-    <sheet name="画面イメージ" sheetId="30" r:id="rId4"/>
-    <sheet name="ユーザ" sheetId="1" r:id="rId5"/>
-    <sheet name="テーブル一覧" sheetId="2" r:id="rId6"/>
+    <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="管理者" sheetId="3" r:id="rId2"/>
+    <sheet name="画面一覧" sheetId="29" r:id="rId3"/>
+    <sheet name="整理" sheetId="27" r:id="rId4"/>
+    <sheet name="画面イメージ" sheetId="30" r:id="rId5"/>
+    <sheet name="ユーザ" sheetId="1" r:id="rId6"/>
     <sheet name="administrators" sheetId="12" r:id="rId7"/>
     <sheet name="temp_users" sheetId="8" r:id="rId8"/>
     <sheet name="users" sheetId="5" r:id="rId9"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="624">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -3610,19 +3610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.  その画面に必要なデータ(表示するもの)は何か</t>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4. 上記より適正なデータベースを設計</t>
     <rPh sb="3" eb="5">
       <t>ジョウ</t>
@@ -3632,19 +3619,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.  必要な画面は何か</t>
-    <rPh sb="4" eb="6">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメンヘ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナニ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4123,6 +4097,39 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 必要な画面は何か</t>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメンヘ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. その画面に必要なデータ(表示するもの)は何か</t>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合結果の削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4656,21 +4663,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4680,7 +4682,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -24438,13 +24445,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF640128-8A34-4845-9C78-74D34138C61C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF305935-16B2-471A-A014-5002A4A9ED64}">
+  <dimension ref="C3:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -24458,7 +24629,7 @@
   </sheetPr>
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -24886,9 +25057,7 @@
   </sheetPr>
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -25150,9 +25319,7 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -25649,9 +25816,7 @@
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -26065,9 +26230,7 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -26527,9 +26690,7 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -26845,9 +27006,7 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -27169,9 +27328,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -27443,9 +27600,7 @@
   </sheetPr>
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -27738,9 +27893,7 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -28049,32 +28202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B981E-3230-0E45-9FDB-014A45CD13AA}">
-  <dimension ref="B2:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF640128-8A34-4845-9C78-74D34138C61C}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="58"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="23">
-      <c r="B2" s="71" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="23">
-      <c r="B21" s="71" t="s">
-        <v>595</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28085,9 +28222,7 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -28402,9 +28537,7 @@
   </sheetPr>
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -28816,9 +28949,7 @@
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -29244,9 +29375,7 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -29664,174 +29793,174 @@
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="44" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="74" t="s">
-        <v>572</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
+      <c r="D4" s="84" t="s">
+        <v>570</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
     </row>
     <row r="5" spans="1:33" ht="26" customHeight="1">
       <c r="C5" s="52"/>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73" t="s">
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73" t="s">
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
     </row>
     <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="53" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="G6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="H6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="K6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="J6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="L6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="N6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="O6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="N6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="P6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="R6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="S6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="R6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="T6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="V6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="W6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="V6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="W6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="X6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="AA6" s="50" t="s">
         <v>563</v>
       </c>
-      <c r="Z6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="AA6" s="50" t="s">
-        <v>565</v>
-      </c>
       <c r="AB6" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC6" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="AC6" s="50" t="s">
+      <c r="AE6" s="50" t="s">
         <v>563</v>
-      </c>
-      <c r="AD6" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="AE6" s="50" t="s">
-        <v>565</v>
       </c>
       <c r="AG6" s="51" t="s">
         <v>554</v>
@@ -29842,19 +29971,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
       <c r="G7" s="56"/>
       <c r="H7" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
@@ -29887,33 +30016,33 @@
       <c r="A8" s="27"/>
       <c r="B8" s="52"/>
       <c r="C8" s="54" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="56"/>
       <c r="H8" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J8" s="55"/>
       <c r="K8" s="56"/>
       <c r="L8" s="57"/>
       <c r="M8" s="55" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="56"/>
       <c r="P8" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="R8" s="55"/>
       <c r="S8" s="56"/>
@@ -29945,10 +30074,10 @@
       <c r="G9" s="56"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
@@ -30335,9 +30464,7 @@
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47"/>
-    </sheetView>
+    <sheetView topLeftCell="E38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -32717,9 +32844,7 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -33136,14 +33261,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B981E-3230-0E45-9FDB-014A45CD13AA}">
+  <dimension ref="B2:B21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="23">
+      <c r="B2" s="71" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="23">
+      <c r="B21" s="71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC01743-6AD5-884E-A55A-302B5AFF9A8C}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:H77"/>
+  <dimension ref="B2:H80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -33165,17 +33321,17 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="58" t="s">
-        <v>561</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="58" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -33186,18 +33342,18 @@
         <v>541</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="79" t="s">
         <v>542</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -33215,13 +33371,13 @@
       <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1">
-      <c r="B10" s="72"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="63"/>
       <c r="D10" s="64" t="s">
         <v>544</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>21</v>
@@ -33229,11 +33385,11 @@
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1">
-      <c r="B11" s="72"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="63"/>
       <c r="D11" s="65"/>
       <c r="E11" s="62" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>21</v>
@@ -33241,7 +33397,7 @@
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1">
-      <c r="B12" s="72"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="63"/>
       <c r="D12" s="65"/>
       <c r="E12" s="62" t="s">
@@ -33253,11 +33409,11 @@
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1">
-      <c r="B13" s="72"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="63"/>
       <c r="D13" s="65"/>
       <c r="E13" s="62" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>21</v>
@@ -33265,7 +33421,7 @@
       <c r="G13" s="62"/>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1">
-      <c r="B14" s="72"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="63"/>
       <c r="D14" s="65"/>
       <c r="E14" s="62" t="s">
@@ -33277,7 +33433,7 @@
       <c r="G14" s="62"/>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1">
-      <c r="B15" s="72"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="63"/>
       <c r="D15" s="66"/>
       <c r="E15" s="62" t="s">
@@ -33289,7 +33445,7 @@
       <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
-      <c r="B16" s="72"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="67" t="s">
         <v>549</v>
       </c>
@@ -33300,18 +33456,18 @@
         <v>19</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
-      <c r="B17" s="72"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="68"/>
       <c r="D17" s="66"/>
       <c r="E17" s="62" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F17" s="62" t="s">
         <v>21</v>
@@ -33319,7 +33475,7 @@
       <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1">
-      <c r="B18" s="72"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="67" t="s">
         <v>550</v>
       </c>
@@ -33327,107 +33483,107 @@
         <v>546</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1">
-      <c r="B19" s="72"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="69"/>
       <c r="D19" s="64" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G19" s="62"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1">
-      <c r="B20" s="72"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="69"/>
       <c r="D20" s="65"/>
       <c r="E20" s="62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G20" s="62"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="72"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="69"/>
       <c r="D21" s="65"/>
       <c r="E21" s="62" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G21" s="62"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1">
-      <c r="B22" s="72"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="69"/>
       <c r="D22" s="65"/>
       <c r="E22" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G22" s="62"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1">
-      <c r="B23" s="72"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="69"/>
       <c r="D23" s="65"/>
       <c r="E23" s="62" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G23" s="62"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1">
-      <c r="B24" s="72"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="69"/>
       <c r="D24" s="65"/>
       <c r="E24" s="62" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1">
-      <c r="B25" s="72"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="69"/>
       <c r="D25" s="65"/>
       <c r="E25" s="62" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1">
-      <c r="B26" s="72"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="60" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>585</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>587</v>
-      </c>
       <c r="E26" s="62" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F26" s="62" t="s">
         <v>21</v>
@@ -33435,15 +33591,15 @@
       <c r="G26" s="62"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1">
-      <c r="B27" s="72"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="60" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F27" s="62" t="s">
         <v>21</v>
@@ -33451,12 +33607,12 @@
       <c r="G27" s="62"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1">
-      <c r="B28" s="72"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="70" t="s">
         <v>551</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>19</v>
@@ -33467,9 +33623,9 @@
       <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1">
-      <c r="B29" s="72"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="67" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>547</v>
@@ -33481,17 +33637,17 @@
         <v>442</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
-      <c r="B30" s="72"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="68"/>
       <c r="D30" s="61" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F30" s="62" t="s">
         <v>442</v>
@@ -33499,468 +33655,491 @@
       <c r="G30" s="62"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="77" t="s">
+        <v>599</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>600</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="77"/>
+    </row>
+    <row r="32" spans="2:7" ht="21" customHeight="1">
+      <c r="B32" s="81"/>
+      <c r="C32" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>603</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="77"/>
+    </row>
+    <row r="33" spans="2:8" ht="21" customHeight="1">
+      <c r="B33" s="81"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="77" t="s">
+        <v>604</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="77"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" customHeight="1">
+      <c r="B34" s="81"/>
+      <c r="C34" s="74" t="s">
+        <v>608</v>
+      </c>
+      <c r="D34" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="E34" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="77"/>
+    </row>
+    <row r="35" spans="2:8" ht="21" customHeight="1">
+      <c r="B35" s="81"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77" t="s">
+        <v>607</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="77"/>
+    </row>
+    <row r="36" spans="2:8" ht="21" customHeight="1">
+      <c r="B36" s="81"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="E31" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F31" s="80" t="s">
+      <c r="E36" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F36" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="80"/>
-    </row>
-    <row r="32" spans="2:7" ht="21" customHeight="1">
-      <c r="B32" s="82"/>
-      <c r="C32" s="79" t="s">
-        <v>600</v>
-      </c>
-      <c r="D32" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="E32" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F32" s="80" t="s">
+      <c r="G36" s="77"/>
+    </row>
+    <row r="37" spans="2:8" ht="21" customHeight="1">
+      <c r="B37" s="81"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="77" t="s">
+        <v>606</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="80"/>
-    </row>
-    <row r="33" spans="2:8" ht="21" customHeight="1">
-      <c r="B33" s="82"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="80" t="s">
-        <v>606</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F33" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="80"/>
-    </row>
-    <row r="34" spans="2:8" ht="21" customHeight="1">
-      <c r="B34" s="82"/>
-      <c r="C34" s="77" t="s">
-        <v>610</v>
-      </c>
-      <c r="D34" s="80" t="s">
-        <v>603</v>
-      </c>
-      <c r="E34" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F34" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="80"/>
-    </row>
-    <row r="35" spans="2:8" ht="21" customHeight="1">
-      <c r="B35" s="82"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80" t="s">
+      <c r="G37" s="77"/>
+    </row>
+    <row r="38" spans="2:8" ht="21" customHeight="1">
+      <c r="B38" s="81"/>
+      <c r="C38" s="74" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>595</v>
+      </c>
+      <c r="E38" s="77" t="s">
         <v>609</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F35" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="80"/>
-    </row>
-    <row r="36" spans="2:8" ht="21" customHeight="1">
-      <c r="B36" s="82"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80" t="s">
-        <v>604</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F36" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="80"/>
-    </row>
-    <row r="37" spans="2:8" ht="21" customHeight="1">
-      <c r="B37" s="82"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="80" t="s">
-        <v>608</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>612</v>
-      </c>
-      <c r="F37" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="80"/>
-    </row>
-    <row r="38" spans="2:8" ht="21" customHeight="1">
-      <c r="B38" s="82"/>
-      <c r="C38" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="D38" s="75" t="s">
-        <v>597</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>611</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="80"/>
+      <c r="G38" s="77"/>
     </row>
     <row r="39" spans="2:8" ht="21" customHeight="1">
-      <c r="B39" s="82"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="80" t="s">
+      <c r="B39" s="81"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="77" t="s">
         <v>288</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="80"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40" spans="2:8" ht="21" customHeight="1">
-      <c r="B40" s="83"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="80" t="s">
+      <c r="B40" s="82"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="77" t="s">
         <v>293</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="80"/>
+      <c r="G40" s="77"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="C41" s="79"/>
-      <c r="D41" s="75" t="s">
-        <v>598</v>
-      </c>
-      <c r="E41" s="80" t="s">
-        <v>618</v>
+      <c r="C41" s="76"/>
+      <c r="D41" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>616</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="80"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42" spans="2:8">
-      <c r="C42" s="79"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="80" t="s">
-        <v>619</v>
+      <c r="C42" s="76"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="77" t="s">
+        <v>617</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="80" t="s">
-        <v>621</v>
+      <c r="G42" s="77" t="s">
+        <v>619</v>
       </c>
       <c r="H42" s="58" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="C43" s="79"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="80" t="s">
-        <v>620</v>
+      <c r="C43" s="76"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="77" t="s">
+        <v>618</v>
       </c>
       <c r="F43" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="80"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="C44" s="79"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="80" t="s">
+      <c r="C44" s="76"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="77" t="s">
         <v>285</v>
       </c>
       <c r="F44" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="80" t="s">
-        <v>621</v>
+      <c r="G44" s="77" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="C45" s="79"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="80" t="s">
-        <v>614</v>
+      <c r="C45" s="76"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="77" t="s">
+        <v>612</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="80"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="2:8">
-      <c r="C46" s="79"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="80" t="s">
-        <v>615</v>
+      <c r="C46" s="76"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="77" t="s">
+        <v>613</v>
       </c>
       <c r="F46" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="G46" s="80" t="s">
-        <v>617</v>
+      <c r="G46" s="77" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="C47" s="79"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="80" t="s">
-        <v>616</v>
+      <c r="C47" s="76"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="77" t="s">
+        <v>614</v>
       </c>
       <c r="F47" s="70" t="s">
         <v>442</v>
       </c>
-      <c r="G47" s="80" t="s">
-        <v>617</v>
+      <c r="G47" s="77" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="C48" s="79"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="80"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="77"/>
       <c r="F48" s="70"/>
-      <c r="G48" s="80"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="3:7">
-      <c r="C49" s="79"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="80"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="70"/>
-      <c r="G49" s="80"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="3:7">
-      <c r="C50" s="79"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="80"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="70"/>
-      <c r="G50" s="80"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="3:7">
-      <c r="C51" s="79"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="80"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="70"/>
-      <c r="G51" s="80"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="3:7">
-      <c r="C52" s="79"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="80"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="77"/>
       <c r="F52" s="70"/>
-      <c r="G52" s="80"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" spans="3:7">
-      <c r="C53" s="79"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="80"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="77"/>
       <c r="F53" s="70"/>
-      <c r="G53" s="80"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54" spans="3:7">
-      <c r="C54" s="79"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="80"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="70"/>
-      <c r="G54" s="80"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" spans="3:7">
-      <c r="C55" s="79"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="80"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="77"/>
       <c r="F55" s="70"/>
-      <c r="G55" s="80"/>
+      <c r="G55" s="77"/>
     </row>
     <row r="56" spans="3:7">
-      <c r="C56" s="79"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="80"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="70"/>
-      <c r="G56" s="80"/>
+      <c r="G56" s="77"/>
     </row>
     <row r="57" spans="3:7">
-      <c r="C57" s="79"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="80"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="70"/>
-      <c r="G57" s="80"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58" spans="3:7">
-      <c r="C58" s="77" t="s">
-        <v>607</v>
-      </c>
-      <c r="D58" s="75" t="s">
-        <v>599</v>
-      </c>
-      <c r="E58" s="80" t="s">
-        <v>611</v>
+      <c r="C58" s="74" t="s">
+        <v>605</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>597</v>
+      </c>
+      <c r="E58" s="77" t="s">
+        <v>609</v>
       </c>
       <c r="F58" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="80"/>
+      <c r="G58" s="77"/>
     </row>
     <row r="59" spans="3:7">
-      <c r="C59" s="79"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="80" t="s">
+      <c r="C59" s="76"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="77" t="s">
         <v>288</v>
       </c>
       <c r="F59" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G59" s="80"/>
+      <c r="G59" s="77"/>
     </row>
     <row r="60" spans="3:7">
-      <c r="C60" s="79"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="80" t="s">
+      <c r="C60" s="76"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="77" t="s">
         <v>293</v>
       </c>
       <c r="F60" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="80"/>
+      <c r="G60" s="77"/>
     </row>
     <row r="61" spans="3:7">
-      <c r="C61" s="79"/>
-      <c r="D61" s="75" t="s">
-        <v>613</v>
-      </c>
-      <c r="E61" s="80"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E61" s="77"/>
       <c r="F61" s="70"/>
-      <c r="G61" s="80"/>
+      <c r="G61" s="77"/>
     </row>
     <row r="62" spans="3:7">
-      <c r="C62" s="79"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="80"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="70"/>
-      <c r="G62" s="80"/>
+      <c r="G62" s="77"/>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="79"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="80"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="70"/>
-      <c r="G63" s="80"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" spans="3:7">
-      <c r="C64" s="79"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="80"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="77"/>
       <c r="F64" s="70"/>
-      <c r="G64" s="80"/>
+      <c r="G64" s="77"/>
     </row>
     <row r="65" spans="3:7">
-      <c r="C65" s="79"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="80"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="77"/>
       <c r="F65" s="70"/>
-      <c r="G65" s="80"/>
+      <c r="G65" s="77"/>
     </row>
     <row r="66" spans="3:7">
-      <c r="C66" s="79"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="80"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="70"/>
-      <c r="G66" s="80"/>
+      <c r="G66" s="77"/>
     </row>
     <row r="67" spans="3:7">
-      <c r="C67" s="79"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="80"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="70"/>
-      <c r="G67" s="80"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68" spans="3:7">
-      <c r="C68" s="79"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="80"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="77"/>
       <c r="F68" s="70"/>
-      <c r="G68" s="80"/>
+      <c r="G68" s="77"/>
     </row>
     <row r="69" spans="3:7">
-      <c r="C69" s="79"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="80"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="77"/>
       <c r="F69" s="70"/>
-      <c r="G69" s="80"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70" spans="3:7">
-      <c r="C70" s="79"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="80"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="77"/>
       <c r="F70" s="70"/>
-      <c r="G70" s="80"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="3:7">
-      <c r="C71" s="79"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="80"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="70"/>
-      <c r="G71" s="80"/>
+      <c r="G71" s="77"/>
     </row>
     <row r="72" spans="3:7">
-      <c r="C72" s="79"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="80"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="77"/>
       <c r="F72" s="70"/>
-      <c r="G72" s="80"/>
+      <c r="G72" s="77"/>
     </row>
     <row r="73" spans="3:7">
-      <c r="C73" s="79"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="80"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="77"/>
       <c r="F73" s="70"/>
-      <c r="G73" s="80"/>
+      <c r="G73" s="77"/>
     </row>
     <row r="74" spans="3:7">
-      <c r="C74" s="79"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="80"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="77"/>
       <c r="F74" s="70"/>
-      <c r="G74" s="80"/>
+      <c r="G74" s="77"/>
     </row>
     <row r="75" spans="3:7">
-      <c r="C75" s="79"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="80"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="77"/>
       <c r="F75" s="70"/>
-      <c r="G75" s="80"/>
+      <c r="G75" s="77"/>
     </row>
     <row r="76" spans="3:7">
-      <c r="C76" s="79"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="80"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="70"/>
-      <c r="G76" s="80"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="3:7">
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="80"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="77"/>
       <c r="F77" s="70"/>
-      <c r="G77" s="80"/>
+      <c r="G77" s="77"/>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78" s="74" t="s">
+        <v>623</v>
+      </c>
+      <c r="D78" s="72"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="77"/>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79" s="76"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="77"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="76"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33972,13 +34151,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1287A936-2CAA-3341-AFC1-C22987051707}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData/>
@@ -33988,12 +34165,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -34668,184 +34845,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF305935-16B2-471A-A014-5002A4A9ED64}">
-  <dimension ref="C3:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
-  <cols>
-    <col min="1" max="2" width="8.6640625" style="15"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69DB5AB-8627-4518-9A54-AA3359ED223E}">
   <sheetPr>
@@ -34853,8 +34852,8 @@
   </sheetPr>
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -35204,8 +35203,8 @@
   </sheetPr>
   <dimension ref="B2:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -35518,7 +35517,7 @@
   </sheetPr>
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BC2CFCF-7EFC-4062-B8B1-FCDADE00B77B}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="-1120" windowWidth="28800" windowHeight="15720" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -22,24 +22,25 @@
     <sheet name="administrators" sheetId="12" r:id="rId7"/>
     <sheet name="temp_users" sheetId="8" r:id="rId8"/>
     <sheet name="users" sheetId="5" r:id="rId9"/>
-    <sheet name="team_addresses" sheetId="10" r:id="rId10"/>
-    <sheet name="sport_affiliation_mst" sheetId="11" r:id="rId11"/>
-    <sheet name="teams" sheetId="6" r:id="rId12"/>
-    <sheet name="team_members" sheetId="7" r:id="rId13"/>
-    <sheet name="game_players" sheetId="14" r:id="rId14"/>
-    <sheet name="position_mst" sheetId="15" r:id="rId15"/>
+    <sheet name="teams" sheetId="6" r:id="rId10"/>
+    <sheet name="team_addresses" sheetId="10" r:id="rId11"/>
+    <sheet name="team_role_mst" sheetId="31" r:id="rId12"/>
+    <sheet name="sport_affiliation_mst" sheetId="11" r:id="rId13"/>
+    <sheet name="team_members" sheetId="7" r:id="rId14"/>
+    <sheet name="consent_status_mst" sheetId="17" r:id="rId15"/>
     <sheet name="consent_games" sheetId="16" r:id="rId16"/>
-    <sheet name="consent_status_mst" sheetId="17" r:id="rId17"/>
-    <sheet name="opponent_teams" sheetId="19" r:id="rId18"/>
-    <sheet name="tournaments" sheetId="18" r:id="rId19"/>
-    <sheet name="seasons" sheetId="21" r:id="rId20"/>
-    <sheet name="games" sheetId="20" r:id="rId21"/>
-    <sheet name="game_scores" sheetId="23" r:id="rId22"/>
-    <sheet name="game_batting_results" sheetId="24" r:id="rId23"/>
-    <sheet name="CRUD図" sheetId="28" r:id="rId24"/>
-    <sheet name="Sheet1" sheetId="26" r:id="rId25"/>
-    <sheet name="game_throwing_results" sheetId="25" r:id="rId26"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId27"/>
+    <sheet name="game_players" sheetId="14" r:id="rId17"/>
+    <sheet name="position_mst" sheetId="15" r:id="rId18"/>
+    <sheet name="opponent_teams" sheetId="19" r:id="rId19"/>
+    <sheet name="tournaments" sheetId="18" r:id="rId20"/>
+    <sheet name="seasons" sheetId="21" r:id="rId21"/>
+    <sheet name="games" sheetId="20" r:id="rId22"/>
+    <sheet name="game_scores" sheetId="23" r:id="rId23"/>
+    <sheet name="game_batting_results" sheetId="24" r:id="rId24"/>
+    <sheet name="CRUD図" sheetId="28" r:id="rId25"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId26"/>
+    <sheet name="game_throwing_results" sheetId="25" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="626">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -1198,10 +1199,6 @@
   </si>
   <si>
     <t>label</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URLからアクセス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4131,6 +4128,17 @@
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■team_role_mst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>team_role_mst</t>
+  </si>
+  <si>
+    <t>team_role_mst</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7178,14 +7186,14 @@
     <dgm:cxn modelId="{3A5CF635-9838-B44B-B573-9EB410272026}" srcId="{3E73D937-8C65-624E-A2A1-4BA6E5B08C23}" destId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" srcOrd="0" destOrd="0" parTransId="{3BF11DA0-70D8-F142-84D7-5B892A0758B9}" sibTransId="{7E16E407-C67C-1441-A59E-55B4A62727CA}"/>
     <dgm:cxn modelId="{BC0EE63D-6293-DA4B-9094-53F71E8D80EE}" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" srcOrd="0" destOrd="0" parTransId="{76A54F18-244A-614C-9032-85677F3F5361}" sibTransId="{33BD3859-CACD-9344-8C0B-AF7FB694A7CF}"/>
     <dgm:cxn modelId="{CB28773F-2EB2-3B42-B9C8-4180D1DDCCA2}" type="presOf" srcId="{BF3B7BD3-FFA9-5E4E-A2DE-18BDA1307D27}" destId="{4FF3E7D5-5CF7-3C45-BBCC-A55C11CC9F1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D274EF42-9D21-B748-873F-EE016A3E9E42}" type="presOf" srcId="{BB9AF71B-D57B-5943-B453-ED7D1F2283C5}" destId="{2F18E196-3FF0-F246-8E00-EF14229692FF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{84530B43-2501-FC49-AA5D-D98BEBE15E50}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A7326A-6034-1246-958C-B93CAAF77DCB}" srcId="{E40EC64D-96DE-944D-AC1A-08B73C7CCA28}" destId="{58148714-4A18-4846-AE98-815A82AE6F5C}" srcOrd="0" destOrd="0" parTransId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" sibTransId="{DEB2D829-7072-B24C-B732-F6D8EB211D4E}"/>
     <dgm:cxn modelId="{C881076C-2791-7B49-B3B9-6678B5055372}" type="presOf" srcId="{F4890F2E-C69C-AD41-83BF-922F1F8FDF64}" destId="{A4F73497-1C60-994D-B7BB-FF922AC477D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4784E36C-137D-2545-90D5-41D365AE9EC0}" type="presOf" srcId="{76A54F18-244A-614C-9032-85677F3F5361}" destId="{CABB0FD0-5582-CA49-B21E-357A38F4CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B39BD26F-37A5-6342-8AFC-4773F27E34B1}" type="presOf" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{23DA1EA8-80AA-974A-9469-7910D725533B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{28734183-791F-A444-92EC-6338D358B842}" type="presOf" srcId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" destId="{1626C21C-174A-BA4D-A282-A122107CA46C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E48FB58B-98F6-8842-A7EE-68E3BAFE5A83}" type="presOf" srcId="{5612EDFF-246C-5D42-9BEC-9C47A72FCBCB}" destId="{43280627-C848-024B-9A8B-A06F8D383EAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB90CB8E-C823-4340-A34D-686464910A59}" type="presOf" srcId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" destId="{5CA976B6-F0EF-4442-AD81-ECB67A53B985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -18928,8 +18936,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14414500" y="10106023"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14411325" y="9947273"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19054,8 +19062,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="11158535"/>
-          <a:ext cx="1930400" cy="334773"/>
+          <a:off x="13382625" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19180,8 +19188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14433550" y="12220575"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14430375" y="12030075"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19319,8 +19327,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8775700"/>
-          <a:ext cx="4016375" cy="669734"/>
+          <a:off x="13363575" y="8639175"/>
+          <a:ext cx="4010025" cy="657034"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -19672,8 +19680,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7588250"/>
-          <a:ext cx="4016375" cy="845948"/>
+          <a:off x="13315950" y="7467600"/>
+          <a:ext cx="4010025" cy="833248"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -20074,8 +20082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15446375" y="11158535"/>
-          <a:ext cx="1924050" cy="334773"/>
+          <a:off x="15440025" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -20391,8 +20399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="13169900"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1562100" y="12963525"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20617,8 +20625,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="14408150"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1533525" y="14182725"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20843,8 +20851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="15513050"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1533525" y="15268575"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21074,8 +21082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1555750" y="16681450"/>
-          <a:ext cx="3533905" cy="927622"/>
+          <a:off x="1552575" y="16421100"/>
+          <a:ext cx="3537080" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -21357,8 +21365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="17767300"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1562100" y="17487900"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21653,8 +21661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="18849975"/>
-          <a:ext cx="2944733" cy="927622"/>
+          <a:off x="1562100" y="18554700"/>
+          <a:ext cx="2947908" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -24448,18 +24456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF305935-16B2-471A-A014-5002A4A9ED64}">
   <dimension ref="C3:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="15"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="2" width="8.625" style="15"/>
+    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -24623,25 +24631,524 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0BD75-7F2D-4154-A5F0-5DD0809059B8}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5">
+        <v>255</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5">
+        <v>255</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="5">
+        <v>255</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="5">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06635EA-C344-49A2-8955-788279F1CDDC}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24933,10 +25440,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -24947,9 +25454,7 @@
       <c r="G19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9">
@@ -24960,13 +25465,13 @@
         <v>84</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
+        <v>94</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="5">
+        <v>255</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>21</v>
@@ -24982,19 +25487,21 @@
         <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="5">
-        <v>255</v>
+        <v>76</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5">
@@ -25004,7 +25511,7 @@
         <v>84</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>76</v>
@@ -25017,30 +25524,6 @@
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="5">
-        <v>6</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -25050,24 +25533,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D83226-F915-4937-975A-963D2117D2E0}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9586BFD7-2397-49A0-BB3F-5FF391CA0D1A}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -25110,7 +25595,7 @@
       <c r="E4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -25130,7 +25615,7 @@
       <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -25153,7 +25638,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -25187,7 +25672,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>158</v>
+        <v>625</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -25211,34 +25696,31 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F11" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="1" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5">
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>115</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -25250,12 +25732,12 @@
       <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="16" t="s">
-        <v>116</v>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25263,7 +25745,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -25277,9 +25759,9 @@
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -25287,7 +25769,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>158</v>
+        <v>624</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -25295,512 +25777,15 @@
       <c r="E14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C0BD75-7F2D-4154-A5F0-5DD0809059B8}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:J30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="5">
-        <v>255</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="5">
-        <v>255</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="5">
-        <v>255</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="5">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="5">
-        <v>6</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="5">
-        <v>7</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="5">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="C29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -25810,23 +25795,289 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D83226-F915-4937-975A-963D2117D2E0}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="5">
+        <v>255</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79D2118-31DC-4FB1-B744-9010D03F3D58}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -26223,491 +26474,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA835C-1D5E-41B1-BB3D-84DCE0E73D35}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA3F23D-DD2F-411F-B083-347EF3105787}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="5">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="5">
-        <v>10</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="5">
-        <v>11</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="5">
-        <v>12</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="5">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8067B63-4F18-4029-A2B3-8BD11C38FAB1}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:J20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -26796,7 +26589,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -26830,7 +26623,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26854,82 +26647,86 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>186</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="5">
+        <v>10</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="1" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F16" s="5">
-        <v>255</v>
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="5">
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="5">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="5">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>38</v>
@@ -26939,57 +26736,6 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -27006,17 +26752,19 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -27051,19 +26799,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="5">
-        <v>255</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -27322,30 +27070,492 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA3F23D-DD2F-411F-B083-347EF3105787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA835C-1D5E-41B1-BB3D-84DCE0E73D35}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="5">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="5">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="5">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="5">
+        <v>12</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="5">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8067B63-4F18-4029-A2B3-8BD11C38FAB1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -27373,22 +27583,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="5">
-        <v>255</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -27437,7 +27644,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -27471,7 +27678,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27495,12 +27702,12 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -27509,72 +27716,68 @@
       <c r="G15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="9"/>
+      <c r="J15" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
+        <v>167</v>
+      </c>
+      <c r="F16" s="5">
+        <v>255</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="H16" s="13"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>167</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="H17" s="13"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="5">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>38</v>
@@ -27584,6 +27787,57 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -27593,7 +27847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37DB3ED-6E6A-496E-98B5-90CBCDDBE850}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -27602,22 +27856,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -27706,7 +27960,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27877,321 +28131,6 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E217A-F430-4C40-8F13-BD22CB04262C}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B2:J20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="5">
-        <v>255</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="5">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="5">
-        <v>6</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="5">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -28207,7 +28146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28216,6 +28155,321 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823E217A-F430-4C40-8F13-BD22CB04262C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="5">
+        <v>255</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15828A4-FEC3-411E-B8E4-95C979C0BA82}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -28224,22 +28478,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28328,7 +28582,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28362,7 +28616,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28410,13 +28664,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>203</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
@@ -28432,13 +28686,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28454,7 +28708,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>115</v>
@@ -28481,7 +28735,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28505,7 +28759,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28530,7 +28784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B05DE5-90C0-4D52-925A-72C8B161F423}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -28539,22 +28793,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -28643,7 +28897,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -28677,7 +28931,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28725,10 +28979,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -28742,7 +28996,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -28750,10 +29004,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -28767,7 +29021,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -28775,10 +29029,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -28799,10 +29053,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>76</v>
@@ -28821,10 +29075,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>76</v>
@@ -28843,10 +29097,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -28865,7 +29119,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>115</v>
@@ -28892,7 +29146,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>45</v>
@@ -28916,7 +29170,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>46</v>
@@ -28942,7 +29196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0B97B5-6E41-4254-A49A-C53D3D7670EC}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -28951,22 +29205,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -29055,7 +29309,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -29089,7 +29343,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -29113,10 +29367,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -29137,10 +29391,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -29159,10 +29413,10 @@
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -29181,10 +29435,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -29203,10 +29457,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -29225,10 +29479,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -29247,10 +29501,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>74</v>
@@ -29269,10 +29523,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>74</v>
@@ -29291,7 +29545,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>115</v>
@@ -29318,7 +29572,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
@@ -29342,7 +29596,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>46</v>
@@ -29368,7 +29622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB63D86-1F34-454E-88B5-29BB497E3623}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -29377,22 +29631,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -29499,7 +29753,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -29533,7 +29787,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
@@ -29557,10 +29811,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -29581,10 +29835,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -29603,10 +29857,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -29625,7 +29879,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -29639,7 +29893,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
@@ -29653,7 +29907,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -29667,7 +29921,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
@@ -29681,7 +29935,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -29695,7 +29949,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>115</v>
@@ -29722,7 +29976,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>45</v>
@@ -29746,7 +30000,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>46</v>
@@ -29772,7 +30026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9227CA87-3907-DE44-AA38-C80F4DFFFFD1}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -29783,27 +30037,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="D4" s="84" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
@@ -29833,7 +30087,7 @@
       <c r="AD4" s="84"/>
       <c r="AE4" s="84"/>
     </row>
-    <row r="5" spans="1:33" ht="26" customHeight="1">
+    <row r="5" spans="1:33" ht="26.1" customHeight="1">
       <c r="C5" s="52"/>
       <c r="D5" s="83" t="s">
         <v>78</v>
@@ -29872,118 +30126,118 @@
       <c r="AD5" s="83"/>
       <c r="AE5" s="83"/>
     </row>
-    <row r="6" spans="1:33" ht="26" customHeight="1">
+    <row r="6" spans="1:33" ht="26.1" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="53" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="F6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="G6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="H6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="J6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="K6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="L6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="M6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="N6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="O6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="O6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="P6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="Q6" s="50" t="s">
+      <c r="R6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="S6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="S6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="T6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="U6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="V6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="V6" s="50" t="s">
+      <c r="W6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="W6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="X6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="Y6" s="50" t="s">
+      <c r="Z6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="Z6" s="50" t="s">
+      <c r="AA6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="AA6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="AB6" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC6" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="AC6" s="50" t="s">
+      <c r="AD6" s="50" t="s">
         <v>561</v>
       </c>
-      <c r="AD6" s="50" t="s">
+      <c r="AE6" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="AE6" s="50" t="s">
-        <v>563</v>
-      </c>
       <c r="AG6" s="51" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="26" customHeight="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="26.1" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>568</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>569</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
       <c r="G7" s="56"/>
       <c r="H7" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
@@ -30009,40 +30263,40 @@
       <c r="AD7" s="55"/>
       <c r="AE7" s="56"/>
       <c r="AG7" s="51" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="26" customHeight="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="26.1" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="52"/>
       <c r="C8" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="56"/>
       <c r="H8" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J8" s="55"/>
       <c r="K8" s="56"/>
       <c r="L8" s="57"/>
       <c r="M8" s="55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N8" s="55"/>
       <c r="O8" s="56"/>
       <c r="P8" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R8" s="55"/>
       <c r="S8" s="56"/>
@@ -30059,14 +30313,14 @@
       <c r="AD8" s="55"/>
       <c r="AE8" s="56"/>
       <c r="AG8" s="51" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="26" customHeight="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="26.1" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="52"/>
       <c r="C9" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="55"/>
@@ -30074,10 +30328,10 @@
       <c r="G9" s="56"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
@@ -30101,10 +30355,10 @@
       <c r="AD9" s="55"/>
       <c r="AE9" s="56"/>
       <c r="AG9" s="51" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="26" customHeight="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="26.1" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -30139,7 +30393,7 @@
       <c r="AD10" s="55"/>
       <c r="AE10" s="56"/>
     </row>
-    <row r="11" spans="1:33" ht="26" customHeight="1">
+    <row r="11" spans="1:33" ht="26.1" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="52"/>
       <c r="C11" s="54"/>
@@ -30172,7 +30426,7 @@
       <c r="AD11" s="55"/>
       <c r="AE11" s="56"/>
     </row>
-    <row r="12" spans="1:33" ht="26" customHeight="1">
+    <row r="12" spans="1:33" ht="26.1" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="52"/>
       <c r="C12" s="54"/>
@@ -30205,7 +30459,7 @@
       <c r="AD12" s="55"/>
       <c r="AE12" s="56"/>
     </row>
-    <row r="13" spans="1:33" ht="26" customHeight="1">
+    <row r="13" spans="1:33" ht="26.1" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="52"/>
       <c r="C13" s="54"/>
@@ -30238,7 +30492,7 @@
       <c r="AD13" s="55"/>
       <c r="AE13" s="56"/>
     </row>
-    <row r="14" spans="1:33" ht="26" customHeight="1">
+    <row r="14" spans="1:33" ht="26.1" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="52"/>
       <c r="C14" s="54"/>
@@ -30271,7 +30525,7 @@
       <c r="AD14" s="55"/>
       <c r="AE14" s="56"/>
     </row>
-    <row r="15" spans="1:33" ht="26" customHeight="1">
+    <row r="15" spans="1:33" ht="26.1" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="52"/>
       <c r="C15" s="54"/>
@@ -30304,7 +30558,7 @@
       <c r="AD15" s="55"/>
       <c r="AE15" s="56"/>
     </row>
-    <row r="16" spans="1:33" ht="26" customHeight="1">
+    <row r="16" spans="1:33" ht="26.1" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="52"/>
       <c r="C16" s="54"/>
@@ -30337,7 +30591,7 @@
       <c r="AD16" s="55"/>
       <c r="AE16" s="56"/>
     </row>
-    <row r="17" spans="1:31" ht="26" customHeight="1">
+    <row r="17" spans="1:31" ht="26.1" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="52"/>
       <c r="C17" s="54"/>
@@ -30370,7 +30624,7 @@
       <c r="AD17" s="55"/>
       <c r="AE17" s="56"/>
     </row>
-    <row r="18" spans="1:31" ht="26" customHeight="1">
+    <row r="18" spans="1:31" ht="26.1" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="52"/>
       <c r="C18" s="54"/>
@@ -30403,7 +30657,7 @@
       <c r="AD18" s="55"/>
       <c r="AE18" s="56"/>
     </row>
-    <row r="19" spans="1:31" ht="26" customHeight="1">
+    <row r="19" spans="1:31" ht="26.1" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="52"/>
       <c r="C19" s="54"/>
@@ -30457,7 +30711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6843762A-F974-4D51-923E-CAE778A49C26}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -30466,83 +30720,83 @@
   <sheetViews>
     <sheetView topLeftCell="E38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.375" customWidth="1"/>
+    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
       <c r="I2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="3:32">
       <c r="I3" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" t="s">
         <v>405</v>
-      </c>
-      <c r="K3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="3:32">
       <c r="I4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="3:32">
       <c r="I5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="3:32">
       <c r="C6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -30551,48 +30805,48 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="3:32">
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="3:32">
       <c r="E9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="3:32">
       <c r="E10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="E11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="3:32">
@@ -30603,10 +30857,10 @@
         <v>138</v>
       </c>
       <c r="O12" t="s">
+        <v>416</v>
+      </c>
+      <c r="P12" t="s">
         <v>417</v>
-      </c>
-      <c r="P12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13" spans="3:32">
@@ -30614,14 +30868,14 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="3:32">
@@ -30629,108 +30883,108 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I14" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="L14" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="N14" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="N14" s="38" t="s">
+      <c r="O14" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="P14" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="P14" s="28" t="s">
+      <c r="Q14" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="R14" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="S14" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>323</v>
-      </c>
       <c r="T14" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X14" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y14" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="Y14" s="29" t="s">
-        <v>338</v>
-      </c>
       <c r="Z14" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AD14" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="3:32">
       <c r="H15" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>165</v>
@@ -30748,7 +31002,7 @@
         <v>165</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V15" s="28" t="s">
         <v>165</v>
@@ -30763,33 +31017,33 @@
         <v>165</v>
       </c>
       <c r="Z15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AD15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF15" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="C16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -30824,259 +31078,259 @@
     </row>
     <row r="17" spans="4:32">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="K17" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="L17" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>275</v>
-      </c>
       <c r="M17" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="39" t="s">
-        <v>292</v>
-      </c>
       <c r="O17" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P17" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q17" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="Q17" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="R17" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA17" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB17" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="AB17" s="27" t="s">
-        <v>376</v>
-      </c>
       <c r="AC17" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD17" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="AD17" s="27" t="s">
-        <v>510</v>
-      </c>
       <c r="AE17" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="4:32">
       <c r="E18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L18" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M18" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N18" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="R18" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="O18" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>288</v>
-      </c>
       <c r="S18" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="X18" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y18" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>306</v>
-      </c>
       <c r="Z18" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AA18" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB18" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD18" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="AC18" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD18" s="27" t="s">
-        <v>508</v>
-      </c>
       <c r="AE18" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF18" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="4:32">
       <c r="E19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="V19" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="V19" s="27" t="s">
+      <c r="W19" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y19" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="W19" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>334</v>
-      </c>
       <c r="Z19" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AA19" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF19" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="4:32">
       <c r="E20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="31"/>
@@ -31088,215 +31342,215 @@
     </row>
     <row r="21" spans="4:32">
       <c r="E21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K21" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="N21" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="L21" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="N21" s="42" t="s">
+      <c r="O21" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="P21" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="Q21" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="R21" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="S21" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="T21" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="U21" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="U21" s="30" t="s">
+      <c r="V21" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="V21" s="30" t="s">
+      <c r="W21" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="W21" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="X21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="Y21" s="30" t="s">
-        <v>361</v>
-      </c>
       <c r="Z21" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA21" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="AA21" s="30" t="s">
-        <v>453</v>
-      </c>
       <c r="AB21" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD21" s="30" t="s">
         <v>512</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="AD21" s="30" t="s">
-        <v>513</v>
       </c>
       <c r="AE21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AF21" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="4:32">
       <c r="E22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X22" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y22" s="46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z22" s="45" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AA22" s="45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AB22" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC22" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="AC22" s="45" t="s">
+      <c r="AD22" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="AD22" s="45" t="s">
-        <v>524</v>
-      </c>
       <c r="AE22" s="45" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AF22" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="4:32">
       <c r="E23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X23" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
@@ -31304,115 +31558,115 @@
       <c r="AC23" s="45"/>
       <c r="AD23" s="45"/>
       <c r="AF23" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="4:32">
       <c r="E24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L24" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="M24" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="M24" s="40" t="s">
-        <v>432</v>
-      </c>
       <c r="N24" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="X24" s="45"/>
       <c r="Y24" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
       <c r="AB24" s="45"/>
       <c r="AC24" s="45"/>
       <c r="AF24" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="4:32">
       <c r="E25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L25" s="39"/>
       <c r="M25" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U25" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="V25" s="27" t="s">
         <v>411</v>
-      </c>
-      <c r="V25" s="27" t="s">
-        <v>412</v>
       </c>
       <c r="W25" s="27"/>
       <c r="X25" s="45"/>
       <c r="Y25" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
@@ -31422,31 +31676,31 @@
     </row>
     <row r="26" spans="4:32">
       <c r="E26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L26" s="39"/>
       <c r="M26" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -31461,29 +31715,29 @@
     </row>
     <row r="27" spans="4:32">
       <c r="E27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -31497,23 +31751,23 @@
     </row>
     <row r="28" spans="4:32">
       <c r="E28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -31527,21 +31781,21 @@
     </row>
     <row r="29" spans="4:32">
       <c r="E29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
@@ -31552,23 +31806,23 @@
     </row>
     <row r="30" spans="4:32">
       <c r="E30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -31579,17 +31833,17 @@
     </row>
     <row r="31" spans="4:32">
       <c r="E31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H31" s="31"/>
       <c r="J31" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -31600,17 +31854,17 @@
     </row>
     <row r="32" spans="4:32">
       <c r="E32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H32" s="31"/>
       <c r="J32" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="26"/>
       <c r="O32" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
@@ -31622,17 +31876,17 @@
     </row>
     <row r="33" spans="5:29">
       <c r="E33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" s="31"/>
       <c r="J33" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
@@ -31640,15 +31894,15 @@
     </row>
     <row r="34" spans="5:29">
       <c r="E34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H34" s="31"/>
       <c r="J34" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M34" s="26"/>
       <c r="O34" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
@@ -31656,13 +31910,13 @@
     </row>
     <row r="35" spans="5:29">
       <c r="E35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35" s="31"/>
       <c r="J35" s="26"/>
       <c r="M35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
@@ -31670,13 +31924,13 @@
     </row>
     <row r="36" spans="5:29">
       <c r="E36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H36" s="31"/>
       <c r="J36" s="26"/>
       <c r="M36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
@@ -31684,76 +31938,76 @@
     </row>
     <row r="37" spans="5:29">
       <c r="E37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H37" s="31"/>
       <c r="J37" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Z37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AC37" s="27"/>
     </row>
     <row r="38" spans="5:29">
       <c r="E38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H38" s="31"/>
       <c r="J38" s="26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K38" s="44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Z38" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="5:29">
       <c r="E39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H39" s="31"/>
       <c r="J39" s="26"/>
       <c r="K39" s="44" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Z39" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AB39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="5:29">
@@ -31766,13 +32020,13 @@
       <c r="J40" s="26"/>
       <c r="M40" s="26"/>
       <c r="Z40" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AA40" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AB40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="5:29">
@@ -31780,17 +32034,17 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M41" s="26"/>
       <c r="O41" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AA41" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="5:29">
@@ -31798,17 +32052,17 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AA42" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="5:29">
@@ -31857,87 +32111,87 @@
     </row>
     <row r="55" spans="8:29">
       <c r="H55" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I55" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="K55" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>318</v>
-      </c>
       <c r="L55" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M55" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="N55" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="O55" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="O55" s="28" t="s">
+      <c r="P55" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="P55" s="28" t="s">
-        <v>323</v>
-      </c>
       <c r="Q55" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S55" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T55" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U55" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="V55" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="V55" s="29" t="s">
-        <v>338</v>
-      </c>
       <c r="W55" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="X55" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y55" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA55" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AB55" s="28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AC55" s="28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="8:29">
       <c r="H56" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M56" s="28" t="s">
         <v>165</v>
@@ -31955,7 +32209,7 @@
         <v>165</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S56" s="28" t="s">
         <v>165</v>
@@ -31970,25 +32224,25 @@
         <v>165</v>
       </c>
       <c r="W56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC56" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="8:29">
@@ -32017,70 +32271,70 @@
     </row>
     <row r="58" spans="8:29">
       <c r="H58" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I58" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="J58" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="K58" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="K58" s="27" t="s">
-        <v>274</v>
-      </c>
       <c r="L58" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M58" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="N58" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="N58" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="O58" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P58" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q58" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S58" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T58" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U58" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V58" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W58" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="X58" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y58" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="Y58" s="27" t="s">
-        <v>376</v>
-      </c>
       <c r="Z58" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA58" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="AA58" s="27" t="s">
-        <v>510</v>
-      </c>
       <c r="AB58" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AC58" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="8:29">
@@ -32088,135 +32342,135 @@
         <v>70</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M59" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P59" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q59" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T59" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="U59" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="V59" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="V59" s="27" t="s">
-        <v>306</v>
-      </c>
       <c r="W59" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X59" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y59" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z59" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA59" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="Z59" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA59" s="27" t="s">
-        <v>508</v>
-      </c>
       <c r="AB59" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AC59" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="8:29">
       <c r="H60" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="S60" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="R60" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="S60" s="27" t="s">
+      <c r="T60" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="U60" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="V60" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="T60" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="U60" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="V60" s="27" t="s">
-        <v>334</v>
-      </c>
       <c r="W60" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z60" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AA60" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AC60" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="8:29">
@@ -32227,7 +32481,7 @@
     </row>
     <row r="62" spans="8:29">
       <c r="H62" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>16</v>
@@ -32296,46 +32550,46 @@
     <row r="63" spans="8:29">
       <c r="H63" s="31"/>
       <c r="I63" s="45" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K63" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M63" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="N63" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="N63" s="45" t="s">
-        <v>499</v>
-      </c>
       <c r="O63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V63" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W63" s="45" t="s">
         <v>186</v>
@@ -32356,50 +32610,50 @@
         <v>186</v>
       </c>
       <c r="AC63" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="8:29">
       <c r="H64" s="31"/>
       <c r="I64" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J64" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="K64" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="L64" s="31" t="s">
         <v>378</v>
-      </c>
-      <c r="K64" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>379</v>
       </c>
       <c r="M64" s="45"/>
       <c r="N64" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R64" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S64" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T64" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V64" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W64" s="45"/>
       <c r="X64" s="45"/>
@@ -32408,91 +32662,91 @@
       <c r="AA64" s="45"/>
       <c r="AB64" s="45"/>
       <c r="AC64" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="H65" s="31"/>
       <c r="I65" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K65" s="45" t="s">
         <v>35</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M65" s="45"/>
       <c r="N65" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O65" s="45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P65" s="45" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q65" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R65" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S65" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="T65" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U65" s="45"/>
       <c r="V65" s="45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W65" s="45"/>
       <c r="X65" s="45"/>
       <c r="Y65" s="45"/>
       <c r="Z65" s="45"/>
       <c r="AC65" s="45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="8:29">
       <c r="H66" s="31"/>
       <c r="I66" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K66" s="45" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L66" s="45" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P66" s="45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Q66" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="R66" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S66" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
       <c r="V66" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="W66" s="45"/>
       <c r="X66" s="45"/>
@@ -32503,23 +32757,23 @@
     <row r="67" spans="8:29">
       <c r="H67" s="31"/>
       <c r="I67" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K67" s="45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L67" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M67" s="31"/>
       <c r="N67" s="45"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R67" s="45"/>
       <c r="S67" s="45"/>
@@ -32535,20 +32789,20 @@
     <row r="68" spans="8:29">
       <c r="H68" s="31"/>
       <c r="I68" s="45" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L68" s="45" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M68" s="45"/>
       <c r="N68" s="45"/>
       <c r="O68" s="45"/>
       <c r="P68" s="45"/>
       <c r="Q68" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R68" s="45"/>
       <c r="S68" s="45"/>
@@ -32564,21 +32818,21 @@
     <row r="69" spans="8:29">
       <c r="H69" s="31"/>
       <c r="I69" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K69" s="31"/>
       <c r="L69" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="45"/>
       <c r="P69" s="45"/>
       <c r="Q69" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="R69" s="45"/>
       <c r="S69" s="45"/>
@@ -32594,21 +32848,21 @@
     <row r="70" spans="8:29">
       <c r="H70" s="31"/>
       <c r="I70" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J70" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K70" s="31"/>
       <c r="L70" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="R70" s="45"/>
       <c r="S70" s="45"/>
@@ -32624,21 +32878,21 @@
     <row r="71" spans="8:29">
       <c r="H71" s="31"/>
       <c r="I71" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K71" s="45"/>
       <c r="L71" s="45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="R71" s="45"/>
       <c r="S71" s="45"/>
@@ -32655,11 +32909,11 @@
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K72" s="45"/>
       <c r="L72" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M72" s="31"/>
       <c r="N72" s="31"/>
@@ -32681,11 +32935,11 @@
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K73" s="45"/>
       <c r="L73" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
@@ -32706,11 +32960,11 @@
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K74" s="45"/>
       <c r="L74" s="45" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="31"/>
@@ -32731,11 +32985,11 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="31"/>
       <c r="L75" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
@@ -32758,7 +33012,7 @@
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
       <c r="L76" s="45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="31"/>
@@ -32781,7 +33035,7 @@
       <c r="J77" s="31"/>
       <c r="K77" s="31"/>
       <c r="L77" s="45" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
@@ -32802,7 +33056,7 @@
       <c r="H78" s="31"/>
       <c r="J78" s="26"/>
       <c r="L78" s="45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
@@ -32813,7 +33067,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="44"/>
       <c r="L79" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W79" s="44"/>
       <c r="X79" s="26"/>
@@ -32824,7 +33078,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="44"/>
       <c r="L80" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W80" s="44"/>
       <c r="X80" s="26"/>
@@ -32837,7 +33091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9C99A5-61F1-4A04-84F0-5CA73117523A}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -32846,22 +33100,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -32968,7 +33222,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -33002,7 +33256,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
@@ -33026,10 +33280,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -33050,10 +33304,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
@@ -33072,10 +33326,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>74</v>
@@ -33094,7 +33348,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7"/>
@@ -33108,7 +33362,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7"/>
@@ -33122,7 +33376,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7"/>
@@ -33136,7 +33390,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7"/>
@@ -33150,7 +33404,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7"/>
@@ -33164,7 +33418,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>115</v>
@@ -33191,7 +33445,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>45</v>
@@ -33215,7 +33469,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>46</v>
@@ -33241,7 +33495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A97445A-BE4A-470A-B4EC-9C0CB4827191}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33249,7 +33503,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -33268,19 +33522,19 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="58"/>
+    <col min="1" max="16384" width="10.875" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="23">
+    <row r="2" spans="2:2" ht="22.5">
       <c r="B2" s="71" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="22.5">
+      <c r="B21" s="71" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="23">
-      <c r="B21" s="71" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -33302,65 +33556,65 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="58"/>
+    <col min="1" max="1" width="10.875" style="58"/>
     <col min="2" max="2" width="13" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="56.125" style="58" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="58"/>
+    <col min="5" max="5" width="25.375" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="58" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="58" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E8" s="59" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>580</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>581</v>
       </c>
       <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
       <c r="B9" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>547</v>
+      </c>
+      <c r="D9" s="61" t="s">
         <v>542</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>548</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>543</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>19</v>
@@ -33374,10 +33628,10 @@
       <c r="B10" s="79"/>
       <c r="C10" s="63"/>
       <c r="D10" s="64" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>21</v>
@@ -33389,7 +33643,7 @@
       <c r="C11" s="63"/>
       <c r="D11" s="65"/>
       <c r="E11" s="62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>21</v>
@@ -33413,7 +33667,7 @@
       <c r="C13" s="63"/>
       <c r="D13" s="65"/>
       <c r="E13" s="62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>21</v>
@@ -33440,26 +33694,26 @@
         <v>131</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
       <c r="B16" s="79"/>
       <c r="C16" s="67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E16" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="G16" s="62" t="s">
         <v>577</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
@@ -33467,7 +33721,7 @@
       <c r="C17" s="68"/>
       <c r="D17" s="66"/>
       <c r="E17" s="62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F17" s="62" t="s">
         <v>21</v>
@@ -33477,13 +33731,13 @@
     <row r="18" spans="2:7" ht="21" customHeight="1">
       <c r="B18" s="79"/>
       <c r="C18" s="67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -33492,13 +33746,13 @@
       <c r="B19" s="79"/>
       <c r="C19" s="69"/>
       <c r="D19" s="64" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G19" s="62"/>
     </row>
@@ -33507,10 +33761,10 @@
       <c r="C20" s="69"/>
       <c r="D20" s="65"/>
       <c r="E20" s="62" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G20" s="62"/>
     </row>
@@ -33519,10 +33773,10 @@
       <c r="C21" s="69"/>
       <c r="D21" s="65"/>
       <c r="E21" s="62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G21" s="62"/>
     </row>
@@ -33534,7 +33788,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G22" s="62"/>
     </row>
@@ -33543,10 +33797,10 @@
       <c r="C23" s="69"/>
       <c r="D23" s="65"/>
       <c r="E23" s="62" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F23" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G23" s="62"/>
     </row>
@@ -33558,7 +33812,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G24" s="62"/>
     </row>
@@ -33567,23 +33821,23 @@
       <c r="C25" s="69"/>
       <c r="D25" s="65"/>
       <c r="E25" s="62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G25" s="62"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1">
       <c r="B26" s="79"/>
       <c r="C26" s="60" t="s">
+        <v>582</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26" s="62" t="s">
         <v>583</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>585</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>584</v>
       </c>
       <c r="F26" s="62" t="s">
         <v>21</v>
@@ -33593,13 +33847,13 @@
     <row r="27" spans="2:7" ht="21" customHeight="1">
       <c r="B27" s="79"/>
       <c r="C27" s="60" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F27" s="62" t="s">
         <v>21</v>
@@ -33609,10 +33863,10 @@
     <row r="28" spans="2:7" ht="21" customHeight="1">
       <c r="B28" s="79"/>
       <c r="C28" s="70" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>19</v>
@@ -33625,47 +33879,47 @@
     <row r="29" spans="2:7" ht="21" customHeight="1">
       <c r="B29" s="79"/>
       <c r="C29" s="67" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E29" s="62" t="s">
         <v>123</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
       <c r="B30" s="79"/>
       <c r="C30" s="68"/>
       <c r="D30" s="61" t="s">
+        <v>589</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>590</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>591</v>
-      </c>
       <c r="F30" s="62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G30" s="62"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
       <c r="B31" s="80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C31" s="77" t="s">
+        <v>598</v>
+      </c>
+      <c r="D31" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="D31" s="77" t="s">
-        <v>600</v>
-      </c>
       <c r="E31" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F31" s="77" t="s">
         <v>38</v>
@@ -33675,13 +33929,13 @@
     <row r="32" spans="2:7" ht="21" customHeight="1">
       <c r="B32" s="81"/>
       <c r="C32" s="76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D32" s="77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E32" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F32" s="77" t="s">
         <v>38</v>
@@ -33692,10 +33946,10 @@
       <c r="B33" s="81"/>
       <c r="C33" s="75"/>
       <c r="D33" s="77" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E33" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F33" s="77" t="s">
         <v>38</v>
@@ -33705,13 +33959,13 @@
     <row r="34" spans="2:8" ht="21" customHeight="1">
       <c r="B34" s="81"/>
       <c r="C34" s="74" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F34" s="77" t="s">
         <v>38</v>
@@ -33722,10 +33976,10 @@
       <c r="B35" s="81"/>
       <c r="C35" s="76"/>
       <c r="D35" s="77" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F35" s="77" t="s">
         <v>38</v>
@@ -33736,10 +33990,10 @@
       <c r="B36" s="81"/>
       <c r="C36" s="76"/>
       <c r="D36" s="77" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E36" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>38</v>
@@ -33750,10 +34004,10 @@
       <c r="B37" s="81"/>
       <c r="C37" s="75"/>
       <c r="D37" s="77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F37" s="77" t="s">
         <v>38</v>
@@ -33763,13 +34017,13 @@
     <row r="38" spans="2:8" ht="21" customHeight="1">
       <c r="B38" s="81"/>
       <c r="C38" s="74" t="s">
+        <v>593</v>
+      </c>
+      <c r="D38" s="72" t="s">
         <v>594</v>
       </c>
-      <c r="D38" s="72" t="s">
-        <v>595</v>
-      </c>
       <c r="E38" s="77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F38" s="70" t="s">
         <v>21</v>
@@ -33781,7 +34035,7 @@
       <c r="C39" s="76"/>
       <c r="D39" s="78"/>
       <c r="E39" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>21</v>
@@ -33793,7 +34047,7 @@
       <c r="C40" s="76"/>
       <c r="D40" s="73"/>
       <c r="E40" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" s="70" t="s">
         <v>21</v>
@@ -33803,10 +34057,10 @@
     <row r="41" spans="2:8">
       <c r="C41" s="76"/>
       <c r="D41" s="72" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>21</v>
@@ -33817,23 +34071,23 @@
       <c r="C42" s="76"/>
       <c r="D42" s="78"/>
       <c r="E42" s="77" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F42" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="77" t="s">
+        <v>618</v>
+      </c>
+      <c r="H42" s="58" t="s">
         <v>619</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="76"/>
       <c r="D43" s="78"/>
       <c r="E43" s="77" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F43" s="70" t="s">
         <v>21</v>
@@ -33844,20 +34098,20 @@
       <c r="C44" s="76"/>
       <c r="D44" s="78"/>
       <c r="E44" s="77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F44" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="76"/>
       <c r="D45" s="78"/>
       <c r="E45" s="77" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>21</v>
@@ -33868,26 +34122,26 @@
       <c r="C46" s="76"/>
       <c r="D46" s="78"/>
       <c r="E46" s="77" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G46" s="77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="76"/>
       <c r="D47" s="78"/>
       <c r="E47" s="77" t="s">
+        <v>613</v>
+      </c>
+      <c r="F47" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="77" t="s">
         <v>614</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="G47" s="77" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -33962,13 +34216,13 @@
     </row>
     <row r="58" spans="3:7">
       <c r="C58" s="74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D58" s="72" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E58" s="77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F58" s="70" t="s">
         <v>21</v>
@@ -33979,7 +34233,7 @@
       <c r="C59" s="76"/>
       <c r="D59" s="78"/>
       <c r="E59" s="77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F59" s="70" t="s">
         <v>21</v>
@@ -33990,7 +34244,7 @@
       <c r="C60" s="76"/>
       <c r="D60" s="73"/>
       <c r="E60" s="77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F60" s="70" t="s">
         <v>21</v>
@@ -34000,7 +34254,7 @@
     <row r="61" spans="3:7">
       <c r="C61" s="76"/>
       <c r="D61" s="72" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E61" s="77"/>
       <c r="F61" s="70"/>
@@ -34120,7 +34374,7 @@
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="74" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D78" s="72"/>
       <c r="E78" s="77"/>
@@ -34157,7 +34411,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34173,24 +34427,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="20">
+    <row r="2" spans="2:21" ht="19.5">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -34853,18 +35107,18 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -35204,18 +35458,18 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -35518,18 +35772,18 @@
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -35904,10 +36158,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3CFCAE-679D-48AE-9D0B-F05208D0C93E}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C1A106-911C-47B0-AE7C-BE6622F33529}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="670">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -676,70 +676,6 @@
   </si>
   <si>
     <t>salt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*パスワードは、8文字以上で半角英字の大文字小文字を1文字以上入れるかつ数字の組み合わせ</t>
-    <rPh sb="9" eb="13">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ハンカクエイジ</t>
-    </rPh>
-    <rPh sb="19" eb="25">
-      <t>オオモジコモジ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*saltは、パスワード再設定時に、再発行したものを再登録する</t>
-    <rPh sb="12" eb="16">
-      <t>サイセッテイジ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>サイハッコウ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>サイトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*再登録も有効期限付きでチェックする</t>
-    <rPh sb="1" eb="4">
-      <t>サイトウロク</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ユウコウキゲン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*招待コードは、存在チェックする</t>
-    <rPh sb="1" eb="3">
-      <t>ショウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソンザイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4390,6 +4326,159 @@
   </si>
   <si>
     <t>consent_games</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メールアドレス:RFC準拠</t>
+    <rPh sb="12" eb="14">
+      <t>ジュンキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メールアドレスが本登録されているか</t>
+    <rPh sb="9" eb="12">
+      <t>ホントウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メールアドレスが本登録がされておらず、重複されているか</t>
+    <rPh sb="9" eb="12">
+      <t>ホントウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メールアドレスが仮登録の初回登録か</t>
+    <rPh sb="9" eb="12">
+      <t>カリトウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼メール送信時</t>
+    <rPh sb="4" eb="7">
+      <t>ソウシンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼チェック内容</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メールアドレスがすでに本登録されているか</t>
+    <rPh sb="12" eb="15">
+      <t>ホントウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パスワードは、8文字以上で半角英字の大文字小文字を1文字以上入れるかつ数字の組み合わせ</t>
+    <rPh sb="9" eb="13">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <rPh sb="19" eb="25">
+      <t>オオモジコモジ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・saltは、パスワード再設定時に、再発行したものを再登録する</t>
+    <rPh sb="12" eb="16">
+      <t>サイセッテイジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイハッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>サイトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・再登録も有効期限付きでチェックする</t>
+    <rPh sb="1" eb="4">
+      <t>サイトウロク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・招待コードは、存在チェックする</t>
+    <rPh sb="1" eb="3">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リクエストしたURLの有効期限以内か</t>
+    <rPh sb="12" eb="16">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URLが正しいか</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1)フォームリクエスト時</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)フォーム入力時</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4739,7 +4828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4919,40 +5008,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4974,6 +5029,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19215,8 +19288,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14411325" y="9947273"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14409420" y="9478643"/>
+          <a:ext cx="1922145" cy="309373"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19341,8 +19414,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="13382625" y="10467655"/>
+          <a:ext cx="1920240" cy="309373"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19467,8 +19540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14430375" y="12030075"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14428470" y="11466195"/>
+          <a:ext cx="1922145" cy="309373"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19606,8 +19679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8639175"/>
-          <a:ext cx="4010025" cy="657034"/>
+          <a:off x="13363575" y="8237220"/>
+          <a:ext cx="4006215" cy="618934"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -19959,8 +20032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7467600"/>
-          <a:ext cx="4010025" cy="833248"/>
+          <a:off x="13315950" y="7113270"/>
+          <a:ext cx="4006215" cy="795148"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -20361,8 +20434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15440025" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="15436215" y="10467655"/>
+          <a:ext cx="1924050" cy="309373"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -20678,8 +20751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="12963525"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1560195" y="12352020"/>
+          <a:ext cx="2811780" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20904,8 +20977,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="14182725"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1531620" y="13514070"/>
+          <a:ext cx="2811780" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21130,8 +21203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="15268575"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1531620" y="14542770"/>
+          <a:ext cx="2811780" cy="873647"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21361,8 +21434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1552575" y="16421100"/>
-          <a:ext cx="3537080" cy="911747"/>
+          <a:off x="1550670" y="15647670"/>
+          <a:ext cx="3538985" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -21644,8 +21717,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="17487900"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1560195" y="16657320"/>
+          <a:ext cx="2811780" cy="873647"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21940,8 +22013,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="18554700"/>
-          <a:ext cx="2947908" cy="911747"/>
+          <a:off x="1560195" y="17676495"/>
+          <a:ext cx="2949813" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -22532,7 +22605,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5185"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5205"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22659,7 +22732,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4154"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4174"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23188,6 +23261,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23457,14 +23538,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="15"/>
-    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="15"/>
+    <col min="1" max="2" width="8.59765625" style="15"/>
+    <col min="3" max="3" width="24.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.59765625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -23525,13 +23606,13 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>62</v>
@@ -23539,13 +23620,13 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>62</v>
@@ -23553,13 +23634,13 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>62</v>
@@ -23567,13 +23648,13 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>62</v>
@@ -23583,7 +23664,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>62</v>
@@ -23591,7 +23672,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>64</v>
@@ -23603,18 +23684,18 @@
         <v>62</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>62</v>
@@ -23638,22 +23719,22 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -23661,16 +23742,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -23696,7 +23777,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -23721,7 +23802,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -23729,16 +23810,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -23764,7 +23845,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -23772,7 +23853,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -23792,7 +23873,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>93</v>
@@ -23812,7 +23893,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>94</v>
@@ -23832,7 +23913,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>45</v>
@@ -23852,7 +23933,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
@@ -23895,16 +23976,16 @@
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>77</v>
@@ -23930,7 +24011,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -23945,7 +24026,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F21" s="5">
         <v>255</v>
@@ -23970,7 +24051,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -24013,10 +24094,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -24032,7 +24113,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -24043,7 +24124,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -24056,10 +24137,10 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -24083,7 +24164,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -24112,12 +24193,12 @@
     </row>
     <row r="29" spans="2:10">
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -24137,15 +24218,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24160,16 +24241,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24224,7 +24305,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -24232,16 +24313,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -24267,7 +24348,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -24275,7 +24356,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>28</v>
@@ -24295,7 +24376,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>93</v>
@@ -24315,7 +24396,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>94</v>
@@ -24335,7 +24416,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -24355,7 +24436,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -24393,16 +24474,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -24428,7 +24509,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -24465,7 +24546,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20" s="5">
         <v>255</v>
@@ -24497,7 +24578,7 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -24541,15 +24622,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24564,16 +24645,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24635,7 +24716,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -24649,16 +24730,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -24669,7 +24750,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -24684,7 +24765,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -24693,13 +24774,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5">
         <v>20</v>
@@ -24715,10 +24796,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -24731,10 +24812,10 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -24742,7 +24823,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -24758,7 +24839,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -24766,7 +24847,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -24782,7 +24863,7 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -24802,15 +24883,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24825,16 +24906,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24896,7 +24977,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -24910,16 +24991,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -24930,7 +25011,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -24945,7 +25026,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -24954,13 +25035,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5">
         <v>255</v>
@@ -24979,10 +25060,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -24995,10 +25076,10 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25006,7 +25087,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -25022,7 +25103,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -25030,7 +25111,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -25066,22 +25147,22 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -25089,16 +25170,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25132,7 +25213,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>75</v>
@@ -25146,7 +25227,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -25154,16 +25235,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -25194,10 +25275,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>74</v>
@@ -25253,16 +25334,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -25273,7 +25354,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -25288,7 +25369,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -25345,10 +25426,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -25362,7 +25443,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
       <c r="J21" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -25370,10 +25451,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -25387,7 +25468,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -25395,10 +25476,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -25411,10 +25492,10 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -25422,7 +25503,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
@@ -25438,7 +25519,7 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -25446,7 +25527,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>46</v>
@@ -25462,7 +25543,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -25482,22 +25563,22 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -25505,16 +25586,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25586,7 +25667,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25600,16 +25681,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25620,7 +25701,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -25635,7 +25716,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -25644,13 +25725,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F15" s="5">
         <v>10</v>
@@ -25666,10 +25747,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -25682,10 +25763,10 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -25693,7 +25774,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
@@ -25709,7 +25790,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -25717,7 +25798,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
@@ -25733,7 +25814,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -25753,22 +25834,22 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -25776,16 +25857,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25857,7 +25938,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -25871,16 +25952,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25891,7 +25972,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -25906,7 +25987,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -25918,7 +25999,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -25942,7 +26023,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -25963,10 +26044,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -25982,7 +26063,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -25990,10 +26071,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -26006,10 +26087,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26017,7 +26098,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -26033,7 +26114,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26041,7 +26122,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -26057,7 +26138,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -26077,22 +26158,22 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26100,16 +26181,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26181,7 +26262,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26195,16 +26276,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26215,7 +26296,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26230,7 +26311,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26242,7 +26323,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -26263,10 +26344,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -26287,10 +26368,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -26303,7 +26384,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26311,10 +26392,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -26328,7 +26409,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26336,10 +26417,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>76</v>
@@ -26353,7 +26434,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="9"/>
       <c r="J19" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26361,10 +26442,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>76</v>
@@ -26383,10 +26464,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -26407,10 +26488,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -26431,10 +26512,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -26453,10 +26534,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -26469,10 +26550,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -26480,7 +26561,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -26496,7 +26577,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -26504,7 +26585,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -26520,7 +26601,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -26542,22 +26623,22 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26565,16 +26646,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26646,7 +26727,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26660,16 +26741,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26680,7 +26761,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26695,7 +26776,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26728,13 +26809,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -26750,10 +26831,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -26766,10 +26847,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26777,7 +26858,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -26793,7 +26874,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26801,7 +26882,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -26817,7 +26898,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -26837,22 +26918,22 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26860,16 +26941,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26941,10 +27022,10 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26958,16 +27039,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26978,7 +27059,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26993,7 +27074,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27002,10 +27083,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27050,10 +27131,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -27074,10 +27155,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -27086,14 +27167,14 @@
         <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27101,10 +27182,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -27123,10 +27204,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -27145,10 +27226,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -27157,7 +27238,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
@@ -27167,10 +27248,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -27189,10 +27270,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -27201,7 +27282,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="9"/>
@@ -27211,10 +27292,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -27227,10 +27308,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -27238,7 +27319,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -27254,7 +27335,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -27262,7 +27343,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -27295,7 +27376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27314,22 +27395,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -27337,16 +27418,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27418,7 +27499,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -27432,16 +27513,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27452,7 +27533,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27467,7 +27548,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27476,10 +27557,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27501,13 +27582,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27523,13 +27604,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F17" s="5">
         <v>20</v>
@@ -27545,10 +27626,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -27561,10 +27642,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27572,7 +27653,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -27588,7 +27669,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -27596,7 +27677,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -27612,7 +27693,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -27632,22 +27713,22 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -27655,16 +27736,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27675,13 +27756,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5">
         <v>255</v>
@@ -27736,7 +27817,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27750,16 +27831,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27770,7 +27851,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27785,7 +27866,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27818,13 +27899,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27840,10 +27921,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -27856,10 +27937,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -27867,7 +27948,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -27883,7 +27964,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27891,7 +27972,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -27907,7 +27988,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -27927,22 +28008,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -27950,16 +28031,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28031,7 +28112,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28045,16 +28126,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28065,7 +28146,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28080,7 +28161,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28089,13 +28170,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F15" s="5">
         <v>255</v>
@@ -28135,13 +28216,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28157,10 +28238,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -28173,10 +28254,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28184,7 +28265,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28200,7 +28281,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28208,7 +28289,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28224,7 +28305,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -28242,22 +28323,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28265,16 +28346,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28346,7 +28427,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28360,16 +28441,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28380,7 +28461,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28395,7 +28476,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28428,13 +28509,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
@@ -28450,13 +28531,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28472,10 +28553,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -28488,10 +28569,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28499,7 +28580,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28515,7 +28596,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28523,7 +28604,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28539,7 +28620,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -28555,87 +28636,87 @@
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.09765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.375" customWidth="1"/>
-    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.3984375" customWidth="1"/>
+    <col min="26" max="26" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
       <c r="I2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="3:32">
       <c r="I3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="3:32">
       <c r="I4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="3:32">
       <c r="I5" t="s">
+        <v>383</v>
+      </c>
+      <c r="K5" t="s">
         <v>387</v>
-      </c>
-      <c r="K5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="6" spans="3:32">
       <c r="C6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -28644,62 +28725,62 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="3:32">
       <c r="E8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="3:32">
       <c r="E9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="3:32">
       <c r="E10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="E11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="3:32">
       <c r="E12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="3:32">
@@ -28707,14 +28788,13 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L13" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79" t="s">
-        <v>423</v>
+        <v>227</v>
+      </c>
+      <c r="L13" t="s">
+        <v>418</v>
+      </c>
+      <c r="N13" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="3:32">
@@ -28722,167 +28802,167 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I14" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>407</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="R14" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="L14" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="M14" s="85" t="s">
-        <v>411</v>
-      </c>
-      <c r="N14" s="81" t="s">
+      <c r="S14" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="P14" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="R14" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="S14" s="28" t="s">
-        <v>306</v>
-      </c>
       <c r="T14" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="X14" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Y14" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Z14" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA14" s="85" t="s">
-        <v>404</v>
+        <v>432</v>
+      </c>
+      <c r="AA14" s="73" t="s">
+        <v>400</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AD14" s="28" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="3:32">
       <c r="H15" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="L15" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="M15" s="85" t="s">
-        <v>307</v>
-      </c>
-      <c r="N15" s="81" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>303</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z15" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA15" s="85" t="s">
-        <v>379</v>
+        <v>375</v>
+      </c>
+      <c r="AA15" s="73" t="s">
+        <v>375</v>
       </c>
       <c r="AB15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AC15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF15" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="C16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -28894,9 +28974,9 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="81"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
@@ -28909,7 +28989,7 @@
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
-      <c r="AA16" s="85"/>
+      <c r="AA16" s="73"/>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
       <c r="AD16" s="28"/>
@@ -28917,480 +28997,478 @@
     </row>
     <row r="17" spans="4:32">
       <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
         <v>222</v>
       </c>
-      <c r="E17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
       <c r="H17" s="31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="M17" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M17" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="R17" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="N17" s="82" t="s">
-        <v>275</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="R17" s="27" t="s">
+      <c r="S17" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="S17" s="27" t="s">
-        <v>282</v>
-      </c>
       <c r="T17" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA17" s="86" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="AA17" s="74" t="s">
+        <v>354</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AE17" s="27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="4:32">
       <c r="E18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" s="87" t="s">
-        <v>410</v>
-      </c>
-      <c r="N18" s="82" t="s">
-        <v>271</v>
+        <v>225</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>267</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="R18" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="S18" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="S18" s="27" t="s">
-        <v>276</v>
-      </c>
       <c r="T18" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="X18" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Y18" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Z18" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA18" s="86" t="s">
-        <v>431</v>
+        <v>429</v>
+      </c>
+      <c r="AA18" s="74" t="s">
+        <v>427</v>
       </c>
       <c r="AB18" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AC18" s="27" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AD18" s="27" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AE18" s="27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AF18" s="27" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="4:32">
       <c r="E19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H19" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="T19" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="27" t="s">
+      <c r="U19" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="V19" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="X19" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="L19" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="M19" s="87" t="s">
-        <v>409</v>
-      </c>
-      <c r="N19" s="82" t="s">
-        <v>376</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="P19" s="27" t="s">
+      <c r="Y19" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="Q19" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="V19" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>317</v>
-      </c>
       <c r="Z19" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA19" s="86" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="AA19" s="74" t="s">
+        <v>428</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AF19" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="4:32">
       <c r="E20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="79"/>
+      <c r="M20" s="76"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
-      <c r="AA20" s="90"/>
+      <c r="AA20" s="78"/>
     </row>
     <row r="21" spans="4:32">
       <c r="E21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K21" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="M21" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q21" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="84" t="s">
-        <v>350</v>
-      </c>
-      <c r="M21" s="89" t="s">
-        <v>412</v>
-      </c>
-      <c r="N21" s="84" t="s">
+      <c r="R21" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="S21" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="T21" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="U21" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="V21" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="W21" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="U21" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="V21" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y21" s="30" t="s">
-        <v>344</v>
-      </c>
       <c r="Z21" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA21" s="91" t="s">
-        <v>435</v>
+        <v>430</v>
+      </c>
+      <c r="AA21" s="79" t="s">
+        <v>431</v>
       </c>
       <c r="AB21" s="30" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AC21" s="30" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AD21" s="30" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AE21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AF21" s="30" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="4:32">
       <c r="E22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="27" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L22" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="M22" s="87" t="s">
-        <v>354</v>
-      </c>
-      <c r="N22" s="82" t="s">
-        <v>253</v>
+        <v>259</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M22" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>249</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P22" s="27" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="X22" s="40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Y22" s="40" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Z22" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA22" s="92" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="AA22" s="80" t="s">
+        <v>445</v>
       </c>
       <c r="AB22" s="39" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AC22" s="39" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AD22" s="39" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AE22" s="39" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF22" s="39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="4:32">
       <c r="E23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="L23" s="83" t="s">
-        <v>354</v>
-      </c>
-      <c r="M23" s="87" t="s">
-        <v>277</v>
-      </c>
-      <c r="N23" s="82" t="s">
-        <v>357</v>
+        <v>220</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="M23" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>353</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="X23" s="39" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
@@ -29398,115 +29476,115 @@
       <c r="AC23" s="39"/>
       <c r="AD23" s="39"/>
       <c r="AF23" s="39" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="4:32">
       <c r="E24" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="L24" s="82" t="s">
-        <v>413</v>
-      </c>
-      <c r="M24" s="87" t="s">
-        <v>414</v>
-      </c>
-      <c r="N24" s="83" t="s">
-        <v>354</v>
+        <v>263</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="M24" s="75" t="s">
+        <v>410</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>350</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="39" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="39"/>
       <c r="AF24" s="39" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="4:32">
       <c r="E25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="87" t="s">
-        <v>415</v>
-      </c>
-      <c r="N25" s="82" t="s">
-        <v>413</v>
+        <v>351</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>409</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U25" s="27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="V25" s="27" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="W25" s="27"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
@@ -29516,31 +29594,31 @@
     </row>
     <row r="26" spans="4:32">
       <c r="E26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="27" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="L26" s="82"/>
-      <c r="M26" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="N26" s="82" t="s">
-        <v>346</v>
+        <v>461</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>342</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -29555,29 +29633,29 @@
     </row>
     <row r="27" spans="4:32">
       <c r="E27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -29591,23 +29669,23 @@
     </row>
     <row r="28" spans="4:32">
       <c r="E28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -29621,21 +29699,21 @@
     </row>
     <row r="29" spans="4:32">
       <c r="E29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
@@ -29646,23 +29724,23 @@
     </row>
     <row r="30" spans="4:32">
       <c r="E30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="27" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -29673,17 +29751,17 @@
     </row>
     <row r="31" spans="4:32">
       <c r="E31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H31" s="31"/>
       <c r="J31" s="26" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -29694,17 +29772,17 @@
     </row>
     <row r="32" spans="4:32">
       <c r="E32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H32" s="31"/>
       <c r="J32" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="26"/>
       <c r="O32" s="27" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
@@ -29716,17 +29794,17 @@
     </row>
     <row r="33" spans="5:29">
       <c r="E33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H33" s="31"/>
       <c r="J33" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
@@ -29734,15 +29812,15 @@
     </row>
     <row r="34" spans="5:29">
       <c r="E34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H34" s="31"/>
       <c r="J34" s="26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M34" s="26"/>
       <c r="O34" s="34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
@@ -29750,13 +29828,13 @@
     </row>
     <row r="35" spans="5:29">
       <c r="E35" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H35" s="31"/>
       <c r="J35" s="26"/>
       <c r="M35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
@@ -29764,13 +29842,13 @@
     </row>
     <row r="36" spans="5:29">
       <c r="E36" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H36" s="31"/>
       <c r="J36" s="26"/>
       <c r="M36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
@@ -29778,78 +29856,78 @@
     </row>
     <row r="37" spans="5:29">
       <c r="E37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H37" s="31"/>
       <c r="M37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Z37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AB37" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AC37" s="27"/>
     </row>
     <row r="38" spans="5:29">
       <c r="E38" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H38" s="31"/>
       <c r="M38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Z38" s="38" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AB38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="5:29">
       <c r="E39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H39" s="31"/>
       <c r="M39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="Z39" s="38" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AB39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="5:29">
       <c r="E40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M40" s="26"/>
       <c r="Z40" s="38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AA40" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AB40" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="5:29">
@@ -29857,20 +29935,20 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K41" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M41" s="26"/>
       <c r="O41" s="27" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AA41" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="5:29">
@@ -29878,26 +29956,26 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA42" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="5:29">
       <c r="J43" s="26"/>
       <c r="K43" s="38" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M43" s="26"/>
     </row>
@@ -29907,13 +29985,13 @@
     </row>
     <row r="45" spans="5:29">
       <c r="J45" s="26" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="5:29">
       <c r="J46" s="26" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M46" s="26"/>
     </row>
@@ -29947,138 +30025,138 @@
     </row>
     <row r="55" spans="8:29">
       <c r="H55" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I55" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="N55" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="K55" s="29" t="s">
+      <c r="O55" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="L55" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="M55" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="N55" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="O55" s="28" t="s">
-        <v>305</v>
-      </c>
       <c r="P55" s="28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S55" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="T55" s="28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="U55" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="V55" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="W55" s="28" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="X55" s="28" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Y55" s="28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AA55" s="28" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AB55" s="28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AC55" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="8:29">
       <c r="H56" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="S56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V56" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="W56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Y56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AA56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AB56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AC56" s="28" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="8:29">
@@ -30107,70 +30185,70 @@
     </row>
     <row r="58" spans="8:29">
       <c r="H58" s="31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M58" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O58" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="N58" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="O58" s="27" t="s">
+      <c r="P58" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="P58" s="27" t="s">
-        <v>282</v>
-      </c>
       <c r="Q58" s="27" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S58" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="T58" s="27" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U58" s="27" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="V58" s="27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="W58" s="27" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="X58" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y58" s="27" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z58" s="27" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AA58" s="27" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AB58" s="27" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AC58" s="27" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="8:29">
@@ -30178,135 +30256,135 @@
         <v>70</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M59" s="27" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O59" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="P59" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="P59" s="27" t="s">
-        <v>276</v>
-      </c>
       <c r="Q59" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="T59" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="U59" s="27" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="V59" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="W59" s="27" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="X59" s="27" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Y59" s="27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Z59" s="27" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AA59" s="27" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="AB59" s="27" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AC59" s="27" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="8:29">
       <c r="H60" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q60" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="K60" s="27" t="s">
+      <c r="R60" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="S60" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="T60" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="U60" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="L60" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="M60" s="27" t="s">
+      <c r="V60" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="N60" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="R60" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="S60" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="T60" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="U60" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="V60" s="27" t="s">
-        <v>317</v>
-      </c>
       <c r="W60" s="27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Z60" s="27" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AA60" s="27" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AC60" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="8:29">
@@ -30317,7 +30395,7 @@
     </row>
     <row r="62" spans="8:29">
       <c r="H62" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>16</v>
@@ -30386,110 +30464,110 @@
     <row r="63" spans="8:29">
       <c r="H63" s="31"/>
       <c r="I63" s="39" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M63" s="27" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="T63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="U63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="V63" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="W63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AB63" s="39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AC63" s="39" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64" spans="8:29">
       <c r="H64" s="31"/>
       <c r="I64" s="39" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J64" s="31" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L64" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M64" s="39"/>
       <c r="N64" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R64" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="S64" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="T64" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="U64" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V64" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
@@ -30498,91 +30576,91 @@
       <c r="AA64" s="39"/>
       <c r="AB64" s="39"/>
       <c r="AC64" s="39" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="H65" s="31"/>
       <c r="I65" s="39" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K65" s="39" t="s">
         <v>35</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M65" s="39"/>
       <c r="N65" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P65" s="39" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q65" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="R65" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="S65" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="T65" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="U65" s="39"/>
       <c r="V65" s="39" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
       <c r="Z65" s="39"/>
       <c r="AC65" s="39" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="8:29">
       <c r="H66" s="31"/>
       <c r="I66" s="39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K66" s="39" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="39" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P66" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="S66" s="39" t="s">
         <v>507</v>
-      </c>
-      <c r="Q66" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="R66" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="S66" s="39" t="s">
-        <v>511</v>
       </c>
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
       <c r="V66" s="27" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
@@ -30593,23 +30671,23 @@
     <row r="67" spans="8:29">
       <c r="H67" s="31"/>
       <c r="I67" s="39" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K67" s="39" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L67" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M67" s="31"/>
       <c r="N67" s="39"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
@@ -30625,20 +30703,20 @@
     <row r="68" spans="8:29">
       <c r="H68" s="31"/>
       <c r="I68" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L68" s="39" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M68" s="39"/>
       <c r="N68" s="39"/>
       <c r="O68" s="39"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="42" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
@@ -30654,21 +30732,21 @@
     <row r="69" spans="8:29">
       <c r="H69" s="31"/>
       <c r="I69" s="39" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K69" s="31"/>
       <c r="L69" s="39" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
@@ -30684,21 +30762,21 @@
     <row r="70" spans="8:29">
       <c r="H70" s="31"/>
       <c r="I70" s="39" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J70" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K70" s="31"/>
       <c r="L70" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="39" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
@@ -30714,21 +30792,21 @@
     <row r="71" spans="8:29">
       <c r="H71" s="31"/>
       <c r="I71" s="39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K71" s="39"/>
       <c r="L71" s="39" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="39" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
@@ -30745,11 +30823,11 @@
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K72" s="39"/>
       <c r="L72" s="39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M72" s="31"/>
       <c r="N72" s="31"/>
@@ -30771,11 +30849,11 @@
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K73" s="39"/>
       <c r="L73" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
@@ -30796,11 +30874,11 @@
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K74" s="39"/>
       <c r="L74" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="31"/>
@@ -30821,11 +30899,11 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K75" s="31"/>
       <c r="L75" s="42" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
@@ -30848,7 +30926,7 @@
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
       <c r="L76" s="39" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="31"/>
@@ -30871,7 +30949,7 @@
       <c r="J77" s="31"/>
       <c r="K77" s="31"/>
       <c r="L77" s="39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
@@ -30892,7 +30970,7 @@
       <c r="H78" s="31"/>
       <c r="J78" s="26"/>
       <c r="L78" s="39" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
@@ -30903,7 +30981,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="38"/>
       <c r="L79" s="39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W79" s="38"/>
       <c r="X79" s="26"/>
@@ -30914,7 +30992,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="38"/>
       <c r="L80" s="39" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="W80" s="38"/>
       <c r="X80" s="26"/>
@@ -30938,187 +31016,187 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.875" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.8984375" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="38" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
+      <c r="D4" s="86" t="s">
+        <v>547</v>
+      </c>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
     </row>
     <row r="5" spans="1:33" ht="26.1" customHeight="1">
       <c r="C5" s="46"/>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
     </row>
     <row r="6" spans="1:33" ht="26.1" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="47" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="N6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Q6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="R6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="T6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="U6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="V6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="W6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="X6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="Y6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="Z6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AA6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AB6" s="44" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AC6" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AD6" s="44" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AE6" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AG6" s="45" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="26.1" customHeight="1">
@@ -31126,19 +31204,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50"/>
       <c r="H7" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
@@ -31164,40 +31242,40 @@
       <c r="AD7" s="49"/>
       <c r="AE7" s="50"/>
       <c r="AG7" s="45" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="26.1" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="46"/>
       <c r="C8" s="48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="50"/>
       <c r="H8" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="49" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="N8" s="49"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="R8" s="49"/>
       <c r="S8" s="50"/>
@@ -31214,14 +31292,14 @@
       <c r="AD8" s="49"/>
       <c r="AE8" s="50"/>
       <c r="AG8" s="45" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="26.1" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="46"/>
       <c r="C9" s="48" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="49"/>
@@ -31229,10 +31307,10 @@
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="51"/>
@@ -31256,7 +31334,7 @@
       <c r="AD9" s="49"/>
       <c r="AE9" s="50"/>
       <c r="AG9" s="45" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="26.1" customHeight="1">
@@ -31623,7 +31701,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="2" width="9" style="15"/>
     <col min="3" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
@@ -31632,317 +31710,317 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>612</v>
-      </c>
       <c r="K4" s="15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="D7" s="15" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="D8" s="15" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="15" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="D11" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="D12" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="15" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="D15" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="D16" s="15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="D17" s="15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="D19" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="D20" s="15" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" s="15" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="D23" s="15" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="D25" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="D26" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" s="15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" s="15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" s="15" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="15" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" s="15" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="15" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="15" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="15" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="D42" s="15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="15" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="15" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" s="15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="D48" s="15" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="15" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="15" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="15" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="15" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="15" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="15" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="15" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="15" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="15" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -31960,7 +32038,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -31979,19 +32057,19 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="52"/>
+    <col min="1" max="16384" width="10.8984375" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.5">
+    <row r="2" spans="2:2" ht="21.6">
       <c r="B2" s="65" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="22.5">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="21.6">
       <c r="B21" s="65" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -32013,65 +32091,65 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="52"/>
+    <col min="1" max="1" width="10.8984375" style="52"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="56.09765625" style="52" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="52"/>
+    <col min="5" max="5" width="25.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.09765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.59765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.8984375" style="52"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="52" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="52" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="52" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="52" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="53" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
-      <c r="B9" s="73" t="s">
-        <v>523</v>
+      <c r="B9" s="81" t="s">
+        <v>519</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>19</v>
@@ -32082,13 +32160,13 @@
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1">
-      <c r="B10" s="73"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>21</v>
@@ -32096,11 +32174,11 @@
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1">
-      <c r="B11" s="73"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="57"/>
       <c r="D11" s="59"/>
       <c r="E11" s="56" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>21</v>
@@ -32108,7 +32186,7 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1">
-      <c r="B12" s="73"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="57"/>
       <c r="D12" s="59"/>
       <c r="E12" s="56" t="s">
@@ -32120,11 +32198,11 @@
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1">
-      <c r="B13" s="73"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="56" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>21</v>
@@ -32132,7 +32210,7 @@
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1">
-      <c r="B14" s="73"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="57"/>
       <c r="D14" s="59"/>
       <c r="E14" s="56" t="s">
@@ -32144,41 +32222,41 @@
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1">
-      <c r="B15" s="73"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="57"/>
       <c r="D15" s="60"/>
       <c r="E15" s="56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
-      <c r="B16" s="73"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="61" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
-      <c r="B17" s="73"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="62"/>
       <c r="D17" s="60"/>
       <c r="E17" s="56" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>21</v>
@@ -32186,115 +32264,115 @@
       <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1">
-      <c r="B18" s="73"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="61" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1">
-      <c r="B19" s="73"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="63"/>
       <c r="D19" s="58" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1">
-      <c r="B20" s="73"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
       <c r="E20" s="56" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="73"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
       <c r="E21" s="56" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1">
-      <c r="B22" s="73"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
       <c r="E22" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1">
-      <c r="B23" s="73"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="63"/>
       <c r="D23" s="59"/>
       <c r="E23" s="56" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1">
-      <c r="B24" s="73"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="63"/>
       <c r="D24" s="59"/>
       <c r="E24" s="56" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1">
-      <c r="B25" s="73"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="63"/>
       <c r="D25" s="59"/>
       <c r="E25" s="56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F25" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1">
+      <c r="B26" s="81"/>
+      <c r="C26" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="2:7" ht="21" customHeight="1">
-      <c r="B26" s="73"/>
-      <c r="C26" s="54" t="s">
-        <v>564</v>
-      </c>
       <c r="D26" s="58" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E26" s="56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F26" s="56" t="s">
         <v>21</v>
@@ -32302,15 +32380,15 @@
       <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1">
-      <c r="B27" s="73"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="54" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>21</v>
@@ -32318,12 +32396,12 @@
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1">
-      <c r="B28" s="73"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="64" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E28" s="56" t="s">
         <v>19</v>
@@ -32334,49 +32412,49 @@
       <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1">
-      <c r="B29" s="73"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="61" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E29" s="56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
-      <c r="B30" s="73"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="62"/>
       <c r="D30" s="55" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E30" s="56" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F30" s="56" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
-      <c r="B31" s="74" t="s">
-        <v>533</v>
+      <c r="B31" s="82" t="s">
+        <v>529</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>38</v>
@@ -32384,15 +32462,15 @@
       <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="21" customHeight="1">
-      <c r="B32" s="75"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="70" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F32" s="71" t="s">
         <v>38</v>
@@ -32400,13 +32478,13 @@
       <c r="G32" s="71"/>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1">
-      <c r="B33" s="75"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="69"/>
       <c r="D33" s="71" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F33" s="71" t="s">
         <v>38</v>
@@ -32414,15 +32492,15 @@
       <c r="G33" s="71"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1">
-      <c r="B34" s="75"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="68" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F34" s="71" t="s">
         <v>38</v>
@@ -32430,13 +32508,13 @@
       <c r="G34" s="71"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1">
-      <c r="B35" s="75"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="70"/>
       <c r="D35" s="71" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F35" s="71" t="s">
         <v>38</v>
@@ -32444,13 +32522,13 @@
       <c r="G35" s="71"/>
     </row>
     <row r="36" spans="2:8" ht="21" customHeight="1">
-      <c r="B36" s="75"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="70"/>
       <c r="D36" s="71" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>38</v>
@@ -32458,13 +32536,13 @@
       <c r="G36" s="71"/>
     </row>
     <row r="37" spans="2:8" ht="21" customHeight="1">
-      <c r="B37" s="75"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
+        <v>583</v>
+      </c>
+      <c r="E37" s="71" t="s">
         <v>587</v>
-      </c>
-      <c r="E37" s="71" t="s">
-        <v>591</v>
       </c>
       <c r="F37" s="71" t="s">
         <v>38</v>
@@ -32472,15 +32550,15 @@
       <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:8" ht="21" customHeight="1">
-      <c r="B38" s="75"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="68" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F38" s="64" t="s">
         <v>21</v>
@@ -32488,11 +32566,11 @@
       <c r="G38" s="71"/>
     </row>
     <row r="39" spans="2:8" ht="21" customHeight="1">
-      <c r="B39" s="75"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="70"/>
       <c r="D39" s="72"/>
       <c r="E39" s="71" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F39" s="64" t="s">
         <v>21</v>
@@ -32500,11 +32578,11 @@
       <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:8" ht="21" customHeight="1">
-      <c r="B40" s="76"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="70"/>
       <c r="D40" s="67"/>
       <c r="E40" s="71" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F40" s="64" t="s">
         <v>21</v>
@@ -32514,10 +32592,10 @@
     <row r="41" spans="2:8">
       <c r="C41" s="70"/>
       <c r="D41" s="66" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>21</v>
@@ -32528,23 +32606,23 @@
       <c r="C42" s="70"/>
       <c r="D42" s="72"/>
       <c r="E42" s="71" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="70"/>
       <c r="D43" s="72"/>
       <c r="E43" s="71" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F43" s="64" t="s">
         <v>21</v>
@@ -32555,20 +32633,20 @@
       <c r="C44" s="70"/>
       <c r="D44" s="72"/>
       <c r="E44" s="71" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="70"/>
       <c r="D45" s="72"/>
       <c r="E45" s="71" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>21</v>
@@ -32579,26 +32657,26 @@
       <c r="C46" s="70"/>
       <c r="D46" s="72"/>
       <c r="E46" s="71" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="70"/>
       <c r="D47" s="72"/>
       <c r="E47" s="71" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -32673,13 +32751,13 @@
     </row>
     <row r="58" spans="3:7">
       <c r="C58" s="68" t="s">
+        <v>582</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="E58" s="71" t="s">
         <v>586</v>
-      </c>
-      <c r="D58" s="66" t="s">
-        <v>578</v>
-      </c>
-      <c r="E58" s="71" t="s">
-        <v>590</v>
       </c>
       <c r="F58" s="64" t="s">
         <v>21</v>
@@ -32690,7 +32768,7 @@
       <c r="C59" s="70"/>
       <c r="D59" s="72"/>
       <c r="E59" s="71" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>21</v>
@@ -32701,7 +32779,7 @@
       <c r="C60" s="70"/>
       <c r="D60" s="67"/>
       <c r="E60" s="71" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F60" s="64" t="s">
         <v>21</v>
@@ -32711,7 +32789,7 @@
     <row r="61" spans="3:7">
       <c r="C61" s="70"/>
       <c r="D61" s="66" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E61" s="71"/>
       <c r="F61" s="64"/>
@@ -32831,7 +32909,7 @@
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="68" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="71"/>
@@ -32870,7 +32948,7 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32886,24 +32964,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.8984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.09765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.3984375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.09765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.09765625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="19.5">
+    <row r="2" spans="2:21" ht="18.600000000000001">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -33569,15 +33647,15 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33592,16 +33670,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -33682,16 +33760,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -33717,7 +33795,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -33732,7 +33810,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -33754,7 +33832,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -33776,7 +33854,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>38</v>
@@ -33798,7 +33876,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>38</v>
@@ -33820,7 +33898,7 @@
         <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -33839,7 +33917,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -33852,7 +33930,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -33914,21 +33992,21 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:I21"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33943,16 +34021,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34033,16 +34111,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -34068,7 +34146,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -34083,7 +34161,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -34105,7 +34183,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -34188,32 +34266,62 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="1" t="s">
+    <row r="28" spans="2:3">
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="1" t="s">
+    <row r="29" spans="2:3">
+      <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" s="1" t="s">
+    <row r="30" spans="2:3">
+      <c r="C30" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -34228,21 +34336,21 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34257,16 +34365,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34306,7 +34414,7 @@
         <v>75</v>
       </c>
       <c r="F5" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>21</v>
@@ -34326,7 +34434,7 @@
         <v>75</v>
       </c>
       <c r="F6" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>21</v>
@@ -34346,7 +34454,7 @@
         <v>75</v>
       </c>
       <c r="F7" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>21</v>
@@ -34366,7 +34474,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>21</v>
@@ -34460,16 +34568,16 @@
         <v>15</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>77</v>
@@ -34495,7 +34603,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -34507,10 +34615,10 @@
         <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -34532,10 +34640,10 @@
         <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F18" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>21</v>
@@ -34551,13 +34659,13 @@
         <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F19" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>21</v>
@@ -34576,10 +34684,10 @@
         <v>32</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>21</v>
@@ -34595,13 +34703,13 @@
         <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F21" s="5">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
@@ -34617,10 +34725,10 @@
         <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -34642,10 +34750,10 @@
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="F23" s="5">
+        <v>255</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>21</v>
@@ -34666,10 +34774,10 @@
         <v>108</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="F24" s="5">
+        <v>255</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>21</v>
@@ -34688,10 +34796,10 @@
         <v>54</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="F25" s="5">
+        <v>255</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>21</v>
@@ -34713,10 +34821,10 @@
         <v>91</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>38</v>
+        <v>163</v>
+      </c>
+      <c r="F26" s="5">
+        <v>255</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>20</v>
@@ -34754,7 +34862,7 @@
         <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>74</v>
@@ -34767,10 +34875,10 @@
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -34794,7 +34902,7 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -34822,23 +34930,53 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="C32" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="1" t="s">
-        <v>112</v>
+      <c r="B32" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{EBF6D5E4-B711-0A46-95C0-067D45B52168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85C1A106-911C-47B0-AE7C-BE6622F33529}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA636FF9-4FC8-4444-8B89-EE90D514CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="672">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -4478,6 +4478,23 @@
     <t>2)フォーム入力時</t>
     <rPh sb="6" eb="9">
       <t>ニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*ハッシュ化し、登録</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uuidで発行</t>
+    <rPh sb="5" eb="7">
+      <t>ハッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4828,7 +4845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5048,6 +5065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7538,14 +7559,14 @@
     <dgm:cxn modelId="{3A5CF635-9838-B44B-B573-9EB410272026}" srcId="{3E73D937-8C65-624E-A2A1-4BA6E5B08C23}" destId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" srcOrd="0" destOrd="0" parTransId="{3BF11DA0-70D8-F142-84D7-5B892A0758B9}" sibTransId="{7E16E407-C67C-1441-A59E-55B4A62727CA}"/>
     <dgm:cxn modelId="{BC0EE63D-6293-DA4B-9094-53F71E8D80EE}" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" srcOrd="0" destOrd="0" parTransId="{76A54F18-244A-614C-9032-85677F3F5361}" sibTransId="{33BD3859-CACD-9344-8C0B-AF7FB694A7CF}"/>
     <dgm:cxn modelId="{CB28773F-2EB2-3B42-B9C8-4180D1DDCCA2}" type="presOf" srcId="{BF3B7BD3-FFA9-5E4E-A2DE-18BDA1307D27}" destId="{4FF3E7D5-5CF7-3C45-BBCC-A55C11CC9F1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D274EF42-9D21-B748-873F-EE016A3E9E42}" type="presOf" srcId="{BB9AF71B-D57B-5943-B453-ED7D1F2283C5}" destId="{2F18E196-3FF0-F246-8E00-EF14229692FF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{84530B43-2501-FC49-AA5D-D98BEBE15E50}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A7326A-6034-1246-958C-B93CAAF77DCB}" srcId="{E40EC64D-96DE-944D-AC1A-08B73C7CCA28}" destId="{58148714-4A18-4846-AE98-815A82AE6F5C}" srcOrd="0" destOrd="0" parTransId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" sibTransId="{DEB2D829-7072-B24C-B732-F6D8EB211D4E}"/>
     <dgm:cxn modelId="{C881076C-2791-7B49-B3B9-6678B5055372}" type="presOf" srcId="{F4890F2E-C69C-AD41-83BF-922F1F8FDF64}" destId="{A4F73497-1C60-994D-B7BB-FF922AC477D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4784E36C-137D-2545-90D5-41D365AE9EC0}" type="presOf" srcId="{76A54F18-244A-614C-9032-85677F3F5361}" destId="{CABB0FD0-5582-CA49-B21E-357A38F4CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B39BD26F-37A5-6342-8AFC-4773F27E34B1}" type="presOf" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{23DA1EA8-80AA-974A-9469-7910D725533B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{28734183-791F-A444-92EC-6338D358B842}" type="presOf" srcId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" destId="{1626C21C-174A-BA4D-A282-A122107CA46C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E48FB58B-98F6-8842-A7EE-68E3BAFE5A83}" type="presOf" srcId="{5612EDFF-246C-5D42-9BEC-9C47A72FCBCB}" destId="{43280627-C848-024B-9A8B-A06F8D383EAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB90CB8E-C823-4340-A34D-686464910A59}" type="presOf" srcId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" destId="{5CA976B6-F0EF-4442-AD81-ECB67A53B985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -19288,8 +19309,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14409420" y="9478643"/>
-          <a:ext cx="1922145" cy="309373"/>
+          <a:off x="14414500" y="10106023"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19414,8 +19435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10467655"/>
-          <a:ext cx="1920240" cy="309373"/>
+          <a:off x="13382625" y="11158535"/>
+          <a:ext cx="1930400" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19540,8 +19561,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14428470" y="11466195"/>
-          <a:ext cx="1922145" cy="309373"/>
+          <a:off x="14433550" y="12220575"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19679,8 +19700,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8237220"/>
-          <a:ext cx="4006215" cy="618934"/>
+          <a:off x="13363575" y="8775700"/>
+          <a:ext cx="4016375" cy="669734"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -20032,8 +20053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7113270"/>
-          <a:ext cx="4006215" cy="795148"/>
+          <a:off x="13315950" y="7588250"/>
+          <a:ext cx="4016375" cy="845948"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -20434,8 +20455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15436215" y="10467655"/>
-          <a:ext cx="1924050" cy="309373"/>
+          <a:off x="15446375" y="11158535"/>
+          <a:ext cx="1924050" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -20751,8 +20772,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="12352020"/>
-          <a:ext cx="2811780" cy="864122"/>
+          <a:off x="1565275" y="13169900"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20977,8 +20998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1531620" y="13514070"/>
-          <a:ext cx="2811780" cy="864122"/>
+          <a:off x="1536700" y="14408150"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21203,8 +21224,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1531620" y="14542770"/>
-          <a:ext cx="2811780" cy="873647"/>
+          <a:off x="1536700" y="15513050"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21434,8 +21455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1550670" y="15647670"/>
-          <a:ext cx="3538985" cy="864122"/>
+          <a:off x="1555750" y="16681450"/>
+          <a:ext cx="3533905" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -21717,8 +21738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="16657320"/>
-          <a:ext cx="2811780" cy="873647"/>
+          <a:off x="1565275" y="17767300"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -22013,8 +22034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1560195" y="17676495"/>
-          <a:ext cx="2949813" cy="864122"/>
+          <a:off x="1565275" y="18849975"/>
+          <a:ext cx="2944733" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -22605,7 +22626,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5205"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5218"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22732,7 +22753,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4174"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4187"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23261,14 +23282,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23538,14 +23551,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="8.59765625" style="15"/>
-    <col min="3" max="3" width="24.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.59765625" style="15"/>
+    <col min="1" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -23719,15 +23732,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24218,15 +24231,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24622,15 +24635,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24883,15 +24896,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -25147,15 +25160,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -25563,15 +25576,15 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -25834,15 +25847,15 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -26158,15 +26171,15 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -26623,15 +26636,15 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -26918,15 +26931,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -27376,7 +27389,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27395,15 +27408,15 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -27713,15 +27726,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -28008,15 +28021,15 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -28323,15 +28336,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -28640,32 +28653,32 @@
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.09765625" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
@@ -31016,12 +31029,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.8984375" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
@@ -31066,7 +31079,7 @@
       <c r="AD4" s="86"/>
       <c r="AE4" s="86"/>
     </row>
-    <row r="5" spans="1:33" ht="26.1" customHeight="1">
+    <row r="5" spans="1:33" ht="26" customHeight="1">
       <c r="C5" s="46"/>
       <c r="D5" s="85" t="s">
         <v>78</v>
@@ -31105,7 +31118,7 @@
       <c r="AD5" s="85"/>
       <c r="AE5" s="85"/>
     </row>
-    <row r="6" spans="1:33" ht="26.1" customHeight="1">
+    <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="47" t="s">
@@ -31199,7 +31212,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="26.1" customHeight="1">
+    <row r="7" spans="1:33" ht="26" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
@@ -31245,7 +31258,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="26.1" customHeight="1">
+    <row r="8" spans="1:33" ht="26" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="46"/>
       <c r="C8" s="48" t="s">
@@ -31295,7 +31308,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="26.1" customHeight="1">
+    <row r="9" spans="1:33" ht="26" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="46"/>
       <c r="C9" s="48" t="s">
@@ -31337,7 +31350,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="26.1" customHeight="1">
+    <row r="10" spans="1:33" ht="26" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -31372,7 +31385,7 @@
       <c r="AD10" s="49"/>
       <c r="AE10" s="50"/>
     </row>
-    <row r="11" spans="1:33" ht="26.1" customHeight="1">
+    <row r="11" spans="1:33" ht="26" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="46"/>
       <c r="C11" s="48"/>
@@ -31405,7 +31418,7 @@
       <c r="AD11" s="49"/>
       <c r="AE11" s="50"/>
     </row>
-    <row r="12" spans="1:33" ht="26.1" customHeight="1">
+    <row r="12" spans="1:33" ht="26" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="46"/>
       <c r="C12" s="48"/>
@@ -31438,7 +31451,7 @@
       <c r="AD12" s="49"/>
       <c r="AE12" s="50"/>
     </row>
-    <row r="13" spans="1:33" ht="26.1" customHeight="1">
+    <row r="13" spans="1:33" ht="26" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="46"/>
       <c r="C13" s="48"/>
@@ -31471,7 +31484,7 @@
       <c r="AD13" s="49"/>
       <c r="AE13" s="50"/>
     </row>
-    <row r="14" spans="1:33" ht="26.1" customHeight="1">
+    <row r="14" spans="1:33" ht="26" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="46"/>
       <c r="C14" s="48"/>
@@ -31504,7 +31517,7 @@
       <c r="AD14" s="49"/>
       <c r="AE14" s="50"/>
     </row>
-    <row r="15" spans="1:33" ht="26.1" customHeight="1">
+    <row r="15" spans="1:33" ht="26" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48"/>
@@ -31537,7 +31550,7 @@
       <c r="AD15" s="49"/>
       <c r="AE15" s="50"/>
     </row>
-    <row r="16" spans="1:33" ht="26.1" customHeight="1">
+    <row r="16" spans="1:33" ht="26" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="46"/>
       <c r="C16" s="48"/>
@@ -31570,7 +31583,7 @@
       <c r="AD16" s="49"/>
       <c r="AE16" s="50"/>
     </row>
-    <row r="17" spans="1:31" ht="26.1" customHeight="1">
+    <row r="17" spans="1:31" ht="26" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="46"/>
       <c r="C17" s="48"/>
@@ -31603,7 +31616,7 @@
       <c r="AD17" s="49"/>
       <c r="AE17" s="50"/>
     </row>
-    <row r="18" spans="1:31" ht="26.1" customHeight="1">
+    <row r="18" spans="1:31" ht="26" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="46"/>
       <c r="C18" s="48"/>
@@ -31636,7 +31649,7 @@
       <c r="AD18" s="49"/>
       <c r="AE18" s="50"/>
     </row>
-    <row r="19" spans="1:31" ht="26.1" customHeight="1">
+    <row r="19" spans="1:31" ht="26" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48"/>
@@ -31701,7 +31714,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="2" width="9" style="15"/>
     <col min="3" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
@@ -32038,7 +32051,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -32057,17 +32070,17 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="16384" width="10.8984375" style="52"/>
+    <col min="1" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="21.6">
+    <row r="2" spans="2:2" ht="23">
       <c r="B2" s="65" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="21.6">
+    <row r="21" spans="2:2" ht="23">
       <c r="B21" s="65" t="s">
         <v>570</v>
       </c>
@@ -32091,16 +32104,16 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="52"/>
+    <col min="1" max="1" width="10.83203125" style="52"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.09765625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.09765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.59765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.8984375" style="52"/>
+    <col min="5" max="5" width="25.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -32948,7 +32961,7 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32964,24 +32977,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.09765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.09765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.09765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="18.600000000000001">
+    <row r="2" spans="2:21" ht="20">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -33647,15 +33660,15 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33994,19 +34007,19 @@
   </sheetPr>
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34270,59 +34283,70 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="88" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="88" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="88" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="88" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="88"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>659</v>
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:3">
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -34338,19 +34362,19 @@
   </sheetPr>
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34807,7 +34831,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="9"/>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -34940,17 +34964,17 @@
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="87" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="87" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="87" t="s">
         <v>661</v>
       </c>
     </row>
@@ -34960,22 +34984,22 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="87" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="87" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="87" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="87" t="s">
         <v>665</v>
       </c>
     </row>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA636FF9-4FC8-4444-8B89-EE90D514CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB790CD-0AD3-054E-8574-DB336A62C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22626,7 +22626,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5218"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5219"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22753,7 +22753,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4187"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4188"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -34008,7 +34008,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\ドキュメント\onLineDatingWithSportsApp\src\core\_sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB790CD-0AD3-054E-8574-DB336A62C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1408C-E3D3-4379-92C4-F4BDA59A7606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="671">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -810,10 +810,6 @@
   </si>
   <si>
     <t>*ユーザidは、ログインユーザid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>visitor_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4845,7 +4841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5047,6 +5043,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5065,10 +5064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7559,14 +7554,14 @@
     <dgm:cxn modelId="{3A5CF635-9838-B44B-B573-9EB410272026}" srcId="{3E73D937-8C65-624E-A2A1-4BA6E5B08C23}" destId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" srcOrd="0" destOrd="0" parTransId="{3BF11DA0-70D8-F142-84D7-5B892A0758B9}" sibTransId="{7E16E407-C67C-1441-A59E-55B4A62727CA}"/>
     <dgm:cxn modelId="{BC0EE63D-6293-DA4B-9094-53F71E8D80EE}" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" srcOrd="0" destOrd="0" parTransId="{76A54F18-244A-614C-9032-85677F3F5361}" sibTransId="{33BD3859-CACD-9344-8C0B-AF7FB694A7CF}"/>
     <dgm:cxn modelId="{CB28773F-2EB2-3B42-B9C8-4180D1DDCCA2}" type="presOf" srcId="{BF3B7BD3-FFA9-5E4E-A2DE-18BDA1307D27}" destId="{4FF3E7D5-5CF7-3C45-BBCC-A55C11CC9F1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D274EF42-9D21-B748-873F-EE016A3E9E42}" type="presOf" srcId="{BB9AF71B-D57B-5943-B453-ED7D1F2283C5}" destId="{2F18E196-3FF0-F246-8E00-EF14229692FF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{84530B43-2501-FC49-AA5D-D98BEBE15E50}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A7326A-6034-1246-958C-B93CAAF77DCB}" srcId="{E40EC64D-96DE-944D-AC1A-08B73C7CCA28}" destId="{58148714-4A18-4846-AE98-815A82AE6F5C}" srcOrd="0" destOrd="0" parTransId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" sibTransId="{DEB2D829-7072-B24C-B732-F6D8EB211D4E}"/>
     <dgm:cxn modelId="{C881076C-2791-7B49-B3B9-6678B5055372}" type="presOf" srcId="{F4890F2E-C69C-AD41-83BF-922F1F8FDF64}" destId="{A4F73497-1C60-994D-B7BB-FF922AC477D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4784E36C-137D-2545-90D5-41D365AE9EC0}" type="presOf" srcId="{76A54F18-244A-614C-9032-85677F3F5361}" destId="{CABB0FD0-5582-CA49-B21E-357A38F4CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B39BD26F-37A5-6342-8AFC-4773F27E34B1}" type="presOf" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{23DA1EA8-80AA-974A-9469-7910D725533B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{28734183-791F-A444-92EC-6338D358B842}" type="presOf" srcId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" destId="{1626C21C-174A-BA4D-A282-A122107CA46C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E48FB58B-98F6-8842-A7EE-68E3BAFE5A83}" type="presOf" srcId="{5612EDFF-246C-5D42-9BEC-9C47A72FCBCB}" destId="{43280627-C848-024B-9A8B-A06F8D383EAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB90CB8E-C823-4340-A34D-686464910A59}" type="presOf" srcId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" destId="{5CA976B6-F0EF-4442-AD81-ECB67A53B985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -19309,8 +19304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14414500" y="10106023"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14411325" y="9947273"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19435,8 +19430,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="11158535"/>
-          <a:ext cx="1930400" cy="334773"/>
+          <a:off x="13382625" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19561,8 +19556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14433550" y="12220575"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14430375" y="12030075"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19700,8 +19695,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8775700"/>
-          <a:ext cx="4016375" cy="669734"/>
+          <a:off x="13363575" y="8639175"/>
+          <a:ext cx="4010025" cy="657034"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -20053,8 +20048,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7588250"/>
-          <a:ext cx="4016375" cy="845948"/>
+          <a:off x="13315950" y="7467600"/>
+          <a:ext cx="4010025" cy="833248"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -20455,8 +20450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15446375" y="11158535"/>
-          <a:ext cx="1924050" cy="334773"/>
+          <a:off x="15440025" y="10983910"/>
+          <a:ext cx="1924050" cy="328423"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -20772,8 +20767,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="13169900"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1562100" y="12963525"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20998,8 +20993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="14408150"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1533525" y="14182725"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21224,8 +21219,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="15513050"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1533525" y="15268575"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21455,8 +21450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1555750" y="16681450"/>
-          <a:ext cx="3533905" cy="927622"/>
+          <a:off x="1552575" y="16421100"/>
+          <a:ext cx="3537080" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -21738,8 +21733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="17767300"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1562100" y="17487900"/>
+          <a:ext cx="2809875" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -22034,8 +22029,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="18849975"/>
-          <a:ext cx="2944733" cy="927622"/>
+          <a:off x="1562100" y="18554700"/>
+          <a:ext cx="2947908" cy="911747"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -22626,7 +22621,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5219"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5221"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22753,7 +22748,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4188"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4190"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23551,14 +23546,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="15"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="2" width="8.625" style="15"/>
+    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -23619,13 +23614,13 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>62</v>
@@ -23633,13 +23628,13 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>62</v>
@@ -23647,13 +23642,13 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>62</v>
@@ -23661,13 +23656,13 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>62</v>
@@ -23677,7 +23672,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>62</v>
@@ -23685,7 +23680,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>64</v>
@@ -23697,18 +23692,18 @@
         <v>62</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>62</v>
@@ -23732,15 +23727,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -23755,16 +23750,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -23823,16 +23818,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -23989,16 +23984,16 @@
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>77</v>
@@ -24024,7 +24019,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -24039,7 +24034,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="5">
         <v>255</v>
@@ -24064,7 +24059,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -24107,10 +24102,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -24126,7 +24121,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -24153,7 +24148,7 @@
         <v>112</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -24177,7 +24172,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -24231,15 +24226,15 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24254,16 +24249,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24326,16 +24321,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -24487,16 +24482,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -24522,7 +24517,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -24559,7 +24554,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="5">
         <v>255</v>
@@ -24591,7 +24586,7 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -24635,15 +24630,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24658,16 +24653,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24729,7 +24724,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -24743,16 +24738,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -24763,7 +24758,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -24778,7 +24773,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -24787,13 +24782,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="5">
         <v>20</v>
@@ -24809,7 +24804,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>111</v>
@@ -24825,10 +24820,10 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -24836,7 +24831,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -24852,7 +24847,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -24860,7 +24855,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -24876,7 +24871,7 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -24896,15 +24891,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24919,16 +24914,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24990,7 +24985,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -25004,16 +24999,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -25024,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -25039,7 +25034,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -25048,13 +25043,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="5">
         <v>255</v>
@@ -25073,7 +25068,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>111</v>
@@ -25092,7 +25087,7 @@
         <v>112</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25100,7 +25095,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -25116,7 +25111,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -25124,7 +25119,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -25160,15 +25155,15 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -25183,16 +25178,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25226,7 +25221,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>75</v>
@@ -25240,7 +25235,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -25248,16 +25243,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -25288,10 +25283,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>74</v>
@@ -25347,16 +25342,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -25367,7 +25362,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -25382,7 +25377,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -25439,10 +25434,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -25456,7 +25451,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
       <c r="J21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -25464,7 +25459,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>113</v>
@@ -25481,7 +25476,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -25489,7 +25484,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>111</v>
@@ -25505,10 +25500,10 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -25516,7 +25511,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
@@ -25532,7 +25527,7 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -25540,7 +25535,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>46</v>
@@ -25556,7 +25551,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -25576,22 +25571,22 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -25599,16 +25594,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25680,7 +25675,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25694,16 +25689,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25714,7 +25709,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -25729,7 +25724,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -25738,13 +25733,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="5">
         <v>10</v>
@@ -25760,7 +25755,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>111</v>
@@ -25776,10 +25771,10 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -25787,7 +25782,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
@@ -25803,7 +25798,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -25811,7 +25806,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
@@ -25827,7 +25822,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -25847,22 +25842,22 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -25870,16 +25865,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25951,7 +25946,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -25965,16 +25960,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25985,7 +25980,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26000,7 +25995,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26012,7 +26007,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -26036,7 +26031,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -26057,10 +26052,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -26076,7 +26071,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26084,7 +26079,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>111</v>
@@ -26100,10 +26095,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26111,7 +26106,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -26127,7 +26122,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26135,7 +26130,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -26151,7 +26146,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -26171,22 +26166,22 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26194,16 +26189,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26275,7 +26270,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26289,16 +26284,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26309,7 +26304,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26324,7 +26319,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26336,7 +26331,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -26357,10 +26352,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -26381,10 +26376,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -26397,7 +26392,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26405,10 +26400,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -26422,7 +26417,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26430,10 +26425,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>76</v>
@@ -26447,7 +26442,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="9"/>
       <c r="J19" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26455,10 +26450,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>76</v>
@@ -26477,10 +26472,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -26501,10 +26496,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -26525,10 +26520,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -26547,7 +26542,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>111</v>
@@ -26563,10 +26558,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -26574,7 +26569,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -26590,7 +26585,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -26598,7 +26593,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -26614,7 +26609,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -26636,22 +26631,22 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26659,16 +26654,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26740,7 +26735,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26754,16 +26749,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26774,7 +26769,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26789,7 +26784,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26822,13 +26817,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>648</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -26844,7 +26839,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>111</v>
@@ -26860,10 +26855,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26871,7 +26866,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -26887,7 +26882,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26895,7 +26890,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -26911,7 +26906,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -26931,22 +26926,22 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26954,16 +26949,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27035,10 +27030,10 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27052,16 +27047,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27072,7 +27067,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27087,7 +27082,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27096,10 +27091,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27144,10 +27139,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -27168,10 +27163,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -27180,14 +27175,14 @@
         <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27195,10 +27190,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -27217,10 +27212,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -27239,10 +27234,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -27251,7 +27246,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
@@ -27261,10 +27256,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -27283,10 +27278,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -27295,7 +27290,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="9"/>
@@ -27305,7 +27300,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>111</v>
@@ -27321,10 +27316,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -27332,7 +27327,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -27348,7 +27343,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -27356,7 +27351,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -27389,7 +27384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27408,22 +27403,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -27431,16 +27426,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27512,7 +27507,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -27526,16 +27521,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27546,7 +27541,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27561,7 +27556,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27570,10 +27565,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27595,13 +27590,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27617,13 +27612,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="5">
         <v>20</v>
@@ -27639,7 +27634,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>111</v>
@@ -27655,10 +27650,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27666,7 +27661,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -27682,7 +27677,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -27690,7 +27685,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -27706,7 +27701,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -27726,22 +27721,22 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -27749,16 +27744,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27769,13 +27764,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="5">
         <v>255</v>
@@ -27830,7 +27825,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27844,16 +27839,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27864,7 +27859,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27879,7 +27874,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27912,13 +27907,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27934,7 +27929,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>111</v>
@@ -27950,10 +27945,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -27961,7 +27956,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -27977,7 +27972,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27985,7 +27980,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -28001,7 +27996,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -28021,22 +28016,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28044,16 +28039,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28125,7 +28120,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28139,16 +28134,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28159,7 +28154,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28174,7 +28169,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28183,13 +28178,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="5">
         <v>255</v>
@@ -28229,13 +28224,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28251,7 +28246,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>111</v>
@@ -28267,10 +28262,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28278,7 +28273,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28294,7 +28289,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28302,7 +28297,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28318,7 +28313,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -28336,22 +28331,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28359,16 +28354,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28440,7 +28435,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28454,16 +28449,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28474,7 +28469,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28489,7 +28484,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28522,13 +28517,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
@@ -28544,13 +28539,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28566,7 +28561,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>111</v>
@@ -28582,10 +28577,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28593,7 +28588,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28609,7 +28604,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28617,7 +28612,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28633,7 +28628,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -28649,87 +28644,87 @@
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" customWidth="1"/>
+    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.375" customWidth="1"/>
+    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
       <c r="I2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="3:32">
       <c r="I3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K3" t="s">
         <v>384</v>
-      </c>
-      <c r="K3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="4" spans="3:32">
       <c r="I4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="3:32">
       <c r="I5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="3:32">
       <c r="C6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -28738,48 +28733,48 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="3:32">
       <c r="E8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="3:32">
       <c r="E9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="3:32">
       <c r="E10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="E11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="3:32">
@@ -28787,13 +28782,13 @@
         <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
+        <v>395</v>
+      </c>
+      <c r="P12" t="s">
         <v>396</v>
-      </c>
-      <c r="P12" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="13" spans="3:32">
@@ -28801,13 +28796,13 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L13" t="s">
+        <v>417</v>
+      </c>
+      <c r="N13" t="s">
         <v>418</v>
-      </c>
-      <c r="N13" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="14" spans="3:32">
@@ -28815,167 +28810,167 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I14" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="L14" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>406</v>
+      </c>
+      <c r="N14" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="M14" s="73" t="s">
-        <v>407</v>
-      </c>
-      <c r="N14" s="28" t="s">
+      <c r="O14" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="P14" s="28" t="s">
+      <c r="Q14" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="R14" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="S14" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>302</v>
-      </c>
       <c r="T14" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X14" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y14" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="Y14" s="29" t="s">
-        <v>317</v>
-      </c>
       <c r="Z14" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA14" s="73" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AD14" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="3:32">
       <c r="H15" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M15" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA15" s="73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AD15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -29010,259 +29005,259 @@
     </row>
     <row r="17" spans="4:32">
       <c r="D17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="K17" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="L17" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>255</v>
-      </c>
       <c r="M17" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="O17" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P17" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="Q17" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="R17" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA17" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB17" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="AB17" s="27" t="s">
-        <v>355</v>
-      </c>
       <c r="AC17" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD17" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" s="27" t="s">
-        <v>487</v>
-      </c>
       <c r="AE17" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="4:32">
       <c r="E18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M18" s="75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N18" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="R18" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="O18" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>268</v>
-      </c>
       <c r="S18" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X18" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y18" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>285</v>
-      </c>
       <c r="Z18" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AA18" s="74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB18" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD18" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="AC18" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD18" s="27" t="s">
-        <v>485</v>
-      </c>
       <c r="AE18" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF18" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="4:32">
       <c r="E19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H19" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="V19" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="M19" s="75" t="s">
-        <v>405</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="V19" s="27" t="s">
+      <c r="W19" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y19" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="W19" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>313</v>
-      </c>
       <c r="Z19" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA19" s="74" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF19" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="4:32">
       <c r="E20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="31"/>
@@ -29273,215 +29268,215 @@
     </row>
     <row r="21" spans="4:32">
       <c r="E21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K21" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="M21" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="77" t="s">
-        <v>408</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="O21" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="P21" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="Q21" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="R21" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="S21" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="T21" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="U21" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="U21" s="30" t="s">
+      <c r="V21" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="V21" s="30" t="s">
+      <c r="W21" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="W21" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="X21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="Y21" s="30" t="s">
-        <v>340</v>
-      </c>
       <c r="Z21" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA21" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="AA21" s="79" t="s">
-        <v>431</v>
-      </c>
       <c r="AB21" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD21" s="30" t="s">
         <v>489</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="AD21" s="30" t="s">
-        <v>490</v>
       </c>
       <c r="AE21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AF21" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="4:32">
       <c r="E22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M22" s="75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P22" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="X22" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y22" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z22" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="Q22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="R22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="W22" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="X22" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y22" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z22" s="39" t="s">
-        <v>446</v>
-      </c>
       <c r="AA22" s="80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB22" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="AC22" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="AC22" s="39" t="s">
+      <c r="AD22" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="AD22" s="39" t="s">
-        <v>501</v>
-      </c>
       <c r="AE22" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF22" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="4:32">
       <c r="E23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M23" s="75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X23" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
@@ -29489,115 +29484,115 @@
       <c r="AC23" s="39"/>
       <c r="AD23" s="39"/>
       <c r="AF23" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="4:32">
       <c r="E24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="M24" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="M24" s="75" t="s">
-        <v>410</v>
-      </c>
       <c r="N24" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="39"/>
       <c r="AF24" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="4:32">
       <c r="E25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U25" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="V25" s="27" t="s">
         <v>390</v>
-      </c>
-      <c r="V25" s="27" t="s">
-        <v>391</v>
       </c>
       <c r="W25" s="27"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
@@ -29607,31 +29602,31 @@
     </row>
     <row r="26" spans="4:32">
       <c r="E26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -29646,29 +29641,29 @@
     </row>
     <row r="27" spans="4:32">
       <c r="E27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -29682,23 +29677,23 @@
     </row>
     <row r="28" spans="4:32">
       <c r="E28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -29712,21 +29707,21 @@
     </row>
     <row r="29" spans="4:32">
       <c r="E29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
@@ -29737,23 +29732,23 @@
     </row>
     <row r="30" spans="4:32">
       <c r="E30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -29764,17 +29759,17 @@
     </row>
     <row r="31" spans="4:32">
       <c r="E31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31" s="31"/>
       <c r="J31" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -29785,17 +29780,17 @@
     </row>
     <row r="32" spans="4:32">
       <c r="E32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="31"/>
       <c r="J32" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="26"/>
       <c r="O32" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
@@ -29807,17 +29802,17 @@
     </row>
     <row r="33" spans="5:29">
       <c r="E33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" s="31"/>
       <c r="J33" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
@@ -29825,15 +29820,15 @@
     </row>
     <row r="34" spans="5:29">
       <c r="E34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H34" s="31"/>
       <c r="J34" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M34" s="26"/>
       <c r="O34" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
@@ -29841,13 +29836,13 @@
     </row>
     <row r="35" spans="5:29">
       <c r="E35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H35" s="31"/>
       <c r="J35" s="26"/>
       <c r="M35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
@@ -29855,13 +29850,13 @@
     </row>
     <row r="36" spans="5:29">
       <c r="E36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H36" s="31"/>
       <c r="J36" s="26"/>
       <c r="M36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
@@ -29869,60 +29864,60 @@
     </row>
     <row r="37" spans="5:29">
       <c r="E37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37" s="31"/>
       <c r="M37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AC37" s="27"/>
     </row>
     <row r="38" spans="5:29">
       <c r="E38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" s="31"/>
       <c r="M38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Z38" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AB38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="5:29">
       <c r="E39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H39" s="31"/>
       <c r="M39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z39" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AB39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="5:29">
@@ -29930,17 +29925,17 @@
         <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" s="26"/>
       <c r="Z40" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA40" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="5:29">
@@ -29948,20 +29943,20 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M41" s="26"/>
       <c r="O41" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA41" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="5:29">
@@ -29969,26 +29964,26 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AA42" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="5:29">
       <c r="J43" s="26"/>
       <c r="K43" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M43" s="26"/>
     </row>
@@ -29998,13 +29993,13 @@
     </row>
     <row r="45" spans="5:29">
       <c r="J45" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="5:29">
       <c r="J46" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M46" s="26"/>
     </row>
@@ -30038,138 +30033,138 @@
     </row>
     <row r="55" spans="8:29">
       <c r="H55" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I55" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="K55" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>297</v>
-      </c>
       <c r="L55" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M55" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="N55" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="O55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="O55" s="28" t="s">
+      <c r="P55" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="P55" s="28" t="s">
-        <v>302</v>
-      </c>
       <c r="Q55" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S55" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T55" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U55" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="V55" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="V55" s="29" t="s">
-        <v>317</v>
-      </c>
       <c r="W55" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X55" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Y55" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AA55" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB55" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC55" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="8:29">
       <c r="H56" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V56" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Y56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AA56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AB56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC56" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="8:29">
@@ -30198,70 +30193,70 @@
     </row>
     <row r="58" spans="8:29">
       <c r="H58" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I58" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J58" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="K58" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="K58" s="27" t="s">
-        <v>254</v>
-      </c>
       <c r="L58" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M58" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="N58" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="N58" s="27" t="s">
-        <v>271</v>
-      </c>
       <c r="O58" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P58" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q58" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S58" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T58" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U58" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V58" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W58" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X58" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y58" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="Y58" s="27" t="s">
-        <v>355</v>
-      </c>
       <c r="Z58" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA58" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="AA58" s="27" t="s">
-        <v>487</v>
-      </c>
       <c r="AB58" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AC58" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="8:29">
@@ -30269,135 +30264,135 @@
         <v>70</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M59" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P59" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q59" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T59" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U59" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="V59" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="V59" s="27" t="s">
-        <v>285</v>
-      </c>
       <c r="W59" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X59" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y59" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z59" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA59" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="Z59" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA59" s="27" t="s">
-        <v>485</v>
-      </c>
       <c r="AB59" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC59" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="8:29">
       <c r="H60" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="S60" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="R60" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="S60" s="27" t="s">
+      <c r="T60" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="U60" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="V60" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="T60" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="U60" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="V60" s="27" t="s">
-        <v>313</v>
-      </c>
       <c r="W60" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Z60" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA60" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC60" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="8:29">
@@ -30408,7 +30403,7 @@
     </row>
     <row r="62" spans="8:29">
       <c r="H62" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>16</v>
@@ -30477,110 +30472,110 @@
     <row r="63" spans="8:29">
       <c r="H63" s="31"/>
       <c r="I63" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M63" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="N63" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="N63" s="39" t="s">
-        <v>476</v>
-      </c>
       <c r="O63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V63" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="W63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB63" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC63" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="8:29">
       <c r="H64" s="31"/>
       <c r="I64" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J64" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="L64" s="31" t="s">
         <v>357</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>358</v>
       </c>
       <c r="M64" s="39"/>
       <c r="N64" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R64" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S64" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T64" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U64" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V64" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
@@ -30589,91 +30584,91 @@
       <c r="AA64" s="39"/>
       <c r="AB64" s="39"/>
       <c r="AC64" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="H65" s="31"/>
       <c r="I65" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K65" s="39" t="s">
         <v>35</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M65" s="39"/>
       <c r="N65" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P65" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q65" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R65" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S65" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="T65" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U65" s="39"/>
       <c r="V65" s="39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
       <c r="Z65" s="39"/>
       <c r="AC65" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="66" spans="8:29">
       <c r="H66" s="31"/>
       <c r="I66" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K66" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P66" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q66" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R66" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S66" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
       <c r="V66" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
@@ -30684,23 +30679,23 @@
     <row r="67" spans="8:29">
       <c r="H67" s="31"/>
       <c r="I67" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K67" s="39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L67" s="39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M67" s="31"/>
       <c r="N67" s="39"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
@@ -30716,20 +30711,20 @@
     <row r="68" spans="8:29">
       <c r="H68" s="31"/>
       <c r="I68" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L68" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M68" s="39"/>
       <c r="N68" s="39"/>
       <c r="O68" s="39"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
@@ -30745,21 +30740,21 @@
     <row r="69" spans="8:29">
       <c r="H69" s="31"/>
       <c r="I69" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K69" s="31"/>
       <c r="L69" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
@@ -30775,21 +30770,21 @@
     <row r="70" spans="8:29">
       <c r="H70" s="31"/>
       <c r="I70" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J70" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K70" s="31"/>
       <c r="L70" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
@@ -30805,21 +30800,21 @@
     <row r="71" spans="8:29">
       <c r="H71" s="31"/>
       <c r="I71" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K71" s="39"/>
       <c r="L71" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
@@ -30836,11 +30831,11 @@
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K72" s="39"/>
       <c r="L72" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M72" s="31"/>
       <c r="N72" s="31"/>
@@ -30862,11 +30857,11 @@
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K73" s="39"/>
       <c r="L73" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
@@ -30887,11 +30882,11 @@
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K74" s="39"/>
       <c r="L74" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="31"/>
@@ -30912,11 +30907,11 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K75" s="31"/>
       <c r="L75" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
@@ -30939,7 +30934,7 @@
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
       <c r="L76" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="31"/>
@@ -30962,7 +30957,7 @@
       <c r="J77" s="31"/>
       <c r="K77" s="31"/>
       <c r="L77" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
@@ -30983,7 +30978,7 @@
       <c r="H78" s="31"/>
       <c r="J78" s="26"/>
       <c r="L78" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
@@ -30994,7 +30989,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="38"/>
       <c r="L79" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W79" s="38"/>
       <c r="X79" s="26"/>
@@ -31005,7 +31000,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="38"/>
       <c r="L80" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W80" s="38"/>
       <c r="X80" s="26"/>
@@ -31029,207 +31024,207 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="86" t="s">
-        <v>547</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-    </row>
-    <row r="5" spans="1:33" ht="26" customHeight="1">
+      <c r="D4" s="87" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87"/>
+      <c r="AE4" s="87"/>
+    </row>
+    <row r="5" spans="1:33" ht="26.1" customHeight="1">
       <c r="C5" s="46"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85" t="s">
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-    </row>
-    <row r="6" spans="1:33" ht="26" customHeight="1">
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+    </row>
+    <row r="6" spans="1:33" ht="26.1" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="47" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="G6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="H6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="K6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="K6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="L6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="O6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="O6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="P6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="R6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="S6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="S6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="T6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="V6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="W6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="W6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="X6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="Y6" s="44" t="s">
+      <c r="Z6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="Z6" s="44" t="s">
+      <c r="AA6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="AA6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="AB6" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AD6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AE6" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="AE6" s="44" t="s">
-        <v>540</v>
-      </c>
       <c r="AG6" s="45" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="26" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="26.1" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C7" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>545</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>546</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50"/>
       <c r="H7" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
@@ -31255,40 +31250,40 @@
       <c r="AD7" s="49"/>
       <c r="AE7" s="50"/>
       <c r="AG7" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="26" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="26.1" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="46"/>
       <c r="C8" s="48" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="50"/>
       <c r="H8" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N8" s="49"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R8" s="49"/>
       <c r="S8" s="50"/>
@@ -31305,14 +31300,14 @@
       <c r="AD8" s="49"/>
       <c r="AE8" s="50"/>
       <c r="AG8" s="45" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="26" customHeight="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="26.1" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="46"/>
       <c r="C9" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="49"/>
@@ -31320,10 +31315,10 @@
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="51"/>
@@ -31347,10 +31342,10 @@
       <c r="AD9" s="49"/>
       <c r="AE9" s="50"/>
       <c r="AG9" s="45" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="26" customHeight="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="26.1" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -31385,7 +31380,7 @@
       <c r="AD10" s="49"/>
       <c r="AE10" s="50"/>
     </row>
-    <row r="11" spans="1:33" ht="26" customHeight="1">
+    <row r="11" spans="1:33" ht="26.1" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="46"/>
       <c r="C11" s="48"/>
@@ -31418,7 +31413,7 @@
       <c r="AD11" s="49"/>
       <c r="AE11" s="50"/>
     </row>
-    <row r="12" spans="1:33" ht="26" customHeight="1">
+    <row r="12" spans="1:33" ht="26.1" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="46"/>
       <c r="C12" s="48"/>
@@ -31451,7 +31446,7 @@
       <c r="AD12" s="49"/>
       <c r="AE12" s="50"/>
     </row>
-    <row r="13" spans="1:33" ht="26" customHeight="1">
+    <row r="13" spans="1:33" ht="26.1" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="46"/>
       <c r="C13" s="48"/>
@@ -31484,7 +31479,7 @@
       <c r="AD13" s="49"/>
       <c r="AE13" s="50"/>
     </row>
-    <row r="14" spans="1:33" ht="26" customHeight="1">
+    <row r="14" spans="1:33" ht="26.1" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="46"/>
       <c r="C14" s="48"/>
@@ -31517,7 +31512,7 @@
       <c r="AD14" s="49"/>
       <c r="AE14" s="50"/>
     </row>
-    <row r="15" spans="1:33" ht="26" customHeight="1">
+    <row r="15" spans="1:33" ht="26.1" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48"/>
@@ -31550,7 +31545,7 @@
       <c r="AD15" s="49"/>
       <c r="AE15" s="50"/>
     </row>
-    <row r="16" spans="1:33" ht="26" customHeight="1">
+    <row r="16" spans="1:33" ht="26.1" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="46"/>
       <c r="C16" s="48"/>
@@ -31583,7 +31578,7 @@
       <c r="AD16" s="49"/>
       <c r="AE16" s="50"/>
     </row>
-    <row r="17" spans="1:31" ht="26" customHeight="1">
+    <row r="17" spans="1:31" ht="26.1" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="46"/>
       <c r="C17" s="48"/>
@@ -31616,7 +31611,7 @@
       <c r="AD17" s="49"/>
       <c r="AE17" s="50"/>
     </row>
-    <row r="18" spans="1:31" ht="26" customHeight="1">
+    <row r="18" spans="1:31" ht="26.1" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="46"/>
       <c r="C18" s="48"/>
@@ -31649,7 +31644,7 @@
       <c r="AD18" s="49"/>
       <c r="AE18" s="50"/>
     </row>
-    <row r="19" spans="1:31" ht="26" customHeight="1">
+    <row r="19" spans="1:31" ht="26.1" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48"/>
@@ -31714,7 +31709,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="9" style="15"/>
     <col min="3" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
@@ -31723,317 +31718,317 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="D7" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="D8" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="D11" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="D12" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="D15" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="D16" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="D17" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="D19" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="D20" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="D23" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="D25" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="D26" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="D42" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="D48" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -32051,7 +32046,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -32070,19 +32065,19 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="52"/>
+    <col min="1" max="16384" width="10.875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="23">
+    <row r="2" spans="2:2" ht="22.5">
       <c r="B2" s="65" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="22.5">
+      <c r="B21" s="65" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="23">
-      <c r="B21" s="65" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -32100,69 +32095,69 @@
   <dimension ref="B2:H80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="52"/>
+    <col min="1" max="1" width="10.875" style="52"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="56.125" style="52" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="52"/>
+    <col min="5" max="5" width="25.375" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="52"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="52" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>557</v>
+      </c>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="2:7" ht="21" customHeight="1">
+      <c r="B9" s="82" t="s">
         <v>518</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>559</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>557</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>558</v>
-      </c>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1">
-      <c r="B9" s="81" t="s">
+      <c r="C9" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>519</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>525</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>520</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>19</v>
@@ -32173,13 +32168,13 @@
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1">
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>21</v>
@@ -32187,11 +32182,11 @@
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1">
-      <c r="B11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="57"/>
       <c r="D11" s="59"/>
       <c r="E11" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>21</v>
@@ -32199,7 +32194,7 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1">
-      <c r="B12" s="81"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="57"/>
       <c r="D12" s="59"/>
       <c r="E12" s="56" t="s">
@@ -32211,11 +32206,11 @@
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1">
-      <c r="B13" s="81"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>21</v>
@@ -32223,7 +32218,7 @@
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1">
-      <c r="B14" s="81"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="57"/>
       <c r="D14" s="59"/>
       <c r="E14" s="56" t="s">
@@ -32235,41 +32230,41 @@
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1">
-      <c r="B15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="57"/>
       <c r="D15" s="60"/>
       <c r="E15" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
-      <c r="B16" s="81"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="56" t="s">
+        <v>553</v>
+      </c>
+      <c r="G16" s="56" t="s">
         <v>554</v>
       </c>
-      <c r="G16" s="56" t="s">
-        <v>555</v>
-      </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
-      <c r="B17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="62"/>
       <c r="D17" s="60"/>
       <c r="E17" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>21</v>
@@ -32277,115 +32272,115 @@
       <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1">
-      <c r="B18" s="81"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1">
-      <c r="B19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="63"/>
       <c r="D19" s="58" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1">
-      <c r="B20" s="81"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
       <c r="E20" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="81"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
       <c r="E21" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1">
-      <c r="B22" s="81"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
       <c r="E22" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1">
-      <c r="B23" s="81"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="63"/>
       <c r="D23" s="59"/>
       <c r="E23" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1">
-      <c r="B24" s="81"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="63"/>
       <c r="D24" s="59"/>
       <c r="E24" s="56" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1">
-      <c r="B25" s="81"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="63"/>
       <c r="D25" s="59"/>
       <c r="E25" s="56" t="s">
+        <v>560</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1">
+      <c r="B26" s="82"/>
+      <c r="C26" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="D26" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="F25" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="2:7" ht="21" customHeight="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="54" t="s">
+      <c r="E26" s="56" t="s">
         <v>560</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>562</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>561</v>
       </c>
       <c r="F26" s="56" t="s">
         <v>21</v>
@@ -32393,15 +32388,15 @@
       <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1">
-      <c r="B27" s="81"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>21</v>
@@ -32409,12 +32404,12 @@
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1">
-      <c r="B28" s="81"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" s="56" t="s">
         <v>19</v>
@@ -32425,49 +32420,49 @@
       <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1">
-      <c r="B29" s="81"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="61" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E29" s="56" t="s">
         <v>119</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
-      <c r="B30" s="81"/>
+      <c r="B30" s="82"/>
       <c r="C30" s="62"/>
       <c r="D30" s="55" t="s">
+        <v>566</v>
+      </c>
+      <c r="E30" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="E30" s="56" t="s">
-        <v>568</v>
-      </c>
       <c r="F30" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
-      <c r="B31" s="82" t="s">
-        <v>529</v>
+      <c r="B31" s="83" t="s">
+        <v>528</v>
       </c>
       <c r="C31" s="71" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="D31" s="71" t="s">
-        <v>577</v>
-      </c>
       <c r="E31" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>38</v>
@@ -32475,15 +32470,15 @@
       <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="21" customHeight="1">
-      <c r="B32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="70" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F32" s="71" t="s">
         <v>38</v>
@@ -32491,13 +32486,13 @@
       <c r="G32" s="71"/>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1">
-      <c r="B33" s="83"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="69"/>
       <c r="D33" s="71" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F33" s="71" t="s">
         <v>38</v>
@@ -32505,15 +32500,15 @@
       <c r="G33" s="71"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1">
-      <c r="B34" s="83"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F34" s="71" t="s">
         <v>38</v>
@@ -32521,13 +32516,13 @@
       <c r="G34" s="71"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1">
-      <c r="B35" s="83"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="70"/>
       <c r="D35" s="71" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F35" s="71" t="s">
         <v>38</v>
@@ -32535,13 +32530,13 @@
       <c r="G35" s="71"/>
     </row>
     <row r="36" spans="2:8" ht="21" customHeight="1">
-      <c r="B36" s="83"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="70"/>
       <c r="D36" s="71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>38</v>
@@ -32549,13 +32544,13 @@
       <c r="G36" s="71"/>
     </row>
     <row r="37" spans="2:8" ht="21" customHeight="1">
-      <c r="B37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F37" s="71" t="s">
         <v>38</v>
@@ -32563,15 +32558,15 @@
       <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:8" ht="21" customHeight="1">
-      <c r="B38" s="83"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="68" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" s="66" t="s">
         <v>571</v>
       </c>
-      <c r="D38" s="66" t="s">
-        <v>572</v>
-      </c>
       <c r="E38" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F38" s="64" t="s">
         <v>21</v>
@@ -32579,11 +32574,11 @@
       <c r="G38" s="71"/>
     </row>
     <row r="39" spans="2:8" ht="21" customHeight="1">
-      <c r="B39" s="83"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="70"/>
       <c r="D39" s="72"/>
       <c r="E39" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F39" s="64" t="s">
         <v>21</v>
@@ -32591,11 +32586,11 @@
       <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:8" ht="21" customHeight="1">
-      <c r="B40" s="84"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="70"/>
       <c r="D40" s="67"/>
       <c r="E40" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F40" s="64" t="s">
         <v>21</v>
@@ -32605,10 +32600,10 @@
     <row r="41" spans="2:8">
       <c r="C41" s="70"/>
       <c r="D41" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>21</v>
@@ -32619,23 +32614,23 @@
       <c r="C42" s="70"/>
       <c r="D42" s="72"/>
       <c r="E42" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="71" t="s">
+        <v>595</v>
+      </c>
+      <c r="H42" s="52" t="s">
         <v>596</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="70"/>
       <c r="D43" s="72"/>
       <c r="E43" s="71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F43" s="64" t="s">
         <v>21</v>
@@ -32646,20 +32641,20 @@
       <c r="C44" s="70"/>
       <c r="D44" s="72"/>
       <c r="E44" s="71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="70"/>
       <c r="D45" s="72"/>
       <c r="E45" s="71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>21</v>
@@ -32670,26 +32665,26 @@
       <c r="C46" s="70"/>
       <c r="D46" s="72"/>
       <c r="E46" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="70"/>
       <c r="D47" s="72"/>
       <c r="E47" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" s="71" t="s">
         <v>591</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>420</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -32764,13 +32759,13 @@
     </row>
     <row r="58" spans="3:7">
       <c r="C58" s="68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F58" s="64" t="s">
         <v>21</v>
@@ -32781,7 +32776,7 @@
       <c r="C59" s="70"/>
       <c r="D59" s="72"/>
       <c r="E59" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>21</v>
@@ -32792,7 +32787,7 @@
       <c r="C60" s="70"/>
       <c r="D60" s="67"/>
       <c r="E60" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F60" s="64" t="s">
         <v>21</v>
@@ -32802,7 +32797,7 @@
     <row r="61" spans="3:7">
       <c r="C61" s="70"/>
       <c r="D61" s="66" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E61" s="71"/>
       <c r="F61" s="64"/>
@@ -32922,7 +32917,7 @@
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="71"/>
@@ -32961,7 +32956,7 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32977,24 +32972,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="20">
+    <row r="2" spans="2:21" ht="19.5">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -33660,15 +33655,15 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33683,16 +33678,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -33773,16 +33768,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -33808,7 +33803,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -33823,7 +33818,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -33845,7 +33840,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -33867,7 +33862,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>38</v>
@@ -33889,7 +33884,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>38</v>
@@ -33911,7 +33906,7 @@
         <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -34007,19 +34002,19 @@
   </sheetPr>
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34034,16 +34029,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34124,16 +34119,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -34159,7 +34154,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -34174,7 +34169,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -34196,7 +34191,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -34279,35 +34274,32 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="88" t="s">
-        <v>658</v>
-      </c>
-    </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="88" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="88"/>
+      <c r="B21" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -34346,7 +34338,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -34360,21 +34352,21 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J43"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34389,16 +34381,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34592,16 +34584,16 @@
         <v>15</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>77</v>
@@ -34627,7 +34619,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -34639,18 +34631,18 @@
         <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
+        <v>162</v>
+      </c>
+      <c r="F17" s="5">
+        <v>20</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:10">
@@ -34661,10 +34653,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
@@ -34683,10 +34675,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="5">
         <v>20</v>
@@ -34705,10 +34697,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" s="5">
         <v>20</v>
@@ -34727,13 +34719,13 @@
         <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="5">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
@@ -34749,18 +34741,20 @@
         <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>162</v>
+      </c>
+      <c r="F22" s="5">
+        <v>255</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:10">
@@ -34771,10 +34765,10 @@
         <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F23" s="5">
         <v>255</v>
@@ -34782,9 +34776,7 @@
       <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:10">
@@ -34795,10 +34787,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" s="5">
         <v>255</v>
@@ -34808,6 +34800,9 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
+      <c r="J24" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5">
@@ -34817,22 +34812,19 @@
         <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F25" s="5">
         <v>255</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="1" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="5">
@@ -34842,18 +34834,18 @@
         <v>81</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="5">
-        <v>255</v>
+        <v>76</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:10">
@@ -34864,10 +34856,10 @@
         <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>38</v>
@@ -34875,8 +34867,13 @@
       <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="5">
@@ -34886,10 +34883,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>38</v>
@@ -34898,11 +34895,8 @@
         <v>21</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>134</v>
+      <c r="I28" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -34913,7 +34907,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>76</v>
@@ -34926,81 +34920,57 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="5">
-        <v>15</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="1" t="s">
+    <row r="31" spans="2:10">
+      <c r="B31" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="81" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="81" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="87" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="87" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="87" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="81" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="81" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="81" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="81" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="87" t="s">
-        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\ドキュメント\onLineDatingWithSportsApp\src\core\_sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1408C-E3D3-4379-92C4-F4BDA59A7606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4633F2-C2FC-4444-95AF-970BD84E1A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="839" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="683">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -704,10 +704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>is_deleted</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -813,6 +809,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>visitor_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>teams.team_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -848,19 +848,6 @@
     <t>背番号</t>
     <rPh sb="0" eb="3">
       <t>セバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監督: 1, コーチ: 2, 主将: 3, 副主将: 4, 選手: 5, マネージャー:  6</t>
-    <rPh sb="0" eb="2">
-      <t>カントク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュショウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>フクシュショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4494,12 +4481,148 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1: 監督, 2: 主将, 3: 副主将, 4: 役なし, 5: マネージャー</t>
+    <rPh sb="3" eb="5">
+      <t>カントク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュショウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>フクシュショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ヤクナシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼チェック内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム登録からとチームに招待からで登録方法を分ける</t>
+    <rPh sb="12" eb="14">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チームを新規で登録</t>
+    <rPh sb="5" eb="7">
+      <t>シンキデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・存在しているチームの招待コードを使用して登録する</t>
+    <rPh sb="1" eb="3">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　チームの情報(チーム名、役割、チームの住所、背番号)を登録</t>
+    <rPh sb="13" eb="15">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>セバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*事前に登録しておく</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*事前に登録する</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1: 野球, 2: サッカー</t>
+    <rPh sb="3" eb="5">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*初期値は、野球のみ</t>
+    <rPh sb="1" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*招待コードからチームメンバーとして登録するときは、背番号はNULLで登録する</t>
+    <rPh sb="1" eb="3">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>セバンゴウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→プロフィール画面から、編集で登録する</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　チームの招待コードからチーム情報を取得し、チームメンバーとして登録する</t>
+    <rPh sb="5" eb="7">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4615,6 +4738,14 @@
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4838,10 +4969,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5064,8 +5196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -7554,14 +7688,14 @@
     <dgm:cxn modelId="{3A5CF635-9838-B44B-B573-9EB410272026}" srcId="{3E73D937-8C65-624E-A2A1-4BA6E5B08C23}" destId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" srcOrd="0" destOrd="0" parTransId="{3BF11DA0-70D8-F142-84D7-5B892A0758B9}" sibTransId="{7E16E407-C67C-1441-A59E-55B4A62727CA}"/>
     <dgm:cxn modelId="{BC0EE63D-6293-DA4B-9094-53F71E8D80EE}" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" srcOrd="0" destOrd="0" parTransId="{76A54F18-244A-614C-9032-85677F3F5361}" sibTransId="{33BD3859-CACD-9344-8C0B-AF7FB694A7CF}"/>
     <dgm:cxn modelId="{CB28773F-2EB2-3B42-B9C8-4180D1DDCCA2}" type="presOf" srcId="{BF3B7BD3-FFA9-5E4E-A2DE-18BDA1307D27}" destId="{4FF3E7D5-5CF7-3C45-BBCC-A55C11CC9F1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D274EF42-9D21-B748-873F-EE016A3E9E42}" type="presOf" srcId="{BB9AF71B-D57B-5943-B453-ED7D1F2283C5}" destId="{2F18E196-3FF0-F246-8E00-EF14229692FF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{84530B43-2501-FC49-AA5D-D98BEBE15E50}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A7326A-6034-1246-958C-B93CAAF77DCB}" srcId="{E40EC64D-96DE-944D-AC1A-08B73C7CCA28}" destId="{58148714-4A18-4846-AE98-815A82AE6F5C}" srcOrd="0" destOrd="0" parTransId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" sibTransId="{DEB2D829-7072-B24C-B732-F6D8EB211D4E}"/>
     <dgm:cxn modelId="{C881076C-2791-7B49-B3B9-6678B5055372}" type="presOf" srcId="{F4890F2E-C69C-AD41-83BF-922F1F8FDF64}" destId="{A4F73497-1C60-994D-B7BB-FF922AC477D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4784E36C-137D-2545-90D5-41D365AE9EC0}" type="presOf" srcId="{76A54F18-244A-614C-9032-85677F3F5361}" destId="{CABB0FD0-5582-CA49-B21E-357A38F4CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B39BD26F-37A5-6342-8AFC-4773F27E34B1}" type="presOf" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{23DA1EA8-80AA-974A-9469-7910D725533B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{28734183-791F-A444-92EC-6338D358B842}" type="presOf" srcId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" destId="{1626C21C-174A-BA4D-A282-A122107CA46C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E48FB58B-98F6-8842-A7EE-68E3BAFE5A83}" type="presOf" srcId="{5612EDFF-246C-5D42-9BEC-9C47A72FCBCB}" destId="{43280627-C848-024B-9A8B-A06F8D383EAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB90CB8E-C823-4340-A34D-686464910A59}" type="presOf" srcId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" destId="{5CA976B6-F0EF-4442-AD81-ECB67A53B985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -9104,8 +9238,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3922712" y="1318894"/>
-          <a:ext cx="3250459" cy="282064"/>
+          <a:off x="3908425" y="1346544"/>
+          <a:ext cx="3238620" cy="281037"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9119,13 +9253,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="141032"/>
+                <a:pt x="0" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3250459" y="141032"/>
+                <a:pt x="3238620" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3250459" y="282064"/>
+                <a:pt x="3238620" y="281037"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9173,8 +9307,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5010676" y="2272541"/>
-          <a:ext cx="201474" cy="617855"/>
+          <a:off x="4992426" y="2296718"/>
+          <a:ext cx="200740" cy="615605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9188,10 +9322,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="617855"/>
+                <a:pt x="0" y="615605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="201474" y="617855"/>
+                <a:pt x="200740" y="615605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9239,8 +9373,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3922712" y="1318894"/>
-          <a:ext cx="1625229" cy="282064"/>
+          <a:off x="3908425" y="1346544"/>
+          <a:ext cx="1619310" cy="281037"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9254,13 +9388,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="141032"/>
+                <a:pt x="0" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1625229" y="141032"/>
+                <a:pt x="1619310" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1625229" y="282064"/>
+                <a:pt x="1619310" y="281037"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9308,8 +9442,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3385446" y="2272541"/>
-          <a:ext cx="201474" cy="617855"/>
+          <a:off x="3373115" y="2296718"/>
+          <a:ext cx="200740" cy="615605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9323,10 +9457,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="617855"/>
+                <a:pt x="0" y="615605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="201474" y="617855"/>
+                <a:pt x="200740" y="615605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9374,8 +9508,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3876992" y="1318894"/>
-          <a:ext cx="91440" cy="282064"/>
+          <a:off x="3862705" y="1346544"/>
+          <a:ext cx="91440" cy="281037"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9389,7 +9523,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="282064"/>
+                <a:pt x="45720" y="281037"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9437,8 +9571,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1760216" y="2272541"/>
-          <a:ext cx="201474" cy="617855"/>
+          <a:off x="1753805" y="2296718"/>
+          <a:ext cx="200740" cy="615605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9452,10 +9586,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="617855"/>
+                <a:pt x="0" y="615605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="201474" y="617855"/>
+                <a:pt x="200740" y="615605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9503,8 +9637,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2297482" y="1318894"/>
-          <a:ext cx="1625229" cy="282064"/>
+          <a:off x="2289114" y="1346544"/>
+          <a:ext cx="1619310" cy="281037"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9515,16 +9649,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1625229" y="0"/>
+                <a:pt x="1619310" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1625229" y="141032"/>
+                <a:pt x="1619310" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="141032"/>
+                <a:pt x="0" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="282064"/>
+                <a:pt x="0" y="281037"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9572,8 +9706,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="134986" y="2272541"/>
-          <a:ext cx="201474" cy="617855"/>
+          <a:off x="134495" y="2296718"/>
+          <a:ext cx="200740" cy="615605"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9587,10 +9721,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="617855"/>
+                <a:pt x="0" y="615605"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="201474" y="617855"/>
+                <a:pt x="200740" y="615605"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9638,8 +9772,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="672252" y="1318894"/>
-          <a:ext cx="3250459" cy="282064"/>
+          <a:off x="669804" y="1346544"/>
+          <a:ext cx="3238620" cy="281037"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9650,16 +9784,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3250459" y="0"/>
+                <a:pt x="3238620" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3250459" y="141032"/>
+                <a:pt x="3238620" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="141032"/>
+                <a:pt x="0" y="140518"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="282064"/>
+                <a:pt x="0" y="281037"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9707,8 +9841,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3251129" y="647311"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="3239288" y="677407"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9811,8 +9945,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3251129" y="647311"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="3239288" y="677407"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1626C21C-174A-BA4D-A282-A122107CA46C}">
@@ -9822,8 +9956,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="670" y="1600958"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="667" y="1627581"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9922,8 +10056,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="670" y="1600958"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="667" y="1627581"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B79F729F-6758-C641-9D1D-F8A7857C7BFA}">
@@ -9933,8 +10067,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="336461" y="2554605"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="335236" y="2577755"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10033,8 +10167,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="336461" y="2554605"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="335236" y="2577755"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}">
@@ -10044,8 +10178,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1625900" y="1600958"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="1619978" y="1627581"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10144,8 +10278,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1625900" y="1600958"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="1619978" y="1627581"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC714DED-C684-D543-A413-D309119022BC}">
@@ -10155,8 +10289,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1961691" y="2554605"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="1954546" y="2577755"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10255,8 +10389,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1961691" y="2554605"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="1954546" y="2577755"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{925D5AF1-2E89-4C41-9235-4A80562352D7}">
@@ -10266,8 +10400,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3251129" y="1600958"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="3239288" y="1627581"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10366,8 +10500,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3251129" y="1600958"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="3239288" y="1627581"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2C55563F-133B-4F47-B991-A77AD34E69FD}">
@@ -10377,8 +10511,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3586921" y="2554605"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="3573856" y="2577755"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10477,8 +10611,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3586921" y="2554605"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="3573856" y="2577755"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{07E30DEA-B83C-624A-B678-767B6FE74213}">
@@ -10488,8 +10622,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4876359" y="1600958"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="4858598" y="1627581"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10588,8 +10722,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4876359" y="1600958"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="4858598" y="1627581"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}">
@@ -10599,8 +10733,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5212151" y="2554605"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="5193167" y="2577755"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10699,8 +10833,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5212151" y="2554605"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="5193167" y="2577755"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{067CDDBB-CECE-B246-A2C4-C45A5C79DEA4}">
@@ -10710,8 +10844,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6501589" y="1600958"/>
-          <a:ext cx="1343165" cy="671582"/>
+          <a:off x="6477909" y="1627581"/>
+          <a:ext cx="1338272" cy="669136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10810,8 +10944,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6501589" y="1600958"/>
-        <a:ext cx="1343165" cy="671582"/>
+        <a:off x="6477909" y="1627581"/>
+        <a:ext cx="1338272" cy="669136"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -10833,8 +10967,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6614046" y="1030370"/>
-          <a:ext cx="672833" cy="233545"/>
+          <a:off x="6589956" y="1059072"/>
+          <a:ext cx="670382" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10848,13 +10982,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="672833" y="116772"/>
+                <a:pt x="670382" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="672833" y="233545"/>
+                <a:pt x="670382" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10902,8 +11036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5941213" y="1030370"/>
-          <a:ext cx="672833" cy="233545"/>
+          <a:off x="5919573" y="1059072"/>
+          <a:ext cx="670382" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10914,16 +11048,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="672833" y="0"/>
+                <a:pt x="670382" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="672833" y="116772"/>
+                <a:pt x="670382" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233545"/>
+                <a:pt x="0" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -10971,8 +11105,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4150697" y="1819977"/>
-          <a:ext cx="166818" cy="1301182"/>
+          <a:off x="4135579" y="1845802"/>
+          <a:ext cx="166210" cy="1296442"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10986,10 +11120,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1301182"/>
+                <a:pt x="0" y="1296442"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="1301182"/>
+                <a:pt x="166210" y="1296442"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11037,8 +11171,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4150697" y="1819977"/>
-          <a:ext cx="166818" cy="511575"/>
+          <a:off x="4135579" y="1845802"/>
+          <a:ext cx="166210" cy="509712"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11052,10 +11186,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="511575"/>
+                <a:pt x="0" y="509712"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="511575"/>
+                <a:pt x="166210" y="509712"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11103,8 +11237,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2577045" y="1030370"/>
-          <a:ext cx="2018500" cy="233545"/>
+          <a:off x="2567659" y="1059072"/>
+          <a:ext cx="2011148" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11118,13 +11252,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2018500" y="116772"/>
+                <a:pt x="2011148" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2018500" y="233545"/>
+                <a:pt x="2011148" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11172,8 +11306,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2805030" y="1819977"/>
-          <a:ext cx="166818" cy="1301182"/>
+          <a:off x="2794813" y="1845802"/>
+          <a:ext cx="166210" cy="1296442"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11187,10 +11321,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1301182"/>
+                <a:pt x="0" y="1296442"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="1301182"/>
+                <a:pt x="166210" y="1296442"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11238,8 +11372,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2805030" y="1819977"/>
-          <a:ext cx="166818" cy="511575"/>
+          <a:off x="2794813" y="1845802"/>
+          <a:ext cx="166210" cy="509712"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11253,10 +11387,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="511575"/>
+                <a:pt x="0" y="509712"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="511575"/>
+                <a:pt x="166210" y="509712"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11304,8 +11438,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2577045" y="1030370"/>
-          <a:ext cx="672833" cy="233545"/>
+          <a:off x="2567659" y="1059072"/>
+          <a:ext cx="670382" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11319,13 +11453,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="672833" y="116772"/>
+                <a:pt x="670382" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="672833" y="233545"/>
+                <a:pt x="670382" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11373,8 +11507,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1459363" y="1819977"/>
-          <a:ext cx="166818" cy="1301182"/>
+          <a:off x="1454047" y="1845802"/>
+          <a:ext cx="166210" cy="1296442"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11388,10 +11522,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1301182"/>
+                <a:pt x="0" y="1296442"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="1301182"/>
+                <a:pt x="166210" y="1296442"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11439,8 +11573,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1459363" y="1819977"/>
-          <a:ext cx="166818" cy="511575"/>
+          <a:off x="1454047" y="1845802"/>
+          <a:ext cx="166210" cy="509712"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11454,10 +11588,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="511575"/>
+                <a:pt x="0" y="509712"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="511575"/>
+                <a:pt x="166210" y="509712"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11505,8 +11639,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1904211" y="1030370"/>
-          <a:ext cx="672833" cy="233545"/>
+          <a:off x="1897276" y="1059072"/>
+          <a:ext cx="670382" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11517,16 +11651,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="672833" y="0"/>
+                <a:pt x="670382" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="672833" y="116772"/>
+                <a:pt x="670382" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233545"/>
+                <a:pt x="0" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11574,8 +11708,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="113696" y="1819977"/>
-          <a:ext cx="166818" cy="511575"/>
+          <a:off x="113282" y="1845802"/>
+          <a:ext cx="166210" cy="509712"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11589,10 +11723,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="511575"/>
+                <a:pt x="0" y="509712"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166818" y="511575"/>
+                <a:pt x="166210" y="509712"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11640,8 +11774,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="558544" y="1030370"/>
-          <a:ext cx="2018500" cy="233545"/>
+          <a:off x="556510" y="1059072"/>
+          <a:ext cx="2011148" cy="232694"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11652,16 +11786,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2018500" y="0"/>
+                <a:pt x="2011148" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2018500" y="116772"/>
+                <a:pt x="2011148" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116772"/>
+                <a:pt x="0" y="116347"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="233545"/>
+                <a:pt x="0" y="232694"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -11709,8 +11843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2020984" y="474310"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="2013623" y="505036"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11813,8 +11947,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2020984" y="474310"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="2013623" y="505036"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1626C21C-174A-BA4D-A282-A122107CA46C}">
@@ -11824,8 +11958,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2484" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="2474" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11924,8 +12058,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2484" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="2474" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CFF6DB34-CE5B-224A-8FA4-F4D51BC5E16E}">
@@ -11935,8 +12069,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="280514" y="2053522"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="279492" y="2078497"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12035,8 +12169,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="280514" y="2053522"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="279492" y="2078497"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E989054C-819A-CE4D-BA02-3CAEE9D50E81}">
@@ -12046,8 +12180,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1348151" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="1343240" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12153,8 +12287,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1348151" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="1343240" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1BCEA7D1-E85A-E24F-9661-D443EAD5D593}">
@@ -12164,8 +12298,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1626181" y="2053522"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="1620258" y="2078497"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12264,8 +12398,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1626181" y="2053522"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="1620258" y="2078497"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E44ED97C-44B5-EF4B-8AB8-FA2CED4BCAEF}">
@@ -12275,8 +12409,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1626181" y="2843129"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="1620258" y="2865227"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12375,8 +12509,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1626181" y="2843129"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="1620258" y="2865227"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3F06677D-7EF2-AC40-90E5-803709A680C7}">
@@ -12386,8 +12520,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2693818" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="2684006" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12486,8 +12620,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2693818" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="2684006" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1CBF161-6FB8-B64F-A6C8-F3E93FCA2F1B}">
@@ -12497,8 +12631,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2971848" y="2053522"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="2961024" y="2078497"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12597,8 +12731,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2971848" y="2053522"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="2961024" y="2078497"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5E7665CC-8F66-C241-B2B9-BFD7A184D97A}">
@@ -12608,8 +12742,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2971848" y="2843129"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="2961024" y="2865227"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12708,8 +12842,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2971848" y="2843129"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="2961024" y="2865227"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{652B4405-9222-B544-BC30-DDE1CC84E881}">
@@ -12719,8 +12853,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4039485" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="4024772" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12819,8 +12953,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4039485" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="4024772" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73F8856F-C1CD-1D44-8188-A1EE8EB74DD2}">
@@ -12830,8 +12964,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4317515" y="2053522"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="4301790" y="2078497"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12930,8 +13064,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4317515" y="2053522"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="4301790" y="2078497"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{041CA3EE-F7AF-F24F-BEE8-84C0921FB73E}">
@@ -12941,8 +13075,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4317515" y="2843129"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="4301790" y="2865227"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13073,8 +13207,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4317515" y="2843129"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="4301790" y="2865227"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5EE4219E-B1DF-8E49-A8B2-AB540A87E150}">
@@ -13084,8 +13218,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6057985" y="474310"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="6035921" y="505036"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13184,8 +13318,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6057985" y="474310"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="6035921" y="505036"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A03DC36-A34B-BE49-BE45-FD8452DAD76B}">
@@ -13195,8 +13329,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5385152" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="5365538" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13320,8 +13454,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5385152" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="5365538" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EE2445C6-D5C7-B748-8A5B-779DB0759A75}">
@@ -13331,8 +13465,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6730819" y="1263916"/>
-          <a:ext cx="1112121" cy="556060"/>
+          <a:off x="6706304" y="1291767"/>
+          <a:ext cx="1108070" cy="554035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13456,8 +13590,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6730819" y="1263916"/>
-        <a:ext cx="1112121" cy="556060"/>
+        <a:off x="6706304" y="1291767"/>
+        <a:ext cx="1108070" cy="554035"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -19304,8 +19438,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14411325" y="9947273"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14414500" y="10106023"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19430,8 +19564,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="13382625" y="11158535"/>
+          <a:ext cx="1930400" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19556,8 +19690,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14430375" y="12030075"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="14433550" y="12220575"/>
+          <a:ext cx="1927225" cy="334773"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -19695,8 +19829,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8639175"/>
-          <a:ext cx="4010025" cy="657034"/>
+          <a:off x="13363575" y="8775700"/>
+          <a:ext cx="4016375" cy="669734"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -20048,8 +20182,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7467600"/>
-          <a:ext cx="4010025" cy="833248"/>
+          <a:off x="13315950" y="7588250"/>
+          <a:ext cx="4016375" cy="845948"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -20450,8 +20584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15440025" y="10983910"/>
-          <a:ext cx="1924050" cy="328423"/>
+          <a:off x="15446375" y="11158535"/>
+          <a:ext cx="1924050" cy="334773"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -20767,8 +20901,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="12963525"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="13169900"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -20993,8 +21127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="14182725"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="14408150"/>
+          <a:ext cx="2806700" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21219,8 +21353,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533525" y="15268575"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1536700" y="15513050"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -21450,8 +21584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1552575" y="16421100"/>
-          <a:ext cx="3537080" cy="911747"/>
+          <a:off x="1555750" y="16681450"/>
+          <a:ext cx="3533905" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -21733,8 +21867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="17487900"/>
-          <a:ext cx="2809875" cy="911747"/>
+          <a:off x="1565275" y="17767300"/>
+          <a:ext cx="2806700" cy="924447"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -22029,8 +22163,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1562100" y="18554700"/>
-          <a:ext cx="2947908" cy="911747"/>
+          <a:off x="1565275" y="18849975"/>
+          <a:ext cx="2944733" cy="927622"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -22621,7 +22755,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5221"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5285"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22748,7 +22882,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4190"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4254"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23546,14 +23680,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="15"/>
-    <col min="3" max="3" width="24.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="15"/>
+    <col min="1" max="2" width="8.6640625" style="15"/>
+    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -23614,13 +23748,13 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>62</v>
@@ -23628,13 +23762,13 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>62</v>
@@ -23642,13 +23776,13 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>62</v>
@@ -23656,13 +23790,13 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>62</v>
@@ -23672,7 +23806,7 @@
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>62</v>
@@ -23680,7 +23814,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>64</v>
@@ -23692,18 +23826,18 @@
         <v>62</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>62</v>
@@ -23723,26 +23857,24 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -23750,16 +23882,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -23785,7 +23917,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -23810,7 +23942,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -23818,16 +23950,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -23853,7 +23985,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -23861,7 +23993,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>28</v>
@@ -23881,7 +24013,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>93</v>
@@ -23901,7 +24033,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>94</v>
@@ -23921,7 +24053,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>45</v>
@@ -23941,7 +24073,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
@@ -23984,16 +24116,16 @@
         <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>77</v>
@@ -24019,7 +24151,7 @@
         <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -24034,7 +24166,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="5">
         <v>255</v>
@@ -24059,7 +24191,7 @@
         <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>38</v>
@@ -24102,10 +24234,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -24121,7 +24253,7 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -24132,7 +24264,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>74</v>
@@ -24145,10 +24277,10 @@
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -24172,7 +24304,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -24200,13 +24332,13 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="C30" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -24222,19 +24354,17 @@
   </sheetPr>
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24249,16 +24379,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24313,7 +24443,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -24321,16 +24451,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -24356,7 +24486,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -24364,7 +24494,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>28</v>
@@ -24384,7 +24514,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>93</v>
@@ -24404,7 +24534,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>94</v>
@@ -24424,7 +24554,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -24444,7 +24574,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -24482,16 +24612,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -24517,7 +24647,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -24554,7 +24684,7 @@
         <v>94</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="5">
         <v>255</v>
@@ -24586,7 +24716,7 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -24624,21 +24754,21 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24653,16 +24783,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24724,7 +24854,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -24738,16 +24868,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -24758,7 +24888,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -24773,7 +24903,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -24782,13 +24912,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5">
         <v>20</v>
@@ -24804,10 +24934,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -24820,10 +24950,10 @@
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -24831,7 +24961,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -24847,7 +24977,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -24855,7 +24985,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -24871,7 +25001,17 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -24885,21 +25025,19 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -24914,16 +25052,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -24985,7 +25123,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -24999,16 +25137,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -25019,7 +25157,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -25034,7 +25172,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -25043,13 +25181,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5">
         <v>255</v>
@@ -25060,7 +25198,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="9"/>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -25068,10 +25206,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>74</v>
@@ -25084,10 +25222,10 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25095,7 +25233,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>45</v>
@@ -25111,7 +25249,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -25119,7 +25257,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>46</v>
@@ -25136,6 +25274,16 @@
       <c r="H14" s="13"/>
       <c r="I14" s="9" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -25149,28 +25297,26 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J25"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -25178,16 +25324,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25243,16 +25389,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
@@ -25342,16 +25488,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>77</v>
@@ -25362,7 +25508,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -25377,7 +25523,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -25434,7 +25580,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>130</v>
+        <v>601</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>127</v>
@@ -25448,10 +25594,12 @@
       <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="1" t="s">
-        <v>129</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -25462,7 +25610,7 @@
         <v>130</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -25471,7 +25619,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -25484,10 +25632,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -25500,10 +25648,10 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -25511,7 +25659,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>45</v>
@@ -25527,7 +25675,7 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -25535,7 +25683,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>46</v>
@@ -25551,7 +25699,17 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -25567,26 +25725,24 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -25594,16 +25750,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25675,7 +25831,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -25689,16 +25845,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25709,7 +25865,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -25724,7 +25880,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -25733,13 +25889,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5">
         <v>10</v>
@@ -25755,10 +25911,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -25771,10 +25927,10 @@
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -25782,7 +25938,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
@@ -25798,7 +25954,7 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -25806,7 +25962,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>46</v>
@@ -25822,7 +25978,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -25838,26 +25994,24 @@
   </sheetPr>
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -25865,16 +26019,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -25946,7 +26100,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -25960,16 +26114,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -25980,7 +26134,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -25995,7 +26149,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26007,7 +26161,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -26031,7 +26185,7 @@
         <v>86</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -26052,10 +26206,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -26071,7 +26225,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26079,10 +26233,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -26095,10 +26249,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26106,7 +26260,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -26122,7 +26276,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26130,7 +26284,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -26146,7 +26300,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -26162,26 +26316,24 @@
   </sheetPr>
   <dimension ref="B2:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26189,16 +26341,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26270,7 +26422,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26284,16 +26436,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26304,7 +26456,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26319,7 +26471,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26331,7 +26483,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -26352,10 +26504,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -26376,10 +26528,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -26392,7 +26544,7 @@
         <v>44</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26400,10 +26552,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>74</v>
@@ -26417,7 +26569,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26425,10 +26577,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>76</v>
@@ -26442,7 +26594,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="9"/>
       <c r="J19" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -26450,10 +26602,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>76</v>
@@ -26472,10 +26624,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -26496,10 +26648,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -26520,10 +26672,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -26542,10 +26694,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -26558,10 +26710,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -26569,7 +26721,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -26585,7 +26737,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -26593,7 +26745,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -26609,7 +26761,7 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -26631,22 +26783,22 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26654,16 +26806,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -26735,7 +26887,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -26749,16 +26901,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -26769,7 +26921,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -26784,7 +26936,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -26817,13 +26969,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>647</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -26839,10 +26991,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -26855,10 +27007,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -26866,7 +27018,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -26882,7 +27034,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -26890,7 +27042,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -26906,7 +27058,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -26926,22 +27078,22 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -26949,16 +27101,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27030,10 +27182,10 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27047,16 +27199,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27067,7 +27219,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27082,7 +27234,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27091,10 +27243,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27139,10 +27291,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -27163,10 +27315,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -27175,14 +27327,14 @@
         <v>38</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27190,10 +27342,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>74</v>
@@ -27212,10 +27364,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>74</v>
@@ -27234,10 +27386,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>74</v>
@@ -27246,7 +27398,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="9"/>
@@ -27256,10 +27408,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>74</v>
@@ -27278,10 +27430,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>74</v>
@@ -27290,7 +27442,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="9"/>
@@ -27300,10 +27452,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>74</v>
@@ -27316,10 +27468,10 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -27327,7 +27479,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>45</v>
@@ -27343,7 +27495,7 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -27351,7 +27503,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>46</v>
@@ -27384,7 +27536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27403,22 +27555,22 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -27426,16 +27578,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27507,7 +27659,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -27521,16 +27673,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27541,7 +27693,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27556,7 +27708,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27565,10 +27717,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>74</v>
@@ -27590,13 +27742,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27612,13 +27764,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="5">
         <v>20</v>
@@ -27634,10 +27786,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -27650,10 +27802,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27661,7 +27813,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -27677,7 +27829,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -27685,7 +27837,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -27701,7 +27853,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -27721,22 +27873,22 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -27744,16 +27896,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -27764,13 +27916,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="5">
         <v>255</v>
@@ -27825,7 +27977,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -27839,16 +27991,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -27859,7 +28011,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -27874,7 +28026,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -27907,13 +28059,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" s="5">
         <v>50</v>
@@ -27929,10 +28081,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>74</v>
@@ -27945,10 +28097,10 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -27956,7 +28108,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>45</v>
@@ -27972,7 +28124,7 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -27980,7 +28132,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>46</v>
@@ -27996,7 +28148,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -28016,22 +28168,22 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28039,16 +28191,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28120,7 +28272,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28134,16 +28286,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28154,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28169,7 +28321,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28178,13 +28330,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="5">
         <v>255</v>
@@ -28224,13 +28376,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28246,10 +28398,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -28262,10 +28414,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28273,7 +28425,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28289,7 +28441,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28297,7 +28449,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28313,7 +28465,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -28331,22 +28483,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -28354,16 +28506,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -28435,7 +28587,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -28449,16 +28601,16 @@
         <v>15</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>77</v>
@@ -28469,7 +28621,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -28484,7 +28636,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -28517,13 +28669,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
@@ -28539,13 +28691,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>38</v>
@@ -28561,10 +28713,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -28577,10 +28729,10 @@
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -28588,7 +28740,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
@@ -28604,7 +28756,7 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -28612,7 +28764,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>46</v>
@@ -28628,7 +28780,7 @@
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -28644,87 +28796,87 @@
   </sheetPr>
   <dimension ref="C2:AF80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.125" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" customWidth="1"/>
-    <col min="24" max="24" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.375" customWidth="1"/>
-    <col min="26" max="26" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
       <c r="I2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="3:32">
       <c r="I3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" t="s">
         <v>383</v>
-      </c>
-      <c r="K3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="3:32">
       <c r="I4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="3:32">
       <c r="I5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="3:32">
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="3:32">
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -28733,62 +28885,62 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="3:32">
       <c r="E8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="3:32">
       <c r="E9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="3:32">
       <c r="E10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="3:32">
       <c r="E11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="3:32">
       <c r="E12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
+        <v>394</v>
+      </c>
+      <c r="P12" t="s">
         <v>395</v>
-      </c>
-      <c r="P12" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="13" spans="3:32">
@@ -28796,13 +28948,13 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L13" t="s">
+        <v>416</v>
+      </c>
+      <c r="N13" t="s">
         <v>417</v>
-      </c>
-      <c r="N13" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="14" spans="3:32">
@@ -28810,167 +28962,167 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I14" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="J14" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="L14" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="N14" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="M14" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="N14" s="28" t="s">
+      <c r="O14" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="P14" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="P14" s="28" t="s">
+      <c r="Q14" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="R14" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="S14" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>301</v>
-      </c>
       <c r="T14" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="X14" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y14" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="Y14" s="29" t="s">
-        <v>316</v>
-      </c>
       <c r="Z14" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA14" s="73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AD14" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="3:32">
       <c r="H15" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M15" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N15" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y15" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA15" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AD15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF15" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="3:32">
       <c r="C16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -29005,259 +29157,259 @@
     </row>
     <row r="17" spans="4:32">
       <c r="D17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J17" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="K17" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="L17" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>254</v>
-      </c>
       <c r="M17" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="N17" s="27" t="s">
-        <v>270</v>
-      </c>
       <c r="O17" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P17" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="Q17" s="27" t="s">
-        <v>270</v>
-      </c>
       <c r="R17" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U17" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V17" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W17" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X17" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y17" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Z17" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA17" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB17" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="AB17" s="27" t="s">
-        <v>354</v>
-      </c>
       <c r="AC17" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="AD17" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="AD17" s="27" t="s">
-        <v>486</v>
-      </c>
       <c r="AE17" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="4:32">
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>70</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M18" s="75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N18" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="R18" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="O18" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="R18" s="27" t="s">
-        <v>267</v>
-      </c>
       <c r="S18" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U18" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V18" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W18" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="X18" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y18" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>284</v>
-      </c>
       <c r="Z18" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA18" s="74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AB18" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD18" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="AC18" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="AD18" s="27" t="s">
-        <v>484</v>
-      </c>
       <c r="AE18" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF18" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="4:32">
       <c r="E19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="M19" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="V19" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="M19" s="75" t="s">
-        <v>404</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="R19" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="S19" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="V19" s="27" t="s">
+      <c r="W19" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y19" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="W19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y19" s="27" t="s">
-        <v>312</v>
-      </c>
       <c r="Z19" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA19" s="74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB19" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AC19" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AD19" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF19" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="4:32">
       <c r="E20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H20" s="31"/>
       <c r="J20" s="31"/>
@@ -29268,215 +29420,215 @@
     </row>
     <row r="21" spans="4:32">
       <c r="E21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K21" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="M21" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="N21" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="M21" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="O21" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="P21" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="Q21" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="R21" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="S21" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="T21" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="U21" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="U21" s="30" t="s">
+      <c r="V21" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="V21" s="30" t="s">
+      <c r="W21" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="X21" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="W21" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="X21" s="30" t="s">
+      <c r="Y21" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="Y21" s="30" t="s">
-        <v>339</v>
-      </c>
       <c r="Z21" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA21" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="AA21" s="79" t="s">
-        <v>430</v>
-      </c>
       <c r="AB21" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD21" s="30" t="s">
         <v>488</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="AD21" s="30" t="s">
-        <v>489</v>
       </c>
       <c r="AE21" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AF21" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="4:32">
       <c r="E22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M22" s="75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P22" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="X22" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y22" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z22" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="Q22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="R22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="W22" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="X22" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y22" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z22" s="39" t="s">
-        <v>445</v>
-      </c>
       <c r="AA22" s="80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AB22" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC22" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="AC22" s="39" t="s">
+      <c r="AD22" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="AD22" s="39" t="s">
-        <v>500</v>
-      </c>
       <c r="AE22" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF22" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="4:32">
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L23" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M23" s="75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U23" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V23" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W23" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="X23" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y23" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
@@ -29484,115 +29636,115 @@
       <c r="AC23" s="39"/>
       <c r="AD23" s="39"/>
       <c r="AF23" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="4:32">
       <c r="E24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L24" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="M24" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="M24" s="75" t="s">
-        <v>409</v>
-      </c>
       <c r="N24" s="26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U24" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V24" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W24" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="39"/>
       <c r="AF24" s="39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="4:32">
       <c r="E25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U25" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="V25" s="27" t="s">
         <v>389</v>
-      </c>
-      <c r="V25" s="27" t="s">
-        <v>390</v>
       </c>
       <c r="W25" s="27"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
@@ -29602,31 +29754,31 @@
     </row>
     <row r="26" spans="4:32">
       <c r="E26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="27"/>
       <c r="T26" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U26" s="27"/>
       <c r="V26" s="27"/>
@@ -29641,29 +29793,29 @@
     </row>
     <row r="27" spans="4:32">
       <c r="E27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="26"/>
       <c r="O27" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
       <c r="T27" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U27" s="27"/>
       <c r="V27" s="27"/>
@@ -29677,23 +29829,23 @@
     </row>
     <row r="28" spans="4:32">
       <c r="E28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H28" s="31"/>
       <c r="I28" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M28" s="26"/>
       <c r="O28" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
       <c r="T28" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U28" s="27"/>
       <c r="V28" s="27"/>
@@ -29707,21 +29859,21 @@
     </row>
     <row r="29" spans="4:32">
       <c r="E29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H29" s="31"/>
       <c r="I29" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M29" s="26"/>
       <c r="O29" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
@@ -29732,23 +29884,23 @@
     </row>
     <row r="30" spans="4:32">
       <c r="E30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H30" s="31"/>
       <c r="I30" s="27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K30" s="27"/>
       <c r="L30" s="27"/>
       <c r="M30" s="26"/>
       <c r="O30" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
@@ -29759,17 +29911,17 @@
     </row>
     <row r="31" spans="4:32">
       <c r="E31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H31" s="31"/>
       <c r="J31" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="26"/>
       <c r="O31" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U31" s="27"/>
       <c r="V31" s="27"/>
@@ -29780,17 +29932,17 @@
     </row>
     <row r="32" spans="4:32">
       <c r="E32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32" s="31"/>
       <c r="J32" s="26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="26"/>
       <c r="O32" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T32" s="27"/>
       <c r="U32" s="27"/>
@@ -29802,17 +29954,17 @@
     </row>
     <row r="33" spans="5:29">
       <c r="E33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H33" s="31"/>
       <c r="J33" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
       <c r="M33" s="26"/>
       <c r="O33" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
@@ -29820,15 +29972,15 @@
     </row>
     <row r="34" spans="5:29">
       <c r="E34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H34" s="31"/>
       <c r="J34" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M34" s="26"/>
       <c r="O34" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
@@ -29836,13 +29988,13 @@
     </row>
     <row r="35" spans="5:29">
       <c r="E35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H35" s="31"/>
       <c r="J35" s="26"/>
       <c r="M35" s="26"/>
       <c r="O35" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
@@ -29850,13 +30002,13 @@
     </row>
     <row r="36" spans="5:29">
       <c r="E36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" s="31"/>
       <c r="J36" s="26"/>
       <c r="M36" s="26"/>
       <c r="O36" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
@@ -29864,78 +30016,78 @@
     </row>
     <row r="37" spans="5:29">
       <c r="E37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="31"/>
       <c r="M37" s="26"/>
       <c r="O37" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Z37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AB37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AC37" s="27"/>
     </row>
     <row r="38" spans="5:29">
       <c r="E38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H38" s="31"/>
       <c r="M38" s="26"/>
       <c r="O38" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Z38" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="5:29">
       <c r="E39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" s="31"/>
       <c r="M39" s="26"/>
       <c r="O39" s="27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z39" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AB39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="5:29">
       <c r="E40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M40" s="26"/>
       <c r="Z40" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA40" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AB40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="5:29">
@@ -29943,20 +30095,20 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M41" s="26"/>
       <c r="O41" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA41" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="5:29">
@@ -29964,26 +30116,26 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K42" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M42" s="26"/>
       <c r="O42" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AA42" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="5:29">
       <c r="J43" s="26"/>
       <c r="K43" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M43" s="26"/>
     </row>
@@ -29993,13 +30145,13 @@
     </row>
     <row r="45" spans="5:29">
       <c r="J45" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="5:29">
       <c r="J46" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M46" s="26"/>
     </row>
@@ -30033,138 +30185,138 @@
     </row>
     <row r="55" spans="8:29">
       <c r="H55" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I55" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="J55" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>296</v>
-      </c>
       <c r="L55" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M55" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N55" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="O55" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="O55" s="28" t="s">
+      <c r="P55" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="P55" s="28" t="s">
-        <v>301</v>
-      </c>
       <c r="Q55" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S55" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T55" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U55" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="V55" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="V55" s="29" t="s">
-        <v>316</v>
-      </c>
       <c r="W55" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="X55" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y55" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AA55" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AB55" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AC55" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="8:29">
       <c r="H56" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R56" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V56" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC56" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="8:29">
@@ -30193,70 +30345,70 @@
     </row>
     <row r="58" spans="8:29">
       <c r="H58" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I58" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J58" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="J58" s="27" t="s">
+      <c r="K58" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="K58" s="27" t="s">
-        <v>253</v>
-      </c>
       <c r="L58" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M58" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="N58" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="N58" s="27" t="s">
-        <v>270</v>
-      </c>
       <c r="O58" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P58" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q58" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R58" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S58" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T58" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U58" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V58" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W58" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="X58" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y58" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="Y58" s="27" t="s">
-        <v>354</v>
-      </c>
       <c r="Z58" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA58" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="AA58" s="27" t="s">
-        <v>486</v>
-      </c>
       <c r="AB58" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AC58" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="8:29">
@@ -30264,135 +30416,135 @@
         <v>70</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M59" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O59" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P59" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q59" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R59" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S59" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T59" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U59" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="V59" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="V59" s="27" t="s">
-        <v>284</v>
-      </c>
       <c r="W59" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X59" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y59" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z59" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA59" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="Z59" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA59" s="27" t="s">
-        <v>484</v>
-      </c>
       <c r="AB59" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AC59" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="8:29">
       <c r="H60" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="R60" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="S60" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="I60" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>373</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="R60" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="S60" s="27" t="s">
+      <c r="T60" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="U60" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="V60" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="T60" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="U60" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="V60" s="27" t="s">
-        <v>312</v>
-      </c>
       <c r="W60" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X60" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y60" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Z60" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA60" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AB60" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC60" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="8:29">
@@ -30403,7 +30555,7 @@
     </row>
     <row r="62" spans="8:29">
       <c r="H62" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>16</v>
@@ -30472,110 +30624,110 @@
     <row r="63" spans="8:29">
       <c r="H63" s="31"/>
       <c r="I63" s="39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J63" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M63" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="N63" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="N63" s="39" t="s">
-        <v>475</v>
-      </c>
       <c r="O63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="V63" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="W63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB63" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC63" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="8:29">
       <c r="H64" s="31"/>
       <c r="I64" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J64" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="K64" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L64" s="31" t="s">
         <v>356</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>357</v>
       </c>
       <c r="M64" s="39"/>
       <c r="N64" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R64" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S64" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T64" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U64" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V64" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
@@ -30584,91 +30736,91 @@
       <c r="AA64" s="39"/>
       <c r="AB64" s="39"/>
       <c r="AC64" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="8:29">
       <c r="H65" s="31"/>
       <c r="I65" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K65" s="39" t="s">
         <v>35</v>
       </c>
       <c r="L65" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M65" s="39"/>
       <c r="N65" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P65" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q65" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R65" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S65" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="T65" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U65" s="39"/>
       <c r="V65" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
       <c r="Z65" s="39"/>
       <c r="AC65" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="8:29">
       <c r="H66" s="31"/>
       <c r="I66" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J66" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K66" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P66" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q66" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R66" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S66" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
       <c r="V66" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
@@ -30679,23 +30831,23 @@
     <row r="67" spans="8:29">
       <c r="H67" s="31"/>
       <c r="I67" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J67" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K67" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L67" s="39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M67" s="31"/>
       <c r="N67" s="39"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
@@ -30711,20 +30863,20 @@
     <row r="68" spans="8:29">
       <c r="H68" s="31"/>
       <c r="I68" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J68" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L68" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M68" s="39"/>
       <c r="N68" s="39"/>
       <c r="O68" s="39"/>
       <c r="P68" s="39"/>
       <c r="Q68" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
@@ -30740,21 +30892,21 @@
     <row r="69" spans="8:29">
       <c r="H69" s="31"/>
       <c r="I69" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J69" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K69" s="31"/>
       <c r="L69" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
@@ -30770,21 +30922,21 @@
     <row r="70" spans="8:29">
       <c r="H70" s="31"/>
       <c r="I70" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J70" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K70" s="31"/>
       <c r="L70" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
@@ -30800,21 +30952,21 @@
     <row r="71" spans="8:29">
       <c r="H71" s="31"/>
       <c r="I71" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J71" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K71" s="39"/>
       <c r="L71" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
@@ -30831,11 +30983,11 @@
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K72" s="39"/>
       <c r="L72" s="39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M72" s="31"/>
       <c r="N72" s="31"/>
@@ -30857,11 +31009,11 @@
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K73" s="39"/>
       <c r="L73" s="39" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
@@ -30882,11 +31034,11 @@
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
       <c r="J74" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K74" s="39"/>
       <c r="L74" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="31"/>
@@ -30907,11 +31059,11 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K75" s="31"/>
       <c r="L75" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
@@ -30934,7 +31086,7 @@
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
       <c r="L76" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="31"/>
@@ -30957,7 +31109,7 @@
       <c r="J77" s="31"/>
       <c r="K77" s="31"/>
       <c r="L77" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
@@ -30978,7 +31130,7 @@
       <c r="H78" s="31"/>
       <c r="J78" s="26"/>
       <c r="L78" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
@@ -30989,7 +31141,7 @@
       <c r="J79" s="26"/>
       <c r="K79" s="38"/>
       <c r="L79" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W79" s="38"/>
       <c r="X79" s="26"/>
@@ -31000,7 +31152,7 @@
       <c r="J80" s="26"/>
       <c r="K80" s="38"/>
       <c r="L80" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W80" s="38"/>
       <c r="X80" s="26"/>
@@ -31024,27 +31176,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.875" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
       <c r="C2" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="C3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="D4" s="87" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="87"/>
@@ -31074,7 +31226,7 @@
       <c r="AD4" s="87"/>
       <c r="AE4" s="87"/>
     </row>
-    <row r="5" spans="1:33" ht="26.1" customHeight="1">
+    <row r="5" spans="1:33" ht="26" customHeight="1">
       <c r="C5" s="46"/>
       <c r="D5" s="86" t="s">
         <v>78</v>
@@ -31095,7 +31247,7 @@
       <c r="N5" s="86"/>
       <c r="O5" s="86"/>
       <c r="P5" s="86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="86"/>
       <c r="R5" s="86"/>
@@ -31113,118 +31265,118 @@
       <c r="AD5" s="86"/>
       <c r="AE5" s="86"/>
     </row>
-    <row r="6" spans="1:33" ht="26.1" customHeight="1">
+    <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="47" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="E6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="F6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="G6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="H6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="J6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="K6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="K6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="L6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="M6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="N6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="O6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="O6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="P6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="R6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="S6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="S6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="T6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="V6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="V6" s="44" t="s">
+      <c r="W6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="W6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="X6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="Y6" s="44" t="s">
+      <c r="Z6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="Z6" s="44" t="s">
+      <c r="AA6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="AA6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="AB6" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC6" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="AC6" s="44" t="s">
+      <c r="AD6" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="AD6" s="44" t="s">
+      <c r="AE6" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="AE6" s="44" t="s">
-        <v>539</v>
-      </c>
       <c r="AG6" s="45" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="26.1" customHeight="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="26" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C7" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>544</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>545</v>
       </c>
       <c r="E7" s="49"/>
       <c r="F7" s="49"/>
       <c r="G7" s="50"/>
       <c r="H7" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
@@ -31250,40 +31402,40 @@
       <c r="AD7" s="49"/>
       <c r="AE7" s="50"/>
       <c r="AG7" s="45" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="26.1" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="26" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="46"/>
       <c r="C8" s="48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="50"/>
       <c r="H8" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J8" s="49"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
       <c r="M8" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N8" s="49"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R8" s="49"/>
       <c r="S8" s="50"/>
@@ -31300,14 +31452,14 @@
       <c r="AD8" s="49"/>
       <c r="AE8" s="50"/>
       <c r="AG8" s="45" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="26.1" customHeight="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="26" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="46"/>
       <c r="C9" s="48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="49"/>
@@ -31315,10 +31467,10 @@
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K9" s="50"/>
       <c r="L9" s="51"/>
@@ -31342,10 +31494,10 @@
       <c r="AD9" s="49"/>
       <c r="AE9" s="50"/>
       <c r="AG9" s="45" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="26.1" customHeight="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="26" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -31380,7 +31532,7 @@
       <c r="AD10" s="49"/>
       <c r="AE10" s="50"/>
     </row>
-    <row r="11" spans="1:33" ht="26.1" customHeight="1">
+    <row r="11" spans="1:33" ht="26" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="46"/>
       <c r="C11" s="48"/>
@@ -31413,7 +31565,7 @@
       <c r="AD11" s="49"/>
       <c r="AE11" s="50"/>
     </row>
-    <row r="12" spans="1:33" ht="26.1" customHeight="1">
+    <row r="12" spans="1:33" ht="26" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="46"/>
       <c r="C12" s="48"/>
@@ -31446,7 +31598,7 @@
       <c r="AD12" s="49"/>
       <c r="AE12" s="50"/>
     </row>
-    <row r="13" spans="1:33" ht="26.1" customHeight="1">
+    <row r="13" spans="1:33" ht="26" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="46"/>
       <c r="C13" s="48"/>
@@ -31479,7 +31631,7 @@
       <c r="AD13" s="49"/>
       <c r="AE13" s="50"/>
     </row>
-    <row r="14" spans="1:33" ht="26.1" customHeight="1">
+    <row r="14" spans="1:33" ht="26" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="46"/>
       <c r="C14" s="48"/>
@@ -31512,7 +31664,7 @@
       <c r="AD14" s="49"/>
       <c r="AE14" s="50"/>
     </row>
-    <row r="15" spans="1:33" ht="26.1" customHeight="1">
+    <row r="15" spans="1:33" ht="26" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48"/>
@@ -31545,7 +31697,7 @@
       <c r="AD15" s="49"/>
       <c r="AE15" s="50"/>
     </row>
-    <row r="16" spans="1:33" ht="26.1" customHeight="1">
+    <row r="16" spans="1:33" ht="26" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="46"/>
       <c r="C16" s="48"/>
@@ -31578,7 +31730,7 @@
       <c r="AD16" s="49"/>
       <c r="AE16" s="50"/>
     </row>
-    <row r="17" spans="1:31" ht="26.1" customHeight="1">
+    <row r="17" spans="1:31" ht="26" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="46"/>
       <c r="C17" s="48"/>
@@ -31611,7 +31763,7 @@
       <c r="AD17" s="49"/>
       <c r="AE17" s="50"/>
     </row>
-    <row r="18" spans="1:31" ht="26.1" customHeight="1">
+    <row r="18" spans="1:31" ht="26" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="46"/>
       <c r="C18" s="48"/>
@@ -31644,7 +31796,7 @@
       <c r="AD18" s="49"/>
       <c r="AE18" s="50"/>
     </row>
-    <row r="19" spans="1:31" ht="26.1" customHeight="1">
+    <row r="19" spans="1:31" ht="26" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48"/>
@@ -31709,7 +31861,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="2" width="9" style="15"/>
     <col min="3" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
@@ -31718,317 +31870,317 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>608</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="D6" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="D7" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="D8" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="D11" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="D12" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="D13" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="D14" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="D15" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="D16" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="D17" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="D18" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="D19" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="D20" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="D22" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="D23" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="D24" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="D25" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="D26" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="D27" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="D28" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="D29" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="D30" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="D31" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="D32" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="D38" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="D42" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="D48" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="15" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -32046,7 +32198,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -32061,23 +32213,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B981E-3230-0E45-9FDB-014A45CD13AA}">
   <dimension ref="B2:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="52"/>
+    <col min="1" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.5">
+    <row r="2" spans="2:2" ht="23">
       <c r="B2" s="65" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="23">
+      <c r="B21" s="65" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="22.5">
-      <c r="B21" s="65" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -32095,69 +32247,69 @@
   <dimension ref="B2:H80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="52"/>
+    <col min="1" max="1" width="10.83203125" style="52"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="41.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="52"/>
+    <col min="5" max="5" width="25.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>556</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>557</v>
       </c>
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
       <c r="B9" s="82" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>518</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>524</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>519</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>19</v>
@@ -32171,10 +32323,10 @@
       <c r="B10" s="82"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>21</v>
@@ -32186,7 +32338,7 @@
       <c r="C11" s="57"/>
       <c r="D11" s="59"/>
       <c r="E11" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>21</v>
@@ -32210,7 +32362,7 @@
       <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>21</v>
@@ -32237,26 +32389,26 @@
         <v>126</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
       <c r="B16" s="82"/>
       <c r="C16" s="61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E16" s="56" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16" s="56" t="s">
         <v>553</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
@@ -32264,7 +32416,7 @@
       <c r="C17" s="62"/>
       <c r="D17" s="60"/>
       <c r="E17" s="56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>21</v>
@@ -32274,13 +32426,13 @@
     <row r="18" spans="2:7" ht="21" customHeight="1">
       <c r="B18" s="82"/>
       <c r="C18" s="61" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
@@ -32289,13 +32441,13 @@
       <c r="B19" s="82"/>
       <c r="C19" s="63"/>
       <c r="D19" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G19" s="56"/>
     </row>
@@ -32304,10 +32456,10 @@
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
       <c r="E20" s="56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G20" s="56"/>
     </row>
@@ -32316,10 +32468,10 @@
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
       <c r="E21" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G21" s="56"/>
     </row>
@@ -32331,7 +32483,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G22" s="56"/>
     </row>
@@ -32340,10 +32492,10 @@
       <c r="C23" s="63"/>
       <c r="D23" s="59"/>
       <c r="E23" s="56" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G23" s="56"/>
     </row>
@@ -32355,7 +32507,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G24" s="56"/>
     </row>
@@ -32364,23 +32516,23 @@
       <c r="C25" s="63"/>
       <c r="D25" s="59"/>
       <c r="E25" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1">
       <c r="B26" s="82"/>
       <c r="C26" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="E26" s="56" t="s">
         <v>559</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>560</v>
       </c>
       <c r="F26" s="56" t="s">
         <v>21</v>
@@ -32390,13 +32542,13 @@
     <row r="27" spans="2:7" ht="21" customHeight="1">
       <c r="B27" s="82"/>
       <c r="C27" s="54" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F27" s="56" t="s">
         <v>21</v>
@@ -32406,10 +32558,10 @@
     <row r="28" spans="2:7" ht="21" customHeight="1">
       <c r="B28" s="82"/>
       <c r="C28" s="64" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E28" s="56" t="s">
         <v>19</v>
@@ -32422,47 +32574,47 @@
     <row r="29" spans="2:7" ht="21" customHeight="1">
       <c r="B29" s="82"/>
       <c r="C29" s="61" t="s">
+        <v>563</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>522</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="G29" s="56" t="s">
         <v>564</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>523</v>
-      </c>
-      <c r="E29" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
       <c r="B30" s="82"/>
       <c r="C30" s="62"/>
       <c r="D30" s="55" t="s">
+        <v>565</v>
+      </c>
+      <c r="E30" s="56" t="s">
         <v>566</v>
       </c>
-      <c r="E30" s="56" t="s">
-        <v>567</v>
-      </c>
       <c r="F30" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
       <c r="B31" s="83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C31" s="71" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="71" t="s">
-        <v>576</v>
-      </c>
       <c r="E31" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F31" s="71" t="s">
         <v>38</v>
@@ -32472,13 +32624,13 @@
     <row r="32" spans="2:7" ht="21" customHeight="1">
       <c r="B32" s="84"/>
       <c r="C32" s="70" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F32" s="71" t="s">
         <v>38</v>
@@ -32489,10 +32641,10 @@
       <c r="B33" s="84"/>
       <c r="C33" s="69"/>
       <c r="D33" s="71" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F33" s="71" t="s">
         <v>38</v>
@@ -32502,13 +32654,13 @@
     <row r="34" spans="2:8" ht="21" customHeight="1">
       <c r="B34" s="84"/>
       <c r="C34" s="68" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E34" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F34" s="71" t="s">
         <v>38</v>
@@ -32519,10 +32671,10 @@
       <c r="B35" s="84"/>
       <c r="C35" s="70"/>
       <c r="D35" s="71" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E35" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F35" s="71" t="s">
         <v>38</v>
@@ -32533,10 +32685,10 @@
       <c r="B36" s="84"/>
       <c r="C36" s="70"/>
       <c r="D36" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F36" s="71" t="s">
         <v>38</v>
@@ -32547,10 +32699,10 @@
       <c r="B37" s="84"/>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F37" s="71" t="s">
         <v>38</v>
@@ -32560,13 +32712,13 @@
     <row r="38" spans="2:8" ht="21" customHeight="1">
       <c r="B38" s="84"/>
       <c r="C38" s="68" t="s">
+        <v>569</v>
+      </c>
+      <c r="D38" s="66" t="s">
         <v>570</v>
       </c>
-      <c r="D38" s="66" t="s">
-        <v>571</v>
-      </c>
       <c r="E38" s="71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F38" s="64" t="s">
         <v>21</v>
@@ -32578,7 +32730,7 @@
       <c r="C39" s="70"/>
       <c r="D39" s="72"/>
       <c r="E39" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F39" s="64" t="s">
         <v>21</v>
@@ -32590,7 +32742,7 @@
       <c r="C40" s="70"/>
       <c r="D40" s="67"/>
       <c r="E40" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F40" s="64" t="s">
         <v>21</v>
@@ -32600,10 +32752,10 @@
     <row r="41" spans="2:8">
       <c r="C41" s="70"/>
       <c r="D41" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F41" s="64" t="s">
         <v>21</v>
@@ -32614,23 +32766,23 @@
       <c r="C42" s="70"/>
       <c r="D42" s="72"/>
       <c r="E42" s="71" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F42" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="71" t="s">
+        <v>594</v>
+      </c>
+      <c r="H42" s="52" t="s">
         <v>595</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="70"/>
       <c r="D43" s="72"/>
       <c r="E43" s="71" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F43" s="64" t="s">
         <v>21</v>
@@ -32641,20 +32793,20 @@
       <c r="C44" s="70"/>
       <c r="D44" s="72"/>
       <c r="E44" s="71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="C45" s="70"/>
       <c r="D45" s="72"/>
       <c r="E45" s="71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F45" s="64" t="s">
         <v>21</v>
@@ -32665,26 +32817,26 @@
       <c r="C46" s="70"/>
       <c r="D46" s="72"/>
       <c r="E46" s="71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F46" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="70"/>
       <c r="D47" s="72"/>
       <c r="E47" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="F47" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G47" s="71" t="s">
         <v>590</v>
-      </c>
-      <c r="F47" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="48" spans="2:8">
@@ -32759,13 +32911,13 @@
     </row>
     <row r="58" spans="3:7">
       <c r="C58" s="68" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F58" s="64" t="s">
         <v>21</v>
@@ -32776,7 +32928,7 @@
       <c r="C59" s="70"/>
       <c r="D59" s="72"/>
       <c r="E59" s="71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>21</v>
@@ -32787,7 +32939,7 @@
       <c r="C60" s="70"/>
       <c r="D60" s="67"/>
       <c r="E60" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F60" s="64" t="s">
         <v>21</v>
@@ -32797,7 +32949,7 @@
     <row r="61" spans="3:7">
       <c r="C61" s="70"/>
       <c r="D61" s="66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E61" s="71"/>
       <c r="F61" s="64"/>
@@ -32917,7 +33069,7 @@
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="71"/>
@@ -32956,7 +33108,7 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32972,24 +33124,24 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="19.5">
+    <row r="2" spans="2:21" ht="20">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -33651,19 +33803,17 @@
   </sheetPr>
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33678,16 +33828,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -33768,16 +33918,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -33803,7 +33953,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -33818,7 +33968,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -33840,7 +33990,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -33862,7 +34012,7 @@
         <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>38</v>
@@ -33884,7 +34034,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>38</v>
@@ -33906,7 +34056,7 @@
         <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>38</v>
@@ -33925,7 +34075,7 @@
         <v>90</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>74</v>
@@ -33938,7 +34088,7 @@
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -34002,19 +34152,19 @@
   </sheetPr>
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34029,16 +34179,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34119,16 +34269,16 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>77</v>
@@ -34154,7 +34304,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -34169,7 +34319,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
@@ -34191,7 +34341,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="5">
         <v>255</v>
@@ -34272,45 +34422,62 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>658</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="H22" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:8" ht="17">
       <c r="B25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:8">
       <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
@@ -34318,31 +34485,34 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:8">
       <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:8">
       <c r="C28" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:8">
       <c r="C29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:8">
       <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{90CD6364-A4CE-EF40-9C49-C5C66C7C8A12}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34352,21 +34522,19 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:J42"/>
+  <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B29"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34381,16 +34549,16 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -34584,16 +34752,16 @@
         <v>15</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>77</v>
@@ -34619,7 +34787,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -34631,18 +34799,18 @@
         <v>81</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
+        <v>161</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:10">
@@ -34653,10 +34821,10 @@
         <v>81</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
@@ -34675,10 +34843,10 @@
         <v>81</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="5">
         <v>20</v>
@@ -34697,10 +34865,10 @@
         <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="5">
         <v>20</v>
@@ -34719,13 +34887,13 @@
         <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>21</v>
@@ -34741,20 +34909,18 @@
         <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="5">
-        <v>255</v>
+        <v>181</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:10">
@@ -34765,10 +34931,10 @@
         <v>81</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="5">
         <v>255</v>
@@ -34776,7 +34942,9 @@
       <c r="G23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="2:10">
@@ -34787,10 +34955,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="5">
         <v>255</v>
@@ -34800,9 +34968,6 @@
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="1" t="s">
-        <v>669</v>
-      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="5">
@@ -34812,19 +34977,22 @@
         <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F25" s="5">
         <v>255</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="9"/>
+      <c r="J25" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="5">
@@ -34834,18 +35002,18 @@
         <v>81</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="F26" s="5">
+        <v>255</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:10">
@@ -34856,10 +35024,10 @@
         <v>81</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>38</v>
@@ -34867,13 +35035,8 @@
       <c r="G27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="5">
@@ -34883,10 +35046,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>38</v>
@@ -34895,8 +35058,11 @@
         <v>21</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="9" t="s">
-        <v>163</v>
+      <c r="I28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -34907,7 +35073,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>76</v>
@@ -34920,57 +35086,81 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="5">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>667</v>
+    <row r="32" spans="2:10">
+      <c r="B32" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="81" t="s">
-        <v>665</v>
+      <c r="B34" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="81" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="81" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="81" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="81" t="s">
-        <v>661</v>
+      <c r="B39" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="81" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="81" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="81" t="s">
-        <v>664</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="81" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4633F2-C2FC-4444-95AF-970BD84E1A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC15ED-05AA-9146-9F3F-E127EAF9A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33380" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="684">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -4615,6 +4615,10 @@
     <rPh sb="32" eb="34">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>where('name', 'LIKE', '%'.$keyword.'%')</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4973,7 +4977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5178,6 +5182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5196,7 +5201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -22755,7 +22760,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5285"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5295"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22882,7 +22887,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4254"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4264"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -23677,7 +23682,7 @@
   <dimension ref="C3:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F7" sqref="C7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
@@ -23857,7 +23862,9 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -24352,9 +24359,11 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -24632,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -24656,7 +24665,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>93</v>
@@ -24724,7 +24733,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>46</v>
@@ -24741,6 +24750,11 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="89" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -24756,9 +24770,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
@@ -31195,75 +31207,75 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="88" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
     </row>
     <row r="5" spans="1:33" ht="26" customHeight="1">
       <c r="C5" s="46"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86" t="s">
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
     </row>
     <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
@@ -32302,7 +32314,7 @@
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="83" t="s">
         <v>517</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -32320,7 +32332,7 @@
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1">
-      <c r="B10" s="82"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58" t="s">
         <v>519</v>
@@ -32334,7 +32346,7 @@
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1">
-      <c r="B11" s="82"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="57"/>
       <c r="D11" s="59"/>
       <c r="E11" s="56" t="s">
@@ -32346,7 +32358,7 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1">
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="57"/>
       <c r="D12" s="59"/>
       <c r="E12" s="56" t="s">
@@ -32358,7 +32370,7 @@
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="56" t="s">
@@ -32370,7 +32382,7 @@
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="57"/>
       <c r="D14" s="59"/>
       <c r="E14" s="56" t="s">
@@ -32382,7 +32394,7 @@
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="57"/>
       <c r="D15" s="60"/>
       <c r="E15" s="56" t="s">
@@ -32394,7 +32406,7 @@
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="61" t="s">
         <v>524</v>
       </c>
@@ -32412,7 +32424,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="62"/>
       <c r="D17" s="60"/>
       <c r="E17" s="56" t="s">
@@ -32424,7 +32436,7 @@
       <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="61" t="s">
         <v>525</v>
       </c>
@@ -32438,7 +32450,7 @@
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="63"/>
       <c r="D19" s="58" t="s">
         <v>560</v>
@@ -32452,7 +32464,7 @@
       <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
       <c r="E20" s="56" t="s">
@@ -32464,7 +32476,7 @@
       <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
       <c r="E21" s="56" t="s">
@@ -32476,7 +32488,7 @@
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
       <c r="E22" s="56" t="s">
@@ -32488,7 +32500,7 @@
       <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="63"/>
       <c r="D23" s="59"/>
       <c r="E23" s="56" t="s">
@@ -32500,7 +32512,7 @@
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1">
-      <c r="B24" s="82"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="63"/>
       <c r="D24" s="59"/>
       <c r="E24" s="56" t="s">
@@ -32512,7 +32524,7 @@
       <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1">
-      <c r="B25" s="82"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="63"/>
       <c r="D25" s="59"/>
       <c r="E25" s="56" t="s">
@@ -32524,7 +32536,7 @@
       <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1">
-      <c r="B26" s="82"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="54" t="s">
         <v>558</v>
       </c>
@@ -32540,7 +32552,7 @@
       <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1">
-      <c r="B27" s="82"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="54" t="s">
         <v>561</v>
       </c>
@@ -32556,7 +32568,7 @@
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1">
-      <c r="B28" s="82"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="64" t="s">
         <v>526</v>
       </c>
@@ -32572,7 +32584,7 @@
       <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1">
-      <c r="B29" s="82"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="61" t="s">
         <v>563</v>
       </c>
@@ -32590,7 +32602,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
-      <c r="B30" s="82"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="62"/>
       <c r="D30" s="55" t="s">
         <v>565</v>
@@ -32604,7 +32616,7 @@
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="84" t="s">
         <v>527</v>
       </c>
       <c r="C31" s="71" t="s">
@@ -32622,7 +32634,7 @@
       <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="21" customHeight="1">
-      <c r="B32" s="84"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="70" t="s">
         <v>573</v>
       </c>
@@ -32638,7 +32650,7 @@
       <c r="G32" s="71"/>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1">
-      <c r="B33" s="84"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="69"/>
       <c r="D33" s="71" t="s">
         <v>579</v>
@@ -32652,7 +32664,7 @@
       <c r="G33" s="71"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1">
-      <c r="B34" s="84"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="68" t="s">
         <v>583</v>
       </c>
@@ -32668,7 +32680,7 @@
       <c r="G34" s="71"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1">
-      <c r="B35" s="84"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="70"/>
       <c r="D35" s="71" t="s">
         <v>582</v>
@@ -32682,7 +32694,7 @@
       <c r="G35" s="71"/>
     </row>
     <row r="36" spans="2:8" ht="21" customHeight="1">
-      <c r="B36" s="84"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="70"/>
       <c r="D36" s="71" t="s">
         <v>577</v>
@@ -32696,7 +32708,7 @@
       <c r="G36" s="71"/>
     </row>
     <row r="37" spans="2:8" ht="21" customHeight="1">
-      <c r="B37" s="84"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
         <v>581</v>
@@ -32710,7 +32722,7 @@
       <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:8" ht="21" customHeight="1">
-      <c r="B38" s="84"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="68" t="s">
         <v>569</v>
       </c>
@@ -32726,7 +32738,7 @@
       <c r="G38" s="71"/>
     </row>
     <row r="39" spans="2:8" ht="21" customHeight="1">
-      <c r="B39" s="84"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="70"/>
       <c r="D39" s="72"/>
       <c r="E39" s="71" t="s">
@@ -32738,7 +32750,7 @@
       <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:8" ht="21" customHeight="1">
-      <c r="B40" s="85"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="70"/>
       <c r="D40" s="67"/>
       <c r="E40" s="71" t="s">
@@ -33104,7 +33116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1287A936-2CAA-3341-AFC1-C22987051707}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
@@ -34152,8 +34164,8 @@
   </sheetPr>
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -34473,7 +34485,7 @@
       <c r="B25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="82" t="s">
         <v>101</v>
       </c>
     </row>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EC15ED-05AA-9146-9F3F-E127EAF9A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A5E49-E371-7348-AB62-588756B81861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33380" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31520" yWindow="1600" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="803">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -4621,12 +4621,1060 @@
     <t>where('name', 'LIKE', '%'.$keyword.'%')</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザがどう使う想定でいるか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このwebアプリに辿り着くまで</t>
+    <rPh sb="9" eb="10">
+      <t>タドリツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・所属している野球チームから広げていく</t>
+    <rPh sb="1" eb="3">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒロゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録したチームから横に広げてもらう</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒロゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辿り着いたとしてどのようにユーザが使うか？</t>
+    <rPh sb="0" eb="1">
+      <t>タドリツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも、どうしたら使いたいと思うか？</t>
+    <rPh sb="10" eb="11">
+      <t>ツカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辿り着いた後で、どのように見せたら使いたい、どう使えばいいかわかると思うか？</t>
+    <rPh sb="0" eb="1">
+      <t>タドリツイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミセタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム入力しながら、次にどうするといいか、何ができるかが一目でわかるといい</t>
+    <rPh sb="0" eb="2">
+      <t>フォーム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何をしたい？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各チームが地域で繋がれるようにしたい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カク </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツナガレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうしたら繋がれるか？</t>
+    <rPh sb="5" eb="6">
+      <t>ツナガレル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容易に使えて、無駄なく、面倒なものは使うことを避けたい</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムダナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サケタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも、危ないものは使いたくない、簡易的に登録できて、気軽にしたい</t>
+    <rPh sb="3" eb="4">
+      <t>アブナイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカイタクナイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キガル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人情報は見られたくない</t>
+    <rPh sb="0" eb="4">
+      <t>コジn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミラレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうしたら繋がれるか？</t>
+    <rPh sb="0" eb="1">
+      <t>ドウシタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待を送るだけで本当に繋がれるか？</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オクル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツナガレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先の交換はしたいと思うはず</t>
+    <rPh sb="0" eb="3">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その前に、やりとりをしたいはず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待送付→承認 or 拒否の簡単な流れではないはず</t>
+    <rPh sb="0" eb="1">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウヘゥ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニn</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンタn</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮にチャット機能があったとして、誰でもチャットできる方がいいのか？</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームの監督や、キャプテン、その人がいなければ、登録している人が表示される？</t>
+    <rPh sb="4" eb="6">
+      <t>カントク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その人たちに、まずメッセージだけ送ってやりとり開始する？</t>
+    <rPh sb="0" eb="1">
+      <t>ソノヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オクッテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうなると、招待は必要か？</t>
+    <rPh sb="6" eb="8">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆にただのチャットツールになって荒らしの場になってしまわないか？</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アラセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それを監視していく必要が出てくるのではないか？</t>
+    <rPh sb="3" eb="5">
+      <t>カンセィ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイクヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待メールを送付する時点で、メッセージのやりとり開始ができる機能にしたらどうか？</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウフス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手チームに招待し、メッセージを一緒に送信し、その後にメッセージを表示もできて</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのメッセージへの返信ができるようにすれば、無駄なやりとりに繋がらずに済む</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンシn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツナガラズニスム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のメールにも返信内容を表示し、返信する際のリンク先をメールに渡してそこから</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヘンシn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシンス</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワタシテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再度アクセスして、返信内容を送信する方がベターな気がする</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ヘンシn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録方法は簡単に済ませて無駄なステップを踏まずにそのまま検索や招待ができるくらいスムーズな動線がいい</t>
+    <rPh sb="0" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンタn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スマセ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウタイガ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウセn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームの拠点</t>
+    <rPh sb="4" eb="6">
+      <t>キョテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市町村区</t>
+    <rPh sb="0" eb="4">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)宮崎市</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)宮崎県</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)Kchitees</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)akis  ※本名での登録は避けてください</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)oldws@gmail.com</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)passW0rd 半角英数字の小文字と大文字をそれぞれ1文字以上含みかつ、8文字以上で入力してください。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツ種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)野球</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード(再確認)</t>
+    <rPh sb="6" eb="9">
+      <t>サイカクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも登録しないと、このアプリすら知らないと検索すらできない</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シラナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール確認</t>
+    <rPh sb="0" eb="2">
+      <t>メールカクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本登録画面表示</t>
+    <rPh sb="0" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ガメンヒョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの有効化</t>
+    <rPh sb="4" eb="6">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索TOP画面表示</t>
+    <rPh sb="0" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※検索TOP画面をリダイレクト表示</t>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示</t>
+    <rPh sb="0" eb="4">
+      <t>イチラn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になるチームを表示</t>
+    <rPh sb="0" eb="1">
+      <t>キニナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録している住所から、都道府県だけで同じ都道府県のチームとして表示する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トドウフケn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナジ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>トドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる地域のチームを検索する</t>
+    <rPh sb="0" eb="1">
+      <t>キニナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎県</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる拠点</t>
+    <rPh sb="0" eb="1">
+      <t>キニナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎市</t>
+    <rPh sb="0" eb="1">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームの拠点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待リンクへ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎県宮崎市</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤザキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>招待する</t>
+    <rPh sb="0" eb="1">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎県宮崎市のチーム</t>
+    <rPh sb="0" eb="6">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①　2　3　4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム入力は簡単な方がいい</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">カンタン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〜ユーザが実際に検索を行うまでの流れ〜</t>
+    <rPh sb="5" eb="7">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録フォーム案(チームを作成)</t>
+    <rPh sb="0" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">アン </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮登録フォーム案(チームへ入る)</t>
+    <rPh sb="0" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">アン </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームへ招待する</t>
+    <rPh sb="4" eb="6">
+      <t>ショウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://oldws.jp/tmp/user/register/{token}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクをコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームの雰囲気がわかるような、画像、チームのロゴやリンク</t>
+    <rPh sb="4" eb="7">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facebook/Instagram</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)logo.png</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例)kchitees.facebook</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴ画像</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KChitees</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎県宮崎市</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>facebookリンクなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kchitees</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望日程</t>
+    <rPh sb="0" eb="2">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1希望</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2希望</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3希望</t>
+    <rPh sb="0" eb="1">
+      <t>ダイイティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年3月5日(木)</t>
+    <rPh sb="8" eb="9">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">モク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年3月6日(金)</t>
+    <rPh sb="8" eb="9">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年4月5日(月)</t>
+    <rPh sb="8" eb="9">
+      <t>ニティ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゲテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お相手から</t>
+    <rPh sb="1" eb="3">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お相手への返信、気になることをメッセージで返信する</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キニナル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームアルバム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*10枚まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク：チームのページへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*表示のみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お名前(ニックネーム可)</t>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承諾</t>
+    <rPh sb="0" eb="2">
+      <t>ショウダク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お相手にメールを送信する</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*画像なしの場合</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信メール内容</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4751,8 +5799,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4786,6 +5855,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4977,7 +6052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5186,6 +6261,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5201,7 +6280,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -6812,6 +7950,875 @@
     <dgm:fillClrLst meth="repeat">
       <a:schemeClr val="accent6">
         <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent6_4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent6" pri="11400"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="99000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="cycle">
+      <a:schemeClr val="accent6">
+        <a:shade val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:alpha val="90000"/>
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+        <a:alpha val="55000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="55000"/>
       </a:schemeClr>
     </dgm:fillClrLst>
     <dgm:linClrLst meth="repeat">
@@ -9223,6 +11230,1065 @@
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
       <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/process5" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent6_4" csCatId="accent6" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C4133EE6-DCCE-C141-BA57-9A54D358F9B6}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>仮登録</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1E24CFE3-ED9B-1140-B022-9194515FDE3E}" type="parTrans" cxnId="{431A8971-24F8-284B-8326-4A4036DA1A7B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}" type="sibTrans" cxnId="{431A8971-24F8-284B-8326-4A4036DA1A7B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BED0BCA8-8482-AE41-BF21-A049C386845A}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール送信</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EF20E595-B799-5540-B1E9-54207258ED03}" type="parTrans" cxnId="{AD5AF1B7-F69D-FF47-9F42-DA551276956F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}" type="sibTrans" cxnId="{AD5AF1B7-F69D-FF47-9F42-DA551276956F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6A47B429-99EC-DA47-A61C-DF7776329050}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール確認</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6BD5C5D9-0376-4445-8DD3-BA8D8080705A}" type="parTrans" cxnId="{05911D23-AC12-5049-B061-91965505BB3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}" type="sibTrans" cxnId="{05911D23-AC12-5049-B061-91965505BB3F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{57391F59-7A8A-B44F-B2DC-4114499C660E}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザの有効化</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11656B92-9D5A-F643-85A4-F2143948B07D}" type="parTrans" cxnId="{B6F5A906-927B-014D-A919-A6B73174BD62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F712AC45-B1C7-A444-B69D-07837E56E89C}" type="sibTrans" cxnId="{B6F5A906-927B-014D-A919-A6B73174BD62}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{13C1127D-5FA5-4341-994D-38E94E073845}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン画面表示</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A610B40C-E150-A24F-8EB3-E7AD59871BB8}" type="parTrans" cxnId="{C8D46721-9917-4045-96F5-2A20E591E443}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F18B7B81-AA97-3540-B680-34F58A04FC13}" type="sibTrans" cxnId="{C8D46721-9917-4045-96F5-2A20E591E443}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{570DD3E8-3E2C-7842-B427-796A79385375}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2C9D640F-E7AE-F84A-9BBD-0E480C5C1BFA}" type="parTrans" cxnId="{3D18A507-25DC-734C-840A-A38934C2FE9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7DF0FD9D-C83C-1842-8F99-30C93E083345}" type="sibTrans" cxnId="{3D18A507-25DC-734C-840A-A38934C2FE9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DA1844BC-1387-F54C-8E19-B05D827A46CD}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>画面を表示</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9DBB91C2-14B1-8046-80C5-F97D829DA703}" type="parTrans" cxnId="{C7D92FA6-8D08-E94E-8486-6A95AD06ACC9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A6057B6-2150-8F40-8B28-506F3BC21989}" type="sibTrans" cxnId="{C7D92FA6-8D08-E94E-8486-6A95AD06ACC9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>検索したい場所を検索</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{527D035E-9B14-A94F-9A4B-885A17D2CAAA}" type="parTrans" cxnId="{A0316D73-45E5-8A44-A131-F401451E6C47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" type="sibTrans" cxnId="{A0316D73-45E5-8A44-A131-F401451E6C47}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>気になるチームをクリック</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0831FC54-3CA5-2446-9945-7ECAC597EC94}" type="parTrans" cxnId="{EEC72128-15F1-A143-A9D1-87D2339CE2CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" type="sibTrans" cxnId="{EEC72128-15F1-A143-A9D1-87D2339CE2CB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F7834DB5-6BF0-3747-8610-32696E664C69}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メールのリンクからページを表示</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{432082F4-C54E-C34D-B8DC-2E5B3E12DE02}" type="parTrans" cxnId="{09032CE8-7FBF-D247-87D6-E911D942DC99}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" type="sibTrans" cxnId="{09032CE8-7FBF-D247-87D6-E911D942DC99}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BCCA838F-2CA9-3140-B5B9-2F3B20239004}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CF152C0D-0902-324D-839F-F9A9F91ABBB5}" type="parTrans" cxnId="{2E687C47-6D73-B946-AB5D-AB7AA5D286E0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{074B5AD3-7EE2-1546-B244-C93141D953B6}" type="sibTrans" cxnId="{2E687C47-6D73-B946-AB5D-AB7AA5D286E0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE541D04-7682-DE43-8DE8-80745ECF93A8}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>招待メッセージを送信</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F67D5C67-2F72-514B-BB4E-5AFCA588C955}" type="parTrans" cxnId="{8689F770-0497-0744-8EDB-D0CF83BB014B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FBF7A991-2A44-1E49-832E-5AD247F17152}" type="sibTrans" cxnId="{8689F770-0497-0744-8EDB-D0CF83BB014B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C67F2B1-4FA0-C14F-AA55-36A76BC16EEC}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール受信</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E16F97B-1D60-A648-A49B-23E5E04AA376}" type="parTrans" cxnId="{C6C9C3D3-DC43-CB4F-95BD-2D80258FE7FD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" type="sibTrans" cxnId="{C6C9C3D3-DC43-CB4F-95BD-2D80258FE7FD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BAE8C9A0-DB25-FC4A-A732-43BFC01A25EB}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>チャットでやり取り</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EE3A0B5A-B5D9-2740-8D70-F2DD4C7A13E6}" type="parTrans" cxnId="{295EEE07-354B-D84E-AC4E-49CB6BF3D3F5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{77554A11-4432-4945-9300-DCE88EF2B961}" type="sibTrans" cxnId="{295EEE07-354B-D84E-AC4E-49CB6BF3D3F5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AF075CE6-2ED3-3246-98BC-5BC653173B58}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>日程の承諾、拒否</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AC39A59E-6DEB-9644-AB0F-E145A9539E85}" type="parTrans" cxnId="{0FE8B1E0-BDBC-3444-A11B-B2C05E071B77}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{966C4F0F-9309-A845-8B7F-3CDBFADE05B6}" type="sibTrans" cxnId="{0FE8B1E0-BDBC-3444-A11B-B2C05E071B77}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" type="pres">
+      <dgm:prSet presAssocID="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{41A8DE98-52F3-E64A-8F0E-2C74F433B136}" type="pres">
+      <dgm:prSet presAssocID="{C4133EE6-DCCE-C141-BA57-9A54D358F9B6}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}" type="pres">
+      <dgm:prSet presAssocID="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5B66899-7A50-7746-AEF3-4E050810411C}" type="pres">
+      <dgm:prSet presAssocID="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{164D49D4-A43E-7445-BEA6-732ACD561074}" type="pres">
+      <dgm:prSet presAssocID="{BED0BCA8-8482-AE41-BF21-A049C386845A}" presName="node" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}" type="pres">
+      <dgm:prSet presAssocID="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC9F8074-CC3E-E941-A3D3-E7C2D39B1FE8}" type="pres">
+      <dgm:prSet presAssocID="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{40EFBC9E-C278-DC49-AFDC-486CF2F0097C}" type="pres">
+      <dgm:prSet presAssocID="{6A47B429-99EC-DA47-A61C-DF7776329050}" presName="node" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}" type="pres">
+      <dgm:prSet presAssocID="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C76FE4C-059C-2D43-BD2F-4B1E5A67E92B}" type="pres">
+      <dgm:prSet presAssocID="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A2F83F9-A5DA-D94B-87A8-890EA90313FC}" type="pres">
+      <dgm:prSet presAssocID="{F7834DB5-6BF0-3747-8610-32696E664C69}" presName="node" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3EFB6226-8C1A-8445-8544-32D6555DD863}" type="pres">
+      <dgm:prSet presAssocID="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="3" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F492B404-8CB6-AB45-86C8-4A796C4708B6}" type="pres">
+      <dgm:prSet presAssocID="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="3" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{582066C1-2B8D-7645-B075-DB4B782D2EF4}" type="pres">
+      <dgm:prSet presAssocID="{57391F59-7A8A-B44F-B2DC-4114499C660E}" presName="node" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BCDD536B-E356-2048-B459-E30F61A0175B}" type="pres">
+      <dgm:prSet presAssocID="{F712AC45-B1C7-A444-B69D-07837E56E89C}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="4" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45C3E291-162E-FC43-BE08-4975CE35DFE0}" type="pres">
+      <dgm:prSet presAssocID="{F712AC45-B1C7-A444-B69D-07837E56E89C}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="4" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{52EB78D3-1D4E-8842-97BA-348200861FA8}" type="pres">
+      <dgm:prSet presAssocID="{13C1127D-5FA5-4341-994D-38E94E073845}" presName="node" presStyleLbl="node1" presStyleIdx="5" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}" type="pres">
+      <dgm:prSet presAssocID="{F18B7B81-AA97-3540-B680-34F58A04FC13}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F2128ED3-08B4-364D-B1F5-B6C5562659AE}" type="pres">
+      <dgm:prSet presAssocID="{F18B7B81-AA97-3540-B680-34F58A04FC13}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D2F0EE2-A72F-DD49-8D37-6E54F2DAB964}" type="pres">
+      <dgm:prSet presAssocID="{570DD3E8-3E2C-7842-B427-796A79385375}" presName="node" presStyleLbl="node1" presStyleIdx="6" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}" type="pres">
+      <dgm:prSet presAssocID="{7DF0FD9D-C83C-1842-8F99-30C93E083345}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="6" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3950C6EB-7141-B544-B17B-65C42F82CA76}" type="pres">
+      <dgm:prSet presAssocID="{7DF0FD9D-C83C-1842-8F99-30C93E083345}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="6" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6D1D5714-8844-2641-8806-F01C67400DD5}" type="pres">
+      <dgm:prSet presAssocID="{DA1844BC-1387-F54C-8E19-B05D827A46CD}" presName="node" presStyleLbl="node1" presStyleIdx="7" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63D35E72-B76D-CE43-B736-291E8A814828}" type="pres">
+      <dgm:prSet presAssocID="{7A6057B6-2150-8F40-8B28-506F3BC21989}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="7" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9753DB4-690A-7742-9E36-6AD31E519B43}" type="pres">
+      <dgm:prSet presAssocID="{7A6057B6-2150-8F40-8B28-506F3BC21989}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="7" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}" type="pres">
+      <dgm:prSet presAssocID="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}" presName="node" presStyleLbl="node1" presStyleIdx="8" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}" type="pres">
+      <dgm:prSet presAssocID="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="8" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C212CA52-F3C4-9447-B4FE-290936CE12EF}" type="pres">
+      <dgm:prSet presAssocID="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="8" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7F6FB932-0CAC-E847-BDC5-6CECB4DC9DB2}" type="pres">
+      <dgm:prSet presAssocID="{BCCA838F-2CA9-3140-B5B9-2F3B20239004}" presName="node" presStyleLbl="node1" presStyleIdx="9" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}" type="pres">
+      <dgm:prSet presAssocID="{074B5AD3-7EE2-1546-B244-C93141D953B6}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="9" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{37A0B0FD-1FB9-5046-8D14-251E787EDABF}" type="pres">
+      <dgm:prSet presAssocID="{074B5AD3-7EE2-1546-B244-C93141D953B6}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="9" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}" type="pres">
+      <dgm:prSet presAssocID="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}" presName="node" presStyleLbl="node1" presStyleIdx="10" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}" type="pres">
+      <dgm:prSet presAssocID="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A95C1BE-D221-7F4B-830B-17258F616AA4}" type="pres">
+      <dgm:prSet presAssocID="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{20C828BE-7A30-D847-A444-6EDE9D9A3BF9}" type="pres">
+      <dgm:prSet presAssocID="{EE541D04-7682-DE43-8DE8-80745ECF93A8}" presName="node" presStyleLbl="node1" presStyleIdx="11" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F6E16E38-C0AD-D447-B816-148359632B87}" type="pres">
+      <dgm:prSet presAssocID="{FBF7A991-2A44-1E49-832E-5AD247F17152}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C81D7CE-0141-7E47-94DF-530AC48DED04}" type="pres">
+      <dgm:prSet presAssocID="{FBF7A991-2A44-1E49-832E-5AD247F17152}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6DCBF5A9-61A5-804D-9A0A-B5806D5FF433}" type="pres">
+      <dgm:prSet presAssocID="{7C67F2B1-4FA0-C14F-AA55-36A76BC16EEC}" presName="node" presStyleLbl="node1" presStyleIdx="12" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{67D510A2-1D46-D045-918C-D9FD99061BB5}" type="pres">
+      <dgm:prSet presAssocID="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6EC8DD66-7571-C949-B55C-F17E58656509}" type="pres">
+      <dgm:prSet presAssocID="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{30D5308C-955B-DC41-BA76-C7CA9C93259D}" type="pres">
+      <dgm:prSet presAssocID="{BAE8C9A0-DB25-FC4A-A732-43BFC01A25EB}" presName="node" presStyleLbl="node1" presStyleIdx="13" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{95848E36-BC20-1C4A-A812-08D24F374C0A}" type="pres">
+      <dgm:prSet presAssocID="{77554A11-4432-4945-9300-DCE88EF2B961}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0F0D1240-3051-C244-BFBE-8AAF0C5E473F}" type="pres">
+      <dgm:prSet presAssocID="{77554A11-4432-4945-9300-DCE88EF2B961}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9B3D16EE-42C2-1149-AC31-72E684571A6B}" type="pres">
+      <dgm:prSet presAssocID="{AF075CE6-2ED3-3246-98BC-5BC653173B58}" presName="node" presStyleLbl="node1" presStyleIdx="14" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{B6F5A906-927B-014D-A919-A6B73174BD62}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{57391F59-7A8A-B44F-B2DC-4114499C660E}" srcOrd="4" destOrd="0" parTransId="{11656B92-9D5A-F643-85A4-F2143948B07D}" sibTransId="{F712AC45-B1C7-A444-B69D-07837E56E89C}"/>
+    <dgm:cxn modelId="{3D18A507-25DC-734C-840A-A38934C2FE9F}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{570DD3E8-3E2C-7842-B427-796A79385375}" srcOrd="6" destOrd="0" parTransId="{2C9D640F-E7AE-F84A-9BBD-0E480C5C1BFA}" sibTransId="{7DF0FD9D-C83C-1842-8F99-30C93E083345}"/>
+    <dgm:cxn modelId="{295EEE07-354B-D84E-AC4E-49CB6BF3D3F5}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{BAE8C9A0-DB25-FC4A-A732-43BFC01A25EB}" srcOrd="13" destOrd="0" parTransId="{EE3A0B5A-B5D9-2740-8D70-F2DD4C7A13E6}" sibTransId="{77554A11-4432-4945-9300-DCE88EF2B961}"/>
+    <dgm:cxn modelId="{808CDC0F-E601-6549-AAE7-E512C154C8A8}" type="presOf" srcId="{57391F59-7A8A-B44F-B2DC-4114499C660E}" destId="{582066C1-2B8D-7645-B075-DB4B782D2EF4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{5668ED10-51AE-3746-8BEE-3C2DD1FE2F90}" type="presOf" srcId="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}" destId="{7C76FE4C-059C-2D43-BD2F-4B1E5A67E92B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{D1EEB211-D9F8-A044-9D49-20A46CA721BB}" type="presOf" srcId="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}" destId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FC4A0A13-802C-DA43-8F41-34AE6ADAC235}" type="presOf" srcId="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" destId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{D7B45014-8E8F-0146-8BE2-F69C65555842}" type="presOf" srcId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" destId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{96D96816-0C9A-1B4E-A8D0-383603E5DAC8}" type="presOf" srcId="{7A6057B6-2150-8F40-8B28-506F3BC21989}" destId="{63D35E72-B76D-CE43-B736-291E8A814828}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{25B39A17-1ACA-2346-88C4-49DE0E00F987}" type="presOf" srcId="{7C67F2B1-4FA0-C14F-AA55-36A76BC16EEC}" destId="{6DCBF5A9-61A5-804D-9A0A-B5806D5FF433}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{29A7B817-0565-7D4C-B68D-BCD34B1EF91B}" type="presOf" srcId="{DA1844BC-1387-F54C-8E19-B05D827A46CD}" destId="{6D1D5714-8844-2641-8806-F01C67400DD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{761CB81C-6182-2245-B2E6-7323E9FF6776}" type="presOf" srcId="{F18B7B81-AA97-3540-B680-34F58A04FC13}" destId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C8D46721-9917-4045-96F5-2A20E591E443}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{13C1127D-5FA5-4341-994D-38E94E073845}" srcOrd="5" destOrd="0" parTransId="{A610B40C-E150-A24F-8EB3-E7AD59871BB8}" sibTransId="{F18B7B81-AA97-3540-B680-34F58A04FC13}"/>
+    <dgm:cxn modelId="{F831F122-E134-054D-ACE8-EEB6E085E3C2}" type="presOf" srcId="{EE541D04-7682-DE43-8DE8-80745ECF93A8}" destId="{20C828BE-7A30-D847-A444-6EDE9D9A3BF9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{05911D23-AC12-5049-B061-91965505BB3F}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{6A47B429-99EC-DA47-A61C-DF7776329050}" srcOrd="2" destOrd="0" parTransId="{6BD5C5D9-0376-4445-8DD3-BA8D8080705A}" sibTransId="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}"/>
+    <dgm:cxn modelId="{CF49A124-6217-1148-A00E-038881698D4B}" type="presOf" srcId="{E4DF8AFE-3A5D-A944-9C6B-36837550622B}" destId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{EEC72128-15F1-A143-A9D1-87D2339CE2CB}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}" srcOrd="10" destOrd="0" parTransId="{0831FC54-3CA5-2446-9945-7ECAC597EC94}" sibTransId="{00FAAED1-EA1E-6342-B382-7C86856D78FC}"/>
+    <dgm:cxn modelId="{58338533-C1ED-C145-95E6-A938BFEF57C1}" type="presOf" srcId="{074B5AD3-7EE2-1546-B244-C93141D953B6}" destId="{37A0B0FD-1FB9-5046-8D14-251E787EDABF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C230C033-E27D-F841-A5BC-5AC151778627}" type="presOf" srcId="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}" destId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{223F1839-B9F6-324F-80D1-8AF62CDF98AC}" type="presOf" srcId="{77554A11-4432-4945-9300-DCE88EF2B961}" destId="{0F0D1240-3051-C244-BFBE-8AAF0C5E473F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{DFC93139-0B89-CD4B-983B-8B63A46616DE}" type="presOf" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{2E687C47-6D73-B946-AB5D-AB7AA5D286E0}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{BCCA838F-2CA9-3140-B5B9-2F3B20239004}" srcOrd="9" destOrd="0" parTransId="{CF152C0D-0902-324D-839F-F9A9F91ABBB5}" sibTransId="{074B5AD3-7EE2-1546-B244-C93141D953B6}"/>
+    <dgm:cxn modelId="{C46E894A-0551-3943-9673-E52C3CDE5986}" type="presOf" srcId="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" destId="{1A95C1BE-D221-7F4B-830B-17258F616AA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{9FF8F74E-DCC8-F348-A168-2E409A4FEB23}" type="presOf" srcId="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}" destId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FF018257-1B50-004D-929D-DAFE7D02DCAA}" type="presOf" srcId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" destId="{F492B404-8CB6-AB45-86C8-4A796C4708B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{19CFAD59-6874-1A4F-94BA-6F6832C43586}" type="presOf" srcId="{13C1127D-5FA5-4341-994D-38E94E073845}" destId="{52EB78D3-1D4E-8842-97BA-348200861FA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{388A0D63-1963-1D44-AAA4-0148264C5E37}" type="presOf" srcId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" destId="{6EC8DD66-7571-C949-B55C-F17E58656509}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{4A12D06B-0E9B-6046-9D02-9C0714AE6D70}" type="presOf" srcId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" destId="{C212CA52-F3C4-9447-B4FE-290936CE12EF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FB736F6D-9EE0-C049-BB93-D2ABEFF0512B}" type="presOf" srcId="{F18B7B81-AA97-3540-B680-34F58A04FC13}" destId="{F2128ED3-08B4-364D-B1F5-B6C5562659AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{8689F770-0497-0744-8EDB-D0CF83BB014B}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{EE541D04-7682-DE43-8DE8-80745ECF93A8}" srcOrd="11" destOrd="0" parTransId="{F67D5C67-2F72-514B-BB4E-5AFCA588C955}" sibTransId="{FBF7A991-2A44-1E49-832E-5AD247F17152}"/>
+    <dgm:cxn modelId="{431A8971-24F8-284B-8326-4A4036DA1A7B}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{C4133EE6-DCCE-C141-BA57-9A54D358F9B6}" srcOrd="0" destOrd="0" parTransId="{1E24CFE3-ED9B-1140-B022-9194515FDE3E}" sibTransId="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}"/>
+    <dgm:cxn modelId="{A0316D73-45E5-8A44-A131-F401451E6C47}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}" srcOrd="8" destOrd="0" parTransId="{527D035E-9B14-A94F-9A4B-885A17D2CAAA}" sibTransId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}"/>
+    <dgm:cxn modelId="{FB715977-7D19-E24D-84C5-C3D4365CB8D5}" type="presOf" srcId="{F712AC45-B1C7-A444-B69D-07837E56E89C}" destId="{45C3E291-162E-FC43-BE08-4975CE35DFE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{38DA1382-42F3-894D-8532-72FD2713F9F6}" type="presOf" srcId="{77554A11-4432-4945-9300-DCE88EF2B961}" destId="{95848E36-BC20-1C4A-A812-08D24F374C0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{13F6B98F-6DDE-B649-8A59-BC8EF688EE8B}" type="presOf" srcId="{FBF7A991-2A44-1E49-832E-5AD247F17152}" destId="{3C81D7CE-0141-7E47-94DF-530AC48DED04}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F08E9790-6384-BF43-B9B7-EF378B5A3BE9}" type="presOf" srcId="{7A6057B6-2150-8F40-8B28-506F3BC21989}" destId="{F9753DB4-690A-7742-9E36-6AD31E519B43}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{48F3CD93-2BAC-EC49-9278-DD4B9473A7E1}" type="presOf" srcId="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}" destId="{C5B66899-7A50-7746-AEF3-4E050810411C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FB8E67A2-B0CB-3342-8BE5-E0350797BD3E}" type="presOf" srcId="{BAE8C9A0-DB25-FC4A-A732-43BFC01A25EB}" destId="{30D5308C-955B-DC41-BA76-C7CA9C93259D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C7D92FA6-8D08-E94E-8486-6A95AD06ACC9}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{DA1844BC-1387-F54C-8E19-B05D827A46CD}" srcOrd="7" destOrd="0" parTransId="{9DBB91C2-14B1-8046-80C5-F97D829DA703}" sibTransId="{7A6057B6-2150-8F40-8B28-506F3BC21989}"/>
+    <dgm:cxn modelId="{291DCFAA-0A34-1648-A001-D1C933C92B1C}" type="presOf" srcId="{074B5AD3-7EE2-1546-B244-C93141D953B6}" destId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F2AAE4AF-ADF8-9D42-A787-27A6260694FE}" type="presOf" srcId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" destId="{3EFB6226-8C1A-8445-8544-32D6555DD863}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{E74F0EB1-8C8C-6849-A34E-5BBC5321F44E}" type="presOf" srcId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" destId="{67D510A2-1D46-D045-918C-D9FD99061BB5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{AD5AF1B7-F69D-FF47-9F42-DA551276956F}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{BED0BCA8-8482-AE41-BF21-A049C386845A}" srcOrd="1" destOrd="0" parTransId="{EF20E595-B799-5540-B1E9-54207258ED03}" sibTransId="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}"/>
+    <dgm:cxn modelId="{45DACFBC-A444-A344-9C38-4D27CB4B366A}" type="presOf" srcId="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}" destId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{BFB5B3C6-8EF4-174F-8D6C-F98E7C45307D}" type="presOf" srcId="{C4133EE6-DCCE-C141-BA57-9A54D358F9B6}" destId="{41A8DE98-52F3-E64A-8F0E-2C74F433B136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{0A85CEC6-9DE6-964A-81FB-B8A07F15AF66}" type="presOf" srcId="{7DF0FD9D-C83C-1842-8F99-30C93E083345}" destId="{3950C6EB-7141-B544-B17B-65C42F82CA76}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C6C9C3D3-DC43-CB4F-95BD-2D80258FE7FD}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{7C67F2B1-4FA0-C14F-AA55-36A76BC16EEC}" srcOrd="12" destOrd="0" parTransId="{6E16F97B-1D60-A648-A49B-23E5E04AA376}" sibTransId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}"/>
+    <dgm:cxn modelId="{6D2092D9-1FDD-3F4F-B9C3-2EB20D23B026}" type="presOf" srcId="{F7834DB5-6BF0-3747-8610-32696E664C69}" destId="{1A2F83F9-A5DA-D94B-87A8-890EA90313FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{5D7634DA-B6D3-1344-BB0D-924C4363EE3F}" type="presOf" srcId="{BCCA838F-2CA9-3140-B5B9-2F3B20239004}" destId="{7F6FB932-0CAC-E847-BDC5-6CECB4DC9DB2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{A122DADC-38FE-BA45-9D47-8A042059B060}" type="presOf" srcId="{7DF0FD9D-C83C-1842-8F99-30C93E083345}" destId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{0FE8B1E0-BDBC-3444-A11B-B2C05E071B77}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{AF075CE6-2ED3-3246-98BC-5BC653173B58}" srcOrd="14" destOrd="0" parTransId="{AC39A59E-6DEB-9644-AB0F-E145A9539E85}" sibTransId="{966C4F0F-9309-A845-8B7F-3CDBFADE05B6}"/>
+    <dgm:cxn modelId="{D6EEBAE2-DA84-E046-A85A-1DC5A245F348}" type="presOf" srcId="{BED0BCA8-8482-AE41-BF21-A049C386845A}" destId="{164D49D4-A43E-7445-BEA6-732ACD561074}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{09032CE8-7FBF-D247-87D6-E911D942DC99}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{F7834DB5-6BF0-3747-8610-32696E664C69}" srcOrd="3" destOrd="0" parTransId="{432082F4-C54E-C34D-B8DC-2E5B3E12DE02}" sibTransId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}"/>
+    <dgm:cxn modelId="{0DD74EEA-62FC-1946-8D1F-A0EB4C6BA70C}" type="presOf" srcId="{AF075CE6-2ED3-3246-98BC-5BC653173B58}" destId="{9B3D16EE-42C2-1149-AC31-72E684571A6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{EEE72AF0-9566-F54D-8F41-5EA9A65DD8C0}" type="presOf" srcId="{570DD3E8-3E2C-7842-B427-796A79385375}" destId="{1D2F0EE2-A72F-DD49-8D37-6E54F2DAB964}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{415AF6F0-805E-8347-AEC4-88B862180D97}" type="presOf" srcId="{6A47B429-99EC-DA47-A61C-DF7776329050}" destId="{40EFBC9E-C278-DC49-AFDC-486CF2F0097C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{39E599F3-7874-B646-8C6E-A571039DE03D}" type="presOf" srcId="{FBF7A991-2A44-1E49-832E-5AD247F17152}" destId="{F6E16E38-C0AD-D447-B816-148359632B87}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{911798F4-C12D-F54D-91E2-CD2535B237B8}" type="presOf" srcId="{8CB7CEC7-0AA8-2B42-BBB9-4326B5700BCD}" destId="{EC9F8074-CC3E-E941-A3D3-E7C2D39B1FE8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{525ABCFC-0962-1544-9532-5AFD8C0BAB26}" type="presOf" srcId="{F712AC45-B1C7-A444-B69D-07837E56E89C}" destId="{BCDD536B-E356-2048-B459-E30F61A0175B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{679D5204-016F-544C-A2D1-B7A7C423E5E0}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{41A8DE98-52F3-E64A-8F0E-2C74F433B136}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{0E5D968C-E0B7-774C-854B-5701FFAECE94}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{A4B6BF36-19BC-E541-A365-E19C55840B9D}" type="presParOf" srcId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}" destId="{C5B66899-7A50-7746-AEF3-4E050810411C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{841A55D7-4E99-EB4C-A3C6-1DFEED3F871C}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{164D49D4-A43E-7445-BEA6-732ACD561074}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FBAFCC96-6609-0441-905A-9DA9829433F5}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{487D3174-D230-5A4E-BA12-ACCBE9FDC75B}" type="presParOf" srcId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}" destId="{EC9F8074-CC3E-E941-A3D3-E7C2D39B1FE8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{8747A762-5E74-D946-925C-9A6A48B0B0FD}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{40EFBC9E-C278-DC49-AFDC-486CF2F0097C}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F151FCD1-851E-2E49-A040-AC378061322C}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C163942A-53F4-EB48-9644-FC4EAD3AC1AA}" type="presParOf" srcId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}" destId="{7C76FE4C-059C-2D43-BD2F-4B1E5A67E92B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{1B4E7852-13A8-B947-A13E-D1E565A018C1}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{1A2F83F9-A5DA-D94B-87A8-890EA90313FC}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{4BA3DB86-8476-1A43-AB2B-1AD1B6D14C17}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{3EFB6226-8C1A-8445-8544-32D6555DD863}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{11C9B345-346E-FC4F-8823-E3AFB869CBA4}" type="presParOf" srcId="{3EFB6226-8C1A-8445-8544-32D6555DD863}" destId="{F492B404-8CB6-AB45-86C8-4A796C4708B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F9A9C378-F9A9-9547-B472-0EB5712EA33C}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{582066C1-2B8D-7645-B075-DB4B782D2EF4}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{2499A82B-751B-1B43-ABB7-B50CB63792A4}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{BCDD536B-E356-2048-B459-E30F61A0175B}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F587442B-761C-8142-A75D-2D0B47B9C189}" type="presParOf" srcId="{BCDD536B-E356-2048-B459-E30F61A0175B}" destId="{45C3E291-162E-FC43-BE08-4975CE35DFE0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{DC865F11-6B4C-864E-8532-E7A497651865}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{52EB78D3-1D4E-8842-97BA-348200861FA8}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{39FE1653-F2B7-7F44-AEB1-AB6AC5D4B81A}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{2E76FE93-5601-1148-A787-6DD6D7798BB0}" type="presParOf" srcId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}" destId="{F2128ED3-08B4-364D-B1F5-B6C5562659AE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{14C14E85-19CF-2C4D-9014-F890EDFF3AA8}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{1D2F0EE2-A72F-DD49-8D37-6E54F2DAB964}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{6CB16C3B-F088-C846-B18C-11794D8DF356}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{2EAE83EC-BB66-5147-BB13-3DC04EF4B6CE}" type="presParOf" srcId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}" destId="{3950C6EB-7141-B544-B17B-65C42F82CA76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{29CD8B28-0BF5-D44E-9A85-F83914A190CB}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{6D1D5714-8844-2641-8806-F01C67400DD5}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F1B30506-9AD7-E242-BA91-76A06B2579C9}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{63D35E72-B76D-CE43-B736-291E8A814828}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{5BBB6D71-53C5-0242-AEFB-3C1E8EF64D0C}" type="presParOf" srcId="{63D35E72-B76D-CE43-B736-291E8A814828}" destId="{F9753DB4-690A-7742-9E36-6AD31E519B43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{03F94221-0195-564B-8C6B-D9816C6DDD0F}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{3648819F-0A2E-7C4E-B873-66E43C4948CA}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{69EAA9D9-39BE-7147-833C-BC6443EA70BB}" type="presParOf" srcId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}" destId="{C212CA52-F3C4-9447-B4FE-290936CE12EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{6955E33E-E39B-134C-AE1F-519A7CC7AE5A}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{7F6FB932-0CAC-E847-BDC5-6CECB4DC9DB2}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FED94636-723B-2D4E-800C-C74F12856F2F}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{790CF5EE-A03D-6B43-BECD-0E20C3F5FFA9}" type="presParOf" srcId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}" destId="{37A0B0FD-1FB9-5046-8D14-251E787EDABF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{2ACE59FA-67F1-EC44-9E4F-ED642C62E8B5}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{7EF24146-2727-C043-BE79-3A4CDFB1DEF5}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{BFA3D32B-1A4F-C449-9EF9-48C2B5E67C53}" type="presParOf" srcId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}" destId="{1A95C1BE-D221-7F4B-830B-17258F616AA4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{C487B8E4-98BC-F14D-8F6C-79A3A2914908}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{20C828BE-7A30-D847-A444-6EDE9D9A3BF9}" srcOrd="22" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{D9B4CA3B-C5D7-F545-84E3-D089BB1AB7BB}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{F6E16E38-C0AD-D447-B816-148359632B87}" srcOrd="23" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{897F05D2-E961-3B47-A269-945E2078AC3F}" type="presParOf" srcId="{F6E16E38-C0AD-D447-B816-148359632B87}" destId="{3C81D7CE-0141-7E47-94DF-530AC48DED04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{940F4B71-531E-FE49-A2D3-8D3B47E4B659}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{6DCBF5A9-61A5-804D-9A0A-B5806D5FF433}" srcOrd="24" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{028E81C2-7E91-6646-9427-7B14062D2FE2}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{67D510A2-1D46-D045-918C-D9FD99061BB5}" srcOrd="25" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{86BFF3E5-EC30-BF47-A297-37843DD9D090}" type="presParOf" srcId="{67D510A2-1D46-D045-918C-D9FD99061BB5}" destId="{6EC8DD66-7571-C949-B55C-F17E58656509}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{EBE81DAE-10F1-6C42-90DC-3AD8B0BC028A}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{30D5308C-955B-DC41-BA76-C7CA9C93259D}" srcOrd="26" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{F5C92895-7789-CB41-B415-C1B0B9F77B7F}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{95848E36-BC20-1C4A-A812-08D24F374C0A}" srcOrd="27" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FA9A6FA3-089F-4148-A521-B629DD0DF769}" type="presParOf" srcId="{95848E36-BC20-1C4A-A812-08D24F374C0A}" destId="{0F0D1240-3051-C244-BFBE-8AAF0C5E473F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{5587435B-757F-2B4D-BDA1-B9C3ED40ADED}" type="presParOf" srcId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" destId="{9B3D16EE-42C2-1149-AC31-72E684571A6B}" srcOrd="28" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId15" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -13603,6 +16669,2314 @@
 </dsp:drawing>
 </file>
 
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{41A8DE98-52F3-E64A-8F0E-2C74F433B136}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="349809" y="1119"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>仮登録</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="370814" y="22124"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1650289" y="211491"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1650289" y="270778"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{164D49D4-A43E-7445-BEA6-732ACD561074}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2023221" y="1119"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="49123"/>
+            <a:satOff val="-2147"/>
+            <a:lumOff val="5861"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール送信</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2044226" y="22124"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3323702" y="211491"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="54267"/>
+            <a:satOff val="-2168"/>
+            <a:lumOff val="5027"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3323702" y="270778"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{40EFBC9E-C278-DC49-AFDC-486CF2F0097C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3696633" y="1119"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="98246"/>
+            <a:satOff val="-4295"/>
+            <a:lumOff val="11723"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール確認</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3717638" y="22124"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4997114" y="211491"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="108534"/>
+            <a:satOff val="-4335"/>
+            <a:lumOff val="10055"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4997114" y="270778"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1A2F83F9-A5DA-D94B-87A8-890EA90313FC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5370046" y="1119"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="147370"/>
+            <a:satOff val="-6442"/>
+            <a:lumOff val="17584"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メールのリンクからページを表示</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5391051" y="22124"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3EFB6226-8C1A-8445-8544-32D6555DD863}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5840992" y="801967"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="162801"/>
+            <a:satOff val="-6503"/>
+            <a:lumOff val="15082"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="5878764" y="823483"/>
+        <a:ext cx="177859" cy="177381"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{582066C1-2B8D-7645-B075-DB4B782D2EF4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5370046" y="1196414"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="196493"/>
+            <a:satOff val="-8589"/>
+            <a:lumOff val="23446"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザの有効化</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5391051" y="1217419"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BCDD536B-E356-2048-B459-E30F61A0175B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5011457" y="1406786"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="217068"/>
+            <a:satOff val="-8670"/>
+            <a:lumOff val="20109"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="10800000">
+        <a:off x="5087478" y="1466073"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{52EB78D3-1D4E-8842-97BA-348200861FA8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3696633" y="1196414"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="245616"/>
+            <a:satOff val="-10737"/>
+            <a:lumOff val="29307"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン画面表示</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3717638" y="1217419"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3338045" y="1406786"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="271335"/>
+            <a:satOff val="-10838"/>
+            <a:lumOff val="25136"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="10800000">
+        <a:off x="3414066" y="1466073"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1D2F0EE2-A72F-DD49-8D37-6E54F2DAB964}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2023221" y="1196414"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="294739"/>
+            <a:satOff val="-12884"/>
+            <a:lumOff val="35169"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2044226" y="1217419"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1664633" y="1406786"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="325603"/>
+            <a:satOff val="-13005"/>
+            <a:lumOff val="30164"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="10800000">
+        <a:off x="1740654" y="1466073"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6D1D5714-8844-2641-8806-F01C67400DD5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="349809" y="1196414"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="343862"/>
+            <a:satOff val="-15031"/>
+            <a:lumOff val="41030"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>画面を表示</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="370814" y="1217419"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{63D35E72-B76D-CE43-B736-291E8A814828}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="820755" y="1997261"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="379870"/>
+            <a:satOff val="-15173"/>
+            <a:lumOff val="35191"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="858527" y="2018777"/>
+        <a:ext cx="177859" cy="177381"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="349809" y="2391708"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="343862"/>
+            <a:satOff val="-15031"/>
+            <a:lumOff val="41030"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>検索したい場所を検索</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="370814" y="2412713"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1650289" y="2602080"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="325603"/>
+            <a:satOff val="-13005"/>
+            <a:lumOff val="30164"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1650289" y="2661367"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7F6FB932-0CAC-E847-BDC5-6CECB4DC9DB2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2023221" y="2391708"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="294739"/>
+            <a:satOff val="-12884"/>
+            <a:lumOff val="35169"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>一覧を表示</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2044226" y="2412713"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3323702" y="2602080"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="271335"/>
+            <a:satOff val="-10838"/>
+            <a:lumOff val="25136"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3323702" y="2661367"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3696633" y="2391708"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="245616"/>
+            <a:satOff val="-10737"/>
+            <a:lumOff val="29307"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>気になるチームをクリック</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3717638" y="2412713"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4997114" y="2602080"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="217068"/>
+            <a:satOff val="-8670"/>
+            <a:lumOff val="20109"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4997114" y="2661367"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{20C828BE-7A30-D847-A444-6EDE9D9A3BF9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5370046" y="2391708"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="196493"/>
+            <a:satOff val="-8589"/>
+            <a:lumOff val="23446"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>招待メッセージを送信</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5391051" y="2412713"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F6E16E38-C0AD-D447-B816-148359632B87}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5840992" y="3192556"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="162801"/>
+            <a:satOff val="-6503"/>
+            <a:lumOff val="15082"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="-5400000">
+        <a:off x="5878764" y="3214072"/>
+        <a:ext cx="177859" cy="177381"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6DCBF5A9-61A5-804D-9A0A-B5806D5FF433}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5370046" y="3587003"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="147370"/>
+            <a:satOff val="-6442"/>
+            <a:lumOff val="17584"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>メール受信</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5391051" y="3608008"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{67D510A2-1D46-D045-918C-D9FD99061BB5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5011457" y="3797375"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="108534"/>
+            <a:satOff val="-4335"/>
+            <a:lumOff val="10055"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="10800000">
+        <a:off x="5087478" y="3856662"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{30D5308C-955B-DC41-BA76-C7CA9C93259D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3696633" y="3587003"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="98246"/>
+            <a:satOff val="-4295"/>
+            <a:lumOff val="11723"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>チャットでやり取り</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3717638" y="3608008"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{95848E36-BC20-1C4A-A812-08D24F374C0A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3338045" y="3797375"/>
+          <a:ext cx="253402" cy="296433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="90000"/>
+            <a:hueOff val="54267"/>
+            <a:satOff val="-2168"/>
+            <a:lumOff val="5027"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" kern="1200">
+            <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm rot="10800000">
+        <a:off x="3414066" y="3856662"/>
+        <a:ext cx="177381" cy="177859"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9B3D16EE-42C2-1149-AC31-72E684571A6B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2023221" y="3587003"/>
+          <a:ext cx="1195294" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+            <a:hueOff val="49123"/>
+            <a:satOff val="-2147"/>
+            <a:lumOff val="5861"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+            </a:rPr>
+            <a:t>日程の承諾、拒否</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2044226" y="3608008"/>
+        <a:ext cx="1153284" cy="675166"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1">
   <dgm:title val=""/>
@@ -15895,6 +21269,177 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/process5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="17000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="5" srcOrd="4" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" axis="self" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="snake">
+          <dgm:param type="grDir" val="tL"/>
+          <dgm:param type="flowDir" val="row"/>
+          <dgm:param type="contDir" val="revDir"/>
+          <dgm:param type="bkpt" val="endCnv"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="snake">
+          <dgm:param type="grDir" val="tR"/>
+          <dgm:param type="flowDir" val="row"/>
+          <dgm:param type="contDir" val="revDir"/>
+          <dgm:param type="bkpt" val="endCnv"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" ptType="node" refType="w"/>
+      <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" refFor="ch" refPtType="node" op="equ" fact="0.4"/>
+      <dgm:constr type="sp" refType="w" refFor="ch" refForName="sibTrans" op="equ"/>
+      <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connectorText" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connectorText" refType="primFontSz" refFor="ch" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="nodesForEach" axis="ch" ptType="node">
+      <dgm:layoutNode name="node">
+        <dgm:varLst>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+          <dgm:adjLst>
+            <dgm:adj idx="1" val="0.1"/>
+          </dgm:adjLst>
+        </dgm:shape>
+        <dgm:presOf axis="desOrSelf" ptType="node"/>
+        <dgm:constrLst>
+          <dgm:constr type="h" refType="w" fact="0.6"/>
+          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:forEach name="sibTransForEach" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="sibTrans">
+          <dgm:alg type="conn">
+            <dgm:param type="begPts" val="auto"/>
+            <dgm:param type="endPts" val="auto"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" fact="0.62"/>
+            <dgm:constr type="connDist"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="connectorText">
+            <dgm:alg type="tx">
+              <dgm:param type="autoTxRot" val="upr"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d2">
   <dgm:title val=""/>
@@ -18394,6 +23939,1040 @@
       <a:fontRef idx="minor">
         <a:schemeClr val="lt1"/>
       </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="revTx">
@@ -18488,6 +25067,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="図表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1073E5E3-4B93-06FB-D028-6BDC66BCEA2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22760,7 +29375,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5295"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5590"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -22887,7 +29502,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4264"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4559"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -24753,7 +31368,7 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="84" t="s">
         <v>683</v>
       </c>
     </row>
@@ -31207,75 +37822,75 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="90" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
     </row>
     <row r="5" spans="1:33" ht="26" customHeight="1">
       <c r="C5" s="46"/>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87" t="s">
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87" t="s">
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
     </row>
     <row r="6" spans="1:33" ht="26" customHeight="1">
       <c r="A6" s="27"/>
@@ -32223,10 +38838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B981E-3230-0E45-9FDB-014A45CD13AA}">
-  <dimension ref="B2:B21"/>
+  <dimension ref="B2:AK107"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T45" workbookViewId="0">
+      <selection activeCell="AD59" sqref="AD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -32234,20 +38849,1015 @@
     <col min="1" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="23">
+    <row r="2" spans="2:22" ht="23">
       <c r="B2" s="65" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" ht="23">
+      <c r="N2" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="N3" s="52" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="N4" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="V4" s="52" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="N5" s="52" t="s">
+        <v>695</v>
+      </c>
+      <c r="V5" s="52" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="N6" s="52" t="s">
+        <v>696</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="N7" s="52" t="s">
+        <v>697</v>
+      </c>
+      <c r="V7" s="52" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="N8" s="52" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="N9" s="52" t="s">
+        <v>699</v>
+      </c>
+      <c r="V9" s="52" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="N10" s="52" t="s">
+        <v>700</v>
+      </c>
+      <c r="V10" s="52" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="N11" s="52" t="s">
+        <v>701</v>
+      </c>
+      <c r="V11" s="52" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="N12" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="V12" s="52" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="N13" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="V13" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="N14" s="52" t="s">
+        <v>704</v>
+      </c>
+      <c r="V14" s="52" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="N15" s="52" t="s">
+        <v>705</v>
+      </c>
+      <c r="V15" s="52" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="N16" s="52" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27">
+      <c r="N17" s="52" t="s">
+        <v>707</v>
+      </c>
+      <c r="V17" s="52" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27">
+      <c r="N18" s="52" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
+      <c r="N19" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="V19" s="102" t="s">
+        <v>758</v>
+      </c>
+      <c r="W19" s="52" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y19" s="103" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z19" s="103" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27">
+      <c r="N20" s="52" t="s">
+        <v>710</v>
+      </c>
+      <c r="V20" s="102">
+        <v>1</v>
+      </c>
+      <c r="W20" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y20" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z20" s="98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="23">
       <c r="B21" s="65" t="s">
         <v>568</v>
       </c>
+      <c r="N21" s="52" t="s">
+        <v>711</v>
+      </c>
+      <c r="V21" s="102">
+        <v>2</v>
+      </c>
+      <c r="W21" s="52" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y21" s="98"/>
+    </row>
+    <row r="22" spans="2:27">
+      <c r="N22" s="52" t="s">
+        <v>712</v>
+      </c>
+      <c r="V22" s="102">
+        <v>3</v>
+      </c>
+      <c r="W22" s="52" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="N23" s="52" t="s">
+        <v>713</v>
+      </c>
+      <c r="V23" s="102">
+        <v>4</v>
+      </c>
+      <c r="W23" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="V24" s="102">
+        <v>5</v>
+      </c>
+      <c r="W24" s="52" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y24" s="98"/>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="V25" s="102">
+        <v>6</v>
+      </c>
+      <c r="W25" s="52" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y25" s="98"/>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="V26" s="102">
+        <v>7</v>
+      </c>
+      <c r="W26" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y26" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z26" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA26" s="52" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
+      <c r="V27" s="102">
+        <v>8</v>
+      </c>
+      <c r="W27" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y27" s="98"/>
+      <c r="AA27" s="52" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
+      <c r="V28" s="102">
+        <v>9</v>
+      </c>
+      <c r="W28" s="52" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y28" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z28" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA28" s="52" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="V29" s="102">
+        <v>10</v>
+      </c>
+      <c r="W29" s="52" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y29" s="98"/>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="V30" s="102">
+        <v>11</v>
+      </c>
+      <c r="W30" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="V31" s="102">
+        <v>12</v>
+      </c>
+      <c r="W31" s="52" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y31" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z31" s="98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="21:27">
+      <c r="U37" s="52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="39" spans="21:27">
+      <c r="V39" s="52" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="21:27">
+      <c r="W40" s="104" t="s">
+        <v>726</v>
+      </c>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="52" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="41" spans="21:27">
+      <c r="W41" s="104" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="92"/>
+      <c r="AA41" s="52" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="21:27">
+      <c r="W42" s="104" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y42" s="91"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="52" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="43" spans="21:27">
+      <c r="W43" s="104" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="92"/>
+      <c r="AA43" s="52" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="44" spans="21:27">
+      <c r="W44" s="93"/>
+    </row>
+    <row r="45" spans="21:27">
+      <c r="V45" s="52" t="s">
+        <v>717</v>
+      </c>
+      <c r="W45" s="93"/>
+    </row>
+    <row r="46" spans="21:27">
+      <c r="W46" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y46" s="91"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="52" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47" spans="21:27">
+      <c r="W47" s="104" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="52" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="48" spans="21:27">
+      <c r="W48" s="93"/>
+    </row>
+    <row r="49" spans="21:37">
+      <c r="V49" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="W49" s="93"/>
+    </row>
+    <row r="50" spans="21:37">
+      <c r="W50" s="104" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y50" s="91"/>
+      <c r="Z50" s="92"/>
+      <c r="AA50" s="52" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="21:37">
+      <c r="W51" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="92"/>
+      <c r="AA51" s="52" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="52" spans="21:37">
+      <c r="W52" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y52" s="91"/>
+      <c r="Z52" s="92"/>
+      <c r="AA52" s="52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="53" spans="21:37">
+      <c r="W53" s="104" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y53" s="91"/>
+      <c r="Z53" s="92"/>
+      <c r="AA53" s="52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="58" spans="21:37">
+      <c r="U58" s="52" t="s">
+        <v>762</v>
+      </c>
+      <c r="AD58" s="52" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="59" spans="21:37">
+      <c r="V59" s="52" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE59" s="52" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="60" spans="21:37">
+      <c r="W60" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="Y60" s="94" t="s">
+        <v>744</v>
+      </c>
+      <c r="Z60" s="95"/>
+      <c r="AF60" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG60" s="104" t="s">
+        <v>779</v>
+      </c>
+      <c r="AH60" s="52" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="61" spans="21:37">
+      <c r="W61" s="104" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y61" s="94" t="s">
+        <v>746</v>
+      </c>
+      <c r="Z61" s="95"/>
+      <c r="AB61" s="96" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC61" s="97"/>
+      <c r="AF61" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="AG61" s="99"/>
+    </row>
+    <row r="62" spans="21:37">
+      <c r="AG62" s="99"/>
+    </row>
+    <row r="63" spans="21:37">
+      <c r="V63" s="52" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF63" s="52" t="s">
+        <v>780</v>
+      </c>
+      <c r="AG63" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="AH63" s="52" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ63" s="112" t="s">
+        <v>797</v>
+      </c>
+      <c r="AK63" s="83" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="64" spans="21:37">
+      <c r="V64" s="100" t="s">
+        <v>374</v>
+      </c>
+      <c r="W64" s="101" t="s">
+        <v>591</v>
+      </c>
+      <c r="X64" s="101"/>
+      <c r="Y64" s="101" t="s">
+        <v>747</v>
+      </c>
+      <c r="Z64" s="101"/>
+      <c r="AA64" s="101" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB64" s="101"/>
+      <c r="AG64" s="52" t="s">
+        <v>782</v>
+      </c>
+      <c r="AH64" s="52" t="s">
+        <v>785</v>
+      </c>
+      <c r="AJ64" s="112" t="s">
+        <v>797</v>
+      </c>
+      <c r="AK64" s="83" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="65" spans="21:37">
+      <c r="V65" s="96">
+        <v>1</v>
+      </c>
+      <c r="W65" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X65" s="99"/>
+      <c r="Y65" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z65" s="99"/>
+      <c r="AA65" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB65" s="99"/>
+      <c r="AC65" s="97"/>
+      <c r="AG65" s="52" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH65" s="52" t="s">
+        <v>786</v>
+      </c>
+      <c r="AJ65" s="112" t="s">
+        <v>797</v>
+      </c>
+      <c r="AK65" s="83" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="66" spans="21:37">
+      <c r="V66" s="96">
+        <v>2</v>
+      </c>
+      <c r="W66" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X66" s="99"/>
+      <c r="Y66" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z66" s="99"/>
+      <c r="AA66" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB66" s="99"/>
+      <c r="AC66" s="97"/>
+      <c r="AF66" s="52" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG66" s="107" t="s">
+        <v>799</v>
+      </c>
+      <c r="AH66" s="107"/>
+      <c r="AI66" s="107"/>
+      <c r="AJ66" s="52" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="67" spans="21:37">
+      <c r="V67" s="96">
+        <v>3</v>
+      </c>
+      <c r="W67" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X67" s="99"/>
+      <c r="Y67" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z67" s="99"/>
+      <c r="AA67" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB67" s="99"/>
+      <c r="AC67" s="97"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="107"/>
+    </row>
+    <row r="68" spans="21:37">
+      <c r="V68" s="96">
+        <v>4</v>
+      </c>
+      <c r="W68" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X68" s="99"/>
+      <c r="Y68" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z68" s="99"/>
+      <c r="AA68" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB68" s="99"/>
+      <c r="AC68" s="97"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="107"/>
+      <c r="AI68" s="107"/>
+    </row>
+    <row r="69" spans="21:37">
+      <c r="V69" s="96">
+        <v>5</v>
+      </c>
+      <c r="W69" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X69" s="99"/>
+      <c r="Y69" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z69" s="99"/>
+      <c r="AA69" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB69" s="99"/>
+      <c r="AC69" s="97"/>
+      <c r="AG69" s="107"/>
+      <c r="AH69" s="107"/>
+      <c r="AI69" s="107"/>
+    </row>
+    <row r="70" spans="21:37">
+      <c r="V70" s="96">
+        <v>6</v>
+      </c>
+      <c r="W70" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X70" s="99"/>
+      <c r="Y70" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z70" s="99"/>
+      <c r="AA70" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB70" s="99"/>
+      <c r="AC70" s="97"/>
+    </row>
+    <row r="71" spans="21:37">
+      <c r="V71" s="96">
+        <v>7</v>
+      </c>
+      <c r="W71" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X71" s="99"/>
+      <c r="Y71" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z71" s="99"/>
+      <c r="AA71" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB71" s="99"/>
+      <c r="AC71" s="97"/>
+    </row>
+    <row r="72" spans="21:37">
+      <c r="V72" s="96">
+        <v>8</v>
+      </c>
+      <c r="W72" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X72" s="99"/>
+      <c r="Y72" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z72" s="99"/>
+      <c r="AA72" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB72" s="99"/>
+      <c r="AC72" s="97"/>
+      <c r="AE72" s="52" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="73" spans="21:37">
+      <c r="V73" s="96">
+        <v>9</v>
+      </c>
+      <c r="W73" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X73" s="99"/>
+      <c r="Y73" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z73" s="99"/>
+      <c r="AA73" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB73" s="99"/>
+      <c r="AC73" s="97"/>
+      <c r="AF73" s="99"/>
+      <c r="AG73" s="99"/>
+      <c r="AH73" s="99"/>
+      <c r="AI73" s="99"/>
+    </row>
+    <row r="74" spans="21:37">
+      <c r="V74" s="96">
+        <v>10</v>
+      </c>
+      <c r="W74" s="99" t="s">
+        <v>749</v>
+      </c>
+      <c r="X74" s="99"/>
+      <c r="Y74" s="99" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z74" s="99"/>
+      <c r="AA74" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB74" s="99"/>
+      <c r="AC74" s="97"/>
+      <c r="AF74" s="99"/>
+      <c r="AG74" s="99"/>
+      <c r="AH74" s="99"/>
+      <c r="AI74" s="99"/>
+    </row>
+    <row r="75" spans="21:37">
+      <c r="AF75" s="99"/>
+      <c r="AG75" s="99"/>
+      <c r="AH75" s="99"/>
+      <c r="AI75" s="99"/>
+    </row>
+    <row r="76" spans="21:37">
+      <c r="Y76" s="52" t="s">
+        <v>754</v>
+      </c>
+      <c r="AF76" s="99"/>
+      <c r="AG76" s="99"/>
+      <c r="AH76" s="99"/>
+      <c r="AI76" s="99"/>
+    </row>
+    <row r="77" spans="21:37">
+      <c r="AF77" s="99"/>
+      <c r="AG77" s="99"/>
+      <c r="AH77" s="99"/>
+      <c r="AI77" s="99"/>
+    </row>
+    <row r="78" spans="21:37">
+      <c r="U78" s="52" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79" spans="21:37">
+      <c r="AI79" s="96" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="21:37">
+      <c r="V80" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="W80" s="93"/>
+    </row>
+    <row r="81" spans="21:28">
+      <c r="W81" s="93" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="92"/>
+      <c r="AA81" s="52" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="82" spans="21:28">
+      <c r="W82" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y82" s="91"/>
+      <c r="Z82" s="92"/>
+      <c r="AA82" s="52" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83" spans="21:28">
+      <c r="W83" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="92"/>
+      <c r="AA83" s="52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="84" spans="21:28">
+      <c r="W84" s="93" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y84" s="91"/>
+      <c r="Z84" s="92"/>
+      <c r="AA84" s="52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="89" spans="21:28">
+      <c r="U89" s="52" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="90" spans="21:28">
+      <c r="V90" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="X90" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB90" s="96" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="91" spans="21:28">
+      <c r="V91" s="52" t="s">
+        <v>775</v>
+      </c>
+      <c r="X91" s="105"/>
+      <c r="Y91" s="105"/>
+    </row>
+    <row r="92" spans="21:28">
+      <c r="X92" s="105"/>
+      <c r="Y92" s="105"/>
+    </row>
+    <row r="93" spans="21:28">
+      <c r="X93" s="105"/>
+      <c r="Y93" s="105"/>
+    </row>
+    <row r="94" spans="21:28">
+      <c r="V94" s="52" t="s">
+        <v>747</v>
+      </c>
+      <c r="X94" s="104" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="21:28">
+      <c r="V95" s="106" t="s">
+        <v>772</v>
+      </c>
+      <c r="X95" s="52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="21:28">
+      <c r="V96" s="52" t="s">
+        <v>767</v>
+      </c>
+      <c r="X96" s="82" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB96" s="111" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="100" spans="22:30">
+      <c r="V100" s="52" t="s">
+        <v>790</v>
+      </c>
+      <c r="X100" s="108"/>
+      <c r="Y100" s="108"/>
+      <c r="Z100" s="108"/>
+      <c r="AA100" s="108"/>
+      <c r="AC100" s="52" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="101" spans="22:30">
+      <c r="V101" s="52" t="s">
+        <v>791</v>
+      </c>
+      <c r="X101" s="109"/>
+      <c r="Y101" s="109"/>
+      <c r="Z101" s="109"/>
+      <c r="AA101" s="109"/>
+      <c r="AC101" s="96" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD101" s="96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="102" spans="22:30">
+      <c r="X102" s="110"/>
+      <c r="Y102" s="110"/>
+      <c r="Z102" s="110"/>
+      <c r="AA102" s="110"/>
+    </row>
+    <row r="103" spans="22:30">
+      <c r="X103" s="108"/>
+      <c r="Y103" s="108"/>
+      <c r="Z103" s="108"/>
+      <c r="AA103" s="108"/>
+    </row>
+    <row r="104" spans="22:30">
+      <c r="X104" s="109"/>
+      <c r="Y104" s="109"/>
+      <c r="Z104" s="109"/>
+      <c r="AA104" s="109"/>
+    </row>
+    <row r="105" spans="22:30">
+      <c r="X105" s="110"/>
+      <c r="Y105" s="110"/>
+      <c r="Z105" s="110"/>
+      <c r="AA105" s="110"/>
+    </row>
+    <row r="107" spans="22:30">
+      <c r="X107" s="96" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y107" s="96" t="s">
+        <v>793</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="X103:X105"/>
+    <mergeCell ref="Y103:Y105"/>
+    <mergeCell ref="Z103:Z105"/>
+    <mergeCell ref="AA103:AA105"/>
+    <mergeCell ref="AG61:AG62"/>
+    <mergeCell ref="X100:X102"/>
+    <mergeCell ref="Y100:Y102"/>
+    <mergeCell ref="Z100:Z102"/>
+    <mergeCell ref="AA100:AA102"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="X91:Y93"/>
+    <mergeCell ref="AG66:AI69"/>
+    <mergeCell ref="AF73:AI77"/>
+    <mergeCell ref="W72:X72"/>
+    <mergeCell ref="Y72:Z72"/>
+    <mergeCell ref="AA72:AB72"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="Y70:Z70"/>
+    <mergeCell ref="AA70:AB70"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="Y71:Z71"/>
+    <mergeCell ref="AA71:AB71"/>
+    <mergeCell ref="W68:X68"/>
+    <mergeCell ref="Y68:Z68"/>
+    <mergeCell ref="AA68:AB68"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="Y69:Z69"/>
+    <mergeCell ref="AA69:AB69"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="Y67:Z67"/>
+    <mergeCell ref="AA67:AB67"/>
+    <mergeCell ref="Y61:Z61"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="Y64:Z64"/>
+    <mergeCell ref="AA64:AB64"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="X96" r:id="rId1" xr:uid="{746FB471-A7C1-BA47-8D65-C3E41A21A562}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32314,7 +39924,7 @@
       <c r="G8" s="53"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="85" t="s">
         <v>517</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -32332,7 +39942,7 @@
       <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1">
-      <c r="B10" s="83"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="57"/>
       <c r="D10" s="58" t="s">
         <v>519</v>
@@ -32346,7 +39956,7 @@
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1">
-      <c r="B11" s="83"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="57"/>
       <c r="D11" s="59"/>
       <c r="E11" s="56" t="s">
@@ -32358,7 +39968,7 @@
       <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1">
-      <c r="B12" s="83"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="57"/>
       <c r="D12" s="59"/>
       <c r="E12" s="56" t="s">
@@ -32370,7 +39980,7 @@
       <c r="G12" s="56"/>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1">
-      <c r="B13" s="83"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="57"/>
       <c r="D13" s="59"/>
       <c r="E13" s="56" t="s">
@@ -32382,7 +39992,7 @@
       <c r="G13" s="56"/>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1">
-      <c r="B14" s="83"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="57"/>
       <c r="D14" s="59"/>
       <c r="E14" s="56" t="s">
@@ -32394,7 +40004,7 @@
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1">
-      <c r="B15" s="83"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="57"/>
       <c r="D15" s="60"/>
       <c r="E15" s="56" t="s">
@@ -32406,7 +40016,7 @@
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1">
-      <c r="B16" s="83"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="61" t="s">
         <v>524</v>
       </c>
@@ -32424,7 +40034,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="21" customHeight="1">
-      <c r="B17" s="83"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="62"/>
       <c r="D17" s="60"/>
       <c r="E17" s="56" t="s">
@@ -32436,7 +40046,7 @@
       <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7" ht="21" customHeight="1">
-      <c r="B18" s="83"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="61" t="s">
         <v>525</v>
       </c>
@@ -32450,7 +40060,7 @@
       <c r="G18" s="56"/>
     </row>
     <row r="19" spans="2:7" ht="21" customHeight="1">
-      <c r="B19" s="83"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="63"/>
       <c r="D19" s="58" t="s">
         <v>560</v>
@@ -32464,7 +40074,7 @@
       <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="21" customHeight="1">
-      <c r="B20" s="83"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="63"/>
       <c r="D20" s="59"/>
       <c r="E20" s="56" t="s">
@@ -32476,7 +40086,7 @@
       <c r="G20" s="56"/>
     </row>
     <row r="21" spans="2:7" ht="21" customHeight="1">
-      <c r="B21" s="83"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="63"/>
       <c r="D21" s="59"/>
       <c r="E21" s="56" t="s">
@@ -32488,7 +40098,7 @@
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="2:7" ht="21" customHeight="1">
-      <c r="B22" s="83"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="63"/>
       <c r="D22" s="59"/>
       <c r="E22" s="56" t="s">
@@ -32500,7 +40110,7 @@
       <c r="G22" s="56"/>
     </row>
     <row r="23" spans="2:7" ht="21" customHeight="1">
-      <c r="B23" s="83"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="63"/>
       <c r="D23" s="59"/>
       <c r="E23" s="56" t="s">
@@ -32512,7 +40122,7 @@
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="2:7" ht="21" customHeight="1">
-      <c r="B24" s="83"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="63"/>
       <c r="D24" s="59"/>
       <c r="E24" s="56" t="s">
@@ -32524,7 +40134,7 @@
       <c r="G24" s="56"/>
     </row>
     <row r="25" spans="2:7" ht="21" customHeight="1">
-      <c r="B25" s="83"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="63"/>
       <c r="D25" s="59"/>
       <c r="E25" s="56" t="s">
@@ -32536,7 +40146,7 @@
       <c r="G25" s="56"/>
     </row>
     <row r="26" spans="2:7" ht="21" customHeight="1">
-      <c r="B26" s="83"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="54" t="s">
         <v>558</v>
       </c>
@@ -32552,7 +40162,7 @@
       <c r="G26" s="56"/>
     </row>
     <row r="27" spans="2:7" ht="21" customHeight="1">
-      <c r="B27" s="83"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="54" t="s">
         <v>561</v>
       </c>
@@ -32568,7 +40178,7 @@
       <c r="G27" s="56"/>
     </row>
     <row r="28" spans="2:7" ht="21" customHeight="1">
-      <c r="B28" s="83"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="64" t="s">
         <v>526</v>
       </c>
@@ -32584,7 +40194,7 @@
       <c r="G28" s="56"/>
     </row>
     <row r="29" spans="2:7" ht="21" customHeight="1">
-      <c r="B29" s="83"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="61" t="s">
         <v>563</v>
       </c>
@@ -32602,7 +40212,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="21" customHeight="1">
-      <c r="B30" s="83"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="62"/>
       <c r="D30" s="55" t="s">
         <v>565</v>
@@ -32616,7 +40226,7 @@
       <c r="G30" s="56"/>
     </row>
     <row r="31" spans="2:7" ht="21" customHeight="1">
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="86" t="s">
         <v>527</v>
       </c>
       <c r="C31" s="71" t="s">
@@ -32634,7 +40244,7 @@
       <c r="G31" s="71"/>
     </row>
     <row r="32" spans="2:7" ht="21" customHeight="1">
-      <c r="B32" s="85"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="70" t="s">
         <v>573</v>
       </c>
@@ -32650,7 +40260,7 @@
       <c r="G32" s="71"/>
     </row>
     <row r="33" spans="2:8" ht="21" customHeight="1">
-      <c r="B33" s="85"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="69"/>
       <c r="D33" s="71" t="s">
         <v>579</v>
@@ -32664,7 +40274,7 @@
       <c r="G33" s="71"/>
     </row>
     <row r="34" spans="2:8" ht="21" customHeight="1">
-      <c r="B34" s="85"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="68" t="s">
         <v>583</v>
       </c>
@@ -32680,7 +40290,7 @@
       <c r="G34" s="71"/>
     </row>
     <row r="35" spans="2:8" ht="21" customHeight="1">
-      <c r="B35" s="85"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="70"/>
       <c r="D35" s="71" t="s">
         <v>582</v>
@@ -32694,7 +40304,7 @@
       <c r="G35" s="71"/>
     </row>
     <row r="36" spans="2:8" ht="21" customHeight="1">
-      <c r="B36" s="85"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="70"/>
       <c r="D36" s="71" t="s">
         <v>577</v>
@@ -32708,7 +40318,7 @@
       <c r="G36" s="71"/>
     </row>
     <row r="37" spans="2:8" ht="21" customHeight="1">
-      <c r="B37" s="85"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="69"/>
       <c r="D37" s="71" t="s">
         <v>581</v>
@@ -32722,7 +40332,7 @@
       <c r="G37" s="71"/>
     </row>
     <row r="38" spans="2:8" ht="21" customHeight="1">
-      <c r="B38" s="85"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="68" t="s">
         <v>569</v>
       </c>
@@ -32738,7 +40348,7 @@
       <c r="G38" s="71"/>
     </row>
     <row r="39" spans="2:8" ht="21" customHeight="1">
-      <c r="B39" s="85"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="70"/>
       <c r="D39" s="72"/>
       <c r="E39" s="71" t="s">
@@ -32750,7 +40360,7 @@
       <c r="G39" s="71"/>
     </row>
     <row r="40" spans="2:8" ht="21" customHeight="1">
-      <c r="B40" s="86"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="70"/>
       <c r="D40" s="67"/>
       <c r="E40" s="71" t="s">
@@ -33116,7 +40726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1287A936-2CAA-3341-AFC1-C22987051707}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>

--- a/src/core/_sql/野球チーム_DB設計.xlsx
+++ b/src/core/_sql/野球チーム_DB設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/src/core/_sql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/onLineDatingWithSportsApp/src/core/_sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0A5E49-E371-7348-AB62-588756B81861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{17C531C1-271C-4B98-97C0-3D56A1703F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C6C2EA-5133-43EA-A3DC-438CC493CCD7}"/>
   <bookViews>
-    <workbookView xWindow="-31520" yWindow="1600" windowWidth="28800" windowHeight="16260" tabRatio="839" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="839" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="804">
   <si>
     <t>要件整理</t>
     <rPh sb="0" eb="2">
@@ -5667,6 +5667,10 @@
     <rPh sb="0" eb="2">
       <t>ジュシn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6052,7 +6056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6262,6 +6266,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6279,66 +6339,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9700,14 +9700,14 @@
     <dgm:cxn modelId="{3A5CF635-9838-B44B-B573-9EB410272026}" srcId="{3E73D937-8C65-624E-A2A1-4BA6E5B08C23}" destId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" srcOrd="0" destOrd="0" parTransId="{3BF11DA0-70D8-F142-84D7-5B892A0758B9}" sibTransId="{7E16E407-C67C-1441-A59E-55B4A62727CA}"/>
     <dgm:cxn modelId="{BC0EE63D-6293-DA4B-9094-53F71E8D80EE}" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" srcOrd="0" destOrd="0" parTransId="{76A54F18-244A-614C-9032-85677F3F5361}" sibTransId="{33BD3859-CACD-9344-8C0B-AF7FB694A7CF}"/>
     <dgm:cxn modelId="{CB28773F-2EB2-3B42-B9C8-4180D1DDCCA2}" type="presOf" srcId="{BF3B7BD3-FFA9-5E4E-A2DE-18BDA1307D27}" destId="{4FF3E7D5-5CF7-3C45-BBCC-A55C11CC9F1F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D274EF42-9D21-B748-873F-EE016A3E9E42}" type="presOf" srcId="{BB9AF71B-D57B-5943-B453-ED7D1F2283C5}" destId="{2F18E196-3FF0-F246-8E00-EF14229692FF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{84530B43-2501-FC49-AA5D-D98BEBE15E50}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BAD115E-09DC-6143-BA69-733460AC540A}" type="presOf" srcId="{5ADA3F3C-D121-3146-919F-E8F72DD80EEA}" destId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A7326A-6034-1246-958C-B93CAAF77DCB}" srcId="{E40EC64D-96DE-944D-AC1A-08B73C7CCA28}" destId="{58148714-4A18-4846-AE98-815A82AE6F5C}" srcOrd="0" destOrd="0" parTransId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" sibTransId="{DEB2D829-7072-B24C-B732-F6D8EB211D4E}"/>
     <dgm:cxn modelId="{C881076C-2791-7B49-B3B9-6678B5055372}" type="presOf" srcId="{F4890F2E-C69C-AD41-83BF-922F1F8FDF64}" destId="{A4F73497-1C60-994D-B7BB-FF922AC477D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4784E36C-137D-2545-90D5-41D365AE9EC0}" type="presOf" srcId="{76A54F18-244A-614C-9032-85677F3F5361}" destId="{CABB0FD0-5582-CA49-B21E-357A38F4CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B39BD26F-37A5-6342-8AFC-4773F27E34B1}" type="presOf" srcId="{B58759F5-6D55-9345-AF56-47DDF1C78164}" destId="{23DA1EA8-80AA-974A-9469-7910D725533B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1F3A4858-8E81-3246-841E-937C83C51108}" type="presOf" srcId="{43A2626E-14E1-4943-A341-193A43D8CF69}" destId="{0D6EC765-526A-1B40-BB70-17F2B6285CBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{28734183-791F-A444-92EC-6338D358B842}" type="presOf" srcId="{68C9C6CC-8EAB-5A46-BDBD-821AE037DB22}" destId="{1626C21C-174A-BA4D-A282-A122107CA46C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E48FB58B-98F6-8842-A7EE-68E3BAFE5A83}" type="presOf" srcId="{5612EDFF-246C-5D42-9BEC-9C47A72FCBCB}" destId="{43280627-C848-024B-9A8B-A06F8D383EAC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CB90CB8E-C823-4340-A34D-686464910A59}" type="presOf" srcId="{CFDB453E-C0BF-7642-A752-C13F24301B07}" destId="{5CA976B6-F0EF-4442-AD81-ECB67A53B985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -12202,18 +12202,18 @@
     <dgm:cxn modelId="{C230C033-E27D-F841-A5BC-5AC151778627}" type="presOf" srcId="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}" destId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{223F1839-B9F6-324F-80D1-8AF62CDF98AC}" type="presOf" srcId="{77554A11-4432-4945-9300-DCE88EF2B961}" destId="{0F0D1240-3051-C244-BFBE-8AAF0C5E473F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{DFC93139-0B89-CD4B-983B-8B63A46616DE}" type="presOf" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{7E89B1C8-10A2-B248-89F8-753CECC0A413}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{388A0D63-1963-1D44-AAA4-0148264C5E37}" type="presOf" srcId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" destId="{6EC8DD66-7571-C949-B55C-F17E58656509}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{2E687C47-6D73-B946-AB5D-AB7AA5D286E0}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{BCCA838F-2CA9-3140-B5B9-2F3B20239004}" srcOrd="9" destOrd="0" parTransId="{CF152C0D-0902-324D-839F-F9A9F91ABBB5}" sibTransId="{074B5AD3-7EE2-1546-B244-C93141D953B6}"/>
     <dgm:cxn modelId="{C46E894A-0551-3943-9673-E52C3CDE5986}" type="presOf" srcId="{00FAAED1-EA1E-6342-B382-7C86856D78FC}" destId="{1A95C1BE-D221-7F4B-830B-17258F616AA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
-    <dgm:cxn modelId="{9FF8F74E-DCC8-F348-A168-2E409A4FEB23}" type="presOf" srcId="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}" destId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
-    <dgm:cxn modelId="{FF018257-1B50-004D-929D-DAFE7D02DCAA}" type="presOf" srcId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" destId="{F492B404-8CB6-AB45-86C8-4A796C4708B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
-    <dgm:cxn modelId="{19CFAD59-6874-1A4F-94BA-6F6832C43586}" type="presOf" srcId="{13C1127D-5FA5-4341-994D-38E94E073845}" destId="{52EB78D3-1D4E-8842-97BA-348200861FA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
-    <dgm:cxn modelId="{388A0D63-1963-1D44-AAA4-0148264C5E37}" type="presOf" srcId="{5B1ECAD0-7B4B-8448-8059-0F073EE6D059}" destId="{6EC8DD66-7571-C949-B55C-F17E58656509}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{4A12D06B-0E9B-6046-9D02-9C0714AE6D70}" type="presOf" srcId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}" destId="{C212CA52-F3C4-9447-B4FE-290936CE12EF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{FB736F6D-9EE0-C049-BB93-D2ABEFF0512B}" type="presOf" srcId="{F18B7B81-AA97-3540-B680-34F58A04FC13}" destId="{F2128ED3-08B4-364D-B1F5-B6C5562659AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{9FF8F74E-DCC8-F348-A168-2E409A4FEB23}" type="presOf" srcId="{02E74E7B-4025-8D44-AD9D-7C1F535B40E3}" destId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{8689F770-0497-0744-8EDB-D0CF83BB014B}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{EE541D04-7682-DE43-8DE8-80745ECF93A8}" srcOrd="11" destOrd="0" parTransId="{F67D5C67-2F72-514B-BB4E-5AFCA588C955}" sibTransId="{FBF7A991-2A44-1E49-832E-5AD247F17152}"/>
     <dgm:cxn modelId="{431A8971-24F8-284B-8326-4A4036DA1A7B}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{C4133EE6-DCCE-C141-BA57-9A54D358F9B6}" srcOrd="0" destOrd="0" parTransId="{1E24CFE3-ED9B-1140-B022-9194515FDE3E}" sibTransId="{6F246F72-0BF7-FD4A-B7BE-D0DAC2AF3828}"/>
     <dgm:cxn modelId="{A0316D73-45E5-8A44-A131-F401451E6C47}" srcId="{2F794985-F7AF-164D-8C6A-7B0AD1C52777}" destId="{3B86C7B2-C8B8-0B45-95F4-15B6E6AE3BEB}" srcOrd="8" destOrd="0" parTransId="{527D035E-9B14-A94F-9A4B-885A17D2CAAA}" sibTransId="{925D4276-68F2-C647-B95D-4B6E45A6ECB5}"/>
     <dgm:cxn modelId="{FB715977-7D19-E24D-84C5-C3D4365CB8D5}" type="presOf" srcId="{F712AC45-B1C7-A444-B69D-07837E56E89C}" destId="{45C3E291-162E-FC43-BE08-4975CE35DFE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{FF018257-1B50-004D-929D-DAFE7D02DCAA}" type="presOf" srcId="{78160E17-3F7B-6E42-8898-4FF8EE4FC56F}" destId="{F492B404-8CB6-AB45-86C8-4A796C4708B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
+    <dgm:cxn modelId="{19CFAD59-6874-1A4F-94BA-6F6832C43586}" type="presOf" srcId="{13C1127D-5FA5-4341-994D-38E94E073845}" destId="{52EB78D3-1D4E-8842-97BA-348200861FA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{38DA1382-42F3-894D-8532-72FD2713F9F6}" type="presOf" srcId="{77554A11-4432-4945-9300-DCE88EF2B961}" destId="{95848E36-BC20-1C4A-A812-08D24F374C0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{13F6B98F-6DDE-B649-8A59-BC8EF688EE8B}" type="presOf" srcId="{FBF7A991-2A44-1E49-832E-5AD247F17152}" destId="{3C81D7CE-0141-7E47-94DF-530AC48DED04}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
     <dgm:cxn modelId="{F08E9790-6384-BF43-B9B7-EF378B5A3BE9}" type="presOf" srcId="{7A6057B6-2150-8F40-8B28-506F3BC21989}" destId="{F9753DB4-690A-7742-9E36-6AD31E519B43}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process5"/>
@@ -12309,8 +12309,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3908425" y="1346544"/>
-          <a:ext cx="3238620" cy="281037"/>
+          <a:off x="3896995" y="1185784"/>
+          <a:ext cx="3229149" cy="280215"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12324,13 +12324,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="140518"/>
+                <a:pt x="0" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3238620" y="140518"/>
+                <a:pt x="3229149" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3238620" y="281037"/>
+                <a:pt x="3229149" y="280215"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12378,8 +12378,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4992426" y="2296718"/>
-          <a:ext cx="200740" cy="615605"/>
+          <a:off x="4977825" y="2133179"/>
+          <a:ext cx="200153" cy="613805"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12393,10 +12393,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="615605"/>
+                <a:pt x="0" y="613805"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="200740" y="615605"/>
+                <a:pt x="200153" y="613805"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12444,8 +12444,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3908425" y="1346544"/>
-          <a:ext cx="1619310" cy="281037"/>
+          <a:off x="3896995" y="1185784"/>
+          <a:ext cx="1614574" cy="280215"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12459,13 +12459,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="140518"/>
+                <a:pt x="0" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1619310" y="140518"/>
+                <a:pt x="1614574" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1619310" y="281037"/>
+                <a:pt x="1614574" y="280215"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12513,8 +12513,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3373115" y="2296718"/>
-          <a:ext cx="200740" cy="615605"/>
+          <a:off x="3363251" y="2133179"/>
+          <a:ext cx="200153" cy="613805"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12528,10 +12528,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="615605"/>
+                <a:pt x="0" y="613805"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="200740" y="615605"/>
+                <a:pt x="200153" y="613805"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12579,8 +12579,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3862705" y="1346544"/>
-          <a:ext cx="91440" cy="281037"/>
+          <a:off x="3851275" y="1185784"/>
+          <a:ext cx="91440" cy="280215"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12594,7 +12594,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="281037"/>
+                <a:pt x="45720" y="280215"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12642,8 +12642,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1753805" y="2296718"/>
-          <a:ext cx="200740" cy="615605"/>
+          <a:off x="1748676" y="2133179"/>
+          <a:ext cx="200153" cy="613805"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12657,10 +12657,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="615605"/>
+                <a:pt x="0" y="613805"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="200740" y="615605"/>
+                <a:pt x="200153" y="613805"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12708,8 +12708,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2289114" y="1346544"/>
-          <a:ext cx="1619310" cy="281037"/>
+          <a:off x="2282420" y="1185784"/>
+          <a:ext cx="1614574" cy="280215"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12720,16 +12720,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1619310" y="0"/>
+                <a:pt x="1614574" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1619310" y="140518"/>
+                <a:pt x="1614574" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="140518"/>
+                <a:pt x="0" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="281037"/>
+                <a:pt x="0" y="280215"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12777,8 +12777,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="134495" y="2296718"/>
-          <a:ext cx="200740" cy="615605"/>
+          <a:off x="134101" y="2133179"/>
+          <a:ext cx="200153" cy="613805"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12792,10 +12792,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="615605"/>
+                <a:pt x="0" y="613805"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="200740" y="615605"/>
+                <a:pt x="200153" y="613805"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12843,8 +12843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="669804" y="1346544"/>
-          <a:ext cx="3238620" cy="281037"/>
+          <a:off x="667845" y="1185784"/>
+          <a:ext cx="3229149" cy="280215"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -12855,16 +12855,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3238620" y="0"/>
+                <a:pt x="3229149" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3238620" y="140518"/>
+                <a:pt x="3229149" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="140518"/>
+                <a:pt x="0" y="140107"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="281037"/>
+                <a:pt x="0" y="280215"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -12912,8 +12912,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3239288" y="677407"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="3229815" y="518605"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13016,8 +13016,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3239288" y="677407"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="3229815" y="518605"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1626C21C-174A-BA4D-A282-A122107CA46C}">
@@ -13027,8 +13027,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="667" y="1627581"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="665" y="1466000"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13127,8 +13127,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="667" y="1627581"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="665" y="1466000"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B79F729F-6758-C641-9D1D-F8A7857C7BFA}">
@@ -13138,8 +13138,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="335236" y="2577755"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="334255" y="2413395"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13238,8 +13238,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="335236" y="2577755"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="334255" y="2413395"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{021C41A7-5A74-1545-807E-FFCB599DFEA0}">
@@ -13249,8 +13249,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1619978" y="1627581"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="1615240" y="1466000"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13349,8 +13349,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1619978" y="1627581"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="1615240" y="1466000"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BC714DED-C684-D543-A413-D309119022BC}">
@@ -13360,8 +13360,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1954546" y="2577755"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="1948830" y="2413395"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13460,8 +13460,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1954546" y="2577755"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="1948830" y="2413395"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{925D5AF1-2E89-4C41-9235-4A80562352D7}">
@@ -13471,8 +13471,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3239288" y="1627581"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="3229815" y="1466000"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13571,8 +13571,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3239288" y="1627581"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="3229815" y="1466000"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2C55563F-133B-4F47-B991-A77AD34E69FD}">
@@ -13582,8 +13582,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3573856" y="2577755"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="3563405" y="2413395"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13682,8 +13682,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3573856" y="2577755"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="3563405" y="2413395"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{07E30DEA-B83C-624A-B678-767B6FE74213}">
@@ -13693,8 +13693,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4858598" y="1627581"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="4844390" y="1466000"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13793,8 +13793,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4858598" y="1627581"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="4844390" y="1466000"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{903AA26A-E2E2-C24F-B42D-FA16C2DD2659}">
@@ -13804,8 +13804,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5193167" y="2577755"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="5177979" y="2413395"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13904,8 +13904,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5193167" y="2577755"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="5177979" y="2413395"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{067CDDBB-CECE-B246-A2C4-C45A5C79DEA4}">
@@ -13915,8 +13915,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6477909" y="1627581"/>
-          <a:ext cx="1338272" cy="669136"/>
+          <a:off x="6458964" y="1466000"/>
+          <a:ext cx="1334359" cy="667179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14015,8 +14015,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6477909" y="1627581"/>
-        <a:ext cx="1338272" cy="669136"/>
+        <a:off x="6458964" y="1466000"/>
+        <a:ext cx="1334359" cy="667179"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -14038,8 +14038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6589956" y="1059072"/>
-          <a:ext cx="670382" cy="232694"/>
+          <a:off x="6570684" y="899153"/>
+          <a:ext cx="668422" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14053,13 +14053,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="670382" y="116347"/>
+                <a:pt x="668422" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="670382" y="232694"/>
+                <a:pt x="668422" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14107,8 +14107,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5919573" y="1059072"/>
-          <a:ext cx="670382" cy="232694"/>
+          <a:off x="5902262" y="899153"/>
+          <a:ext cx="668422" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14119,16 +14119,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="670382" y="0"/>
+                <a:pt x="668422" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="670382" y="116347"/>
+                <a:pt x="668422" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="232694"/>
+                <a:pt x="0" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14176,8 +14176,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4135579" y="1845802"/>
-          <a:ext cx="166210" cy="1296442"/>
+          <a:off x="4123485" y="1683582"/>
+          <a:ext cx="165724" cy="1292651"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14191,10 +14191,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1296442"/>
+                <a:pt x="0" y="1292651"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="1296442"/>
+                <a:pt x="165724" y="1292651"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14242,8 +14242,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4135579" y="1845802"/>
-          <a:ext cx="166210" cy="509712"/>
+          <a:off x="4123485" y="1683582"/>
+          <a:ext cx="165724" cy="508221"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14257,10 +14257,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="509712"/>
+                <a:pt x="0" y="508221"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="509712"/>
+                <a:pt x="165724" y="508221"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14308,8 +14308,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2567659" y="1059072"/>
-          <a:ext cx="2011148" cy="232694"/>
+          <a:off x="2560150" y="899153"/>
+          <a:ext cx="2005267" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14323,13 +14323,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2011148" y="116347"/>
+                <a:pt x="2005267" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2011148" y="232694"/>
+                <a:pt x="2005267" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14377,8 +14377,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2794813" y="1845802"/>
-          <a:ext cx="166210" cy="1296442"/>
+          <a:off x="2786640" y="1683582"/>
+          <a:ext cx="165724" cy="1292651"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14392,10 +14392,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1296442"/>
+                <a:pt x="0" y="1292651"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="1296442"/>
+                <a:pt x="165724" y="1292651"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14443,8 +14443,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2794813" y="1845802"/>
-          <a:ext cx="166210" cy="509712"/>
+          <a:off x="2786640" y="1683582"/>
+          <a:ext cx="165724" cy="508221"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14458,10 +14458,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="509712"/>
+                <a:pt x="0" y="508221"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="509712"/>
+                <a:pt x="165724" y="508221"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14509,8 +14509,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2567659" y="1059072"/>
-          <a:ext cx="670382" cy="232694"/>
+          <a:off x="2560150" y="899153"/>
+          <a:ext cx="668422" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14524,13 +14524,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="670382" y="116347"/>
+                <a:pt x="668422" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="670382" y="232694"/>
+                <a:pt x="668422" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14578,8 +14578,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1454047" y="1845802"/>
-          <a:ext cx="166210" cy="1296442"/>
+          <a:off x="1449795" y="1683582"/>
+          <a:ext cx="165724" cy="1292651"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14593,10 +14593,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1296442"/>
+                <a:pt x="0" y="1292651"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="1296442"/>
+                <a:pt x="165724" y="1292651"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14644,8 +14644,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1454047" y="1845802"/>
-          <a:ext cx="166210" cy="509712"/>
+          <a:off x="1449795" y="1683582"/>
+          <a:ext cx="165724" cy="508221"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14659,10 +14659,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="509712"/>
+                <a:pt x="0" y="508221"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="509712"/>
+                <a:pt x="165724" y="508221"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14710,8 +14710,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1897276" y="1059072"/>
-          <a:ext cx="670382" cy="232694"/>
+          <a:off x="1891727" y="899153"/>
+          <a:ext cx="668422" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14722,16 +14722,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="670382" y="0"/>
+                <a:pt x="668422" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="670382" y="116347"/>
+                <a:pt x="668422" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="232694"/>
+                <a:pt x="0" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14779,8 +14779,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="113282" y="1845802"/>
-          <a:ext cx="166210" cy="509712"/>
+          <a:off x="112950" y="1683582"/>
+          <a:ext cx="165724" cy="508221"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14794,10 +14794,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="509712"/>
+                <a:pt x="0" y="508221"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="166210" y="509712"/>
+                <a:pt x="165724" y="508221"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14845,8 +14845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="556510" y="1059072"/>
-          <a:ext cx="2011148" cy="232694"/>
+          <a:off x="554882" y="899153"/>
+          <a:ext cx="2005267" cy="232014"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -14857,16 +14857,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2011148" y="0"/>
+                <a:pt x="2005267" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2011148" y="116347"/>
+                <a:pt x="2005267" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="116347"/>
+                <a:pt x="0" y="116007"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="232694"/>
+                <a:pt x="0" y="232014"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -14914,8 +14914,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2013623" y="505036"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="2007734" y="346737"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15018,8 +15018,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2013623" y="505036"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="2007734" y="346737"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1626C21C-174A-BA4D-A282-A122107CA46C}">
@@ -15029,8 +15029,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2474" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="2467" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15129,8 +15129,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2474" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="2467" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CFF6DB34-CE5B-224A-8FA4-F4D51BC5E16E}">
@@ -15140,8 +15140,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="279492" y="2078497"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="278675" y="1915597"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15240,8 +15240,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="279492" y="2078497"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="278675" y="1915597"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E989054C-819A-CE4D-BA02-3CAEE9D50E81}">
@@ -15251,8 +15251,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1343240" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="1339312" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15358,8 +15358,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1343240" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="1339312" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1BCEA7D1-E85A-E24F-9661-D443EAD5D593}">
@@ -15369,8 +15369,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1620258" y="2078497"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="1615520" y="1915597"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15469,8 +15469,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1620258" y="2078497"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="1615520" y="1915597"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E44ED97C-44B5-EF4B-8AB8-FA2CED4BCAEF}">
@@ -15480,8 +15480,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1620258" y="2865227"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="1615520" y="2700026"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15580,8 +15580,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1620258" y="2865227"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="1615520" y="2700026"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3F06677D-7EF2-AC40-90E5-803709A680C7}">
@@ -15591,8 +15591,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2684006" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="2676157" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15691,8 +15691,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2684006" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="2676157" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1CBF161-6FB8-B64F-A6C8-F3E93FCA2F1B}">
@@ -15702,8 +15702,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2961024" y="2078497"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="2952364" y="1915597"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15802,8 +15802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2961024" y="2078497"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="2952364" y="1915597"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5E7665CC-8F66-C241-B2B9-BFD7A184D97A}">
@@ -15813,8 +15813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2961024" y="2865227"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="2952364" y="2700026"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15913,8 +15913,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2961024" y="2865227"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="2952364" y="2700026"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{652B4405-9222-B544-BC30-DDE1CC84E881}">
@@ -15924,8 +15924,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4024772" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="4013002" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16024,8 +16024,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4024772" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="4013002" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{73F8856F-C1CD-1D44-8188-A1EE8EB74DD2}">
@@ -16035,8 +16035,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4301790" y="2078497"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="4289209" y="1915597"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16135,8 +16135,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4301790" y="2078497"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="4289209" y="1915597"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{041CA3EE-F7AF-F24F-BEE8-84C0921FB73E}">
@@ -16146,8 +16146,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4301790" y="2865227"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="4289209" y="2700026"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16278,8 +16278,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4301790" y="2865227"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="4289209" y="2700026"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5EE4219E-B1DF-8E49-A8B2-AB540A87E150}">
@@ -16289,8 +16289,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6035921" y="505036"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="6018269" y="346737"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16389,8 +16389,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6035921" y="505036"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="6018269" y="346737"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5A03DC36-A34B-BE49-BE45-FD8452DAD76B}">
@@ -16400,8 +16400,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5365538" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="5349847" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16525,8 +16525,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5365538" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="5349847" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{EE2445C6-D5C7-B748-8A5B-779DB0759A75}">
@@ -16536,8 +16536,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6706304" y="1291767"/>
-          <a:ext cx="1108070" cy="554035"/>
+          <a:off x="6686691" y="1131167"/>
+          <a:ext cx="1104830" cy="552415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16661,8 +16661,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6706304" y="1291767"/>
-        <a:ext cx="1108070" cy="554035"/>
+        <a:off x="6686691" y="1131167"/>
+        <a:ext cx="1104830" cy="552415"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -16684,8 +16684,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="349809" y="1119"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="602624" y="1569"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16730,12 +16730,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16748,7 +16748,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -16757,8 +16757,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="370814" y="22124"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="621852" y="20797"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3F0DAEDD-BFE5-9F4B-8668-37A2F5B0A035}">
@@ -16768,8 +16768,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1650289" y="211491"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="1793059" y="194139"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -16830,8 +16830,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1650289" y="270778"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="1793059" y="248409"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{164D49D4-A43E-7445-BEA6-732ACD561074}">
@@ -16841,8 +16841,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2023221" y="1119"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="2134434" y="1569"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16887,12 +16887,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -16905,7 +16905,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -16914,8 +16914,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2044226" y="22124"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="2153662" y="20797"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{59FA2D91-C0A0-9C43-8C28-429A7F8F9C5C}">
@@ -16925,8 +16925,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3323702" y="211491"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="3324870" y="194139"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -16987,8 +16987,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3323702" y="270778"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="3324870" y="248409"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{40EFBC9E-C278-DC49-AFDC-486CF2F0097C}">
@@ -16998,8 +16998,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3696633" y="1119"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="3666245" y="1569"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17044,12 +17044,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17062,7 +17062,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17071,8 +17071,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3717638" y="22124"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="3685473" y="20797"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A34CE60B-60DE-4F4A-A99A-5F3866A2B670}">
@@ -17082,8 +17082,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4997114" y="211491"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="4856680" y="194139"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17144,8 +17144,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4997114" y="270778"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="4856680" y="248409"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1A2F83F9-A5DA-D94B-87A8-890EA90313FC}">
@@ -17155,8 +17155,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5370046" y="1119"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="5198055" y="1569"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17201,12 +17201,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17219,7 +17219,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17228,8 +17228,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5391051" y="22124"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="5217283" y="20797"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3EFB6226-8C1A-8445-8544-32D6555DD863}">
@@ -17239,8 +17239,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5840992" y="801967"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="5629150" y="734650"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17301,8 +17301,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-5400000">
-        <a:off x="5878764" y="823483"/>
-        <a:ext cx="177859" cy="177381"/>
+        <a:off x="5663725" y="754345"/>
+        <a:ext cx="162809" cy="162371"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{582066C1-2B8D-7645-B075-DB4B782D2EF4}">
@@ -17312,8 +17312,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5370046" y="1196414"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="5198055" y="1095719"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17358,12 +17358,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17376,7 +17376,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17385,8 +17385,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5391051" y="1217419"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="5217283" y="1114947"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BCDD536B-E356-2048-B459-E30F61A0175B}">
@@ -17396,8 +17396,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5011457" y="1406786"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="4869810" y="1288290"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17458,8 +17458,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="5087478" y="1466073"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="4939398" y="1342560"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{52EB78D3-1D4E-8842-97BA-348200861FA8}">
@@ -17469,8 +17469,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3696633" y="1196414"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="3666245" y="1095719"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17515,12 +17515,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17533,7 +17533,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17542,8 +17542,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3717638" y="1217419"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="3685473" y="1114947"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D8EA841-CFFE-9148-94D3-1DACEEC2332D}">
@@ -17553,8 +17553,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3338045" y="1406786"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="3337999" y="1288290"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17615,8 +17615,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="3414066" y="1466073"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="3407587" y="1342560"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1D2F0EE2-A72F-DD49-8D37-6E54F2DAB964}">
@@ -17626,8 +17626,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2023221" y="1196414"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="2134434" y="1095719"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17672,12 +17672,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17690,7 +17690,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17699,8 +17699,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2044226" y="1217419"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="2153662" y="1114947"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{12E47891-461E-274E-A7C5-CA78BBFBED2C}">
@@ -17710,8 +17710,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1664633" y="1406786"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="1806189" y="1288290"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17772,8 +17772,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="1740654" y="1466073"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="1875777" y="1342560"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6D1D5714-8844-2641-8806-F01C67400DD5}">
@@ -17783,8 +17783,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="349809" y="1196414"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="602624" y="1095719"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17829,12 +17829,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -17847,21 +17847,21 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>検索</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
             <a:t>TOP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -17870,8 +17870,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="370814" y="1217419"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="621852" y="1114947"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63D35E72-B76D-CE43-B736-291E8A814828}">
@@ -17881,8 +17881,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="820755" y="1997261"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="1033719" y="1828800"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -17943,8 +17943,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-5400000">
-        <a:off x="858527" y="2018777"/>
-        <a:ext cx="177859" cy="177381"/>
+        <a:off x="1068294" y="1848495"/>
+        <a:ext cx="162809" cy="162371"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9ACA666C-8CC7-D741-9AB8-149E4CA77591}">
@@ -17954,8 +17954,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="349809" y="2391708"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="602624" y="2189870"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18000,12 +18000,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18018,7 +18018,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18027,8 +18027,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="370814" y="2412713"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="621852" y="2209098"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7E5F4191-0AF5-DE40-81DC-99C68336562D}">
@@ -18038,8 +18038,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1650289" y="2602080"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="1793059" y="2382440"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18100,8 +18100,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1650289" y="2661367"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="1793059" y="2436710"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7F6FB932-0CAC-E847-BDC5-6CECB4DC9DB2}">
@@ -18111,8 +18111,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2023221" y="2391708"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="2134434" y="2189870"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18157,12 +18157,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18175,7 +18175,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18184,8 +18184,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2044226" y="2412713"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="2153662" y="2209098"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9D9363BB-FE80-FE4D-8D4C-D0C6251FE97D}">
@@ -18195,8 +18195,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3323702" y="2602080"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="3324870" y="2382440"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18257,8 +18257,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3323702" y="2661367"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="3324870" y="2436710"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{87E570FE-794B-D544-AD2F-C4E9F37971ED}">
@@ -18268,8 +18268,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3696633" y="2391708"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="3666245" y="2189870"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18314,12 +18314,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18332,7 +18332,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18341,8 +18341,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3717638" y="2412713"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="3685473" y="2209098"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8CAEACD7-2FAE-4245-9E10-BCE6A1A79B6A}">
@@ -18352,8 +18352,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4997114" y="2602080"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="4856680" y="2382440"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18414,8 +18414,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4997114" y="2661367"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="4856680" y="2436710"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{20C828BE-7A30-D847-A444-6EDE9D9A3BF9}">
@@ -18425,8 +18425,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5370046" y="2391708"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="5198055" y="2189870"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18471,12 +18471,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18489,7 +18489,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18498,8 +18498,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5391051" y="2412713"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="5217283" y="2209098"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F6E16E38-C0AD-D447-B816-148359632B87}">
@@ -18509,8 +18509,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5840992" y="3192556"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="5629150" y="2922950"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18571,8 +18571,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="-5400000">
-        <a:off x="5878764" y="3214072"/>
-        <a:ext cx="177859" cy="177381"/>
+        <a:off x="5663725" y="2942645"/>
+        <a:ext cx="162809" cy="162371"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6DCBF5A9-61A5-804D-9A0A-B5806D5FF433}">
@@ -18582,8 +18582,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5370046" y="3587003"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="5198055" y="3284020"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18628,12 +18628,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18646,7 +18646,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18655,8 +18655,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5391051" y="3608008"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="5217283" y="3303248"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{67D510A2-1D46-D045-918C-D9FD99061BB5}">
@@ -18666,8 +18666,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5011457" y="3797375"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="4869810" y="3476590"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18728,8 +18728,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="5087478" y="3856662"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="4939398" y="3530860"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{30D5308C-955B-DC41-BA76-C7CA9C93259D}">
@@ -18739,8 +18739,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3696633" y="3587003"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="3666245" y="3284020"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18785,12 +18785,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18803,7 +18803,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18812,8 +18812,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3717638" y="3608008"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="3685473" y="3303248"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{95848E36-BC20-1C4A-A812-08D24F374C0A}">
@@ -18823,8 +18823,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3338045" y="3797375"/>
-          <a:ext cx="253402" cy="296433"/>
+          <a:off x="3337999" y="3476590"/>
+          <a:ext cx="231959" cy="271349"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -18885,8 +18885,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm rot="10800000">
-        <a:off x="3414066" y="3856662"/>
-        <a:ext cx="177381" cy="177859"/>
+        <a:off x="3407587" y="3530860"/>
+        <a:ext cx="162371" cy="162809"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9B3D16EE-42C2-1149-AC31-72E684571A6B}">
@@ -18896,8 +18896,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2023221" y="3587003"/>
-          <a:ext cx="1195294" cy="717176"/>
+          <a:off x="2134434" y="3284020"/>
+          <a:ext cx="1094150" cy="656490"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18942,12 +18942,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="38100" tIns="38100" rIns="38100" bIns="38100" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="34290" tIns="34290" rIns="34290" bIns="34290" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -18960,7 +18960,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200">
               <a:latin typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
@@ -18969,8 +18969,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2044226" y="3608008"/>
-        <a:ext cx="1153284" cy="675166"/>
+        <a:off x="2153662" y="3303248"/>
+        <a:ext cx="1055694" cy="618034"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -26058,8 +26058,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14414500" y="10106023"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14417040" y="9478643"/>
+          <a:ext cx="1929765" cy="309373"/>
           <a:chOff x="13992225" y="10156823"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -26184,8 +26184,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13382625" y="11158535"/>
-          <a:ext cx="1930400" cy="334773"/>
+          <a:off x="13382625" y="10467655"/>
+          <a:ext cx="1935480" cy="309373"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -26310,8 +26310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14433550" y="12220575"/>
-          <a:ext cx="1927225" cy="334773"/>
+          <a:off x="14436090" y="11466195"/>
+          <a:ext cx="1929765" cy="309373"/>
           <a:chOff x="13992225" y="10896600"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -26449,8 +26449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13363575" y="8775700"/>
-          <a:ext cx="4016375" cy="669734"/>
+          <a:off x="13363575" y="8237220"/>
+          <a:ext cx="4021455" cy="618934"/>
           <a:chOff x="13125450" y="9344025"/>
           <a:chExt cx="4010025" cy="657034"/>
         </a:xfrm>
@@ -26802,8 +26802,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13315950" y="7588250"/>
-          <a:ext cx="4016375" cy="845948"/>
+          <a:off x="13315950" y="7113270"/>
+          <a:ext cx="4021455" cy="795148"/>
           <a:chOff x="13106400" y="8134350"/>
           <a:chExt cx="4010025" cy="833248"/>
         </a:xfrm>
@@ -27204,8 +27204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15446375" y="11158535"/>
-          <a:ext cx="1924050" cy="334773"/>
+          <a:off x="15451455" y="10467655"/>
+          <a:ext cx="1924050" cy="309373"/>
           <a:chOff x="13992225" y="10517185"/>
           <a:chExt cx="1924050" cy="328423"/>
         </a:xfrm>
@@ -27521,8 +27521,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="13169900"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1567815" y="12352020"/>
+          <a:ext cx="2804160" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -27747,8 +27747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="14408150"/>
-          <a:ext cx="2806700" cy="927622"/>
+          <a:off x="1539240" y="13514070"/>
+          <a:ext cx="2804160" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -27973,8 +27973,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1536700" y="15513050"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1539240" y="14542770"/>
+          <a:ext cx="2804160" cy="873647"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -28204,8 +28204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1555750" y="16681450"/>
-          <a:ext cx="3533905" cy="927622"/>
+          <a:off x="1558290" y="15647670"/>
+          <a:ext cx="3531365" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="3537080" cy="911747"/>
         </a:xfrm>
@@ -28487,8 +28487,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="17767300"/>
-          <a:ext cx="2806700" cy="924447"/>
+          <a:off x="1567815" y="16657320"/>
+          <a:ext cx="2804160" cy="873647"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2809875" cy="911747"/>
         </a:xfrm>
@@ -28783,8 +28783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1565275" y="18849975"/>
-          <a:ext cx="2944733" cy="927622"/>
+          <a:off x="1567815" y="17676495"/>
+          <a:ext cx="2942193" cy="864122"/>
           <a:chOff x="1562100" y="12963525"/>
           <a:chExt cx="2947908" cy="911747"/>
         </a:xfrm>
@@ -29375,7 +29375,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5590"/>
+                  <a14:cameraTool cellRange="Sheet1!$I$21:$I$34" spid="_x0000_s5595"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -29502,7 +29502,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4559"/>
+                  <a14:cameraTool cellRange="Sheet1!$J$21:$J$34" spid="_x0000_s4564"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -30300,14 +30300,14 @@
       <selection activeCell="F7" sqref="C7:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="15"/>
-    <col min="3" max="3" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="2" width="8.69921875" style="15"/>
+    <col min="3" max="3" width="24.296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="15"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
@@ -30477,19 +30477,19 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -30895,7 +30895,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
+        <v>803</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="16" t="s">
@@ -30976,19 +30976,19 @@
   </sheetPr>
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -31387,15 +31387,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -31656,15 +31656,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -31926,17 +31926,17 @@
   </sheetPr>
   <dimension ref="B2:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -32354,15 +32354,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -32623,15 +32623,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -32945,15 +32945,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33410,15 +33410,15 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -33705,15 +33705,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34163,7 +34163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34182,15 +34182,15 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34500,15 +34500,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -34795,15 +34795,15 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -35110,15 +35110,15 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="61.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -35427,32 +35427,32 @@
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.33203125" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.69921875" customWidth="1"/>
+    <col min="24" max="24" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.296875" customWidth="1"/>
+    <col min="26" max="26" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="17.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:32">
@@ -37803,12 +37803,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="31" width="3.83203125" style="26" customWidth="1"/>
+    <col min="4" max="31" width="3.796875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:33">
@@ -37822,77 +37822,77 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="110" t="s">
         <v>545</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-    </row>
-    <row r="5" spans="1:33" ht="26" customHeight="1">
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+    </row>
+    <row r="5" spans="1:33" ht="25.95" customHeight="1">
       <c r="C5" s="46"/>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89" t="s">
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89" t="s">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89" t="s">
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-    </row>
-    <row r="6" spans="1:33" ht="26" customHeight="1">
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+    </row>
+    <row r="6" spans="1:33" ht="25.95" customHeight="1">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="47" t="s">
@@ -37986,7 +37986,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="26" customHeight="1">
+    <row r="7" spans="1:33" ht="25.95" customHeight="1">
       <c r="A7" s="27">
         <v>1</v>
       </c>
@@ -38032,7 +38032,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="26" customHeight="1">
+    <row r="8" spans="1:33" ht="25.95" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="46"/>
       <c r="C8" s="48" t="s">
@@ -38082,7 +38082,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="26" customHeight="1">
+    <row r="9" spans="1:33" ht="25.95" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="46"/>
       <c r="C9" s="48" t="s">
@@ -38124,7 +38124,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="26" customHeight="1">
+    <row r="10" spans="1:33" ht="25.95" customHeight="1">
       <c r="A10" s="27">
         <v>2</v>
       </c>
@@ -38159,7 +38159,7 @@
       <c r="AD10" s="49"/>
       <c r="AE10" s="50"/>
     </row>
-    <row r="11" spans="1:33" ht="26" customHeight="1">
+    <row r="11" spans="1:33" ht="25.95" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="46"/>
       <c r="C11" s="48"/>
@@ -38192,7 +38192,7 @@
       <c r="AD11" s="49"/>
       <c r="AE11" s="50"/>
     </row>
-    <row r="12" spans="1:33" ht="26" customHeight="1">
+    <row r="12" spans="1:33" ht="25.95" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="46"/>
       <c r="C12" s="48"/>
@@ -38225,7 +38225,7 @@
       <c r="AD12" s="49"/>
       <c r="AE12" s="50"/>
     </row>
-    <row r="13" spans="1:33" ht="26" customHeight="1">
+    <row r="13" spans="1:33" ht="25.95" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="46"/>
       <c r="C13" s="48"/>
@@ -38258,7 +38258,7 @@
       <c r="AD13" s="49"/>
       <c r="AE13" s="50"/>
     </row>
-    <row r="14" spans="1:33" ht="26" customHeight="1">
+    <row r="14" spans="1:33" ht="25.95" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="46"/>
       <c r="C14" s="48"/>
@@ -38291,7 +38291,7 @@
       <c r="AD14" s="49"/>
       <c r="AE14" s="50"/>
     </row>
-    <row r="15" spans="1:33" ht="26" customHeight="1">
+    <row r="15" spans="1:33" ht="25.95" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48"/>
@@ -38324,7 +38324,7 @@
       <c r="AD15" s="49"/>
       <c r="AE15" s="50"/>
     </row>
-    <row r="16" spans="1:33" ht="26" customHeight="1">
+    <row r="16" spans="1:33" ht="25.95" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="46"/>
       <c r="C16" s="48"/>
@@ -38357,7 +38357,7 @@
       <c r="AD16" s="49"/>
       <c r="AE16" s="50"/>
     </row>
-    <row r="17" spans="1:31" ht="26" customHeight="1">
+    <row r="17" spans="1:31" ht="25.95" customHeight="1">
       <c r="A17" s="27"/>
       <c r="B17" s="46"/>
       <c r="C17" s="48"/>
@@ -38390,7 +38390,7 @@
       <c r="AD17" s="49"/>
       <c r="AE17" s="50"/>
     </row>
-    <row r="18" spans="1:31" ht="26" customHeight="1">
+    <row r="18" spans="1:31" ht="25.95" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="46"/>
       <c r="C18" s="48"/>
@@ -38423,7 +38423,7 @@
       <c r="AD18" s="49"/>
       <c r="AE18" s="50"/>
     </row>
-    <row r="19" spans="1:31" ht="26" customHeight="1">
+    <row r="19" spans="1:31" ht="25.95" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="46"/>
       <c r="C19" s="48"/>
@@ -38488,7 +38488,7 @@
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="2" width="9" style="15"/>
     <col min="3" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
@@ -38825,7 +38825,7 @@
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -38840,16 +38840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5B981E-3230-0E45-9FDB-014A45CD13AA}">
   <dimension ref="B2:AK107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T45" workbookViewId="0">
-      <selection activeCell="AD59" sqref="AD59"/>
+    <sheetView showGridLines="0" topLeftCell="T62" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="52"/>
+    <col min="1" max="16384" width="10.796875" style="52"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="23">
+    <row r="2" spans="2:22" ht="21.6">
       <c r="B2" s="65" t="s">
         <v>567</v>
       </c>
@@ -38980,16 +38980,16 @@
       <c r="N19" s="52" t="s">
         <v>709</v>
       </c>
-      <c r="V19" s="102" t="s">
+      <c r="V19" s="91" t="s">
         <v>758</v>
       </c>
       <c r="W19" s="52" t="s">
         <v>757</v>
       </c>
-      <c r="Y19" s="103" t="s">
+      <c r="Y19" s="92" t="s">
         <v>759</v>
       </c>
-      <c r="Z19" s="103" t="s">
+      <c r="Z19" s="92" t="s">
         <v>761</v>
       </c>
     </row>
@@ -38997,46 +38997,46 @@
       <c r="N20" s="52" t="s">
         <v>710</v>
       </c>
-      <c r="V20" s="102">
+      <c r="V20" s="91">
         <v>1</v>
       </c>
       <c r="W20" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="Y20" s="98" t="s">
+      <c r="Y20" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="Z20" s="98" t="s">
+      <c r="Z20" s="89" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="23">
+    <row r="21" spans="2:27" ht="21.6">
       <c r="B21" s="65" t="s">
         <v>568</v>
       </c>
       <c r="N21" s="52" t="s">
         <v>711</v>
       </c>
-      <c r="V21" s="102">
+      <c r="V21" s="91">
         <v>2</v>
       </c>
       <c r="W21" s="52" t="s">
         <v>731</v>
       </c>
-      <c r="Y21" s="98"/>
+      <c r="Y21" s="89"/>
     </row>
     <row r="22" spans="2:27">
       <c r="N22" s="52" t="s">
         <v>712</v>
       </c>
-      <c r="V22" s="102">
+      <c r="V22" s="91">
         <v>3</v>
       </c>
       <c r="W22" s="52" t="s">
         <v>732</v>
       </c>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98" t="s">
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89" t="s">
         <v>760</v>
       </c>
     </row>
@@ -39044,46 +39044,46 @@
       <c r="N23" s="52" t="s">
         <v>713</v>
       </c>
-      <c r="V23" s="102">
+      <c r="V23" s="91">
         <v>4</v>
       </c>
       <c r="W23" s="52" t="s">
         <v>733</v>
       </c>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98" t="s">
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="24" spans="2:27">
-      <c r="V24" s="102">
+      <c r="V24" s="91">
         <v>5</v>
       </c>
       <c r="W24" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="Y24" s="98"/>
+      <c r="Y24" s="89"/>
     </row>
     <row r="25" spans="2:27">
-      <c r="V25" s="102">
+      <c r="V25" s="91">
         <v>6</v>
       </c>
       <c r="W25" s="52" t="s">
         <v>735</v>
       </c>
-      <c r="Y25" s="98"/>
+      <c r="Y25" s="89"/>
     </row>
     <row r="26" spans="2:27">
-      <c r="V26" s="102">
+      <c r="V26" s="91">
         <v>7</v>
       </c>
       <c r="W26" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="Y26" s="98" t="s">
+      <c r="Y26" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="Z26" s="98" t="s">
+      <c r="Z26" s="89" t="s">
         <v>760</v>
       </c>
       <c r="AA26" s="52" t="s">
@@ -39091,28 +39091,28 @@
       </c>
     </row>
     <row r="27" spans="2:27">
-      <c r="V27" s="102">
+      <c r="V27" s="91">
         <v>8</v>
       </c>
       <c r="W27" s="52" t="s">
         <v>736</v>
       </c>
-      <c r="Y27" s="98"/>
+      <c r="Y27" s="89"/>
       <c r="AA27" s="52" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="28" spans="2:27">
-      <c r="V28" s="102">
+      <c r="V28" s="91">
         <v>9</v>
       </c>
       <c r="W28" s="52" t="s">
         <v>738</v>
       </c>
-      <c r="Y28" s="98" t="s">
+      <c r="Y28" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="Z28" s="98" t="s">
+      <c r="Z28" s="89" t="s">
         <v>760</v>
       </c>
       <c r="AA28" s="52" t="s">
@@ -39120,37 +39120,37 @@
       </c>
     </row>
     <row r="29" spans="2:27">
-      <c r="V29" s="102">
+      <c r="V29" s="91">
         <v>10</v>
       </c>
       <c r="W29" s="52" t="s">
         <v>739</v>
       </c>
-      <c r="Y29" s="98"/>
+      <c r="Y29" s="89"/>
     </row>
     <row r="30" spans="2:27">
-      <c r="V30" s="102">
+      <c r="V30" s="91">
         <v>11</v>
       </c>
       <c r="W30" s="52" t="s">
         <v>740</v>
       </c>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98" t="s">
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="31" spans="2:27">
-      <c r="V31" s="102">
+      <c r="V31" s="91">
         <v>12</v>
       </c>
       <c r="W31" s="52" t="s">
         <v>741</v>
       </c>
-      <c r="Y31" s="98" t="s">
+      <c r="Y31" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="Z31" s="98" t="s">
+      <c r="Z31" s="89" t="s">
         <v>760</v>
       </c>
     </row>
@@ -39165,119 +39165,119 @@
       </c>
     </row>
     <row r="40" spans="21:27">
-      <c r="W40" s="104" t="s">
+      <c r="W40" s="93" t="s">
         <v>726</v>
       </c>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="92"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="86"/>
       <c r="AA40" s="52" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="41" spans="21:27">
-      <c r="W41" s="104" t="s">
+      <c r="W41" s="93" t="s">
         <v>591</v>
       </c>
-      <c r="Y41" s="91"/>
-      <c r="Z41" s="92"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="86"/>
       <c r="AA41" s="52" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="42" spans="21:27">
-      <c r="W42" s="104" t="s">
+      <c r="W42" s="93" t="s">
         <v>771</v>
       </c>
-      <c r="Y42" s="91"/>
-      <c r="Z42" s="92"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="86"/>
       <c r="AA42" s="52" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="43" spans="21:27">
-      <c r="W43" s="104" t="s">
+      <c r="W43" s="93" t="s">
         <v>772</v>
       </c>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="92"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="86"/>
       <c r="AA43" s="52" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="44" spans="21:27">
-      <c r="W44" s="93"/>
+      <c r="W44" s="87"/>
     </row>
     <row r="45" spans="21:27">
       <c r="V45" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="W45" s="93"/>
+      <c r="W45" s="87"/>
     </row>
     <row r="46" spans="21:27">
-      <c r="W46" s="104" t="s">
+      <c r="W46" s="93" t="s">
         <v>718</v>
       </c>
-      <c r="Y46" s="91"/>
-      <c r="Z46" s="92"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="86"/>
       <c r="AA46" s="52" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="47" spans="21:27">
-      <c r="W47" s="104" t="s">
+      <c r="W47" s="93" t="s">
         <v>719</v>
       </c>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="92"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="86"/>
       <c r="AA47" s="52" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="48" spans="21:27">
-      <c r="W48" s="93"/>
+      <c r="W48" s="87"/>
     </row>
     <row r="49" spans="21:37">
       <c r="V49" s="52" t="s">
         <v>716</v>
       </c>
-      <c r="W49" s="93"/>
+      <c r="W49" s="87"/>
     </row>
     <row r="50" spans="21:37">
-      <c r="W50" s="104" t="s">
+      <c r="W50" s="93" t="s">
         <v>796</v>
       </c>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="92"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="86"/>
       <c r="AA50" s="52" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="51" spans="21:37">
-      <c r="W51" s="104" t="s">
+      <c r="W51" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="Y51" s="91"/>
-      <c r="Z51" s="92"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="86"/>
       <c r="AA51" s="52" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="52" spans="21:37">
-      <c r="W52" s="104" t="s">
+      <c r="W52" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="Y52" s="91"/>
-      <c r="Z52" s="92"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="86"/>
       <c r="AA52" s="52" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="53" spans="21:37">
-      <c r="W53" s="104" t="s">
+      <c r="W53" s="93" t="s">
         <v>729</v>
       </c>
-      <c r="Y53" s="91"/>
-      <c r="Z53" s="92"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="86"/>
       <c r="AA53" s="52" t="s">
         <v>725</v>
       </c>
@@ -39299,17 +39299,17 @@
       </c>
     </row>
     <row r="60" spans="21:37">
-      <c r="W60" s="104" t="s">
+      <c r="W60" s="93" t="s">
         <v>718</v>
       </c>
-      <c r="Y60" s="94" t="s">
+      <c r="Y60" s="102" t="s">
         <v>744</v>
       </c>
-      <c r="Z60" s="95"/>
+      <c r="Z60" s="103"/>
       <c r="AF60" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="AG60" s="104" t="s">
+      <c r="AG60" s="93" t="s">
         <v>779</v>
       </c>
       <c r="AH60" s="52" t="s">
@@ -39317,17 +39317,17 @@
       </c>
     </row>
     <row r="61" spans="21:37">
-      <c r="W61" s="104" t="s">
+      <c r="W61" s="93" t="s">
         <v>719</v>
       </c>
-      <c r="Y61" s="94" t="s">
+      <c r="Y61" s="102" t="s">
         <v>746</v>
       </c>
-      <c r="Z61" s="95"/>
-      <c r="AB61" s="96" t="s">
+      <c r="Z61" s="103"/>
+      <c r="AB61" s="88" t="s">
         <v>752</v>
       </c>
-      <c r="AC61" s="97"/>
+      <c r="AC61" s="89"/>
       <c r="AF61" s="52" t="s">
         <v>771</v>
       </c>
@@ -39349,7 +39349,7 @@
       <c r="AH63" s="52" t="s">
         <v>784</v>
       </c>
-      <c r="AJ63" s="112" t="s">
+      <c r="AJ63" s="95" t="s">
         <v>797</v>
       </c>
       <c r="AK63" s="83" t="s">
@@ -39357,28 +39357,28 @@
       </c>
     </row>
     <row r="64" spans="21:37">
-      <c r="V64" s="100" t="s">
+      <c r="V64" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="W64" s="101" t="s">
+      <c r="W64" s="104" t="s">
         <v>591</v>
       </c>
-      <c r="X64" s="101"/>
-      <c r="Y64" s="101" t="s">
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104" t="s">
         <v>747</v>
       </c>
-      <c r="Z64" s="101"/>
-      <c r="AA64" s="101" t="s">
+      <c r="Z64" s="104"/>
+      <c r="AA64" s="104" t="s">
         <v>748</v>
       </c>
-      <c r="AB64" s="101"/>
+      <c r="AB64" s="104"/>
       <c r="AG64" s="52" t="s">
         <v>782</v>
       </c>
       <c r="AH64" s="52" t="s">
         <v>785</v>
       </c>
-      <c r="AJ64" s="112" t="s">
+      <c r="AJ64" s="95" t="s">
         <v>797</v>
       </c>
       <c r="AK64" s="83" t="s">
@@ -39386,7 +39386,7 @@
       </c>
     </row>
     <row r="65" spans="21:37">
-      <c r="V65" s="96">
+      <c r="V65" s="88">
         <v>1</v>
       </c>
       <c r="W65" s="99" t="s">
@@ -39401,14 +39401,14 @@
         <v>751</v>
       </c>
       <c r="AB65" s="99"/>
-      <c r="AC65" s="97"/>
+      <c r="AC65" s="89"/>
       <c r="AG65" s="52" t="s">
         <v>783</v>
       </c>
       <c r="AH65" s="52" t="s">
         <v>786</v>
       </c>
-      <c r="AJ65" s="112" t="s">
+      <c r="AJ65" s="95" t="s">
         <v>797</v>
       </c>
       <c r="AK65" s="83" t="s">
@@ -39416,7 +39416,7 @@
       </c>
     </row>
     <row r="66" spans="21:37">
-      <c r="V66" s="96">
+      <c r="V66" s="88">
         <v>2</v>
       </c>
       <c r="W66" s="99" t="s">
@@ -39431,21 +39431,21 @@
         <v>751</v>
       </c>
       <c r="AB66" s="99"/>
-      <c r="AC66" s="97"/>
+      <c r="AC66" s="89"/>
       <c r="AF66" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="AG66" s="107" t="s">
+      <c r="AG66" s="101" t="s">
         <v>799</v>
       </c>
-      <c r="AH66" s="107"/>
-      <c r="AI66" s="107"/>
+      <c r="AH66" s="101"/>
+      <c r="AI66" s="101"/>
       <c r="AJ66" s="52" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="67" spans="21:37">
-      <c r="V67" s="96">
+      <c r="V67" s="88">
         <v>3</v>
       </c>
       <c r="W67" s="99" t="s">
@@ -39460,13 +39460,13 @@
         <v>751</v>
       </c>
       <c r="AB67" s="99"/>
-      <c r="AC67" s="97"/>
-      <c r="AG67" s="107"/>
-      <c r="AH67" s="107"/>
-      <c r="AI67" s="107"/>
+      <c r="AC67" s="89"/>
+      <c r="AG67" s="101"/>
+      <c r="AH67" s="101"/>
+      <c r="AI67" s="101"/>
     </row>
     <row r="68" spans="21:37">
-      <c r="V68" s="96">
+      <c r="V68" s="88">
         <v>4</v>
       </c>
       <c r="W68" s="99" t="s">
@@ -39481,13 +39481,13 @@
         <v>751</v>
       </c>
       <c r="AB68" s="99"/>
-      <c r="AC68" s="97"/>
-      <c r="AG68" s="107"/>
-      <c r="AH68" s="107"/>
-      <c r="AI68" s="107"/>
+      <c r="AC68" s="89"/>
+      <c r="AG68" s="101"/>
+      <c r="AH68" s="101"/>
+      <c r="AI68" s="101"/>
     </row>
     <row r="69" spans="21:37">
-      <c r="V69" s="96">
+      <c r="V69" s="88">
         <v>5</v>
       </c>
       <c r="W69" s="99" t="s">
@@ -39502,13 +39502,13 @@
         <v>751</v>
       </c>
       <c r="AB69" s="99"/>
-      <c r="AC69" s="97"/>
-      <c r="AG69" s="107"/>
-      <c r="AH69" s="107"/>
-      <c r="AI69" s="107"/>
+      <c r="AC69" s="89"/>
+      <c r="AG69" s="101"/>
+      <c r="AH69" s="101"/>
+      <c r="AI69" s="101"/>
     </row>
     <row r="70" spans="21:37">
-      <c r="V70" s="96">
+      <c r="V70" s="88">
         <v>6</v>
       </c>
       <c r="W70" s="99" t="s">
@@ -39523,10 +39523,10 @@
         <v>751</v>
       </c>
       <c r="AB70" s="99"/>
-      <c r="AC70" s="97"/>
+      <c r="AC70" s="89"/>
     </row>
     <row r="71" spans="21:37">
-      <c r="V71" s="96">
+      <c r="V71" s="88">
         <v>7</v>
       </c>
       <c r="W71" s="99" t="s">
@@ -39541,10 +39541,10 @@
         <v>751</v>
       </c>
       <c r="AB71" s="99"/>
-      <c r="AC71" s="97"/>
+      <c r="AC71" s="89"/>
     </row>
     <row r="72" spans="21:37">
-      <c r="V72" s="96">
+      <c r="V72" s="88">
         <v>8</v>
       </c>
       <c r="W72" s="99" t="s">
@@ -39559,13 +39559,13 @@
         <v>751</v>
       </c>
       <c r="AB72" s="99"/>
-      <c r="AC72" s="97"/>
+      <c r="AC72" s="89"/>
       <c r="AE72" s="52" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="73" spans="21:37">
-      <c r="V73" s="96">
+      <c r="V73" s="88">
         <v>9</v>
       </c>
       <c r="W73" s="99" t="s">
@@ -39580,14 +39580,14 @@
         <v>751</v>
       </c>
       <c r="AB73" s="99"/>
-      <c r="AC73" s="97"/>
+      <c r="AC73" s="89"/>
       <c r="AF73" s="99"/>
       <c r="AG73" s="99"/>
       <c r="AH73" s="99"/>
       <c r="AI73" s="99"/>
     </row>
     <row r="74" spans="21:37">
-      <c r="V74" s="96">
+      <c r="V74" s="88">
         <v>10</v>
       </c>
       <c r="W74" s="99" t="s">
@@ -39602,7 +39602,7 @@
         <v>751</v>
       </c>
       <c r="AB74" s="99"/>
-      <c r="AC74" s="97"/>
+      <c r="AC74" s="89"/>
       <c r="AF74" s="99"/>
       <c r="AG74" s="99"/>
       <c r="AH74" s="99"/>
@@ -39635,7 +39635,7 @@
       </c>
     </row>
     <row r="79" spans="21:37">
-      <c r="AI79" s="96" t="s">
+      <c r="AI79" s="88" t="s">
         <v>800</v>
       </c>
     </row>
@@ -39643,44 +39643,44 @@
       <c r="V80" s="52" t="s">
         <v>716</v>
       </c>
-      <c r="W80" s="93"/>
+      <c r="W80" s="87"/>
     </row>
     <row r="81" spans="21:28">
-      <c r="W81" s="93" t="s">
+      <c r="W81" s="87" t="s">
         <v>728</v>
       </c>
-      <c r="Y81" s="91"/>
-      <c r="Z81" s="92"/>
+      <c r="Y81" s="85"/>
+      <c r="Z81" s="86"/>
       <c r="AA81" s="52" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="82" spans="21:28">
-      <c r="W82" s="93" t="s">
+      <c r="W82" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Y82" s="91"/>
-      <c r="Z82" s="92"/>
+      <c r="Y82" s="85"/>
+      <c r="Z82" s="86"/>
       <c r="AA82" s="52" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="83" spans="21:28">
-      <c r="W83" s="93" t="s">
+      <c r="W83" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="Y83" s="91"/>
-      <c r="Z83" s="92"/>
+      <c r="Y83" s="85"/>
+      <c r="Z83" s="86"/>
       <c r="AA83" s="52" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="84" spans="21:28">
-      <c r="W84" s="93" t="s">
+      <c r="W84" s="87" t="s">
         <v>729</v>
       </c>
-      <c r="Y84" s="91"/>
-      <c r="Z84" s="92"/>
+      <c r="Y84" s="85"/>
+      <c r="Z84" s="86"/>
       <c r="AA84" s="52" t="s">
         <v>725</v>
       </c>
@@ -39694,10 +39694,10 @@
       <c r="V90" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="X90" s="104" t="s">
+      <c r="X90" s="93" t="s">
         <v>776</v>
       </c>
-      <c r="AB90" s="96" t="s">
+      <c r="AB90" s="88" t="s">
         <v>766</v>
       </c>
     </row>
@@ -39705,41 +39705,41 @@
       <c r="V91" s="52" t="s">
         <v>775</v>
       </c>
-      <c r="X91" s="105"/>
-      <c r="Y91" s="105"/>
+      <c r="X91" s="100"/>
+      <c r="Y91" s="100"/>
     </row>
     <row r="92" spans="21:28">
-      <c r="X92" s="105"/>
-      <c r="Y92" s="105"/>
+      <c r="X92" s="100"/>
+      <c r="Y92" s="100"/>
     </row>
     <row r="93" spans="21:28">
-      <c r="X93" s="105"/>
-      <c r="Y93" s="105"/>
+      <c r="X93" s="100"/>
+      <c r="Y93" s="100"/>
     </row>
     <row r="94" spans="21:28">
       <c r="V94" s="52" t="s">
         <v>747</v>
       </c>
-      <c r="X94" s="104" t="s">
+      <c r="X94" s="93" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="95" spans="21:28">
-      <c r="V95" s="106" t="s">
+      <c r="V95" s="52" t="s">
         <v>772</v>
       </c>
       <c r="X95" s="52" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="96" spans="21:28">
+    <row r="96" spans="21:28" ht="18.600000000000001">
       <c r="V96" s="52" t="s">
         <v>767</v>
       </c>
       <c r="X96" s="82" t="s">
         <v>768</v>
       </c>
-      <c r="AB96" s="111" t="s">
+      <c r="AB96" s="94" t="s">
         <v>769</v>
       </c>
     </row>
@@ -39747,10 +39747,10 @@
       <c r="V100" s="52" t="s">
         <v>790</v>
       </c>
-      <c r="X100" s="108"/>
-      <c r="Y100" s="108"/>
-      <c r="Z100" s="108"/>
-      <c r="AA100" s="108"/>
+      <c r="X100" s="96"/>
+      <c r="Y100" s="96"/>
+      <c r="Z100" s="96"/>
+      <c r="AA100" s="96"/>
       <c r="AC100" s="52" t="s">
         <v>801</v>
       </c>
@@ -39759,51 +39759,82 @@
       <c r="V101" s="52" t="s">
         <v>791</v>
       </c>
-      <c r="X101" s="109"/>
-      <c r="Y101" s="109"/>
-      <c r="Z101" s="109"/>
-      <c r="AA101" s="109"/>
-      <c r="AC101" s="96" t="s">
+      <c r="X101" s="97"/>
+      <c r="Y101" s="97"/>
+      <c r="Z101" s="97"/>
+      <c r="AA101" s="97"/>
+      <c r="AC101" s="88" t="s">
         <v>792</v>
       </c>
-      <c r="AD101" s="96" t="s">
+      <c r="AD101" s="88" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="102" spans="22:30">
-      <c r="X102" s="110"/>
-      <c r="Y102" s="110"/>
-      <c r="Z102" s="110"/>
-      <c r="AA102" s="110"/>
+      <c r="X102" s="98"/>
+      <c r="Y102" s="98"/>
+      <c r="Z102" s="98"/>
+      <c r="AA102" s="98"/>
     </row>
     <row r="103" spans="22:30">
-      <c r="X103" s="108"/>
-      <c r="Y103" s="108"/>
-      <c r="Z103" s="108"/>
-      <c r="AA103" s="108"/>
+      <c r="X103" s="96"/>
+      <c r="Y103" s="96"/>
+      <c r="Z103" s="96"/>
+      <c r="AA103" s="96"/>
     </row>
     <row r="104" spans="22:30">
-      <c r="X104" s="109"/>
-      <c r="Y104" s="109"/>
-      <c r="Z104" s="109"/>
-      <c r="AA104" s="109"/>
+      <c r="X104" s="97"/>
+      <c r="Y104" s="97"/>
+      <c